--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -1,51 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC961A-3ED7-4EF4-8DA1-E034BF3ECBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="9555" yWindow="6660" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#应用效果表" r:id="rId3" sheetId="1"/>
+    <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>effectId
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effectId
 int64</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>baseEffectId
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>baseEffectId
 int64</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>paras
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>paras
 int32</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>paras
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>paras
 int32</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>paras
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>paras
 int32</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>效果编号</t>
   </si>
@@ -68,19 +120,45 @@
   </si>
   <si>
     <t>参数@2</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,7 +167,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -102,35 +180,343 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="13.0" customWidth="true"/>
-    <col min="3" max="3" style="1" width="8.0" customWidth="false"/>
-    <col min="4" max="4" style="1" width="8.0" customWidth="false"/>
-    <col min="5" max="5" style="1" width="8.0" customWidth="false"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -147,9 +533,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC961A-3ED7-4EF4-8DA1-E034BF3ECBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A559A3-05F1-4239-A292-11654CBFBA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="6660" windowWidth="19290" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="5400" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -161,21 +161,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -184,11 +229,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,6 +612,715 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>51000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C4" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>51001</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>51002</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C6" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>51003</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C7" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>51004</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>51100</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C9" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>51101</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C10" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>51102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>51103</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>51200</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C13" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>51201</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C14" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>51202</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C15" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D15" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>51203</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C16" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>51300</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C17" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>51301</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C18" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>51302</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C19" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D19" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>51303</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>51400</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C21" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>51401</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C22" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>51402</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C23" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>51403</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C24" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>51500</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C25" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>51501</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C26" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>51502</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C27" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D27" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>51503</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C28" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>51600</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C29" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>51601</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C30" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>51602</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C31" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D31" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>51603</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C32" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>51700</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C33" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>51701</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C34" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>51702</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C35" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D35" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>51703</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C36" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>51800</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C37" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>51801</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C38" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>51802</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C39" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D39" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>51803</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C40" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>51900</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C41" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>51901</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C42" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>51902</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C43" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D43" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>51903</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C44" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>52000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C45" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>52001</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C46" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>52002</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C47" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D47" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>52003</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C48" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>52100</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C49" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>52101</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C50" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>52102</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C51" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D51" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>52103</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C52" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A559A3-05F1-4239-A292-11654CBFBA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD54C3-3A7B-4281-AC84-8EE6B7AACEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="5400" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="5460" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,6 +163,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -229,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +251,13 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -560,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1321,6 +1335,1468 @@
       <c r="D52" s="5"/>
       <c r="E52" s="2"/>
     </row>
+    <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>510000</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C54" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>510001</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C55" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>510002</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C56" s="4">
+        <v>100</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>510010</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C57" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>510020</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C58" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>510030</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C59" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>510040</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>511000</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C62" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>511001</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C63" s="4">
+        <v>200</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>511002</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C64" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>511003</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C65" s="4">
+        <v>201</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>511004</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C66" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>511010</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C67" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>511020</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C68" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D68" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>511030</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C69" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>512000</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C71" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>512001</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C72" s="4">
+        <v>500</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>512002</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C73" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>512003</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C74" s="4">
+        <v>403</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>512004</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C75" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>512003</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C76" s="4">
+        <v>404</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>512004</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C77" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>512010</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C78" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>512020</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C79" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D79" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>512030</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C80" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>513000</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C82" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>513001</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C83" s="4">
+        <v>601</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>513002</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C84" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>513003</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C85" s="4">
+        <v>502</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>513004</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C86" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>513010</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C87" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>513020</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C88" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D88" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>513030</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C89" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>514000</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C91" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>514001</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C92" s="4">
+        <v>601</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>514002</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C93" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>514010</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C94" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>514020</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C95" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D95" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>514030</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C96" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>515000</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C98" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>515001</v>
+      </c>
+      <c r="B99" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C99" s="4">
+        <v>201</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>515002</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C100" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>515003</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C101" s="4">
+        <v>301</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>515004</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C102" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>515010</v>
+      </c>
+      <c r="B103" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C103" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>515020</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C104" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D104" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C105" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>516000</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C107" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>516001</v>
+      </c>
+      <c r="B108" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C108" s="4">
+        <v>200</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>516002</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C109" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>516003</v>
+      </c>
+      <c r="B110" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C110" s="4">
+        <v>300</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>516004</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C111" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>516010</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C112" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D112" s="5">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>516020</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C113" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D113" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>516030</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C114" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>517000</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C116" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>517001</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C117" s="4">
+        <v>300</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>517002</v>
+      </c>
+      <c r="B118" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C118" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>517003</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C119" s="4">
+        <v>400</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>517004</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C120" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>517005</v>
+      </c>
+      <c r="B121" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C121" s="4">
+        <v>402</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="8"/>
+    </row>
+    <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>517006</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C122" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>517007</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C123" s="4">
+        <v>403</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>517010</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C124" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>517020</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C125" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D125" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>517030</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C126" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>518000</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C128" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>518001</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C129" s="4">
+        <v>301</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>518002</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C130" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>518003</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C131" s="4">
+        <v>400</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>518004</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C132" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>518005</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C133" s="4">
+        <v>401</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>518006</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C134" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>518010</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D135" s="5">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>518020</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C136" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D136" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>518030</v>
+      </c>
+      <c r="B137" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C137" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>519000</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C139" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>519001</v>
+      </c>
+      <c r="B140" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C140" s="4">
+        <v>401</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>519002</v>
+      </c>
+      <c r="B141" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C141" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>519003</v>
+      </c>
+      <c r="B142" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C142" s="4">
+        <v>402</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>519004</v>
+      </c>
+      <c r="B143" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C143" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>519005</v>
+      </c>
+      <c r="B144" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C144" s="4">
+        <v>404</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>519010</v>
+      </c>
+      <c r="B145" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C145" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D145" s="5">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>519020</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C146" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D146" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>519030</v>
+      </c>
+      <c r="B147" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C147" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>520000</v>
+      </c>
+      <c r="B149" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C149" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>520001</v>
+      </c>
+      <c r="B150" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C150" s="4">
+        <v>502</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>520002</v>
+      </c>
+      <c r="B151" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C151" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>520003</v>
+      </c>
+      <c r="B152" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C152" s="4">
+        <v>501</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>520004</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C153" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>520005</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C154" s="4">
+        <v>500</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>520010</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C155" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D155" s="5">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>520020</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C156" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D156" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>520030</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C157" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>521000</v>
+      </c>
+      <c r="B159" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C159" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>521001</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C160" s="4">
+        <v>501</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>521002</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C161" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>521003</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C162" s="4">
+        <v>700</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>521010</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C163" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D163" s="5">
+        <v>3</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>521020</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C164" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D164" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>521030</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C165" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DD54C3-3A7B-4281-AC84-8EE6B7AACEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D149B4-AA9A-4A65-B2A5-74BA81808148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="5460" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13185" yWindow="5280" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2797,6 +2797,58 @@
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
+    <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>516100</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C167" s="4">
+        <v>116100</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>516110</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C168" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>516120</v>
+      </c>
+      <c r="B169" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C169" s="4">
+        <v>116120</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>516130</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C170" s="4">
+        <v>116130</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D149B4-AA9A-4A65-B2A5-74BA81808148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46ED800-0378-4FF3-B710-DC3695F742AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="5280" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="3885" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>效果编号</t>
   </si>
@@ -122,23 +122,7 @@
     <t>参数@2</t>
   </si>
   <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-100</t>
+    <t>通用效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -174,8 +158,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +255,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I174" sqref="I174"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,513 +605,463 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="2">
+        <v>500010</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C3" s="4">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>51000</v>
+        <v>500020</v>
       </c>
       <c r="B4" s="3">
-        <v>5102</v>
+        <v>5013</v>
       </c>
       <c r="C4" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
+        <v>100200</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>51001</v>
+        <v>500030</v>
       </c>
       <c r="B5" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C5" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
+        <v>100300</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>51002</v>
+        <v>500031</v>
       </c>
       <c r="B6" s="3">
-        <v>5123</v>
+        <v>5013</v>
       </c>
       <c r="C6" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>61000</v>
-      </c>
+        <v>100310</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>51003</v>
+        <v>500032</v>
       </c>
       <c r="B7" s="3">
-        <v>5117</v>
+        <v>5013</v>
       </c>
       <c r="C7" s="4">
-        <v>60000</v>
+        <v>100320</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>51004</v>
+        <v>500033</v>
       </c>
       <c r="B8" s="3">
         <v>5006</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>51100</v>
+        <v>500040</v>
       </c>
       <c r="B9" s="3">
-        <v>5102</v>
+        <v>5013</v>
       </c>
       <c r="C9" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
+        <v>100400</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>51101</v>
+        <v>500050</v>
       </c>
       <c r="B10" s="3">
-        <v>5108</v>
+        <v>5500</v>
       </c>
       <c r="C10" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>51102</v>
+        <v>500060</v>
       </c>
       <c r="B11" s="3">
-        <v>5123</v>
+        <v>5500</v>
       </c>
       <c r="C11" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>61000</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>51103</v>
+        <v>500070</v>
       </c>
       <c r="B12" s="3">
-        <v>5117</v>
+        <v>5500</v>
       </c>
       <c r="C12" s="4">
-        <v>60001</v>
+        <v>200</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>51200</v>
+        <v>500071</v>
       </c>
       <c r="B13" s="3">
-        <v>5102</v>
+        <v>5003</v>
       </c>
       <c r="C13" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>51201</v>
+        <v>500072</v>
       </c>
       <c r="B14" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C14" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>51202</v>
+        <v>500073</v>
       </c>
       <c r="B15" s="3">
-        <v>5123</v>
+        <v>5000</v>
       </c>
       <c r="C15" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D15" s="5">
-        <v>61000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>51203</v>
+        <v>500074</v>
       </c>
       <c r="B16" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C16" s="4">
-        <v>60002</v>
+        <v>101</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>51300</v>
+        <v>500075</v>
       </c>
       <c r="B17" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C17" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>51301</v>
+        <v>500076</v>
       </c>
       <c r="B18" s="3">
-        <v>5108</v>
+        <v>5300</v>
       </c>
       <c r="C18" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>60002</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>51302</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C19" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D19" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>51303</v>
+        <v>510000</v>
       </c>
       <c r="B20" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C20" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>51400</v>
+        <v>510001</v>
       </c>
       <c r="B21" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C21" s="4">
         <v>60004</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>51401</v>
+        <v>510002</v>
       </c>
       <c r="B22" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C22" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>51402</v>
+        <v>510010</v>
       </c>
       <c r="B23" s="3">
-        <v>5123</v>
+        <v>5108</v>
       </c>
       <c r="C23" s="4">
-        <v>60004</v>
+        <v>60000</v>
       </c>
       <c r="D23" s="5">
-        <v>61000</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>51403</v>
+        <v>510020</v>
       </c>
       <c r="B24" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C24" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>61000</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>51500</v>
+        <v>510030</v>
       </c>
       <c r="B25" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C25" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>51501</v>
+        <v>510040</v>
       </c>
       <c r="B26" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C26" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>51502</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C27" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D27" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>51503</v>
+        <v>511000</v>
       </c>
       <c r="B28" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C28" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>60001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>51600</v>
+        <v>511001</v>
       </c>
       <c r="B29" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C29" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>51601</v>
+        <v>511002</v>
       </c>
       <c r="B30" s="3">
-        <v>5108</v>
+        <v>5300</v>
       </c>
       <c r="C30" s="4">
         <v>60006</v>
       </c>
-      <c r="D30" s="5">
-        <v>3</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>51602</v>
+        <v>511003</v>
       </c>
       <c r="B31" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C31" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D31" s="5">
-        <v>61000</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>51603</v>
+        <v>511004</v>
       </c>
       <c r="B32" s="3">
-        <v>5117</v>
+        <v>5300</v>
       </c>
       <c r="C32" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>51700</v>
+        <v>511010</v>
       </c>
       <c r="B33" s="3">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="C33" s="4">
-        <v>60007</v>
+        <v>60001</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>51701</v>
+        <v>511020</v>
       </c>
       <c r="B34" s="3">
-        <v>5108</v>
+        <v>5123</v>
       </c>
       <c r="C34" s="4">
-        <v>60007</v>
+        <v>60001</v>
       </c>
       <c r="D34" s="5">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>51702</v>
+        <v>511030</v>
       </c>
       <c r="B35" s="3">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="C35" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D35" s="5">
-        <v>61000</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>51703</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C36" s="4">
-        <v>60007</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>51800</v>
+        <v>512000</v>
       </c>
       <c r="B37" s="3">
         <v>5102</v>
       </c>
       <c r="C37" s="4">
-        <v>60008</v>
+        <v>60002</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1120,369 +1070,358 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>51801</v>
+        <v>512001</v>
       </c>
       <c r="B38" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C38" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>51802</v>
+        <v>512002</v>
       </c>
       <c r="B39" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C39" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D39" s="5">
-        <v>61000</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>51803</v>
+        <v>512003</v>
       </c>
       <c r="B40" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C40" s="4">
-        <v>60008</v>
+        <v>403</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>51900</v>
+        <v>512004</v>
       </c>
       <c r="B41" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C41" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>51901</v>
+        <v>512003</v>
       </c>
       <c r="B42" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C42" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>51902</v>
+        <v>512004</v>
       </c>
       <c r="B43" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C43" s="4">
         <v>60009</v>
       </c>
-      <c r="D43" s="5">
-        <v>61000</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>51903</v>
+        <v>512010</v>
       </c>
       <c r="B44" s="3">
-        <v>5117</v>
+        <v>5108</v>
       </c>
       <c r="C44" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>52000</v>
+        <v>512020</v>
       </c>
       <c r="B45" s="3">
-        <v>5102</v>
+        <v>5123</v>
       </c>
       <c r="C45" s="4">
-        <v>60010</v>
+        <v>60002</v>
       </c>
       <c r="D45" s="5">
-        <v>1</v>
+        <v>61000</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>52001</v>
+        <v>512030</v>
       </c>
       <c r="B46" s="3">
-        <v>5108</v>
+        <v>5117</v>
       </c>
       <c r="C46" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3</v>
-      </c>
+        <v>60002</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>52002</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C47" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D47" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>52003</v>
+        <v>513000</v>
       </c>
       <c r="B48" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C48" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>52100</v>
+        <v>513001</v>
       </c>
       <c r="B49" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C49" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>52101</v>
+        <v>513002</v>
       </c>
       <c r="B50" s="3">
-        <v>5108</v>
+        <v>5300</v>
       </c>
       <c r="C50" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D50" s="5">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>60004</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>52102</v>
+        <v>513003</v>
       </c>
       <c r="B51" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C51" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D51" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>52103</v>
+        <v>513004</v>
       </c>
       <c r="B52" s="3">
-        <v>5117</v>
+        <v>5300</v>
       </c>
       <c r="C52" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>513010</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C53" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>510000</v>
+        <v>513020</v>
       </c>
       <c r="B54" s="3">
-        <v>5102</v>
+        <v>5123</v>
       </c>
       <c r="C54" s="4">
-        <v>60000</v>
+        <v>60003</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>61000</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>510001</v>
+        <v>513030</v>
       </c>
       <c r="B55" s="3">
-        <v>5300</v>
+        <v>5117</v>
       </c>
       <c r="C55" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>510002</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C56" s="4">
-        <v>100</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>510010</v>
+        <v>514000</v>
       </c>
       <c r="B57" s="3">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="C57" s="4">
-        <v>60000</v>
+        <v>60004</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>510020</v>
+        <v>514001</v>
       </c>
       <c r="B58" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C58" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D58" s="5">
-        <v>61000</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>510030</v>
+        <v>514002</v>
       </c>
       <c r="B59" s="3">
-        <v>5117</v>
+        <v>5300</v>
       </c>
       <c r="C59" s="4">
-        <v>60000</v>
+        <v>60003</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>510040</v>
+        <v>514010</v>
       </c>
       <c r="B60" s="3">
-        <v>5006</v>
+        <v>5108</v>
       </c>
       <c r="C60" s="4">
-        <v>10</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>60004</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="2">
+        <v>514020</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C61" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D61" s="5">
+        <v>61000</v>
+      </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>511000</v>
+        <v>514030</v>
       </c>
       <c r="B62" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C62" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>511001</v>
-      </c>
-      <c r="B63" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C63" s="4">
-        <v>200</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>511002</v>
+        <v>515000</v>
       </c>
       <c r="B64" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C64" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>511003</v>
+        <v>515001</v>
       </c>
       <c r="B65" s="3">
         <v>5301</v>
@@ -1490,174 +1429,174 @@
       <c r="C65" s="4">
         <v>201</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>511004</v>
+        <v>515002</v>
       </c>
       <c r="B66" s="3">
         <v>5300</v>
       </c>
       <c r="C66" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="2"/>
+        <v>60001</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>511010</v>
+        <v>515003</v>
       </c>
       <c r="B67" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C67" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D67" s="5">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>511020</v>
+        <v>515004</v>
       </c>
       <c r="B68" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C68" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D68" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>60008</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>511030</v>
+        <v>515010</v>
       </c>
       <c r="B69" s="3">
-        <v>5117</v>
+        <v>5108</v>
       </c>
       <c r="C69" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="2">
+        <v>515020</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C70" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D70" s="5">
+        <v>61000</v>
+      </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>512000</v>
+        <v>515030</v>
       </c>
       <c r="B71" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C71" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>512001</v>
-      </c>
-      <c r="B72" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C72" s="4">
-        <v>500</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>512002</v>
+        <v>516000</v>
       </c>
       <c r="B73" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C73" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D73" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>512003</v>
+        <v>516001</v>
       </c>
       <c r="B74" s="3">
         <v>5301</v>
       </c>
       <c r="C74" s="4">
-        <v>403</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>512004</v>
+        <v>516002</v>
       </c>
       <c r="B75" s="3">
         <v>5300</v>
       </c>
       <c r="C75" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="2"/>
+        <v>60001</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>512003</v>
+        <v>516003</v>
       </c>
       <c r="B76" s="3">
         <v>5301</v>
       </c>
       <c r="C76" s="4">
-        <v>404</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>512004</v>
+        <v>516004</v>
       </c>
       <c r="B77" s="3">
         <v>5300</v>
       </c>
       <c r="C77" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="2"/>
+        <v>60007</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>512010</v>
+        <v>516010</v>
       </c>
       <c r="B78" s="3">
         <v>5108</v>
       </c>
       <c r="C78" s="4">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
@@ -1666,13 +1605,13 @@
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>512020</v>
+        <v>516020</v>
       </c>
       <c r="B79" s="3">
         <v>5123</v>
       </c>
       <c r="C79" s="4">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D79" s="5">
         <v>61000</v>
@@ -1681,13 +1620,13 @@
     </row>
     <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>512030</v>
+        <v>516030</v>
       </c>
       <c r="B80" s="3">
         <v>5117</v>
       </c>
       <c r="C80" s="4">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="2"/>
@@ -1701,13 +1640,13 @@
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>513000</v>
+        <v>517000</v>
       </c>
       <c r="B82" s="3">
         <v>5102</v>
       </c>
       <c r="C82" s="4">
-        <v>60003</v>
+        <v>60007</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -1716,1138 +1655,4460 @@
     </row>
     <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>513001</v>
+        <v>517001</v>
       </c>
       <c r="B83" s="3">
         <v>5301</v>
       </c>
       <c r="C83" s="4">
-        <v>601</v>
+        <v>300</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>513002</v>
+        <v>517002</v>
       </c>
       <c r="B84" s="3">
         <v>5300</v>
       </c>
       <c r="C84" s="4">
-        <v>60004</v>
+        <v>60006</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>513003</v>
+        <v>517003</v>
       </c>
       <c r="B85" s="3">
         <v>5301</v>
       </c>
       <c r="C85" s="4">
-        <v>502</v>
+        <v>400</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>513004</v>
+        <v>517004</v>
       </c>
       <c r="B86" s="3">
         <v>5300</v>
       </c>
       <c r="C86" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>513010</v>
+        <v>517005</v>
       </c>
       <c r="B87" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C87" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D87" s="5">
-        <v>3</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>513020</v>
+        <v>517006</v>
       </c>
       <c r="B88" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C88" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D88" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>60009</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>513030</v>
+        <v>517007</v>
       </c>
       <c r="B89" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C89" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5"/>
+      <c r="A90" s="2">
+        <v>517010</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C90" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>514000</v>
+        <v>517020</v>
       </c>
       <c r="B91" s="3">
-        <v>5102</v>
+        <v>5123</v>
       </c>
       <c r="C91" s="4">
-        <v>60004</v>
+        <v>60007</v>
       </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>61000</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>514001</v>
+        <v>517030</v>
       </c>
       <c r="B92" s="3">
-        <v>5301</v>
+        <v>5117</v>
       </c>
       <c r="C92" s="4">
-        <v>601</v>
+        <v>60007</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>514002</v>
-      </c>
-      <c r="B93" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C93" s="4">
-        <v>60003</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>514010</v>
+        <v>518000</v>
       </c>
       <c r="B94" s="3">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="C94" s="4">
-        <v>60004</v>
+        <v>60008</v>
       </c>
       <c r="D94" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>514020</v>
+        <v>518001</v>
       </c>
       <c r="B95" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C95" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D95" s="5">
-        <v>61000</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>514030</v>
+        <v>518002</v>
       </c>
       <c r="B96" s="3">
-        <v>5117</v>
+        <v>5300</v>
       </c>
       <c r="C96" s="4">
-        <v>60004</v>
+        <v>60005</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="2">
+        <v>518003</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C97" s="4">
+        <v>400</v>
+      </c>
       <c r="D97" s="5"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>515000</v>
+        <v>518004</v>
       </c>
       <c r="B98" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C98" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>515001</v>
+        <v>518005</v>
       </c>
       <c r="B99" s="3">
         <v>5301</v>
       </c>
       <c r="C99" s="4">
-        <v>201</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="8"/>
+        <v>401</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>515002</v>
+        <v>518006</v>
       </c>
       <c r="B100" s="3">
         <v>5300</v>
       </c>
       <c r="C100" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="8"/>
+        <v>60009</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>515003</v>
+        <v>518010</v>
       </c>
       <c r="B101" s="3">
-        <v>5301</v>
+        <v>5108</v>
       </c>
       <c r="C101" s="4">
-        <v>301</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="8"/>
+        <v>60008</v>
+      </c>
+      <c r="D101" s="5">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>515004</v>
+        <v>518020</v>
       </c>
       <c r="B102" s="3">
-        <v>5300</v>
+        <v>5123</v>
       </c>
       <c r="C102" s="4">
         <v>60008</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>515010</v>
+        <v>518030</v>
       </c>
       <c r="B103" s="3">
-        <v>5108</v>
+        <v>5117</v>
       </c>
       <c r="C103" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D103" s="5">
-        <v>3</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>515020</v>
-      </c>
-      <c r="B104" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C104" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D104" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>515030</v>
+        <v>519000</v>
       </c>
       <c r="B105" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C105" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D105" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="2">
+        <v>519001</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C106" s="4">
+        <v>401</v>
+      </c>
       <c r="D106" s="5"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>516000</v>
+        <v>519002</v>
       </c>
       <c r="B107" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C107" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D107" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>516001</v>
+        <v>519003</v>
       </c>
       <c r="B108" s="3">
         <v>5301</v>
       </c>
       <c r="C108" s="4">
-        <v>200</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
+        <v>402</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>516002</v>
+        <v>519004</v>
       </c>
       <c r="B109" s="3">
         <v>5300</v>
       </c>
       <c r="C109" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
+        <v>60007</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>516003</v>
+        <v>519005</v>
       </c>
       <c r="B110" s="3">
         <v>5301</v>
       </c>
       <c r="C110" s="4">
-        <v>300</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="8"/>
+        <v>404</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>516004</v>
+        <v>519010</v>
       </c>
       <c r="B111" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C111" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="8"/>
+        <v>60009</v>
+      </c>
+      <c r="D111" s="5">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>516010</v>
+        <v>519020</v>
       </c>
       <c r="B112" s="3">
-        <v>5108</v>
+        <v>5123</v>
       </c>
       <c r="C112" s="4">
-        <v>60006</v>
+        <v>60009</v>
       </c>
       <c r="D112" s="5">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>516020</v>
+        <v>519030</v>
       </c>
       <c r="B113" s="3">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="C113" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D113" s="5">
-        <v>61000</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>516030</v>
-      </c>
-      <c r="B114" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C114" s="4">
-        <v>60006</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="5"/>
+      <c r="A115" s="2">
+        <v>520000</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C115" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1</v>
+      </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>517000</v>
+        <v>520001</v>
       </c>
       <c r="B116" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C116" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>517001</v>
+        <v>520002</v>
       </c>
       <c r="B117" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C117" s="4">
-        <v>300</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="8"/>
+        <v>60002</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>517002</v>
+        <v>520003</v>
       </c>
       <c r="B118" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C118" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="8"/>
+        <v>501</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>517003</v>
+        <v>520004</v>
       </c>
       <c r="B119" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C119" s="4">
-        <v>400</v>
-      </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="8"/>
+        <v>60011</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>517004</v>
+        <v>520005</v>
       </c>
       <c r="B120" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C120" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="8"/>
+        <v>500</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>517005</v>
+        <v>520010</v>
       </c>
       <c r="B121" s="3">
-        <v>5301</v>
+        <v>5108</v>
       </c>
       <c r="C121" s="4">
-        <v>402</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="8"/>
+        <v>60010</v>
+      </c>
+      <c r="D121" s="5">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>517006</v>
+        <v>520020</v>
       </c>
       <c r="B122" s="3">
-        <v>5300</v>
+        <v>5123</v>
       </c>
       <c r="C122" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="8"/>
+        <v>60010</v>
+      </c>
+      <c r="D122" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>517007</v>
+        <v>520030</v>
       </c>
       <c r="B123" s="3">
-        <v>5301</v>
+        <v>5117</v>
       </c>
       <c r="C123" s="4">
-        <v>403</v>
-      </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="8"/>
+        <v>60010</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>517010</v>
-      </c>
-      <c r="B124" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C124" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D124" s="5">
-        <v>3</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>517020</v>
+        <v>521000</v>
       </c>
       <c r="B125" s="3">
-        <v>5123</v>
+        <v>5102</v>
       </c>
       <c r="C125" s="4">
-        <v>60007</v>
+        <v>60011</v>
       </c>
       <c r="D125" s="5">
-        <v>61000</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>517030</v>
+        <v>521001</v>
       </c>
       <c r="B126" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C126" s="4">
-        <v>60007</v>
+        <v>501</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="4"/>
+      <c r="A127" s="2">
+        <v>521002</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C127" s="4">
+        <v>60010</v>
+      </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>518000</v>
+        <v>521003</v>
       </c>
       <c r="B128" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C128" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D128" s="5">
-        <v>1</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>518001</v>
+        <v>521010</v>
       </c>
       <c r="B129" s="3">
-        <v>5301</v>
+        <v>5108</v>
       </c>
       <c r="C129" s="4">
-        <v>301</v>
-      </c>
-      <c r="D129" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D129" s="5">
+        <v>3</v>
+      </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>518002</v>
+        <v>521020</v>
       </c>
       <c r="B130" s="3">
-        <v>5300</v>
+        <v>5123</v>
       </c>
       <c r="C130" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D130" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D130" s="5">
+        <v>61000</v>
+      </c>
       <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>518003</v>
+        <v>521030</v>
       </c>
       <c r="B131" s="3">
-        <v>5301</v>
+        <v>5117</v>
       </c>
       <c r="C131" s="4">
-        <v>400</v>
+        <v>60011</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>518004</v>
-      </c>
-      <c r="B132" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C132" s="4">
-        <v>60007</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>518005</v>
-      </c>
-      <c r="B133" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C133" s="4">
-        <v>401</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>518006</v>
-      </c>
-      <c r="B134" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C134" s="4">
-        <v>60009</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>518010</v>
-      </c>
-      <c r="B135" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C135" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D135" s="5">
-        <v>3</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>518020</v>
-      </c>
-      <c r="B136" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C136" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D136" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>518030</v>
-      </c>
-      <c r="B137" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C137" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="2"/>
-    </row>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="2">
+        <v>500100</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>519000</v>
+        <v>500110</v>
       </c>
       <c r="B139" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C139" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D139" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>519001</v>
+        <v>500120</v>
       </c>
       <c r="B140" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C140" s="4">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>519002</v>
+        <v>500130</v>
       </c>
       <c r="B141" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C141" s="4">
-        <v>60008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>519003</v>
+        <v>500140</v>
       </c>
       <c r="B142" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C142" s="4">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>519004</v>
+        <v>500150</v>
       </c>
       <c r="B143" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C143" s="4">
-        <v>60007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>519005</v>
+        <v>500160</v>
       </c>
       <c r="B144" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C144" s="4">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>519010</v>
+        <v>500170</v>
       </c>
       <c r="B145" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C145" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D145" s="5">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>519020</v>
+        <v>500180</v>
       </c>
       <c r="B146" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C146" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D146" s="5">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>519030</v>
-      </c>
-      <c r="B147" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C147" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="2"/>
-    </row>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="2">
+        <v>500200</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>520000</v>
+        <v>500210</v>
       </c>
       <c r="B149" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C149" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D149" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>520001</v>
+        <v>500220</v>
       </c>
       <c r="B150" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C150" s="4">
-        <v>502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>520002</v>
+        <v>500230</v>
       </c>
       <c r="B151" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C151" s="4">
-        <v>60002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>520003</v>
+        <v>500240</v>
       </c>
       <c r="B152" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C152" s="4">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
     </row>
     <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>520004</v>
+        <v>500250</v>
       </c>
       <c r="B153" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C153" s="4">
-        <v>60011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>520005</v>
+        <v>500260</v>
       </c>
       <c r="B154" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C154" s="4">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>520010</v>
+        <v>500270</v>
       </c>
       <c r="B155" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C155" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D155" s="5">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>520020</v>
+        <v>500280</v>
       </c>
       <c r="B156" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C156" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D156" s="5">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>520030</v>
+        <v>500290</v>
       </c>
       <c r="B157" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C157" s="4">
-        <v>60010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="2">
+        <v>500300</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>521000</v>
+        <v>500310</v>
       </c>
       <c r="B159" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C159" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D159" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>521001</v>
+        <v>500320</v>
       </c>
       <c r="B160" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C160" s="4">
-        <v>501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>521002</v>
+        <v>500330</v>
       </c>
       <c r="B161" s="3">
-        <v>5300</v>
-      </c>
-      <c r="C161" s="4">
-        <v>60010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>521003</v>
+        <v>500340</v>
       </c>
       <c r="B162" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C162" s="4">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>521010</v>
+        <v>500350</v>
       </c>
       <c r="B163" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C163" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D163" s="5">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>521020</v>
-      </c>
-      <c r="B164" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C164" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D164" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>521030</v>
+        <v>501000</v>
       </c>
       <c r="B165" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C165" s="4">
-        <v>60011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
+    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>501010</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="2"/>
+    </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>516100</v>
+        <v>501020</v>
       </c>
       <c r="B167" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C167" s="4">
-        <v>116100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>516110</v>
+        <v>501030</v>
       </c>
       <c r="B168" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C168" s="4">
-        <v>116110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>516120</v>
+        <v>501040</v>
       </c>
       <c r="B169" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C169" s="4">
-        <v>116120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>516130</v>
+        <v>501050</v>
       </c>
       <c r="B170" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C170" s="4">
-        <v>116130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>502000</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>502010</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>502020</v>
+      </c>
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>502030</v>
+      </c>
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>503000</v>
+      </c>
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>503010</v>
+      </c>
+      <c r="B178" s="3">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>503020</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>503030</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>503040</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>503100</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>503110</v>
+      </c>
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>503120</v>
+      </c>
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>503130</v>
+      </c>
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>503140</v>
+      </c>
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>503150</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>503160</v>
+      </c>
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>503170</v>
+      </c>
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>503180</v>
+      </c>
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>503190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>503200</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>503210</v>
+      </c>
+      <c r="B193" s="3">
+        <v>0</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>503220</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>503300</v>
+      </c>
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>503310</v>
+      </c>
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>503320</v>
+      </c>
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>503330</v>
+      </c>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>503340</v>
+      </c>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>503350</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>503360</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>503370</v>
+      </c>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>503380</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>503390</v>
+      </c>
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>503400</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>503410</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>503500</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>503510</v>
+      </c>
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>503520</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>503530</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>503540</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>503550</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>503560</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>503570</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>503580</v>
+      </c>
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>503590</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>503600</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>503610</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="4"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>503700</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>503710</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>503720</v>
+      </c>
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>503730</v>
+      </c>
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>503740</v>
+      </c>
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>503750</v>
+      </c>
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>503760</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>503770</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>503780</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>503790</v>
+      </c>
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+      <c r="C229" s="4"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>503800</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>503810</v>
+      </c>
+      <c r="B231" s="3">
+        <v>0</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>503900</v>
+      </c>
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+      <c r="C232" s="4"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>503910</v>
+      </c>
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>503920</v>
+      </c>
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>504000</v>
+      </c>
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+      <c r="C236" s="4"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>504010</v>
+      </c>
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+      <c r="C237" s="4"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>504020</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+      <c r="C238" s="4"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>504030</v>
+      </c>
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+      <c r="C239" s="4"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>504040</v>
+      </c>
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>504050</v>
+      </c>
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>504060</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>504070</v>
+      </c>
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>504080</v>
+      </c>
+      <c r="B244" s="3">
+        <v>0</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>504090</v>
+      </c>
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>504100</v>
+      </c>
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>504110</v>
+      </c>
+      <c r="B247" s="3">
+        <v>0</v>
+      </c>
+      <c r="C247" s="4"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>504120</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+      <c r="C248" s="4"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>504130</v>
+      </c>
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>504200</v>
+      </c>
+      <c r="B250" s="3">
+        <v>0</v>
+      </c>
+      <c r="C250" s="4"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>504210</v>
+      </c>
+      <c r="B251" s="3">
+        <v>0</v>
+      </c>
+      <c r="C251" s="4"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>504220</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C252" s="4"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>504230</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+      <c r="C253" s="4"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>509000</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>509010</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>509020</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C257" s="4"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>509030</v>
+      </c>
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+      <c r="C258" s="4"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="6"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>510100</v>
+      </c>
+      <c r="B260" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C260" s="4">
+        <v>10</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>510101</v>
+      </c>
+      <c r="B261" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C261" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>510102</v>
+      </c>
+      <c r="B262" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C262" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>510101</v>
+      </c>
+      <c r="B263" s="3">
+        <v>5021</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>510110</v>
+      </c>
+      <c r="B264" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C264" s="4">
+        <v>10</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>510120</v>
+      </c>
+      <c r="B265" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C265" s="4">
+        <v>10</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B267" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C267" s="4">
+        <v>61002</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>511061</v>
+      </c>
+      <c r="B268" s="3">
+        <v>5119</v>
+      </c>
+      <c r="C268" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D268" s="5">
+        <v>61002</v>
+      </c>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="6"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>512100</v>
+      </c>
+      <c r="B270" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C270" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>512110</v>
+      </c>
+      <c r="B271" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C271" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>512111</v>
+      </c>
+      <c r="B272" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C272" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>512120</v>
+      </c>
+      <c r="B273" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C273" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>512130</v>
+      </c>
+      <c r="B274" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C274" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B275" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C275" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>513100</v>
+      </c>
+      <c r="B277" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C277" s="4">
+        <v>113100</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>513110</v>
+      </c>
+      <c r="B278" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C278" s="4">
+        <v>113110</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>513120</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C279" s="4">
+        <v>113120</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>513130</v>
+      </c>
+      <c r="B280" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C280" s="4">
+        <v>113130</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>513140</v>
+      </c>
+      <c r="B281" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C281" s="4">
+        <v>113140</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>513150</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C282" s="4">
+        <v>113150</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>513160</v>
+      </c>
+      <c r="B283" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C283" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>513161</v>
+      </c>
+      <c r="B284" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C284" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D284" s="5">
+        <v>-5</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>513200</v>
+      </c>
+      <c r="B285" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C285" s="4">
+        <v>113200</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>513210</v>
+      </c>
+      <c r="B286" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C286" s="4">
+        <v>113210</v>
+      </c>
+      <c r="D286" s="5"/>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>513220</v>
+      </c>
+      <c r="B287" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C287" s="4">
+        <v>113220</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B288" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C288" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>513231</v>
+      </c>
+      <c r="B289" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C289" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D289" s="5">
+        <v>-5</v>
+      </c>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>515100</v>
+      </c>
+      <c r="B291" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C291" s="4">
+        <v>115100</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>515101</v>
+      </c>
+      <c r="B292" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C292" s="4">
+        <v>10</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>515102</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C293" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>515103</v>
+      </c>
+      <c r="B294" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C294" s="4">
+        <v>115101</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="2"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>515104</v>
+      </c>
+      <c r="B295" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C295" s="4">
+        <v>115102</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>515110</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C296" s="4">
+        <v>115110</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>515111</v>
+      </c>
+      <c r="B297" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C297" s="4">
+        <v>20</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>515112</v>
+      </c>
+      <c r="B298" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C298" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>515113</v>
+      </c>
+      <c r="B299" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C299" s="4">
+        <v>115111</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>515114</v>
+      </c>
+      <c r="B300" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C300" s="4">
+        <v>115112</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>515120</v>
+      </c>
+      <c r="B301" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C301" s="4">
+        <v>115120</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>515121</v>
+      </c>
+      <c r="B302" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C302" s="4">
+        <v>2</v>
+      </c>
+      <c r="D302" s="5"/>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>515122</v>
+      </c>
+      <c r="B303" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C303" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D303" s="5"/>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>515130</v>
+      </c>
+      <c r="B304" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C304" s="4">
+        <v>115120</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>515131</v>
+      </c>
+      <c r="B305" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C305" s="4">
+        <v>5</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>515132</v>
+      </c>
+      <c r="B306" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C306" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>515140</v>
+      </c>
+      <c r="B307" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C307" s="4">
+        <v>30</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>515150</v>
+      </c>
+      <c r="B308" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C308" s="4">
+        <v>115150</v>
+      </c>
+      <c r="D308" s="5"/>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>515160</v>
+      </c>
+      <c r="B309" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C309" s="4">
+        <v>115160</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>515170</v>
+      </c>
+      <c r="B310" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C310" s="4">
+        <v>115170</v>
+      </c>
+      <c r="D310" s="5"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>515171</v>
+      </c>
+      <c r="B311" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C311" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D311" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>515180</v>
+      </c>
+      <c r="B312" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C312" s="4">
+        <v>115180</v>
+      </c>
+      <c r="D312" s="5"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>515181</v>
+      </c>
+      <c r="B313" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C313" s="4">
+        <v>8</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>516100</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C315" s="4">
+        <v>116100</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>516101</v>
+      </c>
+      <c r="B316" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C316" s="4">
+        <v>10</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>516102</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C317" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>516103</v>
+      </c>
+      <c r="B318" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C318" s="4">
+        <v>116101</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>516104</v>
+      </c>
+      <c r="B319" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C319" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>516105</v>
+      </c>
+      <c r="B320" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C320" s="4">
+        <v>5</v>
+      </c>
+      <c r="D320" s="5"/>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>516110</v>
+      </c>
+      <c r="B321" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C321" s="4">
+        <v>116110</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>516120</v>
+      </c>
+      <c r="B322" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C322" s="4">
+        <v>116120</v>
+      </c>
+      <c r="D322" s="5"/>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>516121</v>
+      </c>
+      <c r="B323" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C323" s="4">
+        <v>116120</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>516130</v>
+      </c>
+      <c r="B324" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C324" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D324" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B325" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C325" s="4">
+        <v>3</v>
+      </c>
+      <c r="D325" s="5"/>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>516132</v>
+      </c>
+      <c r="B326" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C326" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D326" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="6"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>517100</v>
+      </c>
+      <c r="B328" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C328" s="4">
+        <v>117100</v>
+      </c>
+      <c r="D328" s="5"/>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>517110</v>
+      </c>
+      <c r="B329" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C329" s="4">
+        <v>117110</v>
+      </c>
+      <c r="D329" s="5"/>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>517120</v>
+      </c>
+      <c r="B330" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C330" s="4">
+        <v>117120</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>517121</v>
+      </c>
+      <c r="B331" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C331" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D331" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>517122</v>
+      </c>
+      <c r="B332" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C332" s="4">
+        <v>5</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>517130</v>
+      </c>
+      <c r="B333" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C333" s="4">
+        <v>117130</v>
+      </c>
+      <c r="D333" s="5"/>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>517140</v>
+      </c>
+      <c r="B334" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C334" s="4">
+        <v>117140</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>517150</v>
+      </c>
+      <c r="B335" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C335" s="4">
+        <v>117150</v>
+      </c>
+      <c r="D335" s="5"/>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>517151</v>
+      </c>
+      <c r="B336" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C336" s="4">
+        <v>20</v>
+      </c>
+      <c r="D336" s="5"/>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>517152</v>
+      </c>
+      <c r="B337" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C337" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D337" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>517153</v>
+      </c>
+      <c r="B338" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C338" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D338" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>517154</v>
+      </c>
+      <c r="B339" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C339" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D339" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>518100</v>
+      </c>
+      <c r="B341" s="3">
+        <v>0</v>
+      </c>
+      <c r="C341" s="4"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>518110</v>
+      </c>
+      <c r="B342" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C342" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D342" s="5"/>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>518111</v>
+      </c>
+      <c r="B343" s="3">
+        <v>0</v>
+      </c>
+      <c r="C343" s="4"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>518112</v>
+      </c>
+      <c r="B344" s="3">
+        <v>0</v>
+      </c>
+      <c r="C344" s="4"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>518113</v>
+      </c>
+      <c r="B345" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C345" s="4">
+        <v>118110</v>
+      </c>
+      <c r="D345" s="5"/>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>518114</v>
+      </c>
+      <c r="B346" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C346" s="4">
+        <v>118111</v>
+      </c>
+      <c r="D346" s="5"/>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>518115</v>
+      </c>
+      <c r="B347" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C347" s="4">
+        <v>118112</v>
+      </c>
+      <c r="D347" s="5"/>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>518116</v>
+      </c>
+      <c r="B348" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C348" s="4">
+        <v>5</v>
+      </c>
+      <c r="D348" s="5"/>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>519100</v>
+      </c>
+      <c r="B350" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C350" s="4">
+        <v>119100</v>
+      </c>
+      <c r="D350" s="5"/>
+      <c r="E350" s="2"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>519101</v>
+      </c>
+      <c r="B351" s="3">
+        <v>0</v>
+      </c>
+      <c r="C351" s="4"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="2"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>519102</v>
+      </c>
+      <c r="B352" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C352" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>519110</v>
+      </c>
+      <c r="B353" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C353" s="4">
+        <v>191100</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="2"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>519111</v>
+      </c>
+      <c r="B354" s="3">
+        <v>0</v>
+      </c>
+      <c r="C354" s="4"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>519112</v>
+      </c>
+      <c r="B355" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C355" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>519120</v>
+      </c>
+      <c r="B356" s="3">
+        <v>0</v>
+      </c>
+      <c r="C356" s="4"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>519121</v>
+      </c>
+      <c r="B357" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C357" s="4">
+        <v>191200</v>
+      </c>
+      <c r="D357" s="5"/>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>519122</v>
+      </c>
+      <c r="B358" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C358" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D358" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>519123</v>
+      </c>
+      <c r="B359" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C359" s="4">
+        <v>10</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>519130</v>
+      </c>
+      <c r="B360" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C360" s="4">
+        <v>5</v>
+      </c>
+      <c r="D360" s="5"/>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>519131</v>
+      </c>
+      <c r="B361" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C361" s="4">
+        <v>119130</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>519140</v>
+      </c>
+      <c r="B362" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C362" s="4">
+        <v>5</v>
+      </c>
+      <c r="D362" s="5"/>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>519141</v>
+      </c>
+      <c r="B363" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C363" s="4">
+        <v>119140</v>
+      </c>
+      <c r="D363" s="5"/>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>519150</v>
+      </c>
+      <c r="B364" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C364" s="4">
+        <v>5</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>519151</v>
+      </c>
+      <c r="B365" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C365" s="4">
+        <v>119150</v>
+      </c>
+      <c r="D365" s="5"/>
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="6"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>520100</v>
+      </c>
+      <c r="B367" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C367" s="4">
+        <v>120000</v>
+      </c>
+      <c r="D367" s="5"/>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>520110</v>
+      </c>
+      <c r="B368" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C368" s="4">
+        <v>120110</v>
+      </c>
+      <c r="D368" s="5"/>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>520120</v>
+      </c>
+      <c r="B369" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C369" s="4">
+        <v>120120</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>520121</v>
+      </c>
+      <c r="B370" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C370" s="4">
+        <v>120121</v>
+      </c>
+      <c r="D370" s="5"/>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>520122</v>
+      </c>
+      <c r="B371" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C371" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>520123</v>
+      </c>
+      <c r="B372" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C372" s="4">
+        <v>10</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>520124</v>
+      </c>
+      <c r="B373" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C373" s="4">
+        <v>5</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>520130</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C374" s="4">
+        <v>120130</v>
+      </c>
+      <c r="D374" s="5"/>
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>520140</v>
+      </c>
+      <c r="B375" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C375" s="4">
+        <v>120140</v>
+      </c>
+      <c r="D375" s="5"/>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>520150</v>
+      </c>
+      <c r="B376" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C376" s="4">
+        <v>120150</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>520160</v>
+      </c>
+      <c r="B377" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C377" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D377" s="5"/>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>520161</v>
+      </c>
+      <c r="B378" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C378" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D378" s="5"/>
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>520162</v>
+      </c>
+      <c r="B379" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C379" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>521100</v>
+      </c>
+      <c r="B381" s="3">
+        <v>0</v>
+      </c>
+      <c r="C381" s="4"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>521110</v>
+      </c>
+      <c r="B382" s="3">
+        <v>0</v>
+      </c>
+      <c r="C382" s="4"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>521111</v>
+      </c>
+      <c r="B383" s="3">
+        <v>0</v>
+      </c>
+      <c r="C383" s="4"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>521120</v>
+      </c>
+      <c r="B384" s="3">
+        <v>0</v>
+      </c>
+      <c r="C384" s="4"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>521130</v>
+      </c>
+      <c r="B385" s="3">
+        <v>0</v>
+      </c>
+      <c r="C385" s="4"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>421124</v>
+      </c>
+      <c r="B386" s="3">
+        <v>0</v>
+      </c>
+      <c r="C386" s="4"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>421125</v>
+      </c>
+      <c r="B387" s="3">
+        <v>0</v>
+      </c>
+      <c r="C387" s="4"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>521140</v>
+      </c>
+      <c r="B388" s="3">
+        <v>0</v>
+      </c>
+      <c r="C388" s="4"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>521150</v>
+      </c>
+      <c r="B389" s="3">
+        <v>0</v>
+      </c>
+      <c r="C389" s="4"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>521160</v>
+      </c>
+      <c r="B390" s="3">
+        <v>0</v>
+      </c>
+      <c r="C390" s="4"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>521170</v>
+      </c>
+      <c r="B391" s="3">
+        <v>0</v>
+      </c>
+      <c r="C391" s="4"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>521180</v>
+      </c>
+      <c r="B392" s="3">
+        <v>0</v>
+      </c>
+      <c r="C392" s="4"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="6"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>530000</v>
+      </c>
+      <c r="B394" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C394" s="4">
+        <v>5</v>
+      </c>
+      <c r="D394" s="5"/>
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>530001</v>
+      </c>
+      <c r="B395" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C395" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>530002</v>
+      </c>
+      <c r="B396" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C396" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>530003</v>
+      </c>
+      <c r="B397" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C397" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="2"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>530010</v>
+      </c>
+      <c r="B398" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C398" s="4">
+        <v>130010</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>530011</v>
+      </c>
+      <c r="B399" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C399" s="4">
+        <v>3</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>530012</v>
+      </c>
+      <c r="B400" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C400" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>530020</v>
+      </c>
+      <c r="B401" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C401" s="4">
+        <v>130020</v>
+      </c>
+      <c r="D401" s="5"/>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>530021</v>
+      </c>
+      <c r="B402" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C402" s="4">
+        <v>4</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>530022</v>
+      </c>
+      <c r="B403" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C403" s="4">
+        <v>-40</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>530030</v>
+      </c>
+      <c r="B404" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C404" s="4">
+        <v>130030</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>530031</v>
+      </c>
+      <c r="B405" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C405" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>530040</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C406" s="4">
+        <v>130040</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>530041</v>
+      </c>
+      <c r="B407" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C407" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>530050</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C408" s="4">
+        <v>130050</v>
+      </c>
+      <c r="D408" s="5"/>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>530051</v>
+      </c>
+      <c r="B409" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C409" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>530060</v>
+      </c>
+      <c r="B410" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C410" s="4">
+        <v>130060</v>
+      </c>
+      <c r="D410" s="5"/>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>530061</v>
+      </c>
+      <c r="B411" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C411" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D411" s="5"/>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>530070</v>
+      </c>
+      <c r="B412" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C412" s="4">
+        <v>130070</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>530071</v>
+      </c>
+      <c r="B413" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C413" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>530080</v>
+      </c>
+      <c r="B414" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C414" s="4">
+        <v>130080</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>530081</v>
+      </c>
+      <c r="B415" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C415" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>530090</v>
+      </c>
+      <c r="B416" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C416" s="4">
+        <v>130090</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>530091</v>
+      </c>
+      <c r="B417" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C417" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D417" s="5"/>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>530100</v>
+      </c>
+      <c r="B418" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C418" s="4">
+        <v>130100</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>530101</v>
+      </c>
+      <c r="B419" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C419" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>530110</v>
+      </c>
+      <c r="B420" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C420" s="4">
+        <v>130110</v>
+      </c>
+      <c r="D420" s="5"/>
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>530111</v>
+      </c>
+      <c r="B421" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C421" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D421" s="5"/>
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>530120</v>
+      </c>
+      <c r="B422" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C422" s="4">
+        <v>130120</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="2"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>530121</v>
+      </c>
+      <c r="B423" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C423" s="4">
+        <v>2</v>
+      </c>
+      <c r="D423" s="5">
+        <v>1</v>
+      </c>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>530122</v>
+      </c>
+      <c r="B424" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C424" s="4">
+        <v>3</v>
+      </c>
+      <c r="D424" s="5">
+        <v>1</v>
+      </c>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>530123</v>
+      </c>
+      <c r="B425" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C425" s="4">
+        <v>4</v>
+      </c>
+      <c r="D425" s="5">
+        <v>1</v>
+      </c>
+      <c r="E425" s="2"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>530130</v>
+      </c>
+      <c r="B426" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C426" s="4">
+        <v>130130</v>
+      </c>
+      <c r="D426" s="5"/>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>530131</v>
+      </c>
+      <c r="B427" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C427" s="4">
+        <v>2</v>
+      </c>
+      <c r="D427" s="5">
+        <v>1</v>
+      </c>
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>530132</v>
+      </c>
+      <c r="B428" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C428" s="4">
+        <v>3</v>
+      </c>
+      <c r="D428" s="5">
+        <v>1</v>
+      </c>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>530133</v>
+      </c>
+      <c r="B429" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C429" s="4">
+        <v>4</v>
+      </c>
+      <c r="D429" s="5">
+        <v>1</v>
+      </c>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>530140</v>
+      </c>
+      <c r="B430" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C430" s="4">
+        <v>130140</v>
+      </c>
+      <c r="D430" s="5"/>
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>530141</v>
+      </c>
+      <c r="B431" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C431" s="4">
+        <v>2</v>
+      </c>
+      <c r="D431" s="5">
+        <v>1</v>
+      </c>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>530142</v>
+      </c>
+      <c r="B432" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C432" s="4">
+        <v>3</v>
+      </c>
+      <c r="D432" s="5">
+        <v>1</v>
+      </c>
+      <c r="E432" s="2"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>530143</v>
+      </c>
+      <c r="B433" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C433" s="4">
+        <v>4</v>
+      </c>
+      <c r="D433" s="5">
+        <v>1</v>
+      </c>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>530150</v>
+      </c>
+      <c r="B434" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C434" s="4">
+        <v>130150</v>
+      </c>
+      <c r="D434" s="5"/>
+      <c r="E434" s="2"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>530151</v>
+      </c>
+      <c r="B435" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C435" s="4">
+        <v>2</v>
+      </c>
+      <c r="D435" s="5">
+        <v>1</v>
+      </c>
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>530152</v>
+      </c>
+      <c r="B436" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C436" s="4">
+        <v>3</v>
+      </c>
+      <c r="D436" s="5">
+        <v>1</v>
+      </c>
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>530153</v>
+      </c>
+      <c r="B437" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C437" s="4">
+        <v>4</v>
+      </c>
+      <c r="D437" s="5">
+        <v>1</v>
+      </c>
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>530160</v>
+      </c>
+      <c r="B438" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C438" s="4">
+        <v>130160</v>
+      </c>
+      <c r="D438" s="5"/>
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>530161</v>
+      </c>
+      <c r="B439" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C439" s="4">
+        <v>2</v>
+      </c>
+      <c r="D439" s="5">
+        <v>1</v>
+      </c>
+      <c r="E439" s="2"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>530162</v>
+      </c>
+      <c r="B440" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C440" s="4">
+        <v>3</v>
+      </c>
+      <c r="D440" s="5">
+        <v>1</v>
+      </c>
+      <c r="E440" s="2"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>530163</v>
+      </c>
+      <c r="B441" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C441" s="4">
+        <v>4</v>
+      </c>
+      <c r="D441" s="5">
+        <v>1</v>
+      </c>
+      <c r="E441" s="2"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>530170</v>
+      </c>
+      <c r="B442" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C442" s="4">
+        <v>130170</v>
+      </c>
+      <c r="D442" s="5"/>
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>530171</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C443" s="4">
+        <v>2</v>
+      </c>
+      <c r="D443" s="5">
+        <v>1</v>
+      </c>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>530172</v>
+      </c>
+      <c r="B444" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C444" s="4">
+        <v>3</v>
+      </c>
+      <c r="D444" s="5">
+        <v>1</v>
+      </c>
+      <c r="E444" s="2"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>530173</v>
+      </c>
+      <c r="B445" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C445" s="4">
+        <v>4</v>
+      </c>
+      <c r="D445" s="5">
+        <v>1</v>
+      </c>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>530180</v>
+      </c>
+      <c r="B446" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C446" s="4"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="2"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>530181</v>
+      </c>
+      <c r="B447" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C447" s="4"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="6"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B450" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C450" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D450" s="5"/>
+      <c r="E450" s="2"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B451" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C451" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D451" s="5"/>
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>550002</v>
+      </c>
+      <c r="B452" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C452" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="2"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B453" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C453" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D453" s="5"/>
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="6"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>559000</v>
+      </c>
+      <c r="B455" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C455" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D455" s="5"/>
+      <c r="E455" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46ED800-0378-4FF3-B710-DC3695F742AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD30F6B-F770-43C4-8830-F94FF3EECB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="3885" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>效果编号</t>
   </si>
@@ -121,16 +121,12 @@
   <si>
     <t>参数@2</t>
   </si>
-  <si>
-    <t>通用效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -158,15 +154,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,9 +238,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -574,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E455"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D391" sqref="D391"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="Q439" sqref="Q438:Q439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6030,85 +6010,76 @@
       <c r="E448" s="6"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A449" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
-      <c r="D449" s="6"/>
-      <c r="E449" s="6"/>
+      <c r="A449" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B449" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C449" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D449" s="5"/>
+      <c r="E449" s="2"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>550000</v>
+        <v>550001</v>
       </c>
       <c r="B450" s="3">
         <v>5006</v>
       </c>
       <c r="C450" s="4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="2"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>550001</v>
+        <v>550002</v>
       </c>
       <c r="B451" s="3">
         <v>5006</v>
       </c>
       <c r="C451" s="4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="2"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>550002</v>
+        <v>550003</v>
       </c>
       <c r="B452" s="3">
         <v>5006</v>
       </c>
       <c r="C452" s="4">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D452" s="5"/>
       <c r="E452" s="2"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453" s="2">
-        <v>550003</v>
-      </c>
-      <c r="B453" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C453" s="4">
-        <v>-8</v>
-      </c>
-      <c r="D453" s="5"/>
-      <c r="E453" s="2"/>
+      <c r="A453" s="6"/>
+      <c r="B453" s="6"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A454" s="6"/>
-      <c r="B454" s="6"/>
-      <c r="C454" s="6"/>
-      <c r="D454" s="6"/>
-      <c r="E454" s="6"/>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
+      <c r="A454" s="2">
         <v>559000</v>
       </c>
-      <c r="B455" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C455" s="4">
+      <c r="B454" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C454" s="4">
         <v>559000</v>
       </c>
-      <c r="D455" s="5"/>
-      <c r="E455" s="2"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD30F6B-F770-43C4-8830-F94FF3EECB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E19A4-6DA1-4FA1-9B39-881FF71166B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="4260" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13530" yWindow="4860" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="Q439" sqref="Q438:Q439"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>512003</v>
+        <v>512005</v>
       </c>
       <c r="B42" s="3">
         <v>5301</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>512004</v>
+        <v>512006</v>
       </c>
       <c r="B43" s="3">
         <v>5300</v>
@@ -6081,6 +6081,84 @@
       <c r="D454" s="5"/>
       <c r="E454" s="2"/>
     </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>540000</v>
+      </c>
+      <c r="B456" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C456" s="4">
+        <v>50</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="2"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>540001</v>
+      </c>
+      <c r="B457" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C457" s="4">
+        <v>50</v>
+      </c>
+      <c r="D457" s="5"/>
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>540002</v>
+      </c>
+      <c r="B458" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C458" s="4">
+        <v>50</v>
+      </c>
+      <c r="D458" s="5"/>
+      <c r="E458" s="2"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>540010</v>
+      </c>
+      <c r="B459" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C459" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D459" s="5"/>
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="2">
+        <v>540011</v>
+      </c>
+      <c r="B460" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C460" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D460" s="5"/>
+      <c r="E460" s="2"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B461" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C461" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D461" s="5"/>
+      <c r="E461" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E19A4-6DA1-4FA1-9B39-881FF71166B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E229470A-1937-4717-84AE-3FD7858E47F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="4860" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E461"/>
+  <dimension ref="A1:E465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6159,6 +6159,45 @@
       <c r="D461" s="5"/>
       <c r="E461" s="2"/>
     </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>540020</v>
+      </c>
+      <c r="B463" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C463" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D463" s="5"/>
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>540030</v>
+      </c>
+      <c r="B464" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C464" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B465" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C465" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D465" s="5"/>
+      <c r="E465" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E229470A-1937-4717-84AE-3FD7858E47F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E0FF7-8FED-4CE4-8A24-2997AAB88ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15330" yWindow="4065" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E465"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="C466" sqref="C466"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="K395" sqref="K395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2587,14 +2587,16 @@
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>501000</v>
       </c>
       <c r="B165" s="3">
-        <v>0</v>
-      </c>
-      <c r="C165" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C165" s="4">
+        <v>101000</v>
+      </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
@@ -2603,9 +2605,11 @@
         <v>501010</v>
       </c>
       <c r="B166" s="3">
-        <v>0</v>
-      </c>
-      <c r="C166" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C166" s="4">
+        <v>101010</v>
+      </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
@@ -2614,9 +2618,11 @@
         <v>501020</v>
       </c>
       <c r="B167" s="3">
-        <v>0</v>
-      </c>
-      <c r="C167" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C167" s="4">
+        <v>101020</v>
+      </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
@@ -2625,9 +2631,11 @@
         <v>501030</v>
       </c>
       <c r="B168" s="3">
-        <v>0</v>
-      </c>
-      <c r="C168" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C168" s="4">
+        <v>101030</v>
+      </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
@@ -2636,117 +2644,134 @@
         <v>501040</v>
       </c>
       <c r="B169" s="3">
-        <v>0</v>
-      </c>
-      <c r="C169" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C169" s="4">
+        <v>101040</v>
+      </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>501050</v>
       </c>
       <c r="B170" s="3">
-        <v>0</v>
-      </c>
-      <c r="C170" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C170" s="4">
+        <v>10</v>
+      </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+    <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>501051</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
         <v>502000</v>
       </c>
-      <c r="B172" s="3">
-        <v>0</v>
-      </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>502010</v>
-      </c>
       <c r="B173" s="3">
-        <v>0</v>
-      </c>
-      <c r="C173" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C173" s="4">
+        <v>102000</v>
+      </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B174" s="3">
-        <v>0</v>
-      </c>
-      <c r="C174" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C174" s="4">
+        <v>102010</v>
+      </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B175" s="3">
-        <v>0</v>
-      </c>
-      <c r="C175" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C175" s="4">
+        <v>102020</v>
+      </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>502030</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C176" s="4">
+        <v>102030</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
+        <v>502031</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5109</v>
+      </c>
+      <c r="C177" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C178" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D178" s="5">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
         <v>503000</v>
-      </c>
-      <c r="B177" s="3">
-        <v>0</v>
-      </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>503010</v>
-      </c>
-      <c r="B178" s="3">
-        <v>0</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>503020</v>
-      </c>
-      <c r="B179" s="3">
-        <v>0</v>
-      </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>503030</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -2755,9 +2780,9 @@
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>503040</v>
+        <v>503010</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -2766,9 +2791,9 @@
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>503100</v>
+        <v>503020</v>
       </c>
       <c r="B182" s="3">
         <v>0</v>
@@ -2777,9 +2802,9 @@
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>503110</v>
+        <v>503030</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -2788,9 +2813,9 @@
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>503120</v>
+        <v>503040</v>
       </c>
       <c r="B184" s="3">
         <v>0</v>
@@ -2799,9 +2824,9 @@
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>503130</v>
+        <v>503100</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -2810,9 +2835,9 @@
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>503140</v>
+        <v>503110</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -2821,9 +2846,9 @@
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>503150</v>
+        <v>503120</v>
       </c>
       <c r="B187" s="3">
         <v>0</v>
@@ -2832,9 +2857,9 @@
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>503160</v>
+        <v>503130</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -2843,9 +2868,9 @@
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>503170</v>
+        <v>503140</v>
       </c>
       <c r="B189" s="3">
         <v>0</v>
@@ -2854,9 +2879,9 @@
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>503180</v>
+        <v>503150</v>
       </c>
       <c r="B190" s="3">
         <v>0</v>
@@ -2865,9 +2890,9 @@
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>503190</v>
+        <v>503160</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -2876,9 +2901,9 @@
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>503200</v>
+        <v>503170</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -2889,7 +2914,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>503210</v>
+        <v>503180</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -2900,7 +2925,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>503220</v>
+        <v>503190</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -2910,15 +2935,19 @@
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
+      <c r="A195" s="2">
+        <v>503200</v>
+      </c>
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>503300</v>
+        <v>503210</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -2929,7 +2958,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>503310</v>
+        <v>503220</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -2939,19 +2968,15 @@
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>503320</v>
-      </c>
-      <c r="B198" s="3">
-        <v>0</v>
-      </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>503330</v>
+        <v>503300</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -2962,7 +2987,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>503340</v>
+        <v>503310</v>
       </c>
       <c r="B200" s="3">
         <v>0</v>
@@ -2973,7 +2998,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>503350</v>
+        <v>503320</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -2984,7 +3009,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>503360</v>
+        <v>503330</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -2995,7 +3020,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>503370</v>
+        <v>503340</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -3006,7 +3031,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>503380</v>
+        <v>503350</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -3017,7 +3042,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>503390</v>
+        <v>503360</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -3028,7 +3053,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>503400</v>
+        <v>503370</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -3039,7 +3064,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>503410</v>
+        <v>503380</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -3050,7 +3075,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>503500</v>
+        <v>503390</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -3061,7 +3086,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>503510</v>
+        <v>503400</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -3072,7 +3097,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>503520</v>
+        <v>503410</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -3083,7 +3108,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>503530</v>
+        <v>503500</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -3094,7 +3119,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>503540</v>
+        <v>503510</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -3105,7 +3130,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>503550</v>
+        <v>503520</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -3116,7 +3141,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>503560</v>
+        <v>503530</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -3127,7 +3152,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>503570</v>
+        <v>503540</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -3138,7 +3163,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>503580</v>
+        <v>503550</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -3149,7 +3174,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>503590</v>
+        <v>503560</v>
       </c>
       <c r="B217" s="3">
         <v>0</v>
@@ -3160,7 +3185,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>503600</v>
+        <v>503570</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
@@ -3171,7 +3196,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>503610</v>
+        <v>503580</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -3182,7 +3207,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>503700</v>
+        <v>503590</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
@@ -3193,7 +3218,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>503710</v>
+        <v>503600</v>
       </c>
       <c r="B221" s="3">
         <v>0</v>
@@ -3204,7 +3229,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>503720</v>
+        <v>503610</v>
       </c>
       <c r="B222" s="3">
         <v>0</v>
@@ -3215,7 +3240,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>503730</v>
+        <v>503700</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -3226,7 +3251,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>503740</v>
+        <v>503710</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -3237,7 +3262,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>503750</v>
+        <v>503720</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -3248,7 +3273,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>503760</v>
+        <v>503730</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -3259,7 +3284,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>503770</v>
+        <v>503740</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -3270,7 +3295,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>503780</v>
+        <v>503750</v>
       </c>
       <c r="B228" s="3">
         <v>0</v>
@@ -3281,7 +3306,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>503790</v>
+        <v>503760</v>
       </c>
       <c r="B229" s="3">
         <v>0</v>
@@ -3292,7 +3317,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>503800</v>
+        <v>503770</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -3303,7 +3328,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>503810</v>
+        <v>503780</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -3314,7 +3339,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>503900</v>
+        <v>503790</v>
       </c>
       <c r="B232" s="3">
         <v>0</v>
@@ -3325,7 +3350,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>503910</v>
+        <v>503800</v>
       </c>
       <c r="B233" s="3">
         <v>0</v>
@@ -3336,7 +3361,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>503920</v>
+        <v>503810</v>
       </c>
       <c r="B234" s="3">
         <v>0</v>
@@ -3346,15 +3371,19 @@
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
+      <c r="A235" s="2">
+        <v>503900</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>504000</v>
+        <v>503910</v>
       </c>
       <c r="B236" s="3">
         <v>0</v>
@@ -3365,7 +3394,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>504010</v>
+        <v>503920</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -3375,19 +3404,15 @@
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>504020</v>
-      </c>
-      <c r="B238" s="3">
-        <v>0</v>
-      </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="2"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>504030</v>
+        <v>504000</v>
       </c>
       <c r="B239" s="3">
         <v>0</v>
@@ -3398,7 +3423,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>504040</v>
+        <v>504010</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -3409,7 +3434,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>504050</v>
+        <v>504020</v>
       </c>
       <c r="B241" s="3">
         <v>0</v>
@@ -3420,7 +3445,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>504060</v>
+        <v>504030</v>
       </c>
       <c r="B242" s="3">
         <v>0</v>
@@ -3431,7 +3456,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>504070</v>
+        <v>504040</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -3442,7 +3467,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>504080</v>
+        <v>504050</v>
       </c>
       <c r="B244" s="3">
         <v>0</v>
@@ -3453,7 +3478,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>504090</v>
+        <v>504060</v>
       </c>
       <c r="B245" s="3">
         <v>0</v>
@@ -3464,7 +3489,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>504100</v>
+        <v>504070</v>
       </c>
       <c r="B246" s="3">
         <v>0</v>
@@ -3475,7 +3500,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>504110</v>
+        <v>504080</v>
       </c>
       <c r="B247" s="3">
         <v>0</v>
@@ -3486,7 +3511,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>504120</v>
+        <v>504090</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
@@ -3497,7 +3522,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>504130</v>
+        <v>504100</v>
       </c>
       <c r="B249" s="3">
         <v>0</v>
@@ -3508,7 +3533,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>504200</v>
+        <v>504110</v>
       </c>
       <c r="B250" s="3">
         <v>0</v>
@@ -3519,7 +3544,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>504210</v>
+        <v>504120</v>
       </c>
       <c r="B251" s="3">
         <v>0</v>
@@ -3530,7 +3555,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>504220</v>
+        <v>504130</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -3541,7 +3566,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>504230</v>
+        <v>504200</v>
       </c>
       <c r="B253" s="3">
         <v>0</v>
@@ -3551,15 +3576,19 @@
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
+      <c r="A254" s="2">
+        <v>504210</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>509000</v>
+        <v>504220</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -3570,7 +3599,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>509010</v>
+        <v>504230</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -3580,19 +3609,15 @@
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>509020</v>
-      </c>
-      <c r="B257" s="3">
-        <v>0</v>
-      </c>
-      <c r="C257" s="4"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="2"/>
+      <c r="A257" s="6"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>509030</v>
+        <v>509000</v>
       </c>
       <c r="B258" s="3">
         <v>0</v>
@@ -3602,121 +3627,119 @@
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
+      <c r="A259" s="2">
+        <v>509010</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+      <c r="C259" s="4"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>510100</v>
+        <v>509020</v>
       </c>
       <c r="B260" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C260" s="4">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C260" s="4"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>510101</v>
+        <v>509030</v>
       </c>
       <c r="B261" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C261" s="4">
-        <v>-10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C261" s="4"/>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>510102</v>
-      </c>
-      <c r="B262" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C262" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D262" s="5"/>
-      <c r="E262" s="2"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>510101</v>
+        <v>510100</v>
       </c>
       <c r="B263" s="3">
-        <v>5021</v>
-      </c>
-      <c r="C263" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C263" s="4">
+        <v>10</v>
+      </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>510110</v>
+        <v>510101</v>
       </c>
       <c r="B264" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C264" s="4">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>510120</v>
+        <v>510102</v>
       </c>
       <c r="B265" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C265" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
+      <c r="A266" s="2">
+        <v>510101</v>
+      </c>
+      <c r="B266" s="3">
+        <v>5021</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>511060</v>
+        <v>510110</v>
       </c>
       <c r="B267" s="3">
-        <v>5009</v>
+        <v>5000</v>
       </c>
       <c r="C267" s="4">
-        <v>61002</v>
+        <v>10</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>511061</v>
+        <v>510120</v>
       </c>
       <c r="B268" s="3">
-        <v>5119</v>
+        <v>5000</v>
       </c>
       <c r="C268" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D268" s="5">
-        <v>61002</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -3728,441 +3751,437 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>512100</v>
+        <v>511060</v>
       </c>
       <c r="B270" s="3">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="C270" s="4">
-        <v>112100</v>
+        <v>61002</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>512110</v>
+        <v>511061</v>
       </c>
       <c r="B271" s="3">
-        <v>5013</v>
+        <v>5119</v>
       </c>
       <c r="C271" s="4">
-        <v>112110</v>
-      </c>
-      <c r="D271" s="5"/>
+        <v>60001</v>
+      </c>
+      <c r="D271" s="5">
+        <v>61002</v>
+      </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>512111</v>
-      </c>
-      <c r="B272" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C272" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D272" s="5"/>
-      <c r="E272" s="2"/>
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>512120</v>
+        <v>512100</v>
       </c>
       <c r="B273" s="3">
         <v>5013</v>
       </c>
       <c r="C273" s="4">
-        <v>112120</v>
+        <v>112100</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>512130</v>
+        <v>512110</v>
       </c>
       <c r="B274" s="3">
         <v>5013</v>
       </c>
       <c r="C274" s="4">
-        <v>112130</v>
+        <v>112110</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>512140</v>
+        <v>512111</v>
       </c>
       <c r="B275" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C275" s="4">
-        <v>112140</v>
+        <v>-50</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="6"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
+      <c r="A276" s="2">
+        <v>512120</v>
+      </c>
+      <c r="B276" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C276" s="4">
+        <v>112120</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>513100</v>
+        <v>512130</v>
       </c>
       <c r="B277" s="3">
         <v>5013</v>
       </c>
       <c r="C277" s="4">
-        <v>113100</v>
+        <v>112130</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>513110</v>
+        <v>512140</v>
       </c>
       <c r="B278" s="3">
         <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>113110</v>
+        <v>112140</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>513120</v>
-      </c>
-      <c r="B279" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C279" s="4">
-        <v>113120</v>
-      </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>513130</v>
+        <v>513100</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>113130</v>
+        <v>113100</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>513140</v>
+        <v>513110</v>
       </c>
       <c r="B281" s="3">
         <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>113140</v>
+        <v>113110</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>513150</v>
+        <v>513120</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>113150</v>
+        <v>113120</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>513160</v>
+        <v>513130</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>113160</v>
+        <v>113130</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>513161</v>
+        <v>513140</v>
       </c>
       <c r="B284" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D284" s="5">
-        <v>-5</v>
-      </c>
+        <v>113140</v>
+      </c>
+      <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>513200</v>
+        <v>513150</v>
       </c>
       <c r="B285" s="3">
         <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>113200</v>
+        <v>113150</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>513210</v>
+        <v>513160</v>
       </c>
       <c r="B286" s="3">
         <v>5013</v>
       </c>
       <c r="C286" s="4">
-        <v>113210</v>
+        <v>113160</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>513220</v>
+        <v>513161</v>
       </c>
       <c r="B287" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C287" s="4">
-        <v>113220</v>
-      </c>
-      <c r="D287" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D287" s="5">
+        <v>-5</v>
+      </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>513230</v>
+        <v>513200</v>
       </c>
       <c r="B288" s="3">
         <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>113160</v>
+        <v>113200</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>513231</v>
+        <v>513210</v>
       </c>
       <c r="B289" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D289" s="5">
-        <v>-5</v>
-      </c>
+        <v>113210</v>
+      </c>
+      <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
+      <c r="A290" s="2">
+        <v>513220</v>
+      </c>
+      <c r="B290" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C290" s="4">
+        <v>113220</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>515100</v>
+        <v>513230</v>
       </c>
       <c r="B291" s="3">
         <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>115100</v>
+        <v>113160</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>515101</v>
+        <v>513231</v>
       </c>
       <c r="B292" s="3">
-        <v>5000</v>
+        <v>5108</v>
       </c>
       <c r="C292" s="4">
-        <v>10</v>
-      </c>
-      <c r="D292" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D292" s="5">
+        <v>-5</v>
+      </c>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>515102</v>
-      </c>
-      <c r="B293" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C293" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="2"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>515103</v>
+        <v>515100</v>
       </c>
       <c r="B294" s="3">
         <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>115101</v>
+        <v>115100</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>515104</v>
+        <v>515101</v>
       </c>
       <c r="B295" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C295" s="4">
-        <v>115102</v>
+        <v>10</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>515110</v>
+        <v>515102</v>
       </c>
       <c r="B296" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C296" s="4">
-        <v>115110</v>
+        <v>-2</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>515111</v>
+        <v>515103</v>
       </c>
       <c r="B297" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>20</v>
+        <v>115101</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>515112</v>
+        <v>515104</v>
       </c>
       <c r="B298" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>-3</v>
+        <v>115102</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>515113</v>
+        <v>515110</v>
       </c>
       <c r="B299" s="3">
         <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>115111</v>
+        <v>115110</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>515114</v>
+        <v>515111</v>
       </c>
       <c r="B300" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C300" s="4">
-        <v>115112</v>
+        <v>20</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>515120</v>
+        <v>515112</v>
       </c>
       <c r="B301" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C301" s="4">
-        <v>115120</v>
+        <v>-3</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>515121</v>
+        <v>515113</v>
       </c>
       <c r="B302" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C302" s="4">
-        <v>2</v>
+        <v>115111</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>515122</v>
+        <v>515114</v>
       </c>
       <c r="B303" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C303" s="4">
-        <v>-1</v>
+        <v>115112</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>515130</v>
+        <v>515120</v>
       </c>
       <c r="B304" s="3">
         <v>5013</v>
@@ -4175,20 +4194,20 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>515131</v>
+        <v>515121</v>
       </c>
       <c r="B305" s="3">
         <v>5000</v>
       </c>
       <c r="C305" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>515132</v>
+        <v>515122</v>
       </c>
       <c r="B306" s="3">
         <v>5006</v>
@@ -4201,480 +4220,484 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>515140</v>
+        <v>515130</v>
       </c>
       <c r="B307" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>30</v>
+        <v>115120</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>515150</v>
+        <v>515131</v>
       </c>
       <c r="B308" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C308" s="4">
-        <v>115150</v>
+        <v>5</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>515160</v>
+        <v>515132</v>
       </c>
       <c r="B309" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C309" s="4">
-        <v>115160</v>
+        <v>-1</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>515170</v>
+        <v>515140</v>
       </c>
       <c r="B310" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C310" s="4">
-        <v>115170</v>
+        <v>30</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>515171</v>
+        <v>515150</v>
       </c>
       <c r="B311" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D311" s="5">
-        <v>-3</v>
-      </c>
+        <v>115150</v>
+      </c>
+      <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>515180</v>
+        <v>515160</v>
       </c>
       <c r="B312" s="3">
         <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>115180</v>
+        <v>115160</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>515181</v>
+        <v>515170</v>
       </c>
       <c r="B313" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>8</v>
+        <v>115170</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="A314" s="2">
+        <v>515171</v>
+      </c>
+      <c r="B314" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C314" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D314" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>516100</v>
+        <v>515180</v>
       </c>
       <c r="B315" s="3">
         <v>5013</v>
       </c>
       <c r="C315" s="4">
-        <v>116100</v>
+        <v>115180</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>516101</v>
+        <v>515181</v>
       </c>
       <c r="B316" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C316" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>516102</v>
-      </c>
-      <c r="B317" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C317" s="4">
-        <v>-3</v>
-      </c>
-      <c r="D317" s="5"/>
-      <c r="E317" s="2"/>
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>516103</v>
+        <v>516100</v>
       </c>
       <c r="B318" s="3">
         <v>5013</v>
       </c>
       <c r="C318" s="4">
-        <v>116101</v>
+        <v>116100</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>516104</v>
+        <v>516101</v>
       </c>
       <c r="B319" s="3">
         <v>5003</v>
       </c>
       <c r="C319" s="4">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>516105</v>
+        <v>516102</v>
       </c>
       <c r="B320" s="3">
         <v>5006</v>
       </c>
       <c r="C320" s="4">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>516110</v>
+        <v>516103</v>
       </c>
       <c r="B321" s="3">
         <v>5013</v>
       </c>
       <c r="C321" s="4">
-        <v>116110</v>
+        <v>116101</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>516120</v>
+        <v>516104</v>
       </c>
       <c r="B322" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C322" s="4">
-        <v>116120</v>
+        <v>-2</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>516121</v>
+        <v>516105</v>
       </c>
       <c r="B323" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C323" s="4">
-        <v>116120</v>
+        <v>5</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>516130</v>
+        <v>516110</v>
       </c>
       <c r="B324" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C324" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D324" s="5">
-        <v>-3</v>
-      </c>
+        <v>116110</v>
+      </c>
+      <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>516131</v>
+        <v>516120</v>
       </c>
       <c r="B325" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C325" s="4">
-        <v>3</v>
+        <v>116120</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>516132</v>
+        <v>516121</v>
       </c>
       <c r="B326" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C326" s="4">
+        <v>116120</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>516130</v>
+      </c>
+      <c r="B327" s="3">
         <v>5108</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C327" s="4">
         <v>60006</v>
       </c>
-      <c r="D326" s="5">
+      <c r="D327" s="5">
         <v>-3</v>
       </c>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
+      <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>517100</v>
+        <v>516131</v>
       </c>
       <c r="B328" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C328" s="4">
-        <v>117100</v>
+        <v>3</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>517110</v>
+        <v>516132</v>
       </c>
       <c r="B329" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C329" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D329" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D329" s="5">
+        <v>-3</v>
+      </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="2">
-        <v>517120</v>
-      </c>
-      <c r="B330" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C330" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D330" s="5"/>
-      <c r="E330" s="2"/>
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>517121</v>
+        <v>517100</v>
       </c>
       <c r="B331" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C331" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D331" s="5">
-        <v>-3</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>517122</v>
+        <v>517110</v>
       </c>
       <c r="B332" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>5</v>
+        <v>117110</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>517130</v>
+        <v>517120</v>
       </c>
       <c r="B333" s="3">
         <v>5013</v>
       </c>
       <c r="C333" s="4">
-        <v>117130</v>
+        <v>117120</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>517140</v>
+        <v>517121</v>
       </c>
       <c r="B334" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C334" s="4">
-        <v>117140</v>
-      </c>
-      <c r="D334" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D334" s="5">
+        <v>-3</v>
+      </c>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>517150</v>
+        <v>517122</v>
       </c>
       <c r="B335" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C335" s="4">
-        <v>117150</v>
+        <v>5</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>517151</v>
+        <v>517130</v>
       </c>
       <c r="B336" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>20</v>
+        <v>117130</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>517152</v>
+        <v>517140</v>
       </c>
       <c r="B337" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C337" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D337" s="5">
-        <v>-3</v>
-      </c>
+        <v>117140</v>
+      </c>
+      <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>517153</v>
+        <v>517150</v>
       </c>
       <c r="B338" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D338" s="5">
-        <v>-3</v>
-      </c>
+        <v>117150</v>
+      </c>
+      <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>517154</v>
+        <v>517151</v>
       </c>
       <c r="B339" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C339" s="4">
+        <v>20</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>517152</v>
+      </c>
+      <c r="B340" s="3">
         <v>5108</v>
       </c>
-      <c r="C339" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D339" s="5">
+      <c r="C340" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D340" s="5">
         <v>-3</v>
       </c>
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
+      <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>518100</v>
+        <v>517153</v>
       </c>
       <c r="B341" s="3">
-        <v>0</v>
-      </c>
-      <c r="C341" s="4"/>
-      <c r="D341" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C341" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D341" s="5">
+        <v>-3</v>
+      </c>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>518110</v>
+        <v>517154</v>
       </c>
       <c r="B342" s="3">
-        <v>5000</v>
+        <v>5108</v>
       </c>
       <c r="C342" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D342" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D342" s="5">
+        <v>-3</v>
+      </c>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
-        <v>518111</v>
-      </c>
-      <c r="B343" s="3">
-        <v>0</v>
-      </c>
-      <c r="C343" s="4"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="2"/>
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>518112</v>
+        <v>518100</v>
       </c>
       <c r="B344" s="3">
         <v>0</v>
@@ -4685,116 +4708,114 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>518113</v>
+        <v>518110</v>
       </c>
       <c r="B345" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C345" s="4">
-        <v>118110</v>
+        <v>-10</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>518114</v>
+        <v>518111</v>
       </c>
       <c r="B346" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C346" s="4">
-        <v>118111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C346" s="4"/>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>518115</v>
+        <v>518112</v>
       </c>
       <c r="B347" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C347" s="4">
-        <v>118112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C347" s="4"/>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>518116</v>
+        <v>518113</v>
       </c>
       <c r="B348" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C348" s="4">
-        <v>5</v>
+        <v>118110</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="6"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
+      <c r="A349" s="2">
+        <v>518114</v>
+      </c>
+      <c r="B349" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C349" s="4">
+        <v>118111</v>
+      </c>
+      <c r="D349" s="5"/>
+      <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>519100</v>
+        <v>518115</v>
       </c>
       <c r="B350" s="3">
         <v>5013</v>
       </c>
       <c r="C350" s="4">
-        <v>119100</v>
+        <v>118112</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>519101</v>
+        <v>518116</v>
       </c>
       <c r="B351" s="3">
-        <v>0</v>
-      </c>
-      <c r="C351" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C351" s="4">
+        <v>5</v>
+      </c>
       <c r="D351" s="5"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="2">
-        <v>519102</v>
-      </c>
-      <c r="B352" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C352" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="2"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>519110</v>
+        <v>519100</v>
       </c>
       <c r="B353" s="3">
         <v>5013</v>
       </c>
       <c r="C353" s="4">
-        <v>191100</v>
+        <v>119100</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>519111</v>
+        <v>519101</v>
       </c>
       <c r="B354" s="3">
         <v>0</v>
@@ -4805,7 +4826,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>519112</v>
+        <v>519102</v>
       </c>
       <c r="B355" s="3">
         <v>5006</v>
@@ -4818,602 +4839,630 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>519120</v>
+        <v>519110</v>
       </c>
       <c r="B356" s="3">
-        <v>0</v>
-      </c>
-      <c r="C356" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C356" s="4">
+        <v>191100</v>
+      </c>
       <c r="D356" s="5"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>519121</v>
+        <v>519111</v>
       </c>
       <c r="B357" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C357" s="4">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C357" s="4"/>
       <c r="D357" s="5"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>519122</v>
+        <v>519112</v>
       </c>
       <c r="B358" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C358" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D358" s="5">
-        <v>-3</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>519123</v>
+        <v>519120</v>
       </c>
       <c r="B359" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C359" s="4">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C359" s="4"/>
       <c r="D359" s="5"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>519130</v>
+        <v>519121</v>
       </c>
       <c r="B360" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C360" s="4">
-        <v>5</v>
+        <v>191200</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>519131</v>
+        <v>519122</v>
       </c>
       <c r="B361" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C361" s="4">
-        <v>119130</v>
-      </c>
-      <c r="D361" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D361" s="5">
+        <v>-3</v>
+      </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>519140</v>
+        <v>519123</v>
       </c>
       <c r="B362" s="3">
         <v>5003</v>
       </c>
       <c r="C362" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>519141</v>
+        <v>519130</v>
       </c>
       <c r="B363" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C363" s="4">
-        <v>119140</v>
+        <v>5</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>519150</v>
+        <v>519131</v>
       </c>
       <c r="B364" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C364" s="4">
-        <v>5</v>
+        <v>119130</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>519151</v>
+        <v>519140</v>
       </c>
       <c r="B365" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C365" s="4">
-        <v>119150</v>
+        <v>5</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
-      <c r="E366" s="6"/>
+      <c r="A366" s="2">
+        <v>519141</v>
+      </c>
+      <c r="B366" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C366" s="4">
+        <v>119140</v>
+      </c>
+      <c r="D366" s="5"/>
+      <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>520100</v>
+        <v>519150</v>
       </c>
       <c r="B367" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C367" s="4">
-        <v>120000</v>
+        <v>5</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>520110</v>
+        <v>519151</v>
       </c>
       <c r="B368" s="3">
         <v>5013</v>
       </c>
       <c r="C368" s="4">
-        <v>120110</v>
+        <v>119150</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="2">
-        <v>520120</v>
-      </c>
-      <c r="B369" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C369" s="4">
-        <v>120120</v>
-      </c>
-      <c r="D369" s="5"/>
-      <c r="E369" s="2"/>
+      <c r="A369" s="6"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>520121</v>
+        <v>520100</v>
       </c>
       <c r="B370" s="3">
         <v>5013</v>
       </c>
       <c r="C370" s="4">
-        <v>120121</v>
+        <v>120000</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>520122</v>
+        <v>520110</v>
       </c>
       <c r="B371" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C371" s="4">
-        <v>-3</v>
+        <v>120110</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>520123</v>
+        <v>520120</v>
       </c>
       <c r="B372" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C372" s="4">
-        <v>10</v>
+        <v>120120</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>520124</v>
+        <v>520121</v>
       </c>
       <c r="B373" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C373" s="4">
-        <v>5</v>
+        <v>120121</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>520130</v>
+        <v>520122</v>
       </c>
       <c r="B374" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>120130</v>
+        <v>-3</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>520140</v>
+        <v>520123</v>
       </c>
       <c r="B375" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C375" s="4">
-        <v>120140</v>
+        <v>10</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>520150</v>
+        <v>520124</v>
       </c>
       <c r="B376" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C376" s="4">
-        <v>120150</v>
+        <v>5</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>520160</v>
+        <v>520130</v>
       </c>
       <c r="B377" s="3">
         <v>5013</v>
       </c>
       <c r="C377" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>520161</v>
+        <v>520140</v>
       </c>
       <c r="B378" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C378" s="4">
-        <v>-20</v>
+        <v>120140</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>520162</v>
+        <v>520150</v>
       </c>
       <c r="B379" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C379" s="4">
-        <v>-10</v>
+        <v>120150</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
+      <c r="A380" s="2">
+        <v>520160</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C380" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>521100</v>
+        <v>520161</v>
       </c>
       <c r="B381" s="3">
-        <v>0</v>
-      </c>
-      <c r="C381" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C381" s="4">
+        <v>-20</v>
+      </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>521110</v>
+        <v>520162</v>
       </c>
       <c r="B382" s="3">
-        <v>0</v>
-      </c>
-      <c r="C382" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C382" s="4">
+        <v>-10</v>
+      </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>521111</v>
-      </c>
-      <c r="B383" s="3">
-        <v>0</v>
-      </c>
-      <c r="C383" s="4"/>
-      <c r="D383" s="5"/>
-      <c r="E383" s="2"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>521120</v>
+        <v>521100</v>
       </c>
       <c r="B384" s="3">
-        <v>0</v>
-      </c>
-      <c r="C384" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C384" s="4">
+        <v>121100</v>
+      </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>521130</v>
+        <v>521110</v>
       </c>
       <c r="B385" s="3">
-        <v>0</v>
-      </c>
-      <c r="C385" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C385" s="4">
+        <v>121110</v>
+      </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>421124</v>
+        <v>521111</v>
       </c>
       <c r="B386" s="3">
-        <v>0</v>
-      </c>
-      <c r="C386" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C386" s="4">
+        <v>121111</v>
+      </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>421125</v>
+        <v>521112</v>
       </c>
       <c r="B387" s="3">
-        <v>0</v>
-      </c>
-      <c r="C387" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C387" s="4">
+        <v>30</v>
+      </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>521140</v>
+        <v>521120</v>
       </c>
       <c r="B388" s="3">
-        <v>0</v>
-      </c>
-      <c r="C388" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C388" s="4">
+        <v>121120</v>
+      </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>521150</v>
+        <v>521121</v>
       </c>
       <c r="B389" s="3">
-        <v>0</v>
-      </c>
-      <c r="C389" s="4"/>
-      <c r="D389" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C389" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D389" s="5">
+        <v>-3</v>
+      </c>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>521160</v>
+        <v>521122</v>
       </c>
       <c r="B390" s="3">
-        <v>0</v>
-      </c>
-      <c r="C390" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C390" s="4">
+        <v>10</v>
+      </c>
       <c r="D390" s="5"/>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>521170</v>
+        <v>521123</v>
       </c>
       <c r="B391" s="3">
-        <v>0</v>
-      </c>
-      <c r="C391" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C391" s="4">
+        <v>-20</v>
+      </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>521180</v>
+        <v>521124</v>
       </c>
       <c r="B392" s="3">
-        <v>0</v>
-      </c>
-      <c r="C392" s="4"/>
-      <c r="D392" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C392" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D392" s="5">
+        <v>-10</v>
+      </c>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="6"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
+      <c r="A393" s="2">
+        <v>521130</v>
+      </c>
+      <c r="B393" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C393" s="4">
+        <v>121130</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>530000</v>
+        <v>521140</v>
       </c>
       <c r="B394" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C394" s="4">
-        <v>5</v>
+        <v>121140</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>530001</v>
+        <v>521141</v>
       </c>
       <c r="B395" s="3">
-        <v>5000</v>
+        <v>5108</v>
       </c>
       <c r="C395" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D395" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D395" s="5">
+        <v>-3</v>
+      </c>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>530002</v>
+        <v>521150</v>
       </c>
       <c r="B396" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C396" s="4">
-        <v>-10</v>
+        <v>121150</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>530003</v>
+        <v>521151</v>
       </c>
       <c r="B397" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C397" s="4">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>530010</v>
+        <v>521152</v>
       </c>
       <c r="B398" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C398" s="4">
-        <v>130010</v>
+        <v>3</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>530011</v>
+        <v>521160</v>
       </c>
       <c r="B399" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C399" s="4">
-        <v>3</v>
+        <v>121160</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>530012</v>
+        <v>521170</v>
       </c>
       <c r="B400" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C400" s="4">
-        <v>-20</v>
+        <v>121170</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>530020</v>
+        <v>521180</v>
       </c>
       <c r="B401" s="3">
         <v>5013</v>
       </c>
       <c r="C401" s="4">
-        <v>130020</v>
+        <v>121180</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>530021</v>
-      </c>
-      <c r="B402" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C402" s="4">
-        <v>4</v>
-      </c>
-      <c r="D402" s="5"/>
-      <c r="E402" s="2"/>
+      <c r="A402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>530022</v>
+        <v>530000</v>
       </c>
       <c r="B403" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C403" s="4">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>530030</v>
+        <v>530001</v>
       </c>
       <c r="B404" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C404" s="4">
-        <v>130030</v>
+        <v>-20</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>530031</v>
+        <v>530002</v>
       </c>
       <c r="B405" s="3">
         <v>5003</v>
@@ -5426,365 +5475,351 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>530040</v>
+        <v>530003</v>
       </c>
       <c r="B406" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C406" s="4">
-        <v>130040</v>
+        <v>-10</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>530041</v>
+        <v>530010</v>
       </c>
       <c r="B407" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C407" s="4">
-        <v>-20</v>
+        <v>130010</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>530050</v>
+        <v>530011</v>
       </c>
       <c r="B408" s="3">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="C408" s="4">
-        <v>130050</v>
+        <v>3</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>530051</v>
+        <v>530012</v>
       </c>
       <c r="B409" s="3">
         <v>5003</v>
       </c>
       <c r="C409" s="4">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>530060</v>
+        <v>530020</v>
       </c>
       <c r="B410" s="3">
         <v>5013</v>
       </c>
       <c r="C410" s="4">
-        <v>130060</v>
+        <v>130020</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>530061</v>
+        <v>530021</v>
       </c>
       <c r="B411" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C411" s="4">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>530070</v>
+        <v>530022</v>
       </c>
       <c r="B412" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C412" s="4">
-        <v>130070</v>
+        <v>-40</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>530071</v>
+        <v>530030</v>
       </c>
       <c r="B413" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C413" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>530080</v>
+        <v>530031</v>
       </c>
       <c r="B414" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C414" s="4">
-        <v>130080</v>
+        <v>-10</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>530081</v>
+        <v>530040</v>
       </c>
       <c r="B415" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C415" s="4">
-        <v>-30</v>
+        <v>130040</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>530090</v>
+        <v>530041</v>
       </c>
       <c r="B416" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C416" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>530091</v>
+        <v>530050</v>
       </c>
       <c r="B417" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C417" s="4">
-        <v>-10</v>
+        <v>130050</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>530100</v>
+        <v>530051</v>
       </c>
       <c r="B418" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C418" s="4">
-        <v>130100</v>
+        <v>-30</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>530101</v>
+        <v>530060</v>
       </c>
       <c r="B419" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C419" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>530110</v>
+        <v>530061</v>
       </c>
       <c r="B420" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C420" s="4">
-        <v>130110</v>
+        <v>-10</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>530111</v>
+        <v>530070</v>
       </c>
       <c r="B421" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C421" s="4">
-        <v>-30</v>
+        <v>130070</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>530120</v>
+        <v>530071</v>
       </c>
       <c r="B422" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C422" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>530121</v>
+        <v>530080</v>
       </c>
       <c r="B423" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C423" s="4">
-        <v>2</v>
-      </c>
-      <c r="D423" s="5">
-        <v>1</v>
-      </c>
+        <v>130080</v>
+      </c>
+      <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>530122</v>
+        <v>530081</v>
       </c>
       <c r="B424" s="3">
-        <v>5203</v>
+        <v>5003</v>
       </c>
       <c r="C424" s="4">
-        <v>3</v>
-      </c>
-      <c r="D424" s="5">
-        <v>1</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D424" s="5"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>530123</v>
+        <v>530090</v>
       </c>
       <c r="B425" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C425" s="4">
-        <v>4</v>
-      </c>
-      <c r="D425" s="5">
-        <v>1</v>
-      </c>
+        <v>130090</v>
+      </c>
+      <c r="D425" s="5"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>530130</v>
+        <v>530091</v>
       </c>
       <c r="B426" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C426" s="4">
-        <v>130130</v>
+        <v>-10</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="2"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>530131</v>
+        <v>530100</v>
       </c>
       <c r="B427" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C427" s="4">
-        <v>2</v>
-      </c>
-      <c r="D427" s="5">
-        <v>1</v>
-      </c>
+        <v>130100</v>
+      </c>
+      <c r="D427" s="5"/>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>530132</v>
+        <v>530101</v>
       </c>
       <c r="B428" s="3">
-        <v>5200</v>
+        <v>5003</v>
       </c>
       <c r="C428" s="4">
-        <v>3</v>
-      </c>
-      <c r="D428" s="5">
-        <v>1</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D428" s="5"/>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>530133</v>
+        <v>530110</v>
       </c>
       <c r="B429" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C429" s="4">
-        <v>4</v>
-      </c>
-      <c r="D429" s="5">
-        <v>1</v>
-      </c>
+        <v>130110</v>
+      </c>
+      <c r="D429" s="5"/>
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>530140</v>
+        <v>530111</v>
       </c>
       <c r="B430" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C430" s="4">
-        <v>130140</v>
+        <v>-30</v>
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>530141</v>
+        <v>530120</v>
       </c>
       <c r="B431" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C431" s="4">
-        <v>2</v>
-      </c>
-      <c r="D431" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D431" s="5"/>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>530142</v>
+        <v>530121</v>
       </c>
       <c r="B432" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C432" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D432" s="5">
         <v>1</v>
@@ -5793,13 +5828,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>530143</v>
+        <v>530122</v>
       </c>
       <c r="B433" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C433" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D433" s="5">
         <v>1</v>
@@ -5808,41 +5843,41 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>530150</v>
+        <v>530123</v>
       </c>
       <c r="B434" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C434" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D434" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D434" s="5">
+        <v>1</v>
+      </c>
       <c r="E434" s="2"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>530151</v>
+        <v>530130</v>
       </c>
       <c r="B435" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C435" s="4">
-        <v>2</v>
-      </c>
-      <c r="D435" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D435" s="5"/>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>530152</v>
+        <v>530131</v>
       </c>
       <c r="B436" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C436" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436" s="5">
         <v>1</v>
@@ -5851,13 +5886,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>530153</v>
+        <v>530132</v>
       </c>
       <c r="B437" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C437" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D437" s="5">
         <v>1</v>
@@ -5866,41 +5901,41 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>530160</v>
+        <v>530133</v>
       </c>
       <c r="B438" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C438" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D438" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D438" s="5">
+        <v>1</v>
+      </c>
       <c r="E438" s="2"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>530161</v>
+        <v>530140</v>
       </c>
       <c r="B439" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C439" s="4">
-        <v>2</v>
-      </c>
-      <c r="D439" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D439" s="5"/>
       <c r="E439" s="2"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>530162</v>
+        <v>530141</v>
       </c>
       <c r="B440" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C440" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D440" s="5">
         <v>1</v>
@@ -5909,13 +5944,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>530163</v>
+        <v>530142</v>
       </c>
       <c r="B441" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C441" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D441" s="5">
         <v>1</v>
@@ -5924,41 +5959,41 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>530170</v>
+        <v>530143</v>
       </c>
       <c r="B442" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C442" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D442" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D442" s="5">
+        <v>1</v>
+      </c>
       <c r="E442" s="2"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>530171</v>
+        <v>530150</v>
       </c>
       <c r="B443" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C443" s="4">
-        <v>2</v>
-      </c>
-      <c r="D443" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D443" s="5"/>
       <c r="E443" s="2"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>530172</v>
+        <v>530151</v>
       </c>
       <c r="B444" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C444" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D444" s="5">
         <v>1</v>
@@ -5967,13 +6002,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>530173</v>
+        <v>530152</v>
       </c>
       <c r="B445" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C445" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D445" s="5">
         <v>1</v>
@@ -5982,221 +6017,352 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>530180</v>
+        <v>530153</v>
       </c>
       <c r="B446" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C446" s="4"/>
-      <c r="D446" s="5"/>
+        <v>5203</v>
+      </c>
+      <c r="C446" s="4">
+        <v>4</v>
+      </c>
+      <c r="D446" s="5">
+        <v>1</v>
+      </c>
       <c r="E446" s="2"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>530181</v>
+        <v>530160</v>
       </c>
       <c r="B447" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C447" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C447" s="4">
+        <v>130160</v>
+      </c>
       <c r="D447" s="5"/>
       <c r="E447" s="2"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448" s="6"/>
-      <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
-      <c r="D448" s="6"/>
-      <c r="E448" s="6"/>
+      <c r="A448" s="2">
+        <v>530161</v>
+      </c>
+      <c r="B448" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C448" s="4">
+        <v>2</v>
+      </c>
+      <c r="D448" s="5">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>550000</v>
+        <v>530162</v>
       </c>
       <c r="B449" s="3">
-        <v>5006</v>
+        <v>5200</v>
       </c>
       <c r="C449" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D449" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D449" s="5">
+        <v>1</v>
+      </c>
       <c r="E449" s="2"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>550001</v>
+        <v>530163</v>
       </c>
       <c r="B450" s="3">
-        <v>5006</v>
+        <v>5200</v>
       </c>
       <c r="C450" s="4">
-        <v>-4</v>
-      </c>
-      <c r="D450" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D450" s="5">
+        <v>1</v>
+      </c>
       <c r="E450" s="2"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>550002</v>
+        <v>530170</v>
       </c>
       <c r="B451" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C451" s="4">
-        <v>-5</v>
+        <v>130170</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="2"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>550003</v>
+        <v>530171</v>
       </c>
       <c r="B452" s="3">
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="C452" s="4">
-        <v>-8</v>
-      </c>
-      <c r="D452" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D452" s="5">
+        <v>1</v>
+      </c>
       <c r="E452" s="2"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453" s="6"/>
-      <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
-      <c r="D453" s="6"/>
-      <c r="E453" s="6"/>
+      <c r="A453" s="2">
+        <v>530172</v>
+      </c>
+      <c r="B453" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C453" s="4">
+        <v>3</v>
+      </c>
+      <c r="D453" s="5">
+        <v>1</v>
+      </c>
+      <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>559000</v>
+        <v>530173</v>
       </c>
       <c r="B454" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C454" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D454" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D454" s="5">
+        <v>1</v>
+      </c>
       <c r="E454" s="2"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>530180</v>
+      </c>
+      <c r="B455" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C455" s="4"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>540000</v>
+        <v>530181</v>
       </c>
       <c r="B456" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C456" s="4">
-        <v>50</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C456" s="4"/>
       <c r="D456" s="5"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" s="2">
-        <v>540001</v>
-      </c>
-      <c r="B457" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C457" s="4">
-        <v>50</v>
-      </c>
-      <c r="D457" s="5"/>
-      <c r="E457" s="2"/>
+      <c r="A457" s="6"/>
+      <c r="B457" s="6"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>540002</v>
+        <v>550000</v>
       </c>
       <c r="B458" s="3">
         <v>5006</v>
       </c>
       <c r="C458" s="4">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>540010</v>
+        <v>550001</v>
       </c>
       <c r="B459" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C459" s="4">
-        <v>-50</v>
+        <v>-4</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>540011</v>
+        <v>550002</v>
       </c>
       <c r="B460" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C460" s="4">
-        <v>-50</v>
+        <v>-5</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>540012</v>
+        <v>550003</v>
       </c>
       <c r="B461" s="3">
         <v>5006</v>
       </c>
       <c r="C461" s="4">
-        <v>-50</v>
+        <v>-8</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="2"/>
     </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="6"/>
+      <c r="B462" s="6"/>
+      <c r="C462" s="6"/>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+    </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>540020</v>
+        <v>559000</v>
       </c>
       <c r="B463" s="3">
         <v>5013</v>
       </c>
       <c r="C463" s="4">
-        <v>140020</v>
+        <v>559000</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="2"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
-        <v>540030</v>
-      </c>
-      <c r="B464" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C464" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D464" s="5"/>
-      <c r="E464" s="2"/>
-    </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>540040</v>
+        <v>540000</v>
       </c>
       <c r="B465" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C465" s="4">
-        <v>140040</v>
+        <v>50</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="2">
+        <v>540001</v>
+      </c>
+      <c r="B466" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C466" s="4">
+        <v>50</v>
+      </c>
+      <c r="D466" s="5"/>
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>540002</v>
+      </c>
+      <c r="B467" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C467" s="4">
+        <v>50</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="2">
+        <v>540010</v>
+      </c>
+      <c r="B468" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C468" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D468" s="5"/>
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>540011</v>
+      </c>
+      <c r="B469" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C469" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D469" s="5"/>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B470" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C470" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="2"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="2">
+        <v>540020</v>
+      </c>
+      <c r="B472" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C472" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D472" s="5"/>
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>540030</v>
+      </c>
+      <c r="B473" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C473" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D473" s="5"/>
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B474" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C474" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D474" s="5"/>
+      <c r="E474" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E0FF7-8FED-4CE4-8A24-2997AAB88ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13124E-7505-4BE0-A19F-878E0728FBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="4065" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="5505" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F474"/>
+  <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="K395" sqref="K395"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,10 +589,10 @@
         <v>500000</v>
       </c>
       <c r="B2" s="3">
-        <v>5500</v>
+        <v>5013</v>
       </c>
       <c r="C2" s="4">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
@@ -602,10 +602,10 @@
         <v>500010</v>
       </c>
       <c r="B3" s="3">
-        <v>5500</v>
+        <v>5013</v>
       </c>
       <c r="C3" s="4">
-        <v>110</v>
+        <v>100010</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -631,7 +631,7 @@
         <v>5013</v>
       </c>
       <c r="C5" s="4">
-        <v>100300</v>
+        <v>100030</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -644,7 +644,7 @@
         <v>5013</v>
       </c>
       <c r="C6" s="4">
-        <v>100310</v>
+        <v>100031</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -657,7 +657,7 @@
         <v>5013</v>
       </c>
       <c r="C7" s="4">
-        <v>100320</v>
+        <v>100032</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -677,1524 +677,1518 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>500040</v>
+        <v>500034</v>
       </c>
       <c r="B9" s="3">
-        <v>5013</v>
+        <v>5121</v>
       </c>
       <c r="C9" s="4">
-        <v>100400</v>
+        <v>60004</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>500050</v>
+        <v>500035</v>
       </c>
       <c r="B10" s="3">
-        <v>5500</v>
+        <v>5122</v>
       </c>
       <c r="C10" s="4">
-        <v>120</v>
+        <v>60004</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>500060</v>
+        <v>500040</v>
       </c>
       <c r="B11" s="3">
-        <v>5500</v>
+        <v>5013</v>
       </c>
       <c r="C11" s="4">
-        <v>120</v>
+        <v>100040</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>500070</v>
+        <v>500050</v>
       </c>
       <c r="B12" s="3">
-        <v>5500</v>
+        <v>5013</v>
       </c>
       <c r="C12" s="4">
-        <v>200</v>
+        <v>100050</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>500071</v>
+        <v>500060</v>
       </c>
       <c r="B13" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C13" s="4">
-        <v>50</v>
+        <v>100060</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>500072</v>
+        <v>500070</v>
       </c>
       <c r="B14" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C14" s="4">
-        <v>10</v>
+        <v>100070</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>500073</v>
+        <v>500071</v>
       </c>
       <c r="B15" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>500074</v>
+        <v>500072</v>
       </c>
       <c r="B16" s="3">
-        <v>5301</v>
+        <v>5003</v>
       </c>
       <c r="C16" s="4">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>500075</v>
+        <v>500073</v>
       </c>
       <c r="B17" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="C17" s="4">
-        <v>60001</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>500076</v>
+        <v>500074</v>
       </c>
       <c r="B18" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C18" s="4">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>500075</v>
+      </c>
+      <c r="B19" s="3">
         <v>5300</v>
       </c>
-      <c r="C18" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4">
+        <v>60001</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>510000</v>
+        <v>500076</v>
       </c>
       <c r="B20" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C20" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>60002</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>510001</v>
+        <v>500077</v>
       </c>
       <c r="B21" s="3">
-        <v>5300</v>
+        <v>5123</v>
       </c>
       <c r="C21" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
+        <v>60006</v>
+      </c>
+      <c r="D21" s="5">
+        <v>61001</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>510002</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C22" s="4">
-        <v>100</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>510010</v>
+        <v>510000</v>
       </c>
       <c r="B23" s="3">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="C23" s="4">
         <v>60000</v>
       </c>
       <c r="D23" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>510020</v>
+        <v>510001</v>
       </c>
       <c r="B24" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C24" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D24" s="5">
-        <v>61000</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>510030</v>
+        <v>510002</v>
       </c>
       <c r="B25" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C25" s="4">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>510040</v>
+        <v>510010</v>
       </c>
       <c r="B26" s="3">
-        <v>5006</v>
+        <v>5108</v>
       </c>
       <c r="C26" s="4">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="2">
+        <v>510020</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C27" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>61000</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>511000</v>
+        <v>510030</v>
       </c>
       <c r="B28" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C28" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>511001</v>
+        <v>510031</v>
       </c>
       <c r="B29" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C29" s="4">
-        <v>200</v>
-      </c>
+        <v>5023</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>511002</v>
+        <v>510040</v>
       </c>
       <c r="B30" s="3">
-        <v>5300</v>
+        <v>5006</v>
       </c>
       <c r="C30" s="4">
-        <v>60006</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>511003</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C31" s="4">
-        <v>201</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>511004</v>
+        <v>511000</v>
       </c>
       <c r="B32" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C32" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>60001</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>511010</v>
+        <v>511001</v>
       </c>
       <c r="B33" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C33" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>511020</v>
+        <v>511002</v>
       </c>
       <c r="B34" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C34" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D34" s="5">
-        <v>61000</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>511030</v>
+        <v>511003</v>
       </c>
       <c r="B35" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C35" s="4">
-        <v>60001</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="2">
+        <v>511004</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C36" s="4">
+        <v>60005</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>512000</v>
+        <v>511010</v>
       </c>
       <c r="B37" s="3">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="C37" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>512001</v>
+        <v>511020</v>
       </c>
       <c r="B38" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C38" s="4">
-        <v>500</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>60001</v>
+      </c>
+      <c r="D38" s="5">
+        <v>61000</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>512002</v>
+        <v>511030</v>
       </c>
       <c r="B39" s="3">
-        <v>5300</v>
+        <v>5117</v>
       </c>
       <c r="C39" s="4">
-        <v>60010</v>
+        <v>60001</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>512003</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C40" s="4">
-        <v>403</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>512004</v>
+        <v>512000</v>
       </c>
       <c r="B41" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C41" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>60002</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>512005</v>
+        <v>512001</v>
       </c>
       <c r="B42" s="3">
         <v>5301</v>
       </c>
       <c r="C42" s="4">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>512006</v>
+        <v>512002</v>
       </c>
       <c r="B43" s="3">
         <v>5300</v>
       </c>
       <c r="C43" s="4">
-        <v>60009</v>
+        <v>60010</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>512010</v>
+        <v>512003</v>
       </c>
       <c r="B44" s="3">
-        <v>5108</v>
+        <v>5301</v>
       </c>
       <c r="C44" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>512020</v>
+        <v>512004</v>
       </c>
       <c r="B45" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C45" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D45" s="5">
-        <v>61000</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>512030</v>
+        <v>512005</v>
       </c>
       <c r="B46" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C46" s="4">
-        <v>60002</v>
+        <v>404</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="2">
+        <v>512006</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C47" s="4">
+        <v>60009</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>513000</v>
+        <v>512010</v>
       </c>
       <c r="B48" s="3">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="C48" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D48" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>513001</v>
+        <v>512020</v>
       </c>
       <c r="B49" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C49" s="4">
-        <v>601</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
+        <v>60002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>513002</v>
+        <v>512030</v>
       </c>
       <c r="B50" s="3">
-        <v>5300</v>
+        <v>5117</v>
       </c>
       <c r="C50" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
+        <v>60002</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>513003</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C51" s="4">
-        <v>502</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>513004</v>
+        <v>512040</v>
       </c>
       <c r="B52" s="3">
-        <v>5300</v>
+        <v>5006</v>
       </c>
       <c r="C52" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>513010</v>
-      </c>
-      <c r="B53" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C53" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>513020</v>
+        <v>513000</v>
       </c>
       <c r="B54" s="3">
-        <v>5123</v>
+        <v>5102</v>
       </c>
       <c r="C54" s="4">
         <v>60003</v>
       </c>
       <c r="D54" s="5">
-        <v>61000</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>513030</v>
+        <v>513001</v>
       </c>
       <c r="B55" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C55" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="2">
+        <v>513002</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C56" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>514000</v>
+        <v>513003</v>
       </c>
       <c r="B57" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C57" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>514001</v>
+        <v>513004</v>
       </c>
       <c r="B58" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C58" s="4">
-        <v>601</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>514002</v>
+        <v>513010</v>
       </c>
       <c r="B59" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C59" s="4">
         <v>60003</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>514010</v>
+        <v>513020</v>
       </c>
       <c r="B60" s="3">
-        <v>5108</v>
+        <v>5123</v>
       </c>
       <c r="C60" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D60" s="5">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>514020</v>
+        <v>513030</v>
       </c>
       <c r="B61" s="3">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="C61" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D61" s="5">
-        <v>61000</v>
-      </c>
+        <v>60003</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>514030</v>
+        <v>513031</v>
       </c>
       <c r="B62" s="3">
-        <v>5117</v>
+        <v>5006</v>
       </c>
       <c r="C62" s="4">
-        <v>60004</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="2">
+        <v>513040</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>515000</v>
-      </c>
-      <c r="B64" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C64" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>515001</v>
+        <v>514000</v>
       </c>
       <c r="B65" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C65" s="4">
-        <v>201</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
+        <v>60004</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>515002</v>
+        <v>514001</v>
       </c>
       <c r="B66" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C66" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
+        <v>601</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>515003</v>
+        <v>514002</v>
       </c>
       <c r="B67" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C67" s="4">
-        <v>301</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
+        <v>60003</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>515004</v>
+        <v>514010</v>
       </c>
       <c r="B68" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C68" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
+        <v>60004</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>515010</v>
+        <v>514020</v>
       </c>
       <c r="B69" s="3">
-        <v>5108</v>
+        <v>5123</v>
       </c>
       <c r="C69" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D69" s="5">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>515020</v>
+        <v>514030</v>
       </c>
       <c r="B70" s="3">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="C70" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D70" s="5">
-        <v>61000</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>515030</v>
-      </c>
-      <c r="B71" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C71" s="4">
-        <v>60005</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="2">
+        <v>515000</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C72" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>516000</v>
+        <v>515001</v>
       </c>
       <c r="B73" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C73" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>516001</v>
+        <v>515002</v>
       </c>
       <c r="B74" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C74" s="4">
-        <v>200</v>
+        <v>60001</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>516002</v>
+        <v>515003</v>
       </c>
       <c r="B75" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C75" s="4">
-        <v>60001</v>
+        <v>301</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>516003</v>
+        <v>515004</v>
       </c>
       <c r="B76" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C76" s="4">
-        <v>300</v>
+        <v>60008</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>516004</v>
+        <v>515010</v>
       </c>
       <c r="B77" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C77" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8"/>
+        <v>60005</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>516010</v>
+        <v>515020</v>
       </c>
       <c r="B78" s="3">
-        <v>5108</v>
+        <v>5123</v>
       </c>
       <c r="C78" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D78" s="5">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>516020</v>
+        <v>515030</v>
       </c>
       <c r="B79" s="3">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="C79" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D79" s="5">
-        <v>61000</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D79" s="5"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>516030</v>
-      </c>
-      <c r="B80" s="3">
-        <v>5117</v>
-      </c>
-      <c r="C80" s="4">
-        <v>60006</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
+      <c r="A81" s="2">
+        <v>516000</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C81" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>517000</v>
+        <v>516001</v>
       </c>
       <c r="B82" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C82" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>517001</v>
+        <v>516002</v>
       </c>
       <c r="B83" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C83" s="4">
-        <v>300</v>
+        <v>60001</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>517002</v>
+        <v>516003</v>
       </c>
       <c r="B84" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C84" s="4">
-        <v>60006</v>
+        <v>300</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>517003</v>
+        <v>516004</v>
       </c>
       <c r="B85" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C85" s="4">
-        <v>400</v>
+        <v>60007</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>517004</v>
+        <v>516010</v>
       </c>
       <c r="B86" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C86" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
+        <v>60006</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>517005</v>
+        <v>516020</v>
       </c>
       <c r="B87" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C87" s="4">
-        <v>402</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
+        <v>60006</v>
+      </c>
+      <c r="D87" s="5">
+        <v>61000</v>
+      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>517006</v>
+        <v>516030</v>
       </c>
       <c r="B88" s="3">
-        <v>5300</v>
+        <v>5117</v>
       </c>
       <c r="C88" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
+        <v>60006</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>517007</v>
-      </c>
-      <c r="B89" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C89" s="4">
-        <v>403</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="8"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>517010</v>
+        <v>517000</v>
       </c>
       <c r="B90" s="3">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="C90" s="4">
         <v>60007</v>
       </c>
       <c r="D90" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>517020</v>
+        <v>517001</v>
       </c>
       <c r="B91" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C91" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D91" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E91" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>517030</v>
+        <v>517002</v>
       </c>
       <c r="B92" s="3">
-        <v>5117</v>
+        <v>5300</v>
       </c>
       <c r="C92" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="2"/>
+        <v>60006</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="2">
+        <v>517003</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C93" s="4">
+        <v>400</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>518000</v>
+        <v>517004</v>
       </c>
       <c r="B94" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C94" s="4">
         <v>60008</v>
       </c>
-      <c r="D94" s="5">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>518001</v>
+        <v>517005</v>
       </c>
       <c r="B95" s="3">
         <v>5301</v>
       </c>
       <c r="C95" s="4">
-        <v>301</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>518002</v>
+        <v>517006</v>
       </c>
       <c r="B96" s="3">
         <v>5300</v>
       </c>
       <c r="C96" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="2"/>
+        <v>60009</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>518003</v>
+        <v>517007</v>
       </c>
       <c r="B97" s="3">
         <v>5301</v>
       </c>
       <c r="C97" s="4">
-        <v>400</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>518004</v>
+        <v>517010</v>
       </c>
       <c r="B98" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C98" s="4">
         <v>60007</v>
       </c>
-      <c r="D98" s="5"/>
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>518005</v>
+        <v>517020</v>
       </c>
       <c r="B99" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C99" s="4">
-        <v>401</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D99" s="5">
+        <v>61000</v>
+      </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>518006</v>
+        <v>517030</v>
       </c>
       <c r="B100" s="3">
-        <v>5300</v>
+        <v>5117</v>
       </c>
       <c r="C100" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>518010</v>
-      </c>
-      <c r="B101" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C101" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D101" s="5">
-        <v>3</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>518020</v>
+        <v>518000</v>
       </c>
       <c r="B102" s="3">
-        <v>5123</v>
+        <v>5102</v>
       </c>
       <c r="C102" s="4">
         <v>60008</v>
       </c>
       <c r="D102" s="5">
-        <v>61000</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>518030</v>
+        <v>518001</v>
       </c>
       <c r="B103" s="3">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="C103" s="4">
-        <v>60008</v>
+        <v>301</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="2">
+        <v>518002</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C104" s="4">
+        <v>60005</v>
+      </c>
       <c r="D104" s="5"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>519000</v>
+        <v>518003</v>
       </c>
       <c r="B105" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C105" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D105" s="5">
-        <v>1</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D105" s="5"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>519001</v>
+        <v>518004</v>
       </c>
       <c r="B106" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C106" s="4">
-        <v>401</v>
+        <v>60007</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>519002</v>
+        <v>518005</v>
       </c>
       <c r="B107" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C107" s="4">
-        <v>60008</v>
+        <v>401</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>519003</v>
+        <v>518006</v>
       </c>
       <c r="B108" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C108" s="4">
-        <v>402</v>
+        <v>60009</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>519004</v>
+        <v>518010</v>
       </c>
       <c r="B109" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C109" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D109" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2</v>
+      </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>519005</v>
+        <v>518020</v>
       </c>
       <c r="B110" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C110" s="4">
-        <v>404</v>
-      </c>
-      <c r="D110" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D110" s="5">
+        <v>61000</v>
+      </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>519010</v>
+        <v>518030</v>
       </c>
       <c r="B111" s="3">
-        <v>5108</v>
+        <v>5117</v>
       </c>
       <c r="C111" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D111" s="5">
-        <v>3</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>519020</v>
-      </c>
-      <c r="B112" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C112" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D112" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>519030</v>
+        <v>519000</v>
       </c>
       <c r="B113" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C113" s="4">
         <v>60009</v>
       </c>
-      <c r="D113" s="5"/>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
+      <c r="A114" s="2">
+        <v>519001</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C114" s="4">
+        <v>401</v>
+      </c>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>520000</v>
+        <v>519002</v>
       </c>
       <c r="B115" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C115" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D115" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>520001</v>
+        <v>519003</v>
       </c>
       <c r="B116" s="3">
         <v>5301</v>
       </c>
       <c r="C116" s="4">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>520002</v>
+        <v>519004</v>
       </c>
       <c r="B117" s="3">
         <v>5300</v>
       </c>
       <c r="C117" s="4">
-        <v>60002</v>
+        <v>60007</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>520003</v>
+        <v>519005</v>
       </c>
       <c r="B118" s="3">
         <v>5301</v>
       </c>
       <c r="C118" s="4">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>520004</v>
+        <v>519010</v>
       </c>
       <c r="B119" s="3">
-        <v>5300</v>
+        <v>5108</v>
       </c>
       <c r="C119" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D119" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2</v>
+      </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>520005</v>
+        <v>519020</v>
       </c>
       <c r="B120" s="3">
-        <v>5301</v>
+        <v>5123</v>
       </c>
       <c r="C120" s="4">
-        <v>500</v>
-      </c>
-      <c r="D120" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D120" s="5">
+        <v>61000</v>
+      </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>520010</v>
+        <v>519030</v>
       </c>
       <c r="B121" s="3">
-        <v>5108</v>
+        <v>5117</v>
       </c>
       <c r="C121" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D121" s="5">
-        <v>3</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="2"/>
     </row>
     <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>520020</v>
-      </c>
-      <c r="B122" s="3">
-        <v>5123</v>
-      </c>
-      <c r="C122" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D122" s="5">
-        <v>61000</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>520030</v>
+        <v>520000</v>
       </c>
       <c r="B123" s="3">
-        <v>5117</v>
+        <v>5102</v>
       </c>
       <c r="C123" s="4">
         <v>60010</v>
       </c>
-      <c r="D123" s="5"/>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="4"/>
+      <c r="A124" s="2">
+        <v>520001</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C124" s="4">
+        <v>502</v>
+      </c>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>521000</v>
+        <v>520002</v>
       </c>
       <c r="B125" s="3">
-        <v>5102</v>
+        <v>5300</v>
       </c>
       <c r="C125" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D125" s="5">
-        <v>1</v>
-      </c>
+        <v>60002</v>
+      </c>
+      <c r="D125" s="5"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>521001</v>
+        <v>520003</v>
       </c>
       <c r="B126" s="3">
         <v>5301</v>
@@ -2207,54 +2201,54 @@
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>521002</v>
+        <v>520004</v>
       </c>
       <c r="B127" s="3">
         <v>5300</v>
       </c>
       <c r="C127" s="4">
-        <v>60010</v>
+        <v>60011</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>521003</v>
+        <v>520005</v>
       </c>
       <c r="B128" s="3">
         <v>5301</v>
       </c>
       <c r="C128" s="4">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>521010</v>
+        <v>520010</v>
       </c>
       <c r="B129" s="3">
         <v>5108</v>
       </c>
       <c r="C129" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D129" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>521020</v>
+        <v>520020</v>
       </c>
       <c r="B130" s="3">
         <v>5123</v>
       </c>
       <c r="C130" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D130" s="5">
         <v>61000</v>
@@ -2263,13 +2257,13 @@
     </row>
     <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>521030</v>
+        <v>520030</v>
       </c>
       <c r="B131" s="3">
         <v>5117</v>
       </c>
       <c r="C131" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
@@ -2282,484 +2276,507 @@
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
+      <c r="A133" s="2">
+        <v>521000</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C133" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1</v>
+      </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="2">
+        <v>521001</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C134" s="4">
+        <v>501</v>
+      </c>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="2">
+        <v>521002</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60010</v>
+      </c>
       <c r="D135" s="5"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="2">
+        <v>521003</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C136" s="4">
+        <v>700</v>
+      </c>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>521010</v>
+      </c>
+      <c r="B137" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C137" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
     <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>500100</v>
+        <v>521020</v>
       </c>
       <c r="B138" s="3">
-        <v>0</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="5"/>
+        <v>5123</v>
+      </c>
+      <c r="C138" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D138" s="5">
+        <v>61000</v>
+      </c>
       <c r="E138" s="2"/>
     </row>
     <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>500110</v>
+        <v>521030</v>
       </c>
       <c r="B139" s="3">
-        <v>0</v>
-      </c>
-      <c r="C139" s="4"/>
+        <v>5117</v>
+      </c>
+      <c r="C139" s="4">
+        <v>60011</v>
+      </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>500120</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
     </row>
     <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>500130</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
     </row>
     <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>500140</v>
-      </c>
-      <c r="B142" s="3">
-        <v>0</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2"/>
     </row>
     <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>500150</v>
-      </c>
-      <c r="B143" s="3">
-        <v>0</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
     </row>
     <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>500160</v>
-      </c>
-      <c r="B144" s="3">
-        <v>0</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>500170</v>
-      </c>
-      <c r="B145" s="3">
-        <v>0</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="2"/>
-    </row>
+    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>500180</v>
+        <v>501000</v>
       </c>
       <c r="B146" s="3">
-        <v>0</v>
-      </c>
-      <c r="C146" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C146" s="4">
+        <v>101000</v>
+      </c>
       <c r="D146" s="5"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>501010</v>
+      </c>
+      <c r="B147" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C147" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="2"/>
+    </row>
     <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>500200</v>
+        <v>501020</v>
       </c>
       <c r="B148" s="3">
-        <v>0</v>
-      </c>
-      <c r="C148" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C148" s="4">
+        <v>101020</v>
+      </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
     </row>
     <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>500210</v>
+        <v>501030</v>
       </c>
       <c r="B149" s="3">
-        <v>0</v>
-      </c>
-      <c r="C149" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C149" s="4">
+        <v>101030</v>
+      </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
     </row>
     <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>500220</v>
+        <v>501040</v>
       </c>
       <c r="B150" s="3">
-        <v>0</v>
-      </c>
-      <c r="C150" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C150" s="4">
+        <v>101040</v>
+      </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
     </row>
     <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>500230</v>
+        <v>501050</v>
       </c>
       <c r="B151" s="3">
-        <v>0</v>
-      </c>
-      <c r="C151" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C151" s="4">
+        <v>10</v>
+      </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
     </row>
     <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>500240</v>
+        <v>501051</v>
       </c>
       <c r="B152" s="3">
-        <v>0</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C152" s="4">
+        <v>5</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>500250</v>
-      </c>
-      <c r="B153" s="3">
-        <v>0</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
-    </row>
+    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>500260</v>
+        <v>502000</v>
       </c>
       <c r="B154" s="3">
-        <v>0</v>
-      </c>
-      <c r="C154" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C154" s="4">
+        <v>102000</v>
+      </c>
       <c r="D154" s="5"/>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>500270</v>
+        <v>502010</v>
       </c>
       <c r="B155" s="3">
-        <v>0</v>
-      </c>
-      <c r="C155" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C155" s="4">
+        <v>102010</v>
+      </c>
       <c r="D155" s="5"/>
       <c r="E155" s="2"/>
     </row>
     <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>500280</v>
+        <v>502020</v>
       </c>
       <c r="B156" s="3">
-        <v>0</v>
-      </c>
-      <c r="C156" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C156" s="4">
+        <v>102020</v>
+      </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>500290</v>
+        <v>502030</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
-      </c>
-      <c r="C157" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C157" s="4">
+        <v>102030</v>
+      </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>500300</v>
+        <v>502031</v>
       </c>
       <c r="B158" s="3">
+        <v>5109</v>
+      </c>
+      <c r="C158" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D158" s="5">
         <v>0</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="5"/>
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>500310</v>
+        <v>502032</v>
       </c>
       <c r="B159" s="3">
-        <v>0</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="5"/>
+        <v>5104</v>
+      </c>
+      <c r="C159" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D159" s="5">
+        <v>3</v>
+      </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>500320</v>
-      </c>
-      <c r="B160" s="3">
-        <v>0</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="2"/>
-    </row>
+    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>500330</v>
-      </c>
-      <c r="B161" s="3">
-        <v>0</v>
-      </c>
+        <v>509000</v>
+      </c>
+      <c r="B161" s="3"/>
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>500340</v>
-      </c>
-      <c r="B162" s="3">
-        <v>0</v>
-      </c>
+        <v>509010</v>
+      </c>
+      <c r="B162" s="3"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>500350</v>
-      </c>
-      <c r="B163" s="3">
-        <v>0</v>
-      </c>
+        <v>509020</v>
+      </c>
+      <c r="B163" s="3"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>501000</v>
-      </c>
-      <c r="B165" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C165" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="2"/>
-    </row>
+    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>509030</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>501010</v>
+        <v>510100</v>
       </c>
       <c r="B166" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C166" s="4">
-        <v>101010</v>
+        <v>15</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>501020</v>
+        <v>510101</v>
       </c>
       <c r="B167" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C167" s="4">
-        <v>101020</v>
+        <v>-10</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>501030</v>
+        <v>510102</v>
       </c>
       <c r="B168" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C168" s="4">
-        <v>101030</v>
+        <v>-5</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>501040</v>
+        <v>510101</v>
       </c>
       <c r="B169" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C169" s="4">
-        <v>101040</v>
-      </c>
+        <v>5021</v>
+      </c>
+      <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>501050</v>
+        <v>510110</v>
       </c>
       <c r="B170" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C170" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>501051</v>
+        <v>510120</v>
       </c>
       <c r="B171" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C171" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>510130</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C172" s="4">
+        <v>15</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="2"/>
+    </row>
     <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>502000</v>
+        <v>510140</v>
       </c>
       <c r="B173" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C173" s="4">
-        <v>102000</v>
+        <v>15</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>502010</v>
+        <v>510150</v>
       </c>
       <c r="B174" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C174" s="4">
-        <v>102010</v>
+        <v>15</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>502020</v>
+        <v>510103</v>
       </c>
       <c r="B175" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C175" s="4">
-        <v>102020</v>
+        <v>10</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>502030</v>
-      </c>
-      <c r="B176" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C176" s="4">
-        <v>102030</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="2"/>
-    </row>
+    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>502031</v>
+        <v>511060</v>
       </c>
       <c r="B177" s="3">
-        <v>5109</v>
+        <v>5009</v>
       </c>
       <c r="C177" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D177" s="5">
-        <v>0</v>
-      </c>
+        <v>61002</v>
+      </c>
+      <c r="D177" s="5"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>502032</v>
+        <v>511061</v>
       </c>
       <c r="B178" s="3">
-        <v>5104</v>
+        <v>5119</v>
       </c>
       <c r="C178" s="4">
-        <v>60000</v>
+        <v>60001</v>
       </c>
       <c r="D178" s="5">
-        <v>3</v>
+        <v>61002</v>
       </c>
       <c r="E178" s="2"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
@@ -2767,817 +2784,962 @@
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>503000</v>
+        <v>512100</v>
       </c>
       <c r="B180" s="3">
-        <v>0</v>
-      </c>
-      <c r="C180" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C180" s="4">
+        <v>112100</v>
+      </c>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>503010</v>
+        <v>512110</v>
       </c>
       <c r="B181" s="3">
-        <v>0</v>
-      </c>
-      <c r="C181" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C181" s="4">
+        <v>112110</v>
+      </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>503020</v>
+        <v>512111</v>
       </c>
       <c r="B182" s="3">
-        <v>0</v>
-      </c>
-      <c r="C182" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C182" s="4">
+        <v>-50</v>
+      </c>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>503030</v>
+        <v>512120</v>
       </c>
       <c r="B183" s="3">
-        <v>0</v>
-      </c>
-      <c r="C183" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C183" s="4">
+        <v>112120</v>
+      </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>503040</v>
+        <v>512130</v>
       </c>
       <c r="B184" s="3">
-        <v>0</v>
-      </c>
-      <c r="C184" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C184" s="4">
+        <v>112130</v>
+      </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>503100</v>
+        <v>512140</v>
       </c>
       <c r="B185" s="3">
-        <v>0</v>
-      </c>
-      <c r="C185" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C185" s="4">
+        <v>112140</v>
+      </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>503110</v>
-      </c>
-      <c r="B186" s="3">
-        <v>0</v>
-      </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="2"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>503120</v>
+        <v>513100</v>
       </c>
       <c r="B187" s="3">
-        <v>0</v>
-      </c>
-      <c r="C187" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C187" s="4">
+        <v>113100</v>
+      </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>503130</v>
+        <v>513110</v>
       </c>
       <c r="B188" s="3">
-        <v>0</v>
-      </c>
-      <c r="C188" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C188" s="4">
+        <v>113110</v>
+      </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>503140</v>
+        <v>513120</v>
       </c>
       <c r="B189" s="3">
-        <v>0</v>
-      </c>
-      <c r="C189" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C189" s="4">
+        <v>113120</v>
+      </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>503150</v>
+        <v>513121</v>
       </c>
       <c r="B190" s="3">
-        <v>0</v>
-      </c>
-      <c r="C190" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C190" s="4">
+        <v>113121</v>
+      </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>503160</v>
+        <v>513130</v>
       </c>
       <c r="B191" s="3">
-        <v>0</v>
-      </c>
-      <c r="C191" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C191" s="4">
+        <v>113130</v>
+      </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>503170</v>
+        <v>513140</v>
       </c>
       <c r="B192" s="3">
-        <v>0</v>
-      </c>
-      <c r="C192" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C192" s="4">
+        <v>113140</v>
+      </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>503180</v>
+        <v>513150</v>
       </c>
       <c r="B193" s="3">
-        <v>0</v>
-      </c>
-      <c r="C193" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C193" s="4">
+        <v>113150</v>
+      </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>503190</v>
+        <v>513160</v>
       </c>
       <c r="B194" s="3">
-        <v>0</v>
-      </c>
-      <c r="C194" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C194" s="4">
+        <v>113160</v>
+      </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>503200</v>
+        <v>513161</v>
       </c>
       <c r="B195" s="3">
-        <v>0</v>
-      </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C195" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D195" s="5">
+        <v>-5</v>
+      </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>503210</v>
+        <v>513200</v>
       </c>
       <c r="B196" s="3">
-        <v>0</v>
-      </c>
-      <c r="C196" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C196" s="4">
+        <v>113200</v>
+      </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>503220</v>
+        <v>513210</v>
       </c>
       <c r="B197" s="3">
-        <v>0</v>
-      </c>
-      <c r="C197" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C197" s="4">
+        <v>113210</v>
+      </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="A198" s="2">
+        <v>513220</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C198" s="4">
+        <v>113220</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>503300</v>
+        <v>513230</v>
       </c>
       <c r="B199" s="3">
-        <v>0</v>
-      </c>
-      <c r="C199" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C199" s="4">
+        <v>113160</v>
+      </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>503310</v>
+        <v>513231</v>
       </c>
       <c r="B200" s="3">
-        <v>0</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C200" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D200" s="5">
+        <v>-5</v>
+      </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>503320</v>
-      </c>
-      <c r="B201" s="3">
-        <v>0</v>
-      </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="2"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>503330</v>
+        <v>515100</v>
       </c>
       <c r="B202" s="3">
-        <v>0</v>
-      </c>
-      <c r="C202" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C202" s="4">
+        <v>115100</v>
+      </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>503340</v>
+        <v>515101</v>
       </c>
       <c r="B203" s="3">
-        <v>0</v>
-      </c>
-      <c r="C203" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C203" s="4">
+        <v>10</v>
+      </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>503350</v>
+        <v>515102</v>
       </c>
       <c r="B204" s="3">
-        <v>0</v>
-      </c>
-      <c r="C204" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C204" s="4">
+        <v>-2</v>
+      </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>503360</v>
+        <v>515103</v>
       </c>
       <c r="B205" s="3">
-        <v>0</v>
-      </c>
-      <c r="C205" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C205" s="4">
+        <v>115101</v>
+      </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>503370</v>
+        <v>515104</v>
       </c>
       <c r="B206" s="3">
-        <v>0</v>
-      </c>
-      <c r="C206" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C206" s="4">
+        <v>115102</v>
+      </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>503380</v>
+        <v>515110</v>
       </c>
       <c r="B207" s="3">
-        <v>0</v>
-      </c>
-      <c r="C207" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C207" s="4">
+        <v>115110</v>
+      </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>503390</v>
+        <v>515111</v>
       </c>
       <c r="B208" s="3">
-        <v>0</v>
-      </c>
-      <c r="C208" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C208" s="4">
+        <v>20</v>
+      </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>503400</v>
+        <v>515112</v>
       </c>
       <c r="B209" s="3">
-        <v>0</v>
-      </c>
-      <c r="C209" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C209" s="4">
+        <v>-2</v>
+      </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>503410</v>
+        <v>515113</v>
       </c>
       <c r="B210" s="3">
-        <v>0</v>
-      </c>
-      <c r="C210" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C210" s="4">
+        <v>115111</v>
+      </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>503500</v>
+        <v>515114</v>
       </c>
       <c r="B211" s="3">
-        <v>0</v>
-      </c>
-      <c r="C211" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C211" s="4">
+        <v>115112</v>
+      </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>503510</v>
+        <v>515120</v>
       </c>
       <c r="B212" s="3">
-        <v>0</v>
-      </c>
-      <c r="C212" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C212" s="4">
+        <v>115120</v>
+      </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>503520</v>
+        <v>515121</v>
       </c>
       <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C213" s="4">
+        <v>5</v>
+      </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>503530</v>
+        <v>515122</v>
       </c>
       <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C214" s="4">
+        <v>-1</v>
+      </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>503540</v>
+        <v>515130</v>
       </c>
       <c r="B215" s="3">
-        <v>0</v>
-      </c>
-      <c r="C215" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C215" s="4">
+        <v>115120</v>
+      </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>503550</v>
+        <v>515131</v>
       </c>
       <c r="B216" s="3">
-        <v>0</v>
-      </c>
-      <c r="C216" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C216" s="4">
+        <v>10</v>
+      </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>503560</v>
+        <v>515132</v>
       </c>
       <c r="B217" s="3">
-        <v>0</v>
-      </c>
-      <c r="C217" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C217" s="4">
+        <v>-1</v>
+      </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>503570</v>
+        <v>515140</v>
       </c>
       <c r="B218" s="3">
-        <v>0</v>
-      </c>
-      <c r="C218" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C218" s="4">
+        <v>100</v>
+      </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>503580</v>
+        <v>515150</v>
       </c>
       <c r="B219" s="3">
-        <v>0</v>
-      </c>
-      <c r="C219" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C219" s="4">
+        <v>115150</v>
+      </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>503590</v>
+        <v>515160</v>
       </c>
       <c r="B220" s="3">
-        <v>0</v>
-      </c>
-      <c r="C220" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C220" s="4">
+        <v>115160</v>
+      </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>503600</v>
+        <v>515170</v>
       </c>
       <c r="B221" s="3">
-        <v>0</v>
-      </c>
-      <c r="C221" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C221" s="4">
+        <v>115170</v>
+      </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>503610</v>
+        <v>515171</v>
       </c>
       <c r="B222" s="3">
-        <v>0</v>
-      </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C222" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D222" s="5">
+        <v>-3</v>
+      </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>503700</v>
+        <v>515180</v>
       </c>
       <c r="B223" s="3">
-        <v>0</v>
-      </c>
-      <c r="C223" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C223" s="4">
+        <v>115180</v>
+      </c>
       <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>503710</v>
+        <v>515181</v>
       </c>
       <c r="B224" s="3">
-        <v>0</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C224" s="4">
+        <v>15</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>503720</v>
-      </c>
-      <c r="B225" s="3">
-        <v>0</v>
-      </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="2"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>503730</v>
+        <v>516100</v>
       </c>
       <c r="B226" s="3">
-        <v>0</v>
-      </c>
-      <c r="C226" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C226" s="4">
+        <v>116100</v>
+      </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>503740</v>
+        <v>516101</v>
       </c>
       <c r="B227" s="3">
-        <v>0</v>
-      </c>
-      <c r="C227" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C227" s="4">
+        <v>15</v>
+      </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>503750</v>
+        <v>516102</v>
       </c>
       <c r="B228" s="3">
-        <v>0</v>
-      </c>
-      <c r="C228" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C228" s="4">
+        <v>-2</v>
+      </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>503760</v>
+        <v>516103</v>
       </c>
       <c r="B229" s="3">
-        <v>0</v>
-      </c>
-      <c r="C229" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C229" s="4">
+        <v>116101</v>
+      </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>503770</v>
+        <v>516104</v>
       </c>
       <c r="B230" s="3">
-        <v>0</v>
-      </c>
-      <c r="C230" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C230" s="4">
+        <v>-5</v>
+      </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>503780</v>
+        <v>516105</v>
       </c>
       <c r="B231" s="3">
-        <v>0</v>
-      </c>
-      <c r="C231" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C231" s="4">
+        <v>5</v>
+      </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>503790</v>
+        <v>516110</v>
       </c>
       <c r="B232" s="3">
-        <v>0</v>
-      </c>
-      <c r="C232" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C232" s="4">
+        <v>116110</v>
+      </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>503800</v>
+        <v>516120</v>
       </c>
       <c r="B233" s="3">
-        <v>0</v>
-      </c>
-      <c r="C233" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C233" s="4">
+        <v>116120</v>
+      </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>503810</v>
+        <v>516121</v>
       </c>
       <c r="B234" s="3">
-        <v>0</v>
-      </c>
-      <c r="C234" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C234" s="4">
+        <v>116120</v>
+      </c>
       <c r="D234" s="5"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>503900</v>
+        <v>516122</v>
       </c>
       <c r="B235" s="3">
-        <v>0</v>
-      </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C235" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D235" s="5">
+        <v>-4</v>
+      </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>503910</v>
+        <v>516130</v>
       </c>
       <c r="B236" s="3">
-        <v>0</v>
-      </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C236" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D236" s="5">
+        <v>-3</v>
+      </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>503920</v>
+        <v>516131</v>
       </c>
       <c r="B237" s="3">
-        <v>0</v>
-      </c>
-      <c r="C237" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C237" s="4">
+        <v>10</v>
+      </c>
       <c r="D237" s="5"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="A238" s="2">
+        <v>516132</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5108</v>
+      </c>
+      <c r="C238" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D238" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>504000</v>
-      </c>
-      <c r="B239" s="3">
-        <v>0</v>
-      </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="2"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>504010</v>
+        <v>517100</v>
       </c>
       <c r="B240" s="3">
-        <v>0</v>
-      </c>
-      <c r="C240" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C240" s="4">
+        <v>117100</v>
+      </c>
       <c r="D240" s="5"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>504020</v>
+        <v>517110</v>
       </c>
       <c r="B241" s="3">
-        <v>0</v>
-      </c>
-      <c r="C241" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C241" s="4">
+        <v>117110</v>
+      </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>504030</v>
+        <v>517120</v>
       </c>
       <c r="B242" s="3">
-        <v>0</v>
-      </c>
-      <c r="C242" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C242" s="4">
+        <v>117120</v>
+      </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>504040</v>
+        <v>517121</v>
       </c>
       <c r="B243" s="3">
-        <v>0</v>
-      </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C243" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D243" s="5">
+        <v>-3</v>
+      </c>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>504050</v>
+        <v>517122</v>
       </c>
       <c r="B244" s="3">
-        <v>0</v>
-      </c>
-      <c r="C244" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C244" s="4">
+        <v>10</v>
+      </c>
       <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>504060</v>
+        <v>517130</v>
       </c>
       <c r="B245" s="3">
-        <v>0</v>
-      </c>
-      <c r="C245" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C245" s="4">
+        <v>117130</v>
+      </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>504070</v>
+        <v>517140</v>
       </c>
       <c r="B246" s="3">
-        <v>0</v>
-      </c>
-      <c r="C246" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C246" s="4">
+        <v>117140</v>
+      </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>504080</v>
+        <v>517141</v>
       </c>
       <c r="B247" s="3">
-        <v>0</v>
-      </c>
-      <c r="C247" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C247" s="4">
+        <v>117141</v>
+      </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>504090</v>
+        <v>517150</v>
       </c>
       <c r="B248" s="3">
-        <v>0</v>
-      </c>
-      <c r="C248" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C248" s="4">
+        <v>117150</v>
+      </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>504100</v>
+        <v>517151</v>
       </c>
       <c r="B249" s="3">
-        <v>0</v>
-      </c>
-      <c r="C249" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C249" s="4">
+        <v>20</v>
+      </c>
       <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>504110</v>
+        <v>517152</v>
       </c>
       <c r="B250" s="3">
-        <v>0</v>
-      </c>
-      <c r="C250" s="4"/>
-      <c r="D250" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C250" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D250" s="5">
+        <v>-3</v>
+      </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>504120</v>
+        <v>517153</v>
       </c>
       <c r="B251" s="3">
-        <v>0</v>
-      </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C251" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D251" s="5">
+        <v>-3</v>
+      </c>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>504130</v>
+        <v>517154</v>
       </c>
       <c r="B252" s="3">
-        <v>0</v>
-      </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="5"/>
+        <v>5108</v>
+      </c>
+      <c r="C252" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D252" s="5">
+        <v>-3</v>
+      </c>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>504200</v>
-      </c>
-      <c r="B253" s="3">
-        <v>0</v>
-      </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="2"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>504210</v>
+        <v>518100</v>
       </c>
       <c r="B254" s="3">
         <v>0</v>
@@ -3588,18 +3750,20 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>504220</v>
+        <v>518110</v>
       </c>
       <c r="B255" s="3">
-        <v>0</v>
-      </c>
-      <c r="C255" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C255" s="4">
+        <v>-20</v>
+      </c>
       <c r="D255" s="5"/>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>504230</v>
+        <v>518111</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -3609,53 +3773,65 @@
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
+      <c r="A257" s="2">
+        <v>518112</v>
+      </c>
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+      <c r="C257" s="4"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>509000</v>
+        <v>518113</v>
       </c>
       <c r="B258" s="3">
-        <v>0</v>
-      </c>
-      <c r="C258" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C258" s="4">
+        <v>118110</v>
+      </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>509010</v>
+        <v>518114</v>
       </c>
       <c r="B259" s="3">
-        <v>0</v>
-      </c>
-      <c r="C259" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C259" s="4">
+        <v>118111</v>
+      </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>509020</v>
+        <v>518115</v>
       </c>
       <c r="B260" s="3">
-        <v>0</v>
-      </c>
-      <c r="C260" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C260" s="4">
+        <v>118112</v>
+      </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>509030</v>
+        <v>518116</v>
       </c>
       <c r="B261" s="3">
-        <v>0</v>
-      </c>
-      <c r="C261" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C261" s="4">
+        <v>5</v>
+      </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
@@ -3668,196 +3844,204 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>510100</v>
+        <v>519100</v>
       </c>
       <c r="B263" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C263" s="4">
-        <v>10</v>
+        <v>119100</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>510101</v>
+        <v>519101</v>
       </c>
       <c r="B264" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C264" s="4">
-        <v>-10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C264" s="4"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>510102</v>
+        <v>519102</v>
       </c>
       <c r="B265" s="3">
         <v>5006</v>
       </c>
       <c r="C265" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>510101</v>
+        <v>519110</v>
       </c>
       <c r="B266" s="3">
-        <v>5021</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C266" s="4">
+        <v>191100</v>
+      </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>510110</v>
+        <v>519111</v>
       </c>
       <c r="B267" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C267" s="4">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>510120</v>
+        <v>519112</v>
       </c>
       <c r="B268" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C268" s="4">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
+      <c r="A269" s="2">
+        <v>519120</v>
+      </c>
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>511060</v>
+        <v>519121</v>
       </c>
       <c r="B270" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C270" s="4">
-        <v>61002</v>
+        <v>191200</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>511061</v>
+        <v>519122</v>
       </c>
       <c r="B271" s="3">
-        <v>5119</v>
+        <v>5108</v>
       </c>
       <c r="C271" s="4">
-        <v>60001</v>
+        <v>60009</v>
       </c>
       <c r="D271" s="5">
-        <v>61002</v>
+        <v>-3</v>
       </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="6"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
+      <c r="A272" s="2">
+        <v>519123</v>
+      </c>
+      <c r="B272" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C272" s="4">
+        <v>10</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>512100</v>
+        <v>519130</v>
       </c>
       <c r="B273" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C273" s="4">
-        <v>112100</v>
+        <v>10</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>512110</v>
+        <v>519131</v>
       </c>
       <c r="B274" s="3">
         <v>5013</v>
       </c>
       <c r="C274" s="4">
-        <v>112110</v>
+        <v>119130</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>512111</v>
+        <v>519140</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
       </c>
       <c r="C275" s="4">
-        <v>-50</v>
+        <v>10</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>512120</v>
+        <v>519141</v>
       </c>
       <c r="B276" s="3">
         <v>5013</v>
       </c>
       <c r="C276" s="4">
-        <v>112120</v>
+        <v>119140</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>512130</v>
+        <v>519150</v>
       </c>
       <c r="B277" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C277" s="4">
-        <v>112130</v>
+        <v>10</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>512140</v>
+        <v>519151</v>
       </c>
       <c r="B278" s="3">
         <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>112140</v>
+        <v>119150</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
@@ -3871,175 +4055,171 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>513100</v>
+        <v>520100</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>113100</v>
+        <v>120000</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>513110</v>
+        <v>520110</v>
       </c>
       <c r="B281" s="3">
         <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>113110</v>
+        <v>120110</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>513120</v>
+        <v>520120</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>113120</v>
+        <v>120120</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>513130</v>
+        <v>520121</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>113130</v>
+        <v>120121</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>513140</v>
+        <v>520122</v>
       </c>
       <c r="B284" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C284" s="4">
-        <v>113140</v>
+        <v>-3</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>513150</v>
+        <v>520123</v>
       </c>
       <c r="B285" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C285" s="4">
-        <v>113150</v>
+        <v>10</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>513160</v>
+        <v>520124</v>
       </c>
       <c r="B286" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C286" s="4">
-        <v>113160</v>
+        <v>10</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>513161</v>
+        <v>520130</v>
       </c>
       <c r="B287" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C287" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D287" s="5">
-        <v>-5</v>
-      </c>
+        <v>120130</v>
+      </c>
+      <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>513200</v>
+        <v>520140</v>
       </c>
       <c r="B288" s="3">
         <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>113200</v>
+        <v>120140</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>513210</v>
+        <v>520150</v>
       </c>
       <c r="B289" s="3">
         <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>113210</v>
+        <v>120150</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>513220</v>
+        <v>520160</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>113220</v>
+        <v>120160</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>513230</v>
+        <v>520161</v>
       </c>
       <c r="B291" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C291" s="4">
-        <v>113160</v>
+        <v>-30</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>513231</v>
+        <v>520162</v>
       </c>
       <c r="B292" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C292" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D292" s="5">
-        <v>-5</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -4051,1775 +4231,1825 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>515100</v>
+        <v>521100</v>
       </c>
       <c r="B294" s="3">
         <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>115100</v>
+        <v>121100</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>515101</v>
+        <v>521110</v>
       </c>
       <c r="B295" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C295" s="4">
-        <v>10</v>
+        <v>121110</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>515102</v>
+        <v>521111</v>
       </c>
       <c r="B296" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C296" s="4">
-        <v>-2</v>
+        <v>121111</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>515103</v>
+        <v>521112</v>
       </c>
       <c r="B297" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C297" s="4">
-        <v>115101</v>
+        <v>30</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>515104</v>
+        <v>521120</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>115102</v>
+        <v>121120</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>515110</v>
+        <v>521121</v>
       </c>
       <c r="B299" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C299" s="4">
-        <v>115110</v>
-      </c>
-      <c r="D299" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D299" s="5">
+        <v>-3</v>
+      </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>515111</v>
+        <v>521122</v>
       </c>
       <c r="B300" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C300" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>515112</v>
+        <v>521123</v>
       </c>
       <c r="B301" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C301" s="4">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>515113</v>
+        <v>521124</v>
       </c>
       <c r="B302" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C302" s="4">
-        <v>115111</v>
-      </c>
-      <c r="D302" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D302" s="5">
+        <v>-10</v>
+      </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>515114</v>
+        <v>521130</v>
       </c>
       <c r="B303" s="3">
         <v>5013</v>
       </c>
       <c r="C303" s="4">
-        <v>115112</v>
+        <v>121130</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>515120</v>
+        <v>521140</v>
       </c>
       <c r="B304" s="3">
         <v>5013</v>
       </c>
       <c r="C304" s="4">
-        <v>115120</v>
+        <v>121140</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>515121</v>
+        <v>521141</v>
       </c>
       <c r="B305" s="3">
-        <v>5000</v>
+        <v>5108</v>
       </c>
       <c r="C305" s="4">
-        <v>2</v>
-      </c>
-      <c r="D305" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D305" s="5">
+        <v>-3</v>
+      </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>515122</v>
+        <v>521150</v>
       </c>
       <c r="B306" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C306" s="4">
-        <v>-1</v>
+        <v>121150</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>515130</v>
+        <v>521151</v>
       </c>
       <c r="B307" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C307" s="4">
-        <v>115120</v>
+        <v>2</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>515131</v>
+        <v>521152</v>
       </c>
       <c r="B308" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C308" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>515132</v>
+        <v>521160</v>
       </c>
       <c r="B309" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C309" s="4">
-        <v>-1</v>
+        <v>121160</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>515140</v>
+        <v>521170</v>
       </c>
       <c r="B310" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C310" s="4">
-        <v>30</v>
+        <v>121170</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>515150</v>
+        <v>521180</v>
       </c>
       <c r="B311" s="3">
         <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>115150</v>
+        <v>121180</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>515160</v>
+        <v>521181</v>
       </c>
       <c r="B312" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C312" s="4">
-        <v>115160</v>
+        <v>3</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="2">
-        <v>515170</v>
-      </c>
-      <c r="B313" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C313" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D313" s="5"/>
-      <c r="E313" s="2"/>
+      <c r="A313" s="6"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>515171</v>
+        <v>530000</v>
       </c>
       <c r="B314" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C314" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D314" s="5">
-        <v>-3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>515180</v>
+        <v>530001</v>
       </c>
       <c r="B315" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C315" s="4">
-        <v>115180</v>
+        <v>-30</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>515181</v>
+        <v>530002</v>
       </c>
       <c r="B316" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C316" s="4">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="2">
+        <v>530003</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C317" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>516100</v>
+        <v>530010</v>
       </c>
       <c r="B318" s="3">
         <v>5013</v>
       </c>
       <c r="C318" s="4">
-        <v>116100</v>
+        <v>130010</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>516101</v>
+        <v>530011</v>
       </c>
       <c r="B319" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C319" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>516102</v>
+        <v>530012</v>
       </c>
       <c r="B320" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C320" s="4">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>516103</v>
+        <v>530020</v>
       </c>
       <c r="B321" s="3">
         <v>5013</v>
       </c>
       <c r="C321" s="4">
-        <v>116101</v>
+        <v>130020</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>516104</v>
+        <v>530021</v>
       </c>
       <c r="B322" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C322" s="4">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>516105</v>
+        <v>530022</v>
       </c>
       <c r="B323" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C323" s="4">
-        <v>5</v>
+        <v>-40</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>516110</v>
+        <v>530030</v>
       </c>
       <c r="B324" s="3">
         <v>5013</v>
       </c>
       <c r="C324" s="4">
-        <v>116110</v>
+        <v>130030</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>516120</v>
+        <v>530031</v>
       </c>
       <c r="B325" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C325" s="4">
-        <v>116120</v>
+        <v>-20</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>516121</v>
+        <v>530040</v>
       </c>
       <c r="B326" s="3">
         <v>5013</v>
       </c>
       <c r="C326" s="4">
-        <v>116120</v>
+        <v>130040</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>516130</v>
+        <v>530041</v>
       </c>
       <c r="B327" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C327" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D327" s="5">
-        <v>-3</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>516131</v>
+        <v>530050</v>
       </c>
       <c r="B328" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C328" s="4">
-        <v>3</v>
+        <v>130050</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>516132</v>
+        <v>530051</v>
       </c>
       <c r="B329" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C329" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D329" s="5">
-        <v>-3</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="6"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
+      <c r="A330" s="2">
+        <v>530060</v>
+      </c>
+      <c r="B330" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C330" s="4">
+        <v>130060</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>517100</v>
+        <v>530061</v>
       </c>
       <c r="B331" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C331" s="4">
-        <v>117100</v>
+        <v>-20</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>517110</v>
+        <v>530070</v>
       </c>
       <c r="B332" s="3">
         <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>117110</v>
+        <v>130070</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>517120</v>
+        <v>530071</v>
       </c>
       <c r="B333" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C333" s="4">
-        <v>117120</v>
+        <v>-20</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>517121</v>
+        <v>530080</v>
       </c>
       <c r="B334" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D334" s="5">
-        <v>-3</v>
-      </c>
+        <v>130080</v>
+      </c>
+      <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>517122</v>
+        <v>530081</v>
       </c>
       <c r="B335" s="3">
         <v>5003</v>
       </c>
       <c r="C335" s="4">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>517130</v>
+        <v>530090</v>
       </c>
       <c r="B336" s="3">
         <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>117130</v>
+        <v>130090</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>517140</v>
+        <v>530091</v>
       </c>
       <c r="B337" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C337" s="4">
-        <v>117140</v>
+        <v>-20</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>517150</v>
+        <v>530100</v>
       </c>
       <c r="B338" s="3">
         <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>117150</v>
+        <v>130100</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>517151</v>
+        <v>530101</v>
       </c>
       <c r="B339" s="3">
         <v>5003</v>
       </c>
       <c r="C339" s="4">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>517152</v>
+        <v>530110</v>
       </c>
       <c r="B340" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D340" s="5">
-        <v>-3</v>
-      </c>
+        <v>130110</v>
+      </c>
+      <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>517153</v>
+        <v>530111</v>
       </c>
       <c r="B341" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C341" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D341" s="5">
-        <v>-3</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>517154</v>
+        <v>530120</v>
       </c>
       <c r="B342" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D342" s="5">
-        <v>-3</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
+      <c r="A343" s="2">
+        <v>530121</v>
+      </c>
+      <c r="B343" s="3">
+        <v>5203</v>
+      </c>
+      <c r="C343" s="4">
+        <v>2</v>
+      </c>
+      <c r="D343" s="5">
+        <v>1</v>
+      </c>
+      <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>518100</v>
+        <v>530122</v>
       </c>
       <c r="B344" s="3">
-        <v>0</v>
-      </c>
-      <c r="C344" s="4"/>
-      <c r="D344" s="5"/>
+        <v>5203</v>
+      </c>
+      <c r="C344" s="4">
+        <v>3</v>
+      </c>
+      <c r="D344" s="5">
+        <v>1</v>
+      </c>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>518110</v>
+        <v>530123</v>
       </c>
       <c r="B345" s="3">
-        <v>5000</v>
+        <v>5203</v>
       </c>
       <c r="C345" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D345" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D345" s="5">
+        <v>1</v>
+      </c>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>518111</v>
+        <v>530130</v>
       </c>
       <c r="B346" s="3">
-        <v>0</v>
-      </c>
-      <c r="C346" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C346" s="4">
+        <v>130130</v>
+      </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>518112</v>
+        <v>530131</v>
       </c>
       <c r="B347" s="3">
-        <v>0</v>
-      </c>
-      <c r="C347" s="4"/>
-      <c r="D347" s="5"/>
+        <v>5200</v>
+      </c>
+      <c r="C347" s="4">
+        <v>2</v>
+      </c>
+      <c r="D347" s="5">
+        <v>1</v>
+      </c>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>518113</v>
+        <v>530132</v>
       </c>
       <c r="B348" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C348" s="4">
-        <v>118110</v>
-      </c>
-      <c r="D348" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D348" s="5">
+        <v>1</v>
+      </c>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>518114</v>
+        <v>530133</v>
       </c>
       <c r="B349" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C349" s="4">
-        <v>118111</v>
-      </c>
-      <c r="D349" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>518115</v>
+        <v>530140</v>
       </c>
       <c r="B350" s="3">
         <v>5013</v>
       </c>
       <c r="C350" s="4">
-        <v>118112</v>
+        <v>130140</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>518116</v>
+        <v>530141</v>
       </c>
       <c r="B351" s="3">
-        <v>5003</v>
+        <v>5206</v>
       </c>
       <c r="C351" s="4">
-        <v>5</v>
-      </c>
-      <c r="D351" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D351" s="5">
+        <v>1</v>
+      </c>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
+      <c r="A352" s="2">
+        <v>530142</v>
+      </c>
+      <c r="B352" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C352" s="4">
+        <v>3</v>
+      </c>
+      <c r="D352" s="5">
+        <v>1</v>
+      </c>
+      <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>519100</v>
+        <v>530143</v>
       </c>
       <c r="B353" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C353" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D353" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D353" s="5">
+        <v>1</v>
+      </c>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>519101</v>
+        <v>530150</v>
       </c>
       <c r="B354" s="3">
-        <v>0</v>
-      </c>
-      <c r="C354" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C354" s="4">
+        <v>130150</v>
+      </c>
       <c r="D354" s="5"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>519102</v>
+        <v>530151</v>
       </c>
       <c r="B355" s="3">
-        <v>5006</v>
+        <v>5203</v>
       </c>
       <c r="C355" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D355" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D355" s="5">
+        <v>1</v>
+      </c>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>519110</v>
+        <v>530152</v>
       </c>
       <c r="B356" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C356" s="4">
-        <v>191100</v>
-      </c>
-      <c r="D356" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D356" s="5">
+        <v>1</v>
+      </c>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>519111</v>
+        <v>530153</v>
       </c>
       <c r="B357" s="3">
-        <v>0</v>
-      </c>
-      <c r="C357" s="4"/>
-      <c r="D357" s="5"/>
+        <v>5203</v>
+      </c>
+      <c r="C357" s="4">
+        <v>4</v>
+      </c>
+      <c r="D357" s="5">
+        <v>1</v>
+      </c>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>519112</v>
+        <v>530160</v>
       </c>
       <c r="B358" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C358" s="4">
-        <v>-2</v>
+        <v>130160</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>519120</v>
+        <v>530161</v>
       </c>
       <c r="B359" s="3">
-        <v>0</v>
-      </c>
-      <c r="C359" s="4"/>
-      <c r="D359" s="5"/>
+        <v>5200</v>
+      </c>
+      <c r="C359" s="4">
+        <v>2</v>
+      </c>
+      <c r="D359" s="5">
+        <v>1</v>
+      </c>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>519121</v>
+        <v>530162</v>
       </c>
       <c r="B360" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C360" s="4">
-        <v>191200</v>
-      </c>
-      <c r="D360" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D360" s="5">
+        <v>1</v>
+      </c>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>519122</v>
+        <v>530163</v>
       </c>
       <c r="B361" s="3">
-        <v>5108</v>
+        <v>5200</v>
       </c>
       <c r="C361" s="4">
-        <v>60009</v>
+        <v>4</v>
       </c>
       <c r="D361" s="5">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>519123</v>
+        <v>530170</v>
       </c>
       <c r="B362" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C362" s="4">
-        <v>10</v>
+        <v>130170</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>519130</v>
+        <v>530171</v>
       </c>
       <c r="B363" s="3">
-        <v>5003</v>
+        <v>5206</v>
       </c>
       <c r="C363" s="4">
-        <v>5</v>
-      </c>
-      <c r="D363" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D363" s="5">
+        <v>1</v>
+      </c>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>519131</v>
+        <v>530172</v>
       </c>
       <c r="B364" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C364" s="4">
-        <v>119130</v>
-      </c>
-      <c r="D364" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>519140</v>
+        <v>530173</v>
       </c>
       <c r="B365" s="3">
-        <v>5003</v>
+        <v>5206</v>
       </c>
       <c r="C365" s="4">
-        <v>5</v>
-      </c>
-      <c r="D365" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D365" s="5">
+        <v>1</v>
+      </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>519141</v>
+        <v>530180</v>
       </c>
       <c r="B366" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C366" s="4">
-        <v>119140</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C366" s="4"/>
       <c r="D366" s="5"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>519150</v>
+        <v>530181</v>
       </c>
       <c r="B367" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C367" s="4">
-        <v>5</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C367" s="4"/>
       <c r="D367" s="5"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="2">
-        <v>519151</v>
-      </c>
-      <c r="B368" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C368" s="4">
-        <v>119150</v>
-      </c>
-      <c r="D368" s="5"/>
-      <c r="E368" s="2"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
+      <c r="A369" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B369" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C369" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>520100</v>
+        <v>550001</v>
       </c>
       <c r="B370" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C370" s="4">
-        <v>120000</v>
+        <v>-4</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>520110</v>
+        <v>550002</v>
       </c>
       <c r="B371" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C371" s="4">
-        <v>120110</v>
+        <v>-5</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>520120</v>
+        <v>550003</v>
       </c>
       <c r="B372" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C372" s="4">
-        <v>120120</v>
+        <v>-8</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>520121</v>
+        <v>550010</v>
       </c>
       <c r="B373" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C373" s="4">
-        <v>120121</v>
+        <v>15</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>520122</v>
+        <v>550011</v>
       </c>
       <c r="B374" s="3">
         <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>520123</v>
+        <v>550012</v>
       </c>
       <c r="B375" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>520124</v>
-      </c>
-      <c r="B376" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C376" s="4">
-        <v>5</v>
-      </c>
-      <c r="D376" s="5"/>
-      <c r="E376" s="2"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>520130</v>
+        <v>559000</v>
       </c>
       <c r="B377" s="3">
         <v>5013</v>
       </c>
       <c r="C377" s="4">
-        <v>120130</v>
+        <v>559000</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>520140</v>
+        <v>520160</v>
       </c>
       <c r="B378" s="3">
         <v>5013</v>
       </c>
       <c r="C378" s="4">
-        <v>120140</v>
+        <v>120160</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>520150</v>
+        <v>520161</v>
       </c>
       <c r="B379" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C379" s="4">
-        <v>120150</v>
+        <v>-20</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>520160</v>
+        <v>520162</v>
       </c>
       <c r="B380" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C380" s="4">
-        <v>120160</v>
+        <v>-10</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>520161</v>
-      </c>
-      <c r="B381" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C381" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D381" s="5"/>
-      <c r="E381" s="2"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>520162</v>
+        <v>521100</v>
       </c>
       <c r="B382" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C382" s="4">
-        <v>-10</v>
+        <v>121100</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-      <c r="D383" s="6"/>
-      <c r="E383" s="6"/>
+      <c r="A383" s="2">
+        <v>521110</v>
+      </c>
+      <c r="B383" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C383" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D383" s="5"/>
+      <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>521100</v>
+        <v>521111</v>
       </c>
       <c r="B384" s="3">
         <v>5013</v>
       </c>
       <c r="C384" s="4">
-        <v>121100</v>
+        <v>121111</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>521110</v>
+        <v>521112</v>
       </c>
       <c r="B385" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C385" s="4">
-        <v>121110</v>
+        <v>30</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>521111</v>
+        <v>521120</v>
       </c>
       <c r="B386" s="3">
         <v>5013</v>
       </c>
       <c r="C386" s="4">
-        <v>121111</v>
+        <v>121120</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>521112</v>
+        <v>521121</v>
       </c>
       <c r="B387" s="3">
-        <v>5000</v>
+        <v>5108</v>
       </c>
       <c r="C387" s="4">
-        <v>30</v>
-      </c>
-      <c r="D387" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D387" s="5">
+        <v>-3</v>
+      </c>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>521120</v>
+        <v>521122</v>
       </c>
       <c r="B388" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C388" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>521121</v>
+        <v>521123</v>
       </c>
       <c r="B389" s="3">
-        <v>5108</v>
+        <v>5000</v>
       </c>
       <c r="C389" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D389" s="5">
-        <v>-3</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D389" s="5"/>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>521122</v>
+        <v>521124</v>
       </c>
       <c r="B390" s="3">
-        <v>5003</v>
+        <v>5108</v>
       </c>
       <c r="C390" s="4">
-        <v>10</v>
-      </c>
-      <c r="D390" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D390" s="5">
+        <v>-10</v>
+      </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>521123</v>
+        <v>521130</v>
       </c>
       <c r="B391" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C391" s="4">
-        <v>-20</v>
+        <v>121130</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>521124</v>
+        <v>521140</v>
       </c>
       <c r="B392" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C392" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D392" s="5">
-        <v>-10</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>521130</v>
+        <v>521141</v>
       </c>
       <c r="B393" s="3">
-        <v>5013</v>
+        <v>5108</v>
       </c>
       <c r="C393" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D393" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D393" s="5">
+        <v>-3</v>
+      </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>521140</v>
+        <v>521150</v>
       </c>
       <c r="B394" s="3">
         <v>5013</v>
       </c>
       <c r="C394" s="4">
-        <v>121140</v>
+        <v>121150</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>521141</v>
+        <v>521151</v>
       </c>
       <c r="B395" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D395" s="5">
-        <v>-3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>521150</v>
+        <v>521152</v>
       </c>
       <c r="B396" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C396" s="4">
-        <v>121150</v>
+        <v>3</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>521151</v>
+        <v>521160</v>
       </c>
       <c r="B397" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C397" s="4">
-        <v>2</v>
+        <v>121160</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>521152</v>
+        <v>521170</v>
       </c>
       <c r="B398" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C398" s="4">
-        <v>3</v>
+        <v>121170</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>521160</v>
+        <v>521180</v>
       </c>
       <c r="B399" s="3">
         <v>5013</v>
       </c>
       <c r="C399" s="4">
-        <v>121160</v>
+        <v>121180</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>521170</v>
-      </c>
-      <c r="B400" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C400" s="4">
-        <v>121170</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="2"/>
+      <c r="A400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>521180</v>
+        <v>530000</v>
       </c>
       <c r="B401" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C401" s="4">
-        <v>121180</v>
+        <v>5</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="6"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
+      <c r="A402" s="2">
+        <v>530001</v>
+      </c>
+      <c r="B402" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C402" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>530000</v>
+        <v>530002</v>
       </c>
       <c r="B403" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C403" s="4">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>530001</v>
+        <v>530003</v>
       </c>
       <c r="B404" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C404" s="4">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>530002</v>
+        <v>530010</v>
       </c>
       <c r="B405" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C405" s="4">
-        <v>-10</v>
+        <v>130010</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="2"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>530003</v>
+        <v>530011</v>
       </c>
       <c r="B406" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C406" s="4">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>530010</v>
+        <v>530012</v>
       </c>
       <c r="B407" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C407" s="4">
-        <v>130010</v>
+        <v>-20</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>530011</v>
+        <v>530020</v>
       </c>
       <c r="B408" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C408" s="4">
-        <v>3</v>
+        <v>130020</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>530012</v>
+        <v>530021</v>
       </c>
       <c r="B409" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C409" s="4">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>530020</v>
+        <v>530022</v>
       </c>
       <c r="B410" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C410" s="4">
-        <v>130020</v>
+        <v>-40</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>530021</v>
+        <v>530030</v>
       </c>
       <c r="B411" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C411" s="4">
-        <v>4</v>
+        <v>130030</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>530022</v>
+        <v>530031</v>
       </c>
       <c r="B412" s="3">
         <v>5003</v>
       </c>
       <c r="C412" s="4">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>530030</v>
+        <v>530040</v>
       </c>
       <c r="B413" s="3">
         <v>5013</v>
       </c>
       <c r="C413" s="4">
-        <v>130030</v>
+        <v>130040</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>530031</v>
+        <v>530041</v>
       </c>
       <c r="B414" s="3">
         <v>5003</v>
       </c>
       <c r="C414" s="4">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>530040</v>
+        <v>530050</v>
       </c>
       <c r="B415" s="3">
         <v>5013</v>
       </c>
       <c r="C415" s="4">
-        <v>130040</v>
+        <v>130050</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>530041</v>
+        <v>530051</v>
       </c>
       <c r="B416" s="3">
         <v>5003</v>
       </c>
       <c r="C416" s="4">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>530050</v>
+        <v>530060</v>
       </c>
       <c r="B417" s="3">
         <v>5013</v>
       </c>
       <c r="C417" s="4">
-        <v>130050</v>
+        <v>130060</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>530051</v>
+        <v>530061</v>
       </c>
       <c r="B418" s="3">
         <v>5003</v>
       </c>
       <c r="C418" s="4">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>530060</v>
+        <v>530070</v>
       </c>
       <c r="B419" s="3">
         <v>5013</v>
       </c>
       <c r="C419" s="4">
-        <v>130060</v>
+        <v>130070</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>530061</v>
+        <v>530071</v>
       </c>
       <c r="B420" s="3">
         <v>5003</v>
       </c>
       <c r="C420" s="4">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>530070</v>
+        <v>530080</v>
       </c>
       <c r="B421" s="3">
         <v>5013</v>
       </c>
       <c r="C421" s="4">
-        <v>130070</v>
+        <v>130080</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>530071</v>
+        <v>530081</v>
       </c>
       <c r="B422" s="3">
         <v>5003</v>
       </c>
       <c r="C422" s="4">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>530080</v>
+        <v>530090</v>
       </c>
       <c r="B423" s="3">
         <v>5013</v>
       </c>
       <c r="C423" s="4">
-        <v>130080</v>
+        <v>130090</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>530081</v>
+        <v>530091</v>
       </c>
       <c r="B424" s="3">
         <v>5003</v>
       </c>
       <c r="C424" s="4">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>530090</v>
+        <v>530100</v>
       </c>
       <c r="B425" s="3">
         <v>5013</v>
       </c>
       <c r="C425" s="4">
-        <v>130090</v>
+        <v>130100</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>530091</v>
+        <v>530101</v>
       </c>
       <c r="B426" s="3">
         <v>5003</v>
       </c>
       <c r="C426" s="4">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="2"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>530100</v>
+        <v>530110</v>
       </c>
       <c r="B427" s="3">
         <v>5013</v>
       </c>
       <c r="C427" s="4">
-        <v>130100</v>
+        <v>130110</v>
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>530101</v>
+        <v>530111</v>
       </c>
       <c r="B428" s="3">
         <v>5003</v>
       </c>
       <c r="C428" s="4">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>530110</v>
+        <v>530120</v>
       </c>
       <c r="B429" s="3">
         <v>5013</v>
       </c>
       <c r="C429" s="4">
-        <v>130110</v>
+        <v>130120</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>530111</v>
+        <v>530121</v>
       </c>
       <c r="B430" s="3">
-        <v>5003</v>
+        <v>5203</v>
       </c>
       <c r="C430" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D430" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D430" s="5">
+        <v>1</v>
+      </c>
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>530120</v>
+        <v>530122</v>
       </c>
       <c r="B431" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C431" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D431" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D431" s="5">
+        <v>1</v>
+      </c>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>530121</v>
+        <v>530123</v>
       </c>
       <c r="B432" s="3">
         <v>5203</v>
       </c>
       <c r="C432" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D432" s="5">
         <v>1</v>
@@ -5828,28 +6058,26 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>530122</v>
+        <v>530130</v>
       </c>
       <c r="B433" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C433" s="4">
-        <v>3</v>
-      </c>
-      <c r="D433" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D433" s="5"/>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>530123</v>
+        <v>530131</v>
       </c>
       <c r="B434" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C434" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D434" s="5">
         <v>1</v>
@@ -5858,26 +6086,28 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>530130</v>
+        <v>530132</v>
       </c>
       <c r="B435" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C435" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D435" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D435" s="5">
+        <v>1</v>
+      </c>
       <c r="E435" s="2"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>530131</v>
+        <v>530133</v>
       </c>
       <c r="B436" s="3">
         <v>5200</v>
       </c>
       <c r="C436" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D436" s="5">
         <v>1</v>
@@ -5886,28 +6116,26 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>530132</v>
+        <v>530140</v>
       </c>
       <c r="B437" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C437" s="4">
-        <v>3</v>
-      </c>
-      <c r="D437" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D437" s="5"/>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>530133</v>
+        <v>530141</v>
       </c>
       <c r="B438" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C438" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D438" s="5">
         <v>1</v>
@@ -5916,26 +6144,28 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>530140</v>
+        <v>530142</v>
       </c>
       <c r="B439" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C439" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D439" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D439" s="5">
+        <v>1</v>
+      </c>
       <c r="E439" s="2"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>530141</v>
+        <v>530143</v>
       </c>
       <c r="B440" s="3">
         <v>5206</v>
       </c>
       <c r="C440" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D440" s="5">
         <v>1</v>
@@ -5944,28 +6174,26 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>530142</v>
+        <v>530150</v>
       </c>
       <c r="B441" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C441" s="4">
-        <v>3</v>
-      </c>
-      <c r="D441" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D441" s="5"/>
       <c r="E441" s="2"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>530143</v>
+        <v>530151</v>
       </c>
       <c r="B442" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C442" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D442" s="5">
         <v>1</v>
@@ -5974,26 +6202,28 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>530150</v>
+        <v>530152</v>
       </c>
       <c r="B443" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C443" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D443" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D443" s="5">
+        <v>1</v>
+      </c>
       <c r="E443" s="2"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>530151</v>
+        <v>530153</v>
       </c>
       <c r="B444" s="3">
         <v>5203</v>
       </c>
       <c r="C444" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D444" s="5">
         <v>1</v>
@@ -6002,28 +6232,26 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>530152</v>
+        <v>530160</v>
       </c>
       <c r="B445" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C445" s="4">
-        <v>3</v>
-      </c>
-      <c r="D445" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D445" s="5"/>
       <c r="E445" s="2"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>530153</v>
+        <v>530161</v>
       </c>
       <c r="B446" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C446" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D446" s="5">
         <v>1</v>
@@ -6032,26 +6260,28 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>530160</v>
+        <v>530162</v>
       </c>
       <c r="B447" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C447" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D447" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D447" s="5">
+        <v>1</v>
+      </c>
       <c r="E447" s="2"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>530161</v>
+        <v>530163</v>
       </c>
       <c r="B448" s="3">
         <v>5200</v>
       </c>
       <c r="C448" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D448" s="5">
         <v>1</v>
@@ -6060,28 +6290,26 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>530162</v>
+        <v>530170</v>
       </c>
       <c r="B449" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C449" s="4">
-        <v>3</v>
-      </c>
-      <c r="D449" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D449" s="5"/>
       <c r="E449" s="2"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>530163</v>
+        <v>530171</v>
       </c>
       <c r="B450" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C450" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D450" s="5">
         <v>1</v>
@@ -6090,26 +6318,28 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>530170</v>
+        <v>530172</v>
       </c>
       <c r="B451" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C451" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D451" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D451" s="5">
+        <v>1</v>
+      </c>
       <c r="E451" s="2"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>530171</v>
+        <v>530173</v>
       </c>
       <c r="B452" s="3">
         <v>5206</v>
       </c>
       <c r="C452" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D452" s="5">
         <v>1</v>
@@ -6118,141 +6348,137 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>530172</v>
+        <v>530180</v>
       </c>
       <c r="B453" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C453" s="4">
-        <v>3</v>
-      </c>
-      <c r="D453" s="5">
-        <v>1</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C453" s="4"/>
+      <c r="D453" s="5"/>
       <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>530173</v>
+        <v>530181</v>
       </c>
       <c r="B454" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C454" s="4">
-        <v>4</v>
-      </c>
-      <c r="D454" s="5">
-        <v>1</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C454" s="4"/>
+      <c r="D454" s="5"/>
       <c r="E454" s="2"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
-        <v>530180</v>
-      </c>
-      <c r="B455" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C455" s="4"/>
-      <c r="D455" s="5"/>
-      <c r="E455" s="2"/>
+      <c r="A455" s="6"/>
+      <c r="B455" s="6"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="6"/>
+      <c r="E455" s="6"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>530181</v>
+        <v>550000</v>
       </c>
       <c r="B456" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C456" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C456" s="4">
+        <v>-2</v>
+      </c>
       <c r="D456" s="5"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" s="6"/>
-      <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
-      <c r="D457" s="6"/>
-      <c r="E457" s="6"/>
+      <c r="A457" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B457" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C457" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D457" s="5"/>
+      <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
-        <v>550000</v>
+        <v>550002</v>
       </c>
       <c r="B458" s="3">
         <v>5006</v>
       </c>
       <c r="C458" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="2"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>550001</v>
+        <v>550003</v>
       </c>
       <c r="B459" s="3">
         <v>5006</v>
       </c>
       <c r="C459" s="4">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B460" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C460" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D460" s="5"/>
-      <c r="E460" s="2"/>
+      <c r="A460" s="6"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>550003</v>
+        <v>559000</v>
       </c>
       <c r="B461" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C461" s="4">
-        <v>-8</v>
+        <v>559000</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="2"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462" s="6"/>
-      <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
-      <c r="D462" s="6"/>
-      <c r="E462" s="6"/>
-    </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
-        <v>559000</v>
+        <v>540000</v>
       </c>
       <c r="B463" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C463" s="4">
-        <v>559000</v>
+        <v>50</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="2"/>
     </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>540001</v>
+      </c>
+      <c r="B464" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C464" s="4">
+        <v>50</v>
+      </c>
+      <c r="D464" s="5"/>
+      <c r="E464" s="2"/>
+    </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
-        <v>540000</v>
+        <v>540002</v>
       </c>
       <c r="B465" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C465" s="4">
         <v>50</v>
@@ -6262,36 +6488,36 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>540001</v>
+        <v>540010</v>
       </c>
       <c r="B466" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C466" s="4">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="2"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>540002</v>
+        <v>540011</v>
       </c>
       <c r="B467" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C467" s="4">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="2"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>540010</v>
+        <v>540012</v>
       </c>
       <c r="B468" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C468" s="4">
         <v>-50</v>
@@ -6299,70 +6525,44 @@
       <c r="D468" s="5"/>
       <c r="E468" s="2"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="2">
-        <v>540011</v>
-      </c>
-      <c r="B469" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C469" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D469" s="5"/>
-      <c r="E469" s="2"/>
-    </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>540012</v>
+        <v>540020</v>
       </c>
       <c r="B470" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C470" s="4">
-        <v>-50</v>
+        <v>140020</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="2"/>
     </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="2">
+        <v>540030</v>
+      </c>
+      <c r="B471" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C471" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D471" s="5"/>
+      <c r="E471" s="2"/>
+    </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>540020</v>
+        <v>540040</v>
       </c>
       <c r="B472" s="3">
         <v>5013</v>
       </c>
       <c r="C472" s="4">
-        <v>140020</v>
+        <v>140040</v>
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="2"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="2">
-        <v>540030</v>
-      </c>
-      <c r="B473" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C473" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D473" s="5"/>
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="2">
-        <v>540040</v>
-      </c>
-      <c r="B474" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C474" s="4">
-        <v>140040</v>
-      </c>
-      <c r="D474" s="5"/>
-      <c r="E474" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13124E-7505-4BE0-A19F-878E0728FBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDC8173-A5FA-4975-A7F7-ABD20B41ABAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="5505" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="4845" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -554,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F472"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="J254" sqref="J254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,13 +909,13 @@
         <v>510010</v>
       </c>
       <c r="B26" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C26" s="4">
         <v>60000</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1040,13 +1050,13 @@
         <v>511010</v>
       </c>
       <c r="B37" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C37" s="4">
         <v>60001</v>
       </c>
       <c r="D37" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1183,17 +1193,17 @@
         <v>512010</v>
       </c>
       <c r="B48" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C48" s="4">
         <v>60002</v>
       </c>
       <c r="D48" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>512020</v>
       </c>
@@ -1204,11 +1214,11 @@
         <v>60002</v>
       </c>
       <c r="D49" s="5">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>512030</v>
       </c>
@@ -1221,14 +1231,14 @@
       <c r="D50" s="5"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>512040</v>
       </c>
@@ -1241,14 +1251,14 @@
       <c r="D52" s="5"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>513000</v>
       </c>
@@ -1262,8 +1272,9 @@
         <v>1</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>513001</v>
       </c>
@@ -1275,8 +1286,9 @@
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>513002</v>
       </c>
@@ -1288,8 +1300,9 @@
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>513003</v>
       </c>
@@ -1301,8 +1314,9 @@
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>513004</v>
       </c>
@@ -1314,23 +1328,25 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>513010</v>
       </c>
       <c r="B59" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C59" s="4">
         <v>60003</v>
       </c>
       <c r="D59" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>513020</v>
       </c>
@@ -1341,11 +1357,12 @@
         <v>60003</v>
       </c>
       <c r="D60" s="5">
-        <v>61000</v>
+        <v>61004</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>513030</v>
       </c>
@@ -1357,8 +1374,9 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>513031</v>
       </c>
@@ -1370,8 +1388,9 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>513040</v>
       </c>
@@ -1383,15 +1402,17 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>514000</v>
       </c>
@@ -1405,8 +1426,9 @@
         <v>1</v>
       </c>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>514001</v>
       </c>
@@ -1418,8 +1440,9 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>514002</v>
       </c>
@@ -1431,23 +1454,25 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>514010</v>
       </c>
       <c r="B68" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C68" s="4">
         <v>60004</v>
       </c>
       <c r="D68" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>514020</v>
       </c>
@@ -1461,8 +1486,9 @@
         <v>61000</v>
       </c>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>514030</v>
       </c>
@@ -1474,15 +1500,17 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>515000</v>
       </c>
@@ -1496,8 +1524,9 @@
         <v>1</v>
       </c>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>515001</v>
       </c>
@@ -1509,8 +1538,9 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>515002</v>
       </c>
@@ -1522,8 +1552,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>515003</v>
       </c>
@@ -1535,8 +1566,9 @@
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>515004</v>
       </c>
@@ -1548,23 +1580,25 @@
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>515010</v>
       </c>
       <c r="B77" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C77" s="4">
         <v>60005</v>
       </c>
       <c r="D77" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>515020</v>
       </c>
@@ -1578,8 +1612,9 @@
         <v>61000</v>
       </c>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>515030</v>
       </c>
@@ -1591,15 +1626,17 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>516000</v>
       </c>
@@ -1613,8 +1650,9 @@
         <v>1</v>
       </c>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>516001</v>
       </c>
@@ -1626,8 +1664,9 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>516002</v>
       </c>
@@ -1639,8 +1678,9 @@
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>516003</v>
       </c>
@@ -1652,8 +1692,9 @@
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>516004</v>
       </c>
@@ -1665,23 +1706,25 @@
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>516010</v>
       </c>
       <c r="B86" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C86" s="4">
         <v>60006</v>
       </c>
       <c r="D86" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>516020</v>
       </c>
@@ -1695,8 +1738,9 @@
         <v>61000</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>516030</v>
       </c>
@@ -1708,15 +1752,17 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>517000</v>
       </c>
@@ -1730,8 +1776,9 @@
         <v>1</v>
       </c>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>517001</v>
       </c>
@@ -1743,8 +1790,9 @@
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>517002</v>
       </c>
@@ -1756,8 +1804,9 @@
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>517003</v>
       </c>
@@ -1769,8 +1818,9 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>517004</v>
       </c>
@@ -1782,8 +1832,9 @@
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>517005</v>
       </c>
@@ -1795,8 +1846,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>517006</v>
       </c>
@@ -1808,8 +1860,9 @@
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>517007</v>
       </c>
@@ -1821,23 +1874,25 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>517010</v>
       </c>
       <c r="B98" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C98" s="4">
         <v>60007</v>
       </c>
       <c r="D98" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>517020</v>
       </c>
@@ -1851,8 +1906,9 @@
         <v>61000</v>
       </c>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>517030</v>
       </c>
@@ -1864,15 +1920,17 @@
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>518000</v>
       </c>
@@ -1886,8 +1944,9 @@
         <v>1</v>
       </c>
       <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>518001</v>
       </c>
@@ -1899,8 +1958,9 @@
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>518002</v>
       </c>
@@ -1912,8 +1972,9 @@
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>518003</v>
       </c>
@@ -1925,8 +1986,9 @@
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>518004</v>
       </c>
@@ -1938,8 +2000,9 @@
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>518005</v>
       </c>
@@ -1951,8 +2014,9 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>518006</v>
       </c>
@@ -1964,23 +2028,25 @@
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>518010</v>
       </c>
       <c r="B109" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C109" s="4">
         <v>60008</v>
       </c>
       <c r="D109" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>518020</v>
       </c>
@@ -1994,8 +2060,9 @@
         <v>61000</v>
       </c>
       <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>518030</v>
       </c>
@@ -2007,15 +2074,17 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>519000</v>
       </c>
@@ -2029,8 +2098,9 @@
         <v>1</v>
       </c>
       <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>519001</v>
       </c>
@@ -2042,8 +2112,9 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>519002</v>
       </c>
@@ -2055,8 +2126,9 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>519003</v>
       </c>
@@ -2068,8 +2140,9 @@
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>519004</v>
       </c>
@@ -2081,8 +2154,9 @@
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>519005</v>
       </c>
@@ -2094,23 +2168,25 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>519010</v>
       </c>
       <c r="B119" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C119" s="4">
         <v>60009</v>
       </c>
       <c r="D119" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>519020</v>
       </c>
@@ -2124,8 +2200,9 @@
         <v>61000</v>
       </c>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>519030</v>
       </c>
@@ -2137,15 +2214,17 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>520000</v>
       </c>
@@ -2159,8 +2238,9 @@
         <v>1</v>
       </c>
       <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>520001</v>
       </c>
@@ -2172,8 +2252,9 @@
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>520002</v>
       </c>
@@ -2185,8 +2266,9 @@
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>520003</v>
       </c>
@@ -2198,8 +2280,9 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>520004</v>
       </c>
@@ -2211,8 +2294,9 @@
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>520005</v>
       </c>
@@ -2224,23 +2308,25 @@
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>520010</v>
       </c>
       <c r="B129" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C129" s="4">
         <v>60010</v>
       </c>
       <c r="D129" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>520020</v>
       </c>
@@ -2254,8 +2340,9 @@
         <v>61000</v>
       </c>
       <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>520030</v>
       </c>
@@ -2267,15 +2354,17 @@
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>521000</v>
       </c>
@@ -2289,8 +2378,9 @@
         <v>1</v>
       </c>
       <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>521001</v>
       </c>
@@ -2302,8 +2392,9 @@
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>521002</v>
       </c>
@@ -2315,8 +2406,9 @@
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>521003</v>
       </c>
@@ -2328,23 +2420,25 @@
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>521010</v>
       </c>
       <c r="B137" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C137" s="4">
         <v>60011</v>
       </c>
       <c r="D137" s="5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>521020</v>
       </c>
@@ -2358,8 +2452,9 @@
         <v>61000</v>
       </c>
       <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>521030</v>
       </c>
@@ -2371,321 +2466,346 @@
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
         <v>501000</v>
       </c>
-      <c r="B146" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C146" s="4">
+      <c r="B147" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C147" s="4">
         <v>101000</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>501010</v>
-      </c>
-      <c r="B147" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C147" s="4">
-        <v>101010</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501020</v>
+        <v>501010</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501030</v>
+        <v>501020</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501040</v>
+        <v>501030</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101040</v>
+        <v>101030</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501050</v>
+        <v>501040</v>
       </c>
       <c r="B151" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C151" s="4">
-        <v>10</v>
+        <v>101040</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501051</v>
+        <v>501050</v>
       </c>
       <c r="B152" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C152" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>501051</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C153" s="4">
+        <v>5</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
         <v>502000</v>
       </c>
-      <c r="B154" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C154" s="4">
+      <c r="B155" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C155" s="4">
         <v>102000</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>502010</v>
-      </c>
-      <c r="B155" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C155" s="4">
-        <v>102010</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B156" s="3">
         <v>5013</v>
       </c>
       <c r="C156" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B157" s="3">
         <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>102030</v>
+        <v>102020</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
+        <v>502030</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C158" s="4">
+        <v>102030</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="2"/>
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
         <v>502031</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B159" s="3">
         <v>5109</v>
-      </c>
-      <c r="C158" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D158" s="5">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>502032</v>
-      </c>
-      <c r="B159" s="3">
-        <v>5104</v>
       </c>
       <c r="C159" s="4">
         <v>60000</v>
       </c>
       <c r="D159" s="5">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C160" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D160" s="5">
         <v>3</v>
       </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
+      <c r="E160" s="2"/>
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
         <v>509000</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>509010</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>509020</v>
+        <v>509010</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>509030</v>
+        <v>509020</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>509030</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="2"/>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
         <v>510100</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B167" s="3">
         <v>5000</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C167" s="4">
         <v>15</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>510101</v>
-      </c>
-      <c r="B167" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C167" s="4">
-        <v>-10</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B168" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C168" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510101</v>
+        <v>510102</v>
       </c>
       <c r="B169" s="3">
-        <v>5021</v>
-      </c>
-      <c r="C169" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C169" s="4">
+        <v>-5</v>
+      </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510110</v>
+        <v>510101</v>
       </c>
       <c r="B170" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C170" s="4">
-        <v>15</v>
-      </c>
+        <v>5021</v>
+      </c>
+      <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B171" s="3">
         <v>5000</v>
@@ -2695,10 +2815,11 @@
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B172" s="3">
         <v>5000</v>
@@ -2708,10 +2829,11 @@
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B173" s="3">
         <v>5000</v>
@@ -2721,10 +2843,11 @@
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B174" s="3">
         <v>5000</v>
@@ -2734,750 +2857,754 @@
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>510103</v>
+        <v>510150</v>
       </c>
       <c r="B175" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C175" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>510103</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C176" s="4">
+        <v>10</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="2"/>
+      <c r="F176"/>
+    </row>
     <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B177" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C177" s="4">
-        <v>61002</v>
-      </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="2"/>
+      <c r="F177"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C178" s="4">
+        <v>61002</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
         <v>511061</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B179" s="3">
         <v>5119</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C179" s="4">
         <v>60001</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D179" s="5">
         <v>61002</v>
       </c>
-      <c r="E178" s="2"/>
-      <c r="F178" s="6"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>512100</v>
-      </c>
-      <c r="B180" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C180" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="2"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512110</v>
+        <v>512100</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="B182" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C182" s="4">
-        <v>-50</v>
+        <v>112110</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>512120</v>
+        <v>512111</v>
       </c>
       <c r="B183" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C183" s="4">
-        <v>112120</v>
+        <v>-50</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>512130</v>
+        <v>512120</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>512140</v>
+        <v>512130</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>112140</v>
+        <v>112130</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="A186" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C186" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>513100</v>
-      </c>
-      <c r="B187" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C187" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="2"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513110</v>
+        <v>513100</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513120</v>
+        <v>513110</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113120</v>
+        <v>113110</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513121</v>
+        <v>513120</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113121</v>
+        <v>113120</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513130</v>
+        <v>513121</v>
       </c>
       <c r="B191" s="3">
         <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>113130</v>
+        <v>113121</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513140</v>
+        <v>513130</v>
       </c>
       <c r="B192" s="3">
         <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>113140</v>
+        <v>113130</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513150</v>
+        <v>513140</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113150</v>
+        <v>113140</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513160</v>
+        <v>513150</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113160</v>
+        <v>113150</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513161</v>
+        <v>513160</v>
       </c>
       <c r="B195" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D195" s="5">
-        <v>-5</v>
-      </c>
+        <v>113160</v>
+      </c>
+      <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513200</v>
+        <v>513161</v>
       </c>
       <c r="B196" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C196" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D196" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D196" s="5">
+        <v>-5</v>
+      </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>513210</v>
+        <v>513200</v>
       </c>
       <c r="B197" s="3">
         <v>5013</v>
       </c>
       <c r="C197" s="4">
-        <v>113210</v>
+        <v>113200</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>513220</v>
+        <v>513210</v>
       </c>
       <c r="B198" s="3">
         <v>5013</v>
       </c>
       <c r="C198" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>513230</v>
+        <v>513220</v>
       </c>
       <c r="B199" s="3">
         <v>5013</v>
       </c>
       <c r="C199" s="4">
-        <v>113160</v>
+        <v>113220</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C200" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
         <v>513231</v>
       </c>
-      <c r="B200" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C200" s="4">
+      <c r="B201" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C201" s="4">
         <v>60003</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D201" s="5">
         <v>-5</v>
       </c>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>515100</v>
-      </c>
-      <c r="B202" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C202" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="2"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515101</v>
+        <v>515100</v>
       </c>
       <c r="B203" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>10</v>
+        <v>115100</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515102</v>
+        <v>515101</v>
       </c>
       <c r="B204" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C204" s="4">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515103</v>
+        <v>515102</v>
       </c>
       <c r="B205" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C205" s="4">
-        <v>115101</v>
+        <v>-2</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515104</v>
+        <v>515103</v>
       </c>
       <c r="B206" s="3">
         <v>5013</v>
       </c>
       <c r="C206" s="4">
-        <v>115102</v>
+        <v>115101</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515110</v>
+        <v>515104</v>
       </c>
       <c r="B207" s="3">
         <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>115110</v>
+        <v>115102</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515111</v>
+        <v>515110</v>
       </c>
       <c r="B208" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>20</v>
+        <v>115110</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515112</v>
+        <v>515111</v>
       </c>
       <c r="B209" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C209" s="4">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515113</v>
+        <v>515112</v>
       </c>
       <c r="B210" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C210" s="4">
-        <v>115111</v>
+        <v>-2</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515114</v>
+        <v>515113</v>
       </c>
       <c r="B211" s="3">
         <v>5013</v>
       </c>
       <c r="C211" s="4">
-        <v>115112</v>
+        <v>115111</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515120</v>
+        <v>515114</v>
       </c>
       <c r="B212" s="3">
         <v>5013</v>
       </c>
       <c r="C212" s="4">
-        <v>115120</v>
+        <v>115112</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515121</v>
+        <v>515120</v>
       </c>
       <c r="B213" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C213" s="4">
-        <v>5</v>
+        <v>115120</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515122</v>
+        <v>515121</v>
       </c>
       <c r="B214" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C214" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515130</v>
+        <v>515122</v>
       </c>
       <c r="B215" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C215" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515131</v>
+        <v>515130</v>
       </c>
       <c r="B216" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C216" s="4">
-        <v>10</v>
+        <v>115120</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515132</v>
+        <v>515131</v>
       </c>
       <c r="B217" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C217" s="4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515140</v>
+        <v>515132</v>
       </c>
       <c r="B218" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C218" s="4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515150</v>
+        <v>515140</v>
       </c>
       <c r="B219" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C219" s="4">
-        <v>115150</v>
+        <v>100</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515160</v>
+        <v>515150</v>
       </c>
       <c r="B220" s="3">
         <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>115160</v>
+        <v>115150</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515170</v>
+        <v>515160</v>
       </c>
       <c r="B221" s="3">
         <v>5013</v>
       </c>
       <c r="C221" s="4">
-        <v>115170</v>
+        <v>115160</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>515171</v>
+        <v>515170</v>
       </c>
       <c r="B222" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C222" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D222" s="5">
-        <v>-3</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D222" s="5"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>515180</v>
+        <v>515171</v>
       </c>
       <c r="B223" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C223" s="4">
-        <v>115180</v>
-      </c>
-      <c r="D223" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D223" s="5">
+        <v>-3</v>
+      </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>515181</v>
+        <v>515180</v>
       </c>
       <c r="B224" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C224" s="4">
-        <v>15</v>
+        <v>115180</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
+      <c r="A225" s="2">
+        <v>515181</v>
+      </c>
+      <c r="B225" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C225" s="4">
+        <v>15</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>516100</v>
-      </c>
-      <c r="B226" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C226" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="2"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516101</v>
+        <v>516100</v>
       </c>
       <c r="B227" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C227" s="4">
-        <v>15</v>
+        <v>116100</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516102</v>
+        <v>516101</v>
       </c>
       <c r="B228" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C228" s="4">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516103</v>
+        <v>516102</v>
       </c>
       <c r="B229" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C229" s="4">
-        <v>116101</v>
+        <v>-2</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516104</v>
+        <v>516103</v>
       </c>
       <c r="B230" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C230" s="4">
-        <v>-5</v>
+        <v>116101</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516105</v>
+        <v>516104</v>
       </c>
       <c r="B231" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C231" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516110</v>
+        <v>516105</v>
       </c>
       <c r="B232" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C232" s="4">
-        <v>116110</v>
+        <v>5</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516120</v>
+        <v>516110</v>
       </c>
       <c r="B233" s="3">
         <v>5013</v>
       </c>
       <c r="C233" s="4">
-        <v>116120</v>
+        <v>116110</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516121</v>
+        <v>516120</v>
       </c>
       <c r="B234" s="3">
         <v>5013</v>
@@ -3490,291 +3617,295 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>516122</v>
+        <v>516121</v>
       </c>
       <c r="B235" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C235" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D235" s="5">
-        <v>-4</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>516130</v>
+        <v>516122</v>
       </c>
       <c r="B236" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C236" s="4">
         <v>60006</v>
       </c>
       <c r="D236" s="5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>516131</v>
+        <v>516130</v>
       </c>
       <c r="B237" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C237" s="4">
-        <v>10</v>
-      </c>
-      <c r="D237" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D237" s="5">
+        <v>-3</v>
+      </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C238" s="4">
+        <v>10</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
         <v>516132</v>
       </c>
-      <c r="B238" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C238" s="4">
+      <c r="B239" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C239" s="4">
         <v>60006</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D239" s="5">
         <v>-3</v>
       </c>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>517100</v>
-      </c>
-      <c r="B240" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C240" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="2"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517110</v>
+        <v>517100</v>
       </c>
       <c r="B241" s="3">
         <v>5013</v>
       </c>
       <c r="C241" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517120</v>
+        <v>517110</v>
       </c>
       <c r="B242" s="3">
         <v>5013</v>
       </c>
       <c r="C242" s="4">
-        <v>117120</v>
+        <v>117110</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517121</v>
+        <v>517120</v>
       </c>
       <c r="B243" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C243" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D243" s="5">
-        <v>-3</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517122</v>
+        <v>517121</v>
       </c>
       <c r="B244" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C244" s="4">
-        <v>10</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D244" s="5">
+        <v>-3</v>
+      </c>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517130</v>
+        <v>517122</v>
       </c>
       <c r="B245" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C245" s="4">
-        <v>117130</v>
+        <v>10</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517140</v>
+        <v>517130</v>
       </c>
       <c r="B246" s="3">
         <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>117140</v>
+        <v>117130</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517141</v>
+        <v>517131</v>
       </c>
       <c r="B247" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C247" s="4">
-        <v>117141</v>
+        <v>700</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517150</v>
+        <v>517132</v>
       </c>
       <c r="B248" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C248" s="4">
-        <v>117150</v>
+        <v>60011</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517151</v>
+        <v>517140</v>
       </c>
       <c r="B249" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C249" s="4">
-        <v>20</v>
+        <v>117140</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517152</v>
+        <v>517141</v>
       </c>
       <c r="B250" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C250" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D250" s="5">
-        <v>-3</v>
-      </c>
+        <v>117141</v>
+      </c>
+      <c r="D250" s="5"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517153</v>
+        <v>517150</v>
       </c>
       <c r="B251" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C251" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D251" s="5">
-        <v>-3</v>
-      </c>
+        <v>117150</v>
+      </c>
+      <c r="D251" s="5"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>517154</v>
+        <v>517151</v>
       </c>
       <c r="B252" s="3">
-        <v>5108</v>
+        <v>5003</v>
       </c>
       <c r="C252" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D252" s="5">
+        <v>20</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>517152</v>
+      </c>
+      <c r="B253" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C253" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D253" s="5">
         <v>-3</v>
       </c>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
+      <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>518100</v>
+        <v>517153</v>
       </c>
       <c r="B254" s="3">
-        <v>0</v>
-      </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="5"/>
+        <v>5107</v>
+      </c>
+      <c r="C254" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D254" s="5">
+        <v>-3</v>
+      </c>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>518110</v>
+        <v>517154</v>
       </c>
       <c r="B255" s="3">
-        <v>5000</v>
+        <v>5107</v>
       </c>
       <c r="C255" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D255" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D255" s="5">
+        <v>-3</v>
+      </c>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>518111</v>
-      </c>
-      <c r="B256" s="3">
-        <v>0</v>
-      </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="2"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518112</v>
+        <v>518100</v>
       </c>
       <c r="B257" s="3">
         <v>0</v>
@@ -3785,116 +3916,114 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518113</v>
+        <v>518110</v>
       </c>
       <c r="B258" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C258" s="4">
-        <v>118110</v>
+        <v>-20</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518114</v>
+        <v>518111</v>
       </c>
       <c r="B259" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C259" s="4">
-        <v>118111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C259" s="4"/>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518115</v>
+        <v>518112</v>
       </c>
       <c r="B260" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C260" s="4">
-        <v>118112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C260" s="4"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>518116</v>
+        <v>518113</v>
       </c>
       <c r="B261" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C261" s="4">
-        <v>5</v>
+        <v>118110</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
+      <c r="A262" s="2">
+        <v>518114</v>
+      </c>
+      <c r="B262" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C262" s="4">
+        <v>118111</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>519100</v>
+        <v>518115</v>
       </c>
       <c r="B263" s="3">
         <v>5013</v>
       </c>
       <c r="C263" s="4">
-        <v>119100</v>
+        <v>118112</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>519101</v>
+        <v>518116</v>
       </c>
       <c r="B264" s="3">
-        <v>0</v>
-      </c>
-      <c r="C264" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C264" s="4">
+        <v>5</v>
+      </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>519102</v>
-      </c>
-      <c r="B265" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C265" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="2"/>
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519110</v>
+        <v>519100</v>
       </c>
       <c r="B266" s="3">
         <v>5013</v>
       </c>
       <c r="C266" s="4">
-        <v>191100</v>
+        <v>119100</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519111</v>
+        <v>519101</v>
       </c>
       <c r="B267" s="3">
         <v>0</v>
@@ -3905,7 +4034,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519112</v>
+        <v>519102</v>
       </c>
       <c r="B268" s="3">
         <v>5006</v>
@@ -3918,85 +4047,83 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519120</v>
+        <v>519110</v>
       </c>
       <c r="B269" s="3">
-        <v>0</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C269" s="4">
+        <v>191100</v>
+      </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519121</v>
+        <v>519111</v>
       </c>
       <c r="B270" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C270" s="4">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C270" s="4"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519122</v>
+        <v>519112</v>
       </c>
       <c r="B271" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C271" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D271" s="5">
-        <v>-3</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519123</v>
+        <v>519120</v>
       </c>
       <c r="B272" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C272" s="4">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C272" s="4"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519130</v>
+        <v>519121</v>
       </c>
       <c r="B273" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C273" s="4">
-        <v>10</v>
+        <v>191200</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519131</v>
+        <v>519122</v>
       </c>
       <c r="B274" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C274" s="4">
-        <v>119130</v>
-      </c>
-      <c r="D274" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D274" s="5">
+        <v>-3</v>
+      </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519140</v>
+        <v>519123</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
@@ -4009,930 +4136,926 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519141</v>
+        <v>519130</v>
       </c>
       <c r="B276" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C276" s="4">
-        <v>119140</v>
+        <v>10</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519150</v>
+        <v>519131</v>
       </c>
       <c r="B277" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C277" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519151</v>
+        <v>519140</v>
       </c>
       <c r="B278" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C278" s="4">
-        <v>119150</v>
+        <v>10</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
+      <c r="A279" s="2">
+        <v>519141</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C279" s="4">
+        <v>119140</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>520100</v>
+        <v>519150</v>
       </c>
       <c r="B280" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C280" s="4">
-        <v>120000</v>
+        <v>10</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>520110</v>
+        <v>519151</v>
       </c>
       <c r="B281" s="3">
         <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>120110</v>
+        <v>119150</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>520120</v>
-      </c>
-      <c r="B282" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C282" s="4">
-        <v>120120</v>
-      </c>
-      <c r="D282" s="5"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520121</v>
+        <v>520100</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120121</v>
+        <v>120100</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520122</v>
+        <v>520110</v>
       </c>
       <c r="B284" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>-3</v>
+        <v>120110</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520123</v>
+        <v>520120</v>
       </c>
       <c r="B285" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>10</v>
+        <v>120120</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520124</v>
+        <v>520121</v>
       </c>
       <c r="B286" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C286" s="4">
-        <v>10</v>
+        <v>120121</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520130</v>
+        <v>520122</v>
       </c>
       <c r="B287" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C287" s="4">
-        <v>120130</v>
+        <v>-3</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520140</v>
+        <v>520123</v>
       </c>
       <c r="B288" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C288" s="4">
-        <v>120140</v>
+        <v>10</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520150</v>
+        <v>520124</v>
       </c>
       <c r="B289" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C289" s="4">
-        <v>120150</v>
+        <v>10</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520160</v>
+        <v>520130</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120160</v>
+        <v>120130</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520161</v>
+        <v>520140</v>
       </c>
       <c r="B291" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>-30</v>
+        <v>120140</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520162</v>
+        <v>520150</v>
       </c>
       <c r="B292" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C292" s="4">
-        <v>-10</v>
+        <v>120150</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+      <c r="A293" s="2">
+        <v>520160</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C293" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>521100</v>
+        <v>520161</v>
       </c>
       <c r="B294" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C294" s="4">
-        <v>121100</v>
+        <v>-30</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>521110</v>
+        <v>520162</v>
       </c>
       <c r="B295" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C295" s="4">
-        <v>121110</v>
+        <v>-10</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>521111</v>
-      </c>
-      <c r="B296" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C296" s="4">
-        <v>121111</v>
-      </c>
-      <c r="D296" s="5"/>
-      <c r="E296" s="2"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521112</v>
+        <v>521100</v>
       </c>
       <c r="B297" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>30</v>
+        <v>121100</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521120</v>
+        <v>521110</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121120</v>
+        <v>121110</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521121</v>
+        <v>521111</v>
       </c>
       <c r="B299" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D299" s="5">
-        <v>-3</v>
-      </c>
+        <v>121111</v>
+      </c>
+      <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521122</v>
+        <v>521112</v>
       </c>
       <c r="B300" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C300" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521123</v>
+        <v>521120</v>
       </c>
       <c r="B301" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C301" s="4">
-        <v>-30</v>
+        <v>121120</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521124</v>
+        <v>521121</v>
       </c>
       <c r="B302" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C302" s="4">
         <v>60011</v>
       </c>
       <c r="D302" s="5">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521130</v>
+        <v>521122</v>
       </c>
       <c r="B303" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C303" s="4">
-        <v>121130</v>
+        <v>10</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521140</v>
+        <v>521123</v>
       </c>
       <c r="B304" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C304" s="4">
-        <v>121140</v>
+        <v>-30</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521141</v>
+        <v>521124</v>
       </c>
       <c r="B305" s="3">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="C305" s="4">
         <v>60011</v>
       </c>
       <c r="D305" s="5">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521150</v>
+        <v>521130</v>
       </c>
       <c r="B306" s="3">
         <v>5013</v>
       </c>
       <c r="C306" s="4">
-        <v>121150</v>
+        <v>121130</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521151</v>
+        <v>521140</v>
       </c>
       <c r="B307" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>2</v>
+        <v>121140</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521152</v>
+        <v>521141</v>
       </c>
       <c r="B308" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C308" s="4">
-        <v>10</v>
-      </c>
-      <c r="D308" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D308" s="5">
+        <v>-3</v>
+      </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521160</v>
+        <v>521150</v>
       </c>
       <c r="B309" s="3">
         <v>5013</v>
       </c>
       <c r="C309" s="4">
-        <v>121160</v>
+        <v>121150</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521170</v>
+        <v>521151</v>
       </c>
       <c r="B310" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C310" s="4">
-        <v>121170</v>
+        <v>2</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521180</v>
+        <v>521152</v>
       </c>
       <c r="B311" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C311" s="4">
-        <v>121180</v>
+        <v>10</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521181</v>
+        <v>521160</v>
       </c>
       <c r="B312" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>3</v>
+        <v>121160</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
+      <c r="A313" s="2">
+        <v>521170</v>
+      </c>
+      <c r="B313" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C313" s="4">
+        <v>121170</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>530000</v>
+        <v>521180</v>
       </c>
       <c r="B314" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C314" s="4">
-        <v>5</v>
+        <v>121180</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>530001</v>
+        <v>521181</v>
       </c>
       <c r="B315" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C315" s="4">
-        <v>-30</v>
+        <v>3</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>530002</v>
-      </c>
-      <c r="B316" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C316" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D316" s="5"/>
-      <c r="E316" s="2"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>530003</v>
+        <v>530000</v>
       </c>
       <c r="B317" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C317" s="4">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530010</v>
+        <v>530001</v>
       </c>
       <c r="B318" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C318" s="4">
-        <v>130010</v>
+        <v>-30</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530011</v>
+        <v>530002</v>
       </c>
       <c r="B319" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C319" s="4">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530012</v>
+        <v>530003</v>
       </c>
       <c r="B320" s="3">
         <v>5003</v>
       </c>
       <c r="C320" s="4">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530020</v>
+        <v>530010</v>
       </c>
       <c r="B321" s="3">
         <v>5013</v>
       </c>
       <c r="C321" s="4">
-        <v>130020</v>
+        <v>130010</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530021</v>
+        <v>530011</v>
       </c>
       <c r="B322" s="3">
         <v>5009</v>
       </c>
       <c r="C322" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530022</v>
+        <v>530012</v>
       </c>
       <c r="B323" s="3">
         <v>5003</v>
       </c>
       <c r="C323" s="4">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530030</v>
+        <v>530020</v>
       </c>
       <c r="B324" s="3">
         <v>5013</v>
       </c>
       <c r="C324" s="4">
-        <v>130030</v>
+        <v>130020</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530031</v>
+        <v>530021</v>
       </c>
       <c r="B325" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C325" s="4">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530040</v>
+        <v>530022</v>
       </c>
       <c r="B326" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C326" s="4">
-        <v>130040</v>
+        <v>-40</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530041</v>
+        <v>530030</v>
       </c>
       <c r="B327" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C327" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530050</v>
+        <v>530031</v>
       </c>
       <c r="B328" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C328" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530051</v>
+        <v>530040</v>
       </c>
       <c r="B329" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C329" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530060</v>
+        <v>530041</v>
       </c>
       <c r="B330" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C330" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530061</v>
+        <v>530050</v>
       </c>
       <c r="B331" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C331" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530070</v>
+        <v>530051</v>
       </c>
       <c r="B332" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C332" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530071</v>
+        <v>530060</v>
       </c>
       <c r="B333" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C333" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530080</v>
+        <v>530061</v>
       </c>
       <c r="B334" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C334" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530081</v>
+        <v>530070</v>
       </c>
       <c r="B335" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C335" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530090</v>
+        <v>530071</v>
       </c>
       <c r="B336" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C336" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530091</v>
+        <v>530080</v>
       </c>
       <c r="B337" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C337" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530100</v>
+        <v>530081</v>
       </c>
       <c r="B338" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C338" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530101</v>
+        <v>530090</v>
       </c>
       <c r="B339" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C339" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530110</v>
+        <v>530091</v>
       </c>
       <c r="B340" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C340" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530111</v>
+        <v>530100</v>
       </c>
       <c r="B341" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C341" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530120</v>
+        <v>530101</v>
       </c>
       <c r="B342" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C342" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530121</v>
+        <v>530110</v>
       </c>
       <c r="B343" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C343" s="4">
-        <v>2</v>
-      </c>
-      <c r="D343" s="5">
-        <v>1</v>
-      </c>
+        <v>130110</v>
+      </c>
+      <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530122</v>
+        <v>530111</v>
       </c>
       <c r="B344" s="3">
-        <v>5203</v>
+        <v>5003</v>
       </c>
       <c r="C344" s="4">
-        <v>3</v>
-      </c>
-      <c r="D344" s="5">
-        <v>1</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530123</v>
+        <v>530120</v>
       </c>
       <c r="B345" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C345" s="4">
-        <v>4</v>
-      </c>
-      <c r="D345" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530130</v>
+        <v>530121</v>
       </c>
       <c r="B346" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C346" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D346" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D346" s="5">
+        <v>1</v>
+      </c>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530131</v>
+        <v>530122</v>
       </c>
       <c r="B347" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -4941,13 +5064,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530132</v>
+        <v>530123</v>
       </c>
       <c r="B348" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -4956,41 +5079,41 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530133</v>
+        <v>530130</v>
       </c>
       <c r="B349" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C349" s="4">
-        <v>4</v>
-      </c>
-      <c r="D349" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530140</v>
+        <v>530131</v>
       </c>
       <c r="B350" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C350" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D350" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D350" s="5">
+        <v>1</v>
+      </c>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530141</v>
+        <v>530132</v>
       </c>
       <c r="B351" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C351" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D351" s="5">
         <v>1</v>
@@ -4999,13 +5122,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530142</v>
+        <v>530133</v>
       </c>
       <c r="B352" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5014,41 +5137,41 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530143</v>
+        <v>530140</v>
       </c>
       <c r="B353" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C353" s="4">
-        <v>4</v>
-      </c>
-      <c r="D353" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D353" s="5"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530150</v>
+        <v>530141</v>
       </c>
       <c r="B354" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C354" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D354" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D354" s="5">
+        <v>1</v>
+      </c>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530151</v>
+        <v>530142</v>
       </c>
       <c r="B355" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C355" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5057,13 +5180,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530152</v>
+        <v>530143</v>
       </c>
       <c r="B356" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D356" s="5">
         <v>1</v>
@@ -5072,41 +5195,41 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530153</v>
+        <v>530150</v>
       </c>
       <c r="B357" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C357" s="4">
-        <v>4</v>
-      </c>
-      <c r="D357" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D357" s="5"/>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530160</v>
+        <v>530151</v>
       </c>
       <c r="B358" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C358" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D358" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D358" s="5">
+        <v>1</v>
+      </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530161</v>
+        <v>530152</v>
       </c>
       <c r="B359" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C359" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D359" s="5">
         <v>1</v>
@@ -5115,13 +5238,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530162</v>
+        <v>530153</v>
       </c>
       <c r="B360" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C360" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5130,41 +5253,41 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530163</v>
+        <v>530160</v>
       </c>
       <c r="B361" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C361" s="4">
-        <v>4</v>
-      </c>
-      <c r="D361" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D361" s="5"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530170</v>
+        <v>530161</v>
       </c>
       <c r="B362" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C362" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D362" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D362" s="5">
+        <v>1</v>
+      </c>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530171</v>
+        <v>530162</v>
       </c>
       <c r="B363" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C363" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5173,13 +5296,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530172</v>
+        <v>530163</v>
       </c>
       <c r="B364" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C364" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D364" s="5">
         <v>1</v>
@@ -5188,314 +5311,316 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530173</v>
+        <v>530170</v>
       </c>
       <c r="B365" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C365" s="4">
-        <v>4</v>
-      </c>
-      <c r="D365" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D365" s="5"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530180</v>
+        <v>530171</v>
       </c>
       <c r="B366" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C366" s="4"/>
-      <c r="D366" s="5"/>
+        <v>5206</v>
+      </c>
+      <c r="C366" s="4">
+        <v>2</v>
+      </c>
+      <c r="D366" s="5">
+        <v>1</v>
+      </c>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530181</v>
+        <v>530172</v>
       </c>
       <c r="B367" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C367" s="4"/>
-      <c r="D367" s="5"/>
+        <v>5206</v>
+      </c>
+      <c r="C367" s="4">
+        <v>3</v>
+      </c>
+      <c r="D367" s="5">
+        <v>1</v>
+      </c>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
+      <c r="A368" s="2">
+        <v>530173</v>
+      </c>
+      <c r="B368" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C368" s="4">
+        <v>4</v>
+      </c>
+      <c r="D368" s="5">
+        <v>1</v>
+      </c>
+      <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>550000</v>
+        <v>530180</v>
       </c>
       <c r="B369" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C369" s="4">
-        <v>-2</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C369" s="4"/>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>550001</v>
+        <v>530181</v>
       </c>
       <c r="B370" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C370" s="4">
-        <v>-4</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C370" s="4"/>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B371" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C371" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D371" s="5"/>
-      <c r="E371" s="2"/>
+      <c r="A371"/>
+      <c r="B371"/>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>550003</v>
+        <v>550000</v>
       </c>
       <c r="B372" s="3">
         <v>5006</v>
       </c>
       <c r="C372" s="4">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>550010</v>
+        <v>550001</v>
       </c>
       <c r="B373" s="3">
         <v>5006</v>
       </c>
       <c r="C373" s="4">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>550011</v>
+        <v>550002</v>
       </c>
       <c r="B374" s="3">
         <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550012</v>
+        <v>550003</v>
       </c>
       <c r="B375" s="3">
         <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>-50</v>
+        <v>-8</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="6"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
+      <c r="A376" s="2">
+        <v>550010</v>
+      </c>
+      <c r="B376" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C376" s="4">
+        <v>15</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>559000</v>
+        <v>550011</v>
       </c>
       <c r="B377" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>559000</v>
+        <v>-20</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>520160</v>
+        <v>550012</v>
       </c>
       <c r="B378" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>120160</v>
+        <v>-50</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>520161</v>
-      </c>
-      <c r="B379" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C379" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D379" s="5"/>
-      <c r="E379" s="2"/>
+      <c r="A379" s="6"/>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>520162</v>
+        <v>559000</v>
       </c>
       <c r="B380" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C380" s="4">
-        <v>-10</v>
+        <v>559000</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
+      <c r="A381" s="2">
+        <v>520160</v>
+      </c>
+      <c r="B381" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C381" s="4">
+        <v>120160</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>521100</v>
+        <v>520161</v>
       </c>
       <c r="B382" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C382" s="4">
-        <v>121100</v>
+        <v>-20</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>521110</v>
+        <v>520162</v>
       </c>
       <c r="B383" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C383" s="4">
-        <v>121110</v>
+        <v>-10</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>521111</v>
-      </c>
-      <c r="B384" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C384" s="4">
-        <v>121111</v>
-      </c>
-      <c r="D384" s="5"/>
-      <c r="E384" s="2"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>521112</v>
+        <v>521100</v>
       </c>
       <c r="B385" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C385" s="4">
-        <v>30</v>
+        <v>121100</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>521120</v>
+        <v>521110</v>
       </c>
       <c r="B386" s="3">
         <v>5013</v>
       </c>
       <c r="C386" s="4">
-        <v>121120</v>
+        <v>121110</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>521121</v>
+        <v>521111</v>
       </c>
       <c r="B387" s="3">
-        <v>5108</v>
+        <v>5013</v>
       </c>
       <c r="C387" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D387" s="5">
-        <v>-3</v>
-      </c>
+        <v>121111</v>
+      </c>
+      <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>521122</v>
+        <v>521112</v>
       </c>
       <c r="B388" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C388" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>521123</v>
+        <v>521120</v>
       </c>
       <c r="B389" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C389" s="4">
-        <v>-20</v>
+        <v>121120</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
-        <v>521124</v>
+        <v>521121</v>
       </c>
       <c r="B390" s="3">
         <v>5108</v>
@@ -5504,39 +5629,39 @@
         <v>60011</v>
       </c>
       <c r="D390" s="5">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>521130</v>
+        <v>521122</v>
       </c>
       <c r="B391" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C391" s="4">
-        <v>121130</v>
+        <v>10</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>521140</v>
+        <v>521123</v>
       </c>
       <c r="B392" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C392" s="4">
-        <v>121140</v>
+        <v>-20</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>521141</v>
+        <v>521124</v>
       </c>
       <c r="B393" s="3">
         <v>5108</v>
@@ -5545,539 +5670,537 @@
         <v>60011</v>
       </c>
       <c r="D393" s="5">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>521150</v>
+        <v>521130</v>
       </c>
       <c r="B394" s="3">
         <v>5013</v>
       </c>
       <c r="C394" s="4">
-        <v>121150</v>
+        <v>121130</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>521151</v>
+        <v>521140</v>
       </c>
       <c r="B395" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C395" s="4">
-        <v>2</v>
+        <v>121140</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>521152</v>
+        <v>521141</v>
       </c>
       <c r="B396" s="3">
-        <v>5003</v>
+        <v>5108</v>
       </c>
       <c r="C396" s="4">
-        <v>3</v>
-      </c>
-      <c r="D396" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D396" s="5">
+        <v>-3</v>
+      </c>
       <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>521160</v>
+        <v>521150</v>
       </c>
       <c r="B397" s="3">
         <v>5013</v>
       </c>
       <c r="C397" s="4">
-        <v>121160</v>
+        <v>121150</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>521170</v>
+        <v>521151</v>
       </c>
       <c r="B398" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C398" s="4">
-        <v>121170</v>
+        <v>2</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>521180</v>
+        <v>521152</v>
       </c>
       <c r="B399" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C399" s="4">
-        <v>121180</v>
+        <v>3</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="6"/>
-      <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="6"/>
+      <c r="A400" s="2">
+        <v>521160</v>
+      </c>
+      <c r="B400" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C400" s="4">
+        <v>121160</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>530000</v>
+        <v>521170</v>
       </c>
       <c r="B401" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C401" s="4">
-        <v>5</v>
+        <v>121170</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>530001</v>
+        <v>521180</v>
       </c>
       <c r="B402" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C402" s="4">
-        <v>-20</v>
+        <v>121180</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="2">
-        <v>530002</v>
-      </c>
-      <c r="B403" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C403" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D403" s="5"/>
-      <c r="E403" s="2"/>
+      <c r="A403" s="6"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>530003</v>
+        <v>530000</v>
       </c>
       <c r="B404" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C404" s="4">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>530010</v>
+        <v>530001</v>
       </c>
       <c r="B405" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C405" s="4">
-        <v>130010</v>
+        <v>-20</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="2"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>530011</v>
+        <v>530002</v>
       </c>
       <c r="B406" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C406" s="4">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>530012</v>
+        <v>530003</v>
       </c>
       <c r="B407" s="3">
         <v>5003</v>
       </c>
       <c r="C407" s="4">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>530020</v>
+        <v>530010</v>
       </c>
       <c r="B408" s="3">
         <v>5013</v>
       </c>
       <c r="C408" s="4">
-        <v>130020</v>
+        <v>130010</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>530021</v>
+        <v>530011</v>
       </c>
       <c r="B409" s="3">
         <v>5009</v>
       </c>
       <c r="C409" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>530022</v>
+        <v>530012</v>
       </c>
       <c r="B410" s="3">
         <v>5003</v>
       </c>
       <c r="C410" s="4">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>530030</v>
+        <v>530020</v>
       </c>
       <c r="B411" s="3">
         <v>5013</v>
       </c>
       <c r="C411" s="4">
-        <v>130030</v>
+        <v>130020</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>530031</v>
+        <v>530021</v>
       </c>
       <c r="B412" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C412" s="4">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>530040</v>
+        <v>530022</v>
       </c>
       <c r="B413" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C413" s="4">
-        <v>130040</v>
+        <v>-40</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>530041</v>
+        <v>530030</v>
       </c>
       <c r="B414" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C414" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>530050</v>
+        <v>530031</v>
       </c>
       <c r="B415" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C415" s="4">
-        <v>130050</v>
+        <v>-10</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>530051</v>
+        <v>530040</v>
       </c>
       <c r="B416" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C416" s="4">
-        <v>-30</v>
+        <v>130040</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>530060</v>
+        <v>530041</v>
       </c>
       <c r="B417" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C417" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>530061</v>
+        <v>530050</v>
       </c>
       <c r="B418" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C418" s="4">
-        <v>-10</v>
+        <v>130050</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>530070</v>
+        <v>530051</v>
       </c>
       <c r="B419" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C419" s="4">
-        <v>130070</v>
+        <v>-30</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>530071</v>
+        <v>530060</v>
       </c>
       <c r="B420" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C420" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>530080</v>
+        <v>530061</v>
       </c>
       <c r="B421" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C421" s="4">
-        <v>130080</v>
+        <v>-10</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>530081</v>
+        <v>530070</v>
       </c>
       <c r="B422" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C422" s="4">
-        <v>-30</v>
+        <v>130070</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>530090</v>
+        <v>530071</v>
       </c>
       <c r="B423" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C423" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>530091</v>
+        <v>530080</v>
       </c>
       <c r="B424" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C424" s="4">
-        <v>-10</v>
+        <v>130080</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>530100</v>
+        <v>530081</v>
       </c>
       <c r="B425" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C425" s="4">
-        <v>130100</v>
+        <v>-30</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>530101</v>
+        <v>530090</v>
       </c>
       <c r="B426" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C426" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="2"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>530110</v>
+        <v>530091</v>
       </c>
       <c r="B427" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C427" s="4">
-        <v>130110</v>
+        <v>-10</v>
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="2"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>530111</v>
+        <v>530100</v>
       </c>
       <c r="B428" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C428" s="4">
-        <v>-30</v>
+        <v>130100</v>
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="2"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>530120</v>
+        <v>530101</v>
       </c>
       <c r="B429" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C429" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="2"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>530121</v>
+        <v>530110</v>
       </c>
       <c r="B430" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C430" s="4">
-        <v>2</v>
-      </c>
-      <c r="D430" s="5">
-        <v>1</v>
-      </c>
+        <v>130110</v>
+      </c>
+      <c r="D430" s="5"/>
       <c r="E430" s="2"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>530122</v>
+        <v>530111</v>
       </c>
       <c r="B431" s="3">
-        <v>5203</v>
+        <v>5003</v>
       </c>
       <c r="C431" s="4">
-        <v>3</v>
-      </c>
-      <c r="D431" s="5">
-        <v>1</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D431" s="5"/>
       <c r="E431" s="2"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>530123</v>
+        <v>530120</v>
       </c>
       <c r="B432" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C432" s="4">
-        <v>4</v>
-      </c>
-      <c r="D432" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D432" s="5"/>
       <c r="E432" s="2"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>530130</v>
+        <v>530121</v>
       </c>
       <c r="B433" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C433" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D433" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D433" s="5">
+        <v>1</v>
+      </c>
       <c r="E433" s="2"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>530131</v>
+        <v>530122</v>
       </c>
       <c r="B434" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C434" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D434" s="5">
         <v>1</v>
@@ -6086,13 +6209,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>530132</v>
+        <v>530123</v>
       </c>
       <c r="B435" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C435" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D435" s="5">
         <v>1</v>
@@ -6101,41 +6224,41 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>530133</v>
+        <v>530130</v>
       </c>
       <c r="B436" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C436" s="4">
-        <v>4</v>
-      </c>
-      <c r="D436" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D436" s="5"/>
       <c r="E436" s="2"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>530140</v>
+        <v>530131</v>
       </c>
       <c r="B437" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C437" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D437" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D437" s="5">
+        <v>1</v>
+      </c>
       <c r="E437" s="2"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>530141</v>
+        <v>530132</v>
       </c>
       <c r="B438" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C438" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D438" s="5">
         <v>1</v>
@@ -6144,13 +6267,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>530142</v>
+        <v>530133</v>
       </c>
       <c r="B439" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C439" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D439" s="5">
         <v>1</v>
@@ -6159,41 +6282,41 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>530143</v>
+        <v>530140</v>
       </c>
       <c r="B440" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C440" s="4">
-        <v>4</v>
-      </c>
-      <c r="D440" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D440" s="5"/>
       <c r="E440" s="2"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>530150</v>
+        <v>530141</v>
       </c>
       <c r="B441" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C441" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D441" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D441" s="5">
+        <v>1</v>
+      </c>
       <c r="E441" s="2"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>530151</v>
+        <v>530142</v>
       </c>
       <c r="B442" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C442" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D442" s="5">
         <v>1</v>
@@ -6202,13 +6325,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
-        <v>530152</v>
+        <v>530143</v>
       </c>
       <c r="B443" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C443" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D443" s="5">
         <v>1</v>
@@ -6217,41 +6340,41 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
-        <v>530153</v>
+        <v>530150</v>
       </c>
       <c r="B444" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C444" s="4">
-        <v>4</v>
-      </c>
-      <c r="D444" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D444" s="5"/>
       <c r="E444" s="2"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
-        <v>530160</v>
+        <v>530151</v>
       </c>
       <c r="B445" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C445" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D445" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D445" s="5">
+        <v>1</v>
+      </c>
       <c r="E445" s="2"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
-        <v>530161</v>
+        <v>530152</v>
       </c>
       <c r="B446" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C446" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D446" s="5">
         <v>1</v>
@@ -6260,13 +6383,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>530162</v>
+        <v>530153</v>
       </c>
       <c r="B447" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C447" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D447" s="5">
         <v>1</v>
@@ -6275,41 +6398,41 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
-        <v>530163</v>
+        <v>530160</v>
       </c>
       <c r="B448" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C448" s="4">
-        <v>4</v>
-      </c>
-      <c r="D448" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D448" s="5"/>
       <c r="E448" s="2"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>530170</v>
+        <v>530161</v>
       </c>
       <c r="B449" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C449" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D449" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D449" s="5">
+        <v>1</v>
+      </c>
       <c r="E449" s="2"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>530171</v>
+        <v>530162</v>
       </c>
       <c r="B450" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C450" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D450" s="5">
         <v>1</v>
@@ -6318,13 +6441,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
-        <v>530172</v>
+        <v>530163</v>
       </c>
       <c r="B451" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C451" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D451" s="5">
         <v>1</v>
@@ -6333,236 +6456,279 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>530173</v>
+        <v>530170</v>
       </c>
       <c r="B452" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C452" s="4">
-        <v>4</v>
-      </c>
-      <c r="D452" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D452" s="5"/>
       <c r="E452" s="2"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
-        <v>530180</v>
+        <v>530171</v>
       </c>
       <c r="B453" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C453" s="4"/>
-      <c r="D453" s="5"/>
+        <v>5206</v>
+      </c>
+      <c r="C453" s="4">
+        <v>2</v>
+      </c>
+      <c r="D453" s="5">
+        <v>1</v>
+      </c>
       <c r="E453" s="2"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
-        <v>530181</v>
+        <v>530172</v>
       </c>
       <c r="B454" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C454" s="4"/>
-      <c r="D454" s="5"/>
+        <v>5206</v>
+      </c>
+      <c r="C454" s="4">
+        <v>3</v>
+      </c>
+      <c r="D454" s="5">
+        <v>1</v>
+      </c>
       <c r="E454" s="2"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" s="6"/>
-      <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
-      <c r="D455" s="6"/>
-      <c r="E455" s="6"/>
+      <c r="A455" s="2">
+        <v>530173</v>
+      </c>
+      <c r="B455" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C455" s="4">
+        <v>4</v>
+      </c>
+      <c r="D455" s="5">
+        <v>1</v>
+      </c>
+      <c r="E455" s="2"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
-        <v>550000</v>
+        <v>530180</v>
       </c>
       <c r="B456" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C456" s="4">
-        <v>-2</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C456" s="4"/>
       <c r="D456" s="5"/>
       <c r="E456" s="2"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>550001</v>
+        <v>530181</v>
       </c>
       <c r="B457" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C457" s="4">
-        <v>-4</v>
-      </c>
+        <v>5022</v>
+      </c>
+      <c r="C457" s="4"/>
       <c r="D457" s="5"/>
       <c r="E457" s="2"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B458" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C458" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D458" s="5"/>
-      <c r="E458" s="2"/>
+      <c r="A458" s="6"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>550003</v>
+        <v>550000</v>
       </c>
       <c r="B459" s="3">
         <v>5006</v>
       </c>
       <c r="C459" s="4">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="2"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460" s="6"/>
-      <c r="B460" s="6"/>
-      <c r="C460" s="6"/>
-      <c r="D460" s="6"/>
-      <c r="E460" s="6"/>
+      <c r="A460" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B460" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C460" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D460" s="5"/>
+      <c r="E460" s="2"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
-        <v>559000</v>
+        <v>550002</v>
       </c>
       <c r="B461" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C461" s="4">
-        <v>559000</v>
+        <v>-5</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="2"/>
     </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B462" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C462" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D462" s="5"/>
+      <c r="E462" s="2"/>
+    </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B463" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C463" s="4">
-        <v>50</v>
-      </c>
-      <c r="D463" s="5"/>
-      <c r="E463" s="2"/>
+      <c r="A463" s="6"/>
+      <c r="B463" s="6"/>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
-        <v>540001</v>
+        <v>559000</v>
       </c>
       <c r="B464" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C464" s="4">
-        <v>50</v>
+        <v>559000</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="2"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="2">
-        <v>540002</v>
-      </c>
-      <c r="B465" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C465" s="4">
-        <v>50</v>
-      </c>
-      <c r="D465" s="5"/>
-      <c r="E465" s="2"/>
-    </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
-        <v>540010</v>
+        <v>540000</v>
       </c>
       <c r="B466" s="3">
         <v>5000</v>
       </c>
       <c r="C466" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="2"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>540011</v>
+        <v>540001</v>
       </c>
       <c r="B467" s="3">
         <v>5003</v>
       </c>
       <c r="C467" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="2"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
-        <v>540012</v>
+        <v>540002</v>
       </c>
       <c r="B468" s="3">
         <v>5006</v>
       </c>
       <c r="C468" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="2"/>
     </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>540010</v>
+      </c>
+      <c r="B469" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C469" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D469" s="5"/>
+      <c r="E469" s="2"/>
+    </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
-        <v>540020</v>
+        <v>540011</v>
       </c>
       <c r="B470" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C470" s="4">
-        <v>140020</v>
+        <v>-50</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="2"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
-        <v>540030</v>
+        <v>540012</v>
       </c>
       <c r="B471" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C471" s="4">
-        <v>140030</v>
+        <v>-50</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="2"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>540020</v>
+      </c>
+      <c r="B473" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C473" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D473" s="5"/>
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="2">
+        <v>540030</v>
+      </c>
+      <c r="B474" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C474" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D474" s="5"/>
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
         <v>540040</v>
       </c>
-      <c r="B472" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C472" s="4">
+      <c r="B475" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C475" s="4">
         <v>140040</v>
       </c>
-      <c r="D472" s="5"/>
-      <c r="E472" s="2"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDC8173-A5FA-4975-A7F7-ABD20B41ABAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F1D04-7F80-4171-A8AE-35DCF7C03A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="4845" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="4170" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="J254" sqref="J254"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2744,11 +2744,8 @@
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F166"/>
-    </row>
+    </row>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>510100</v>
@@ -2761,7 +2758,6 @@
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
-      <c r="F167"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
@@ -2775,7 +2771,6 @@
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
-      <c r="F168"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
@@ -2789,37 +2784,36 @@
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
-      <c r="F169"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510101</v>
+        <v>510103</v>
       </c>
       <c r="B170" s="3">
-        <v>5021</v>
-      </c>
-      <c r="C170" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C170" s="4">
+        <v>10</v>
+      </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
-      <c r="F170"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510110</v>
+        <v>510104</v>
       </c>
       <c r="B171" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C171" s="4">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-      <c r="F171"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B172" s="3">
         <v>5000</v>
@@ -2829,11 +2823,10 @@
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
-      <c r="F172"/>
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B173" s="3">
         <v>5000</v>
@@ -2843,11 +2836,10 @@
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
-      <c r="F173"/>
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B174" s="3">
         <v>5000</v>
@@ -2857,11 +2849,10 @@
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="2"/>
-      <c r="F174"/>
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B175" s="3">
         <v>5000</v>
@@ -2871,26 +2862,22 @@
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
-      <c r="F175"/>
     </row>
     <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>510103</v>
+        <v>510150</v>
       </c>
       <c r="B176" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C176" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
-      <c r="F176"/>
-    </row>
-    <row r="177" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F177"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>511060</v>
       </c>
@@ -2903,7 +2890,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>511061</v>
       </c>
@@ -2918,14 +2905,14 @@
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>512100</v>
       </c>
@@ -2938,7 +2925,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>512110</v>
       </c>
@@ -2951,7 +2938,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>512111</v>
       </c>
@@ -2964,7 +2951,7 @@
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>512120</v>
       </c>
@@ -2977,7 +2964,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>512130</v>
       </c>
@@ -2990,7 +2977,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>512140</v>
       </c>
@@ -3003,14 +2990,14 @@
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>513100</v>
       </c>
@@ -3023,7 +3010,7 @@
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>513110</v>
       </c>
@@ -3036,7 +3023,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>513120</v>
       </c>
@@ -3049,7 +3036,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>513121</v>
       </c>
@@ -3062,7 +3049,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>513130</v>
       </c>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F1D04-7F80-4171-A8AE-35DCF7C03A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B7EA8-5A86-450A-B0A8-1512411A070B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="4170" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="5700" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="H264" sqref="H264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3944,7 +3944,7 @@
         <v>5013</v>
       </c>
       <c r="C261" s="4">
-        <v>118110</v>
+        <v>118114</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
@@ -3957,7 +3957,7 @@
         <v>5013</v>
       </c>
       <c r="C262" s="4">
-        <v>118111</v>
+        <v>118115</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
@@ -3970,7 +3970,7 @@
         <v>5013</v>
       </c>
       <c r="C263" s="4">
-        <v>118112</v>
+        <v>118116</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60B7EA8-5A86-450A-B0A8-1512411A070B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609349BE-EA46-4968-A1B7-B405E48F6724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="5700" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18525" yWindow="6060" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="H264" sqref="H264"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="H277" sqref="H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4040,7 +4040,7 @@
         <v>5013</v>
       </c>
       <c r="C269" s="4">
-        <v>191100</v>
+        <v>119110</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
@@ -4088,7 +4088,7 @@
         <v>5013</v>
       </c>
       <c r="C273" s="4">
-        <v>191200</v>
+        <v>119121</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\正式工作\猫咪共济会\配置表\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609349BE-EA46-4968-A1B7-B405E48F6724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B53FA-A5B7-4A89-8496-008DE891D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18525" yWindow="6060" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12075" yWindow="5655" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="H277" sqref="H277"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,7 +812,9 @@
       <c r="C18" s="4">
         <v>101</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +903,9 @@
       <c r="C25" s="4">
         <v>100</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1003,7 +1007,9 @@
       <c r="C33" s="4">
         <v>200</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,7 +1035,9 @@
       <c r="C35" s="4">
         <v>201</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,7 +1128,9 @@
       <c r="C42" s="4">
         <v>500</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,7 +1156,9 @@
       <c r="C44" s="4">
         <v>403</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1172,7 +1184,9 @@
       <c r="C46" s="4">
         <v>404</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,7 +1298,9 @@
       <c r="C55" s="4">
         <v>601</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55"/>
     </row>
@@ -1312,7 +1328,9 @@
       <c r="C57" s="4">
         <v>502</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57"/>
     </row>
@@ -1438,7 +1456,9 @@
       <c r="C66" s="4">
         <v>601</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66"/>
     </row>
@@ -1536,7 +1556,9 @@
       <c r="C73" s="4">
         <v>201</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
       <c r="E73" s="8"/>
       <c r="F73"/>
     </row>
@@ -1564,7 +1586,9 @@
       <c r="C75" s="4">
         <v>301</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75"/>
     </row>
@@ -1662,7 +1686,9 @@
       <c r="C82" s="4">
         <v>200</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
       <c r="E82" s="8"/>
       <c r="F82"/>
     </row>
@@ -1676,7 +1702,7 @@
       <c r="C83" s="4">
         <v>60001</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="8"/>
       <c r="F83"/>
     </row>
@@ -1690,7 +1716,9 @@
       <c r="C84" s="4">
         <v>300</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
       <c r="E84" s="8"/>
       <c r="F84"/>
     </row>
@@ -1704,7 +1732,7 @@
       <c r="C85" s="4">
         <v>60007</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="8"/>
       <c r="F85"/>
     </row>
@@ -1788,7 +1816,9 @@
       <c r="C91" s="4">
         <v>300</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
       <c r="E91" s="8"/>
       <c r="F91"/>
     </row>
@@ -1802,7 +1832,7 @@
       <c r="C92" s="4">
         <v>60006</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="8"/>
       <c r="F92"/>
     </row>
@@ -1816,7 +1846,9 @@
       <c r="C93" s="4">
         <v>400</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
       <c r="E93" s="8"/>
       <c r="F93"/>
     </row>
@@ -1830,7 +1862,7 @@
       <c r="C94" s="4">
         <v>60008</v>
       </c>
-      <c r="D94" s="7"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="8"/>
       <c r="F94"/>
     </row>
@@ -1844,7 +1876,9 @@
       <c r="C95" s="4">
         <v>402</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
       <c r="E95" s="8"/>
       <c r="F95"/>
     </row>
@@ -1858,7 +1892,7 @@
       <c r="C96" s="4">
         <v>60009</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="8"/>
       <c r="F96"/>
     </row>
@@ -1872,7 +1906,9 @@
       <c r="C97" s="4">
         <v>403</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97"/>
     </row>
@@ -1956,7 +1992,9 @@
       <c r="C103" s="4">
         <v>301</v>
       </c>
-      <c r="D103" s="5"/>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103"/>
     </row>
@@ -1984,7 +2022,9 @@
       <c r="C105" s="4">
         <v>400</v>
       </c>
-      <c r="D105" s="5"/>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105"/>
     </row>
@@ -2012,7 +2052,9 @@
       <c r="C107" s="4">
         <v>401</v>
       </c>
-      <c r="D107" s="5"/>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107"/>
     </row>
@@ -2110,7 +2152,9 @@
       <c r="C114" s="4">
         <v>401</v>
       </c>
-      <c r="D114" s="5"/>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114"/>
     </row>
@@ -2138,7 +2182,9 @@
       <c r="C116" s="4">
         <v>402</v>
       </c>
-      <c r="D116" s="5"/>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116"/>
     </row>
@@ -2166,7 +2212,9 @@
       <c r="C118" s="4">
         <v>404</v>
       </c>
-      <c r="D118" s="5"/>
+      <c r="D118" s="5">
+        <v>0</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118"/>
     </row>
@@ -2250,7 +2298,9 @@
       <c r="C124" s="4">
         <v>502</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124"/>
     </row>
@@ -2278,7 +2328,9 @@
       <c r="C126" s="4">
         <v>501</v>
       </c>
-      <c r="D126" s="5"/>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126"/>
     </row>
@@ -2306,7 +2358,9 @@
       <c r="C128" s="4">
         <v>500</v>
       </c>
-      <c r="D128" s="5"/>
+      <c r="D128" s="5">
+        <v>0</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128"/>
     </row>
@@ -2390,7 +2444,9 @@
       <c r="C134" s="4">
         <v>501</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="5">
+        <v>0</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134"/>
     </row>
@@ -2418,7 +2474,9 @@
       <c r="C136" s="4">
         <v>700</v>
       </c>
-      <c r="D136" s="5"/>
+      <c r="D136" s="5">
+        <v>0</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136"/>
     </row>
@@ -3770,7 +3828,9 @@
       <c r="C247" s="4">
         <v>700</v>
       </c>
-      <c r="D247" s="5"/>
+      <c r="D247" s="5">
+        <v>1</v>
+      </c>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\正式工作\猫咪共济会\配置表\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B53FA-A5B7-4A89-8496-008DE891D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95E7161-484C-4E44-95E9-624558E15BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="5655" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="4170" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="K477" sqref="K477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6753,29 +6753,44 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B474" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C474" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D474" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D474" s="5">
+        <v>72000</v>
+      </c>
       <c r="E474" s="2"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B475" s="3">
         <v>5013</v>
       </c>
       <c r="C475" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="2"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B476" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C476" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D476" s="5"/>
+      <c r="E476" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95E7161-484C-4E44-95E9-624558E15BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4970B-2198-4F0E-ACF4-CA0124BA82EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="4170" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="4110" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="K477" sqref="K477"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5421,7 +5421,9 @@
       <c r="B369" s="3">
         <v>5022</v>
       </c>
-      <c r="C369" s="4"/>
+      <c r="C369" s="4">
+        <v>73000</v>
+      </c>
       <c r="D369" s="5"/>
       <c r="E369" s="2"/>
     </row>
@@ -5432,7 +5434,9 @@
       <c r="B370" s="3">
         <v>5022</v>
       </c>
-      <c r="C370" s="4"/>
+      <c r="C370" s="4">
+        <v>73000</v>
+      </c>
       <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
@@ -6566,7 +6570,9 @@
       <c r="B456" s="3">
         <v>5022</v>
       </c>
-      <c r="C456" s="4"/>
+      <c r="C456" s="4">
+        <v>73000</v>
+      </c>
       <c r="D456" s="5"/>
       <c r="E456" s="2"/>
     </row>
@@ -6577,7 +6583,9 @@
       <c r="B457" s="3">
         <v>5022</v>
       </c>
-      <c r="C457" s="4"/>
+      <c r="C457" s="4">
+        <v>73000</v>
+      </c>
       <c r="D457" s="5"/>
       <c r="E457" s="2"/>
     </row>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4970B-2198-4F0E-ACF4-CA0124BA82EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865BD36-A6FC-477A-9F90-A01E754140B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="4110" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="6015" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="H370" sqref="H370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2570,17 +2570,28 @@
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>501000</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C146" s="4">
+        <v>101000</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="2"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>501000</v>
+        <v>501010</v>
       </c>
       <c r="B147" s="3">
         <v>5013</v>
       </c>
       <c r="C147" s="4">
-        <v>101000</v>
+        <v>101010</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="2"/>
@@ -2588,13 +2599,13 @@
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501010</v>
+        <v>501020</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101010</v>
+        <v>101020</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
@@ -2602,13 +2613,13 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501020</v>
+        <v>501030</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101020</v>
+        <v>101030</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
@@ -2616,13 +2627,13 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501030</v>
+        <v>501040</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101030</v>
+        <v>101040</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
@@ -2630,13 +2641,13 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501040</v>
+        <v>501050</v>
       </c>
       <c r="B151" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C151" s="4">
-        <v>101040</v>
+        <v>10</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -2644,44 +2655,44 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501050</v>
+        <v>501051</v>
       </c>
       <c r="B152" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C152" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>501051</v>
-      </c>
-      <c r="B153" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C153" s="4">
-        <v>5</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>502000</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C154" s="4">
+        <v>102000</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>502000</v>
+        <v>502010</v>
       </c>
       <c r="B155" s="3">
         <v>5013</v>
       </c>
       <c r="C155" s="4">
-        <v>102000</v>
+        <v>102010</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="2"/>
@@ -2689,13 +2700,13 @@
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502010</v>
+        <v>502020</v>
       </c>
       <c r="B156" s="3">
         <v>5013</v>
       </c>
       <c r="C156" s="4">
-        <v>102010</v>
+        <v>102020</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
@@ -2703,13 +2714,13 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502020</v>
+        <v>502030</v>
       </c>
       <c r="B157" s="3">
         <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>102020</v>
+        <v>102030</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
@@ -2717,56 +2728,52 @@
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502030</v>
+        <v>502031</v>
       </c>
       <c r="B158" s="3">
-        <v>5013</v>
+        <v>5109</v>
       </c>
       <c r="C158" s="4">
-        <v>102030</v>
-      </c>
-      <c r="D158" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D158" s="5">
+        <v>0</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158"/>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502031</v>
+        <v>502032</v>
       </c>
       <c r="B159" s="3">
-        <v>5109</v>
+        <v>5104</v>
       </c>
       <c r="C159" s="4">
         <v>60000</v>
       </c>
       <c r="D159" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>502032</v>
-      </c>
-      <c r="B160" s="3">
-        <v>5104</v>
-      </c>
-      <c r="C160" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D160" s="5">
-        <v>3</v>
-      </c>
-      <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>509000</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>509000</v>
+        <v>509010</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -2776,7 +2783,7 @@
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>509010</v>
+        <v>509020</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -2786,92 +2793,95 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>509020</v>
+        <v>509030</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
-      <c r="F164"/>
-    </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>509030</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>510100</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C166" s="4">
+        <v>15</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="2"/>
+    </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510100</v>
+        <v>510101</v>
       </c>
       <c r="B167" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C167" s="4">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510101</v>
+        <v>510102</v>
       </c>
       <c r="B168" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C168" s="4">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510102</v>
+        <v>510103</v>
       </c>
       <c r="B169" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C169" s="4">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510103</v>
+        <v>510104</v>
       </c>
       <c r="B170" s="3">
         <v>5003</v>
       </c>
       <c r="C170" s="4">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510104</v>
+        <v>510110</v>
       </c>
       <c r="B171" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C171" s="4">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>510110</v>
+        <v>510120</v>
       </c>
       <c r="B172" s="3">
         <v>5000</v>
@@ -2884,7 +2894,7 @@
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510120</v>
+        <v>510130</v>
       </c>
       <c r="B173" s="3">
         <v>5000</v>
@@ -2897,7 +2907,7 @@
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>510130</v>
+        <v>510140</v>
       </c>
       <c r="B174" s="3">
         <v>5000</v>
@@ -2910,7 +2920,7 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>510140</v>
+        <v>510150</v>
       </c>
       <c r="B175" s="3">
         <v>5000</v>
@@ -2921,735 +2931,735 @@
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>510150</v>
-      </c>
-      <c r="B176" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C176" s="4">
-        <v>15</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="2"/>
+    </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>511060</v>
+        <v>511061</v>
       </c>
       <c r="B178" s="3">
-        <v>5009</v>
+        <v>5119</v>
       </c>
       <c r="C178" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D178" s="5">
         <v>61002</v>
       </c>
-      <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>511061</v>
-      </c>
-      <c r="B179" s="3">
-        <v>5119</v>
-      </c>
-      <c r="C179" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D179" s="5">
-        <v>61002</v>
-      </c>
-      <c r="E179" s="2"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+      <c r="A180" s="2">
+        <v>512100</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C180" s="4">
+        <v>112100</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512100</v>
+        <v>512110</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112100</v>
+        <v>112110</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>512110</v>
+        <v>512111</v>
       </c>
       <c r="B182" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C182" s="4">
-        <v>112110</v>
+        <v>-50</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>512111</v>
+        <v>512120</v>
       </c>
       <c r="B183" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C183" s="4">
-        <v>-50</v>
+        <v>112120</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>512120</v>
+        <v>512130</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>112120</v>
+        <v>112130</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>512130</v>
+        <v>512140</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>112130</v>
+        <v>112140</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>512140</v>
-      </c>
-      <c r="B186" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C186" s="4">
-        <v>112140</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="2"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="A187" s="2">
+        <v>513100</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C187" s="4">
+        <v>113100</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513100</v>
+        <v>513110</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113100</v>
+        <v>113110</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513110</v>
+        <v>513120</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113110</v>
+        <v>113120</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513120</v>
+        <v>513121</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113120</v>
+        <v>113121</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513121</v>
+        <v>513130</v>
       </c>
       <c r="B191" s="3">
         <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>113121</v>
+        <v>113130</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513130</v>
+        <v>513140</v>
       </c>
       <c r="B192" s="3">
         <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>113130</v>
+        <v>113140</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513140</v>
+        <v>513150</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113140</v>
+        <v>113150</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513150</v>
+        <v>513160</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113150</v>
+        <v>113160</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513160</v>
+        <v>513161</v>
       </c>
       <c r="B195" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C195" s="4">
-        <v>113160</v>
-      </c>
-      <c r="D195" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D195" s="5">
+        <v>-5</v>
+      </c>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513161</v>
+        <v>513200</v>
       </c>
       <c r="B196" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C196" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D196" s="5">
-        <v>-5</v>
-      </c>
+        <v>113200</v>
+      </c>
+      <c r="D196" s="5"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>513200</v>
+        <v>513210</v>
       </c>
       <c r="B197" s="3">
         <v>5013</v>
       </c>
       <c r="C197" s="4">
-        <v>113200</v>
+        <v>113210</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>513210</v>
+        <v>513220</v>
       </c>
       <c r="B198" s="3">
         <v>5013</v>
       </c>
       <c r="C198" s="4">
-        <v>113210</v>
+        <v>113220</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>513220</v>
+        <v>513230</v>
       </c>
       <c r="B199" s="3">
         <v>5013</v>
       </c>
       <c r="C199" s="4">
-        <v>113220</v>
+        <v>113160</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>513230</v>
+        <v>513231</v>
       </c>
       <c r="B200" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C200" s="4">
-        <v>113160</v>
-      </c>
-      <c r="D200" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D200" s="5">
+        <v>-5</v>
+      </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>513231</v>
-      </c>
-      <c r="B201" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C201" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D201" s="5">
-        <v>-5</v>
-      </c>
-      <c r="E201" s="2"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="A202" s="2">
+        <v>515100</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C202" s="4">
+        <v>115100</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515100</v>
+        <v>515101</v>
       </c>
       <c r="B203" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C203" s="4">
-        <v>115100</v>
+        <v>10</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515101</v>
+        <v>515102</v>
       </c>
       <c r="B204" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C204" s="4">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515102</v>
+        <v>515103</v>
       </c>
       <c r="B205" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C205" s="4">
-        <v>-2</v>
+        <v>115101</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515103</v>
+        <v>515104</v>
       </c>
       <c r="B206" s="3">
         <v>5013</v>
       </c>
       <c r="C206" s="4">
-        <v>115101</v>
+        <v>115102</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515104</v>
+        <v>515110</v>
       </c>
       <c r="B207" s="3">
         <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>115102</v>
+        <v>115110</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515110</v>
+        <v>515111</v>
       </c>
       <c r="B208" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C208" s="4">
-        <v>115110</v>
+        <v>20</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515111</v>
+        <v>515112</v>
       </c>
       <c r="B209" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C209" s="4">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515112</v>
+        <v>515113</v>
       </c>
       <c r="B210" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C210" s="4">
-        <v>-2</v>
+        <v>115111</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515113</v>
+        <v>515114</v>
       </c>
       <c r="B211" s="3">
         <v>5013</v>
       </c>
       <c r="C211" s="4">
-        <v>115111</v>
+        <v>115112</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515114</v>
+        <v>515120</v>
       </c>
       <c r="B212" s="3">
         <v>5013</v>
       </c>
       <c r="C212" s="4">
-        <v>115112</v>
+        <v>115120</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515120</v>
+        <v>515121</v>
       </c>
       <c r="B213" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C213" s="4">
-        <v>115120</v>
+        <v>5</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515121</v>
+        <v>515122</v>
       </c>
       <c r="B214" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C214" s="4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515122</v>
+        <v>515130</v>
       </c>
       <c r="B215" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C215" s="4">
-        <v>-1</v>
+        <v>115120</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515130</v>
+        <v>515131</v>
       </c>
       <c r="B216" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C216" s="4">
-        <v>115120</v>
+        <v>10</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515131</v>
+        <v>515132</v>
       </c>
       <c r="B217" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C217" s="4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515132</v>
+        <v>515140</v>
       </c>
       <c r="B218" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C218" s="4">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515140</v>
+        <v>515150</v>
       </c>
       <c r="B219" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C219" s="4">
-        <v>100</v>
+        <v>115150</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515150</v>
+        <v>515160</v>
       </c>
       <c r="B220" s="3">
         <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>115150</v>
+        <v>115160</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515160</v>
+        <v>515170</v>
       </c>
       <c r="B221" s="3">
         <v>5013</v>
       </c>
       <c r="C221" s="4">
-        <v>115160</v>
+        <v>115170</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>515170</v>
+        <v>515171</v>
       </c>
       <c r="B222" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C222" s="4">
-        <v>115170</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D222" s="5">
+        <v>-3</v>
+      </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>515171</v>
+        <v>515180</v>
       </c>
       <c r="B223" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C223" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D223" s="5">
-        <v>-3</v>
-      </c>
+        <v>115180</v>
+      </c>
+      <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>515180</v>
+        <v>515181</v>
       </c>
       <c r="B224" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C224" s="4">
-        <v>115180</v>
+        <v>15</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>515181</v>
-      </c>
-      <c r="B225" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C225" s="4">
-        <v>15</v>
-      </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="2"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
+      <c r="A226" s="2">
+        <v>516100</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C226" s="4">
+        <v>116100</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516100</v>
+        <v>516101</v>
       </c>
       <c r="B227" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C227" s="4">
-        <v>116100</v>
+        <v>15</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516101</v>
+        <v>516102</v>
       </c>
       <c r="B228" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C228" s="4">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516102</v>
+        <v>516103</v>
       </c>
       <c r="B229" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C229" s="4">
-        <v>-2</v>
+        <v>116101</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516103</v>
+        <v>516104</v>
       </c>
       <c r="B230" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C230" s="4">
-        <v>116101</v>
+        <v>-5</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516104</v>
+        <v>516105</v>
       </c>
       <c r="B231" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C231" s="4">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516105</v>
+        <v>516110</v>
       </c>
       <c r="B232" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C232" s="4">
-        <v>5</v>
+        <v>116110</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516110</v>
+        <v>516120</v>
       </c>
       <c r="B233" s="3">
         <v>5013</v>
       </c>
       <c r="C233" s="4">
-        <v>116110</v>
+        <v>116120</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516120</v>
+        <v>516121</v>
       </c>
       <c r="B234" s="3">
         <v>5013</v>
@@ -3662,20 +3672,22 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>516121</v>
+        <v>516122</v>
       </c>
       <c r="B235" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C235" s="4">
-        <v>116120</v>
-      </c>
-      <c r="D235" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D235" s="5">
+        <v>-4</v>
+      </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>516122</v>
+        <v>516130</v>
       </c>
       <c r="B236" s="3">
         <v>5107</v>
@@ -3684,229 +3696,229 @@
         <v>60006</v>
       </c>
       <c r="D236" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>516130</v>
+        <v>516131</v>
       </c>
       <c r="B237" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C237" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D237" s="5">
-        <v>-3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>516131</v>
+        <v>516132</v>
       </c>
       <c r="B238" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C238" s="4">
-        <v>10</v>
-      </c>
-      <c r="D238" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D238" s="5">
+        <v>-3</v>
+      </c>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>516132</v>
-      </c>
-      <c r="B239" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C239" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D239" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E239" s="2"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="A240" s="2">
+        <v>517100</v>
+      </c>
+      <c r="B240" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C240" s="4">
+        <v>117100</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517100</v>
+        <v>517110</v>
       </c>
       <c r="B241" s="3">
         <v>5013</v>
       </c>
       <c r="C241" s="4">
-        <v>117100</v>
+        <v>117110</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517110</v>
+        <v>517120</v>
       </c>
       <c r="B242" s="3">
         <v>5013</v>
       </c>
       <c r="C242" s="4">
-        <v>117110</v>
+        <v>117120</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517120</v>
+        <v>517121</v>
       </c>
       <c r="B243" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C243" s="4">
-        <v>117120</v>
-      </c>
-      <c r="D243" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D243" s="5">
+        <v>-3</v>
+      </c>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517121</v>
+        <v>517122</v>
       </c>
       <c r="B244" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C244" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D244" s="5">
-        <v>-3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517122</v>
+        <v>517130</v>
       </c>
       <c r="B245" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C245" s="4">
-        <v>10</v>
+        <v>117130</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517130</v>
+        <v>517131</v>
       </c>
       <c r="B246" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C246" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D246" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1</v>
+      </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517131</v>
+        <v>517132</v>
       </c>
       <c r="B247" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C247" s="4">
-        <v>700</v>
-      </c>
-      <c r="D247" s="5">
-        <v>1</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517132</v>
+        <v>517140</v>
       </c>
       <c r="B248" s="3">
-        <v>5300</v>
+        <v>5013</v>
       </c>
       <c r="C248" s="4">
-        <v>60011</v>
+        <v>117140</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517140</v>
+        <v>517141</v>
       </c>
       <c r="B249" s="3">
         <v>5013</v>
       </c>
       <c r="C249" s="4">
-        <v>117140</v>
+        <v>117141</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517141</v>
+        <v>517150</v>
       </c>
       <c r="B250" s="3">
         <v>5013</v>
       </c>
       <c r="C250" s="4">
-        <v>117141</v>
+        <v>117150</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517150</v>
+        <v>517151</v>
       </c>
       <c r="B251" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C251" s="4">
-        <v>117150</v>
+        <v>20</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>517151</v>
+        <v>517152</v>
       </c>
       <c r="B252" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C252" s="4">
-        <v>20</v>
-      </c>
-      <c r="D252" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D252" s="5">
+        <v>-3</v>
+      </c>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>517152</v>
+        <v>517153</v>
       </c>
       <c r="B253" s="3">
         <v>5107</v>
       </c>
       <c r="C253" s="4">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="D253" s="5">
         <v>-3</v>
@@ -3915,13 +3927,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>517153</v>
+        <v>517154</v>
       </c>
       <c r="B254" s="3">
         <v>5107</v>
       </c>
       <c r="C254" s="4">
-        <v>60008</v>
+        <v>60009</v>
       </c>
       <c r="D254" s="5">
         <v>-3</v>
@@ -3929,54 +3941,50 @@
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>517154</v>
-      </c>
-      <c r="B255" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C255" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D255" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E255" s="2"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
+      <c r="A256" s="2">
+        <v>518100</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518100</v>
+        <v>518110</v>
       </c>
       <c r="B257" s="3">
-        <v>0</v>
-      </c>
-      <c r="C257" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C257" s="4">
+        <v>-20</v>
+      </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518110</v>
+        <v>518111</v>
       </c>
       <c r="B258" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C258" s="4">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C258" s="4"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518111</v>
+        <v>518112</v>
       </c>
       <c r="B259" s="3">
         <v>0</v>
@@ -3987,190 +3995,192 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518112</v>
+        <v>518113</v>
       </c>
       <c r="B260" s="3">
-        <v>0</v>
-      </c>
-      <c r="C260" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C260" s="4">
+        <v>118114</v>
+      </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>518113</v>
+        <v>518114</v>
       </c>
       <c r="B261" s="3">
         <v>5013</v>
       </c>
       <c r="C261" s="4">
-        <v>118114</v>
+        <v>118115</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>518114</v>
+        <v>518115</v>
       </c>
       <c r="B262" s="3">
         <v>5013</v>
       </c>
       <c r="C262" s="4">
-        <v>118115</v>
+        <v>118116</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>518115</v>
+        <v>518116</v>
       </c>
       <c r="B263" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C263" s="4">
-        <v>118116</v>
+        <v>5</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>518116</v>
-      </c>
-      <c r="B264" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C264" s="4">
-        <v>5</v>
-      </c>
-      <c r="D264" s="5"/>
-      <c r="E264" s="2"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
+      <c r="A265" s="2">
+        <v>519100</v>
+      </c>
+      <c r="B265" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C265" s="4">
+        <v>119100</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519100</v>
+        <v>519101</v>
       </c>
       <c r="B266" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C266" s="4">
-        <v>119100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C266" s="4"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519101</v>
+        <v>519102</v>
       </c>
       <c r="B267" s="3">
-        <v>0</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C267" s="4">
+        <v>-2</v>
+      </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519102</v>
+        <v>519110</v>
       </c>
       <c r="B268" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C268" s="4">
-        <v>-2</v>
+        <v>191100</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519110</v>
+        <v>519111</v>
       </c>
       <c r="B269" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C269" s="4">
-        <v>119110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C269" s="4"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519111</v>
+        <v>519112</v>
       </c>
       <c r="B270" s="3">
-        <v>0</v>
-      </c>
-      <c r="C270" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C270" s="4">
+        <v>-2</v>
+      </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519112</v>
+        <v>519120</v>
       </c>
       <c r="B271" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C271" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C271" s="4"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519120</v>
+        <v>519121</v>
       </c>
       <c r="B272" s="3">
-        <v>0</v>
-      </c>
-      <c r="C272" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C272" s="4">
+        <v>119121</v>
+      </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519121</v>
+        <v>519122</v>
       </c>
       <c r="B273" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C273" s="4">
-        <v>119121</v>
-      </c>
-      <c r="D273" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D273" s="5">
+        <v>-3</v>
+      </c>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519122</v>
+        <v>519123</v>
       </c>
       <c r="B274" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C274" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D274" s="5">
-        <v>-3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519123</v>
+        <v>519130</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
@@ -4183,160 +4193,160 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519130</v>
+        <v>519131</v>
       </c>
       <c r="B276" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C276" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519131</v>
+        <v>519140</v>
       </c>
       <c r="B277" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C277" s="4">
-        <v>119130</v>
+        <v>10</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519140</v>
+        <v>519141</v>
       </c>
       <c r="B278" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>10</v>
+        <v>119140</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>519141</v>
+        <v>519150</v>
       </c>
       <c r="B279" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C279" s="4">
-        <v>119140</v>
+        <v>10</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>519150</v>
+        <v>519151</v>
       </c>
       <c r="B280" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>10</v>
+        <v>119150</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>519151</v>
-      </c>
-      <c r="B281" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C281" s="4">
-        <v>119150</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="2"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
+      <c r="A282" s="2">
+        <v>520100</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C282" s="4">
+        <v>120100</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520100</v>
+        <v>520110</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120100</v>
+        <v>120110</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520110</v>
+        <v>520120</v>
       </c>
       <c r="B284" s="3">
         <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>120110</v>
+        <v>120120</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520120</v>
+        <v>520121</v>
       </c>
       <c r="B285" s="3">
         <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>120120</v>
+        <v>120121</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520121</v>
+        <v>520122</v>
       </c>
       <c r="B286" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C286" s="4">
-        <v>120121</v>
+        <v>-3</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520122</v>
+        <v>520123</v>
       </c>
       <c r="B287" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C287" s="4">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520123</v>
+        <v>520124</v>
       </c>
       <c r="B288" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C288" s="4">
         <v>10</v>
@@ -4346,404 +4356,404 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520124</v>
+        <v>520130</v>
       </c>
       <c r="B289" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>10</v>
+        <v>120130</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520130</v>
+        <v>520140</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120130</v>
+        <v>120140</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520140</v>
+        <v>520150</v>
       </c>
       <c r="B291" s="3">
         <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>120140</v>
+        <v>120150</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520150</v>
+        <v>520160</v>
       </c>
       <c r="B292" s="3">
         <v>5013</v>
       </c>
       <c r="C292" s="4">
-        <v>120150</v>
+        <v>120160</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>520160</v>
+        <v>520161</v>
       </c>
       <c r="B293" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C293" s="4">
-        <v>120160</v>
+        <v>-30</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>520161</v>
+        <v>520162</v>
       </c>
       <c r="B294" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C294" s="4">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>520162</v>
-      </c>
-      <c r="B295" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C295" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D295" s="5"/>
-      <c r="E295" s="2"/>
+      <c r="A295" s="6"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
+      <c r="A296" s="2">
+        <v>521100</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C296" s="4">
+        <v>121100</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521100</v>
+        <v>521110</v>
       </c>
       <c r="B297" s="3">
         <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>121100</v>
+        <v>121110</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521110</v>
+        <v>521111</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121110</v>
+        <v>121111</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521111</v>
+        <v>521112</v>
       </c>
       <c r="B299" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C299" s="4">
-        <v>121111</v>
+        <v>30</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521112</v>
+        <v>521113</v>
       </c>
       <c r="B300" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C300" s="4">
-        <v>30</v>
+        <v>121112</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521120</v>
+        <v>521114</v>
       </c>
       <c r="B301" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C301" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521121</v>
+        <v>521120</v>
       </c>
       <c r="B302" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C302" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D302" s="5">
-        <v>-3</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521122</v>
+        <v>521121</v>
       </c>
       <c r="B303" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C303" s="4">
-        <v>10</v>
-      </c>
-      <c r="D303" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D303" s="5">
+        <v>-3</v>
+      </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521123</v>
+        <v>521122</v>
       </c>
       <c r="B304" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C304" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521124</v>
+        <v>521123</v>
       </c>
       <c r="B305" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C305" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D305" s="5">
-        <v>-10</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521130</v>
+        <v>521124</v>
       </c>
       <c r="B306" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C306" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D306" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D306" s="5">
+        <v>-10</v>
+      </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521140</v>
+        <v>521130</v>
       </c>
       <c r="B307" s="3">
         <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>121140</v>
+        <v>121130</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521141</v>
+        <v>521140</v>
       </c>
       <c r="B308" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C308" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D308" s="5">
-        <v>-3</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521150</v>
+        <v>521141</v>
       </c>
       <c r="B309" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C309" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D309" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D309" s="5">
+        <v>-3</v>
+      </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521151</v>
+        <v>521150</v>
       </c>
       <c r="B310" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C310" s="4">
-        <v>2</v>
+        <v>121150</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521152</v>
+        <v>521151</v>
       </c>
       <c r="B311" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C311" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521160</v>
+        <v>521152</v>
       </c>
       <c r="B312" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C312" s="4">
-        <v>121160</v>
+        <v>10</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521170</v>
+        <v>521160</v>
       </c>
       <c r="B313" s="3">
         <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>121170</v>
+        <v>121160</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521180</v>
+        <v>521170</v>
       </c>
       <c r="B314" s="3">
         <v>5013</v>
       </c>
       <c r="C314" s="4">
-        <v>121180</v>
+        <v>121170</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>521181</v>
+        <v>521180</v>
       </c>
       <c r="B315" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C315" s="4">
-        <v>3</v>
+        <v>121180</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
+      <c r="A316" s="2">
+        <v>521181</v>
+      </c>
+      <c r="B316" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C316" s="4">
+        <v>3</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B317" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C317" s="4">
-        <v>5</v>
-      </c>
-      <c r="D317" s="5"/>
-      <c r="E317" s="2"/>
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530001</v>
+        <v>530000</v>
       </c>
       <c r="B318" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C318" s="4">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530002</v>
+        <v>530001</v>
       </c>
       <c r="B319" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C319" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530003</v>
+        <v>530002</v>
       </c>
       <c r="B320" s="3">
         <v>5003</v>
@@ -4756,353 +4766,351 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530010</v>
+        <v>530003</v>
       </c>
       <c r="B321" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C321" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530011</v>
+        <v>530010</v>
       </c>
       <c r="B322" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C322" s="4">
-        <v>3</v>
+        <v>130010</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530012</v>
+        <v>530011</v>
       </c>
       <c r="B323" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C323" s="4">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530020</v>
+        <v>530012</v>
       </c>
       <c r="B324" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C324" s="4">
-        <v>130020</v>
+        <v>-20</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530021</v>
+        <v>530020</v>
       </c>
       <c r="B325" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C325" s="4">
-        <v>4</v>
+        <v>130020</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530022</v>
+        <v>530021</v>
       </c>
       <c r="B326" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C326" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530030</v>
+        <v>530022</v>
       </c>
       <c r="B327" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C327" s="4">
-        <v>130030</v>
+        <v>-40</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530031</v>
+        <v>530030</v>
       </c>
       <c r="B328" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C328" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530040</v>
+        <v>530031</v>
       </c>
       <c r="B329" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C329" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530041</v>
+        <v>530040</v>
       </c>
       <c r="B330" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C330" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530050</v>
+        <v>530041</v>
       </c>
       <c r="B331" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C331" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530051</v>
+        <v>530050</v>
       </c>
       <c r="B332" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530060</v>
+        <v>530051</v>
       </c>
       <c r="B333" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C333" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530061</v>
+        <v>530060</v>
       </c>
       <c r="B334" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530070</v>
+        <v>530061</v>
       </c>
       <c r="B335" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C335" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530071</v>
+        <v>530070</v>
       </c>
       <c r="B336" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530080</v>
+        <v>530071</v>
       </c>
       <c r="B337" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C337" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530081</v>
+        <v>530080</v>
       </c>
       <c r="B338" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530090</v>
+        <v>530081</v>
       </c>
       <c r="B339" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C339" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530091</v>
+        <v>530090</v>
       </c>
       <c r="B340" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530100</v>
+        <v>530091</v>
       </c>
       <c r="B341" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C341" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530101</v>
+        <v>530100</v>
       </c>
       <c r="B342" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530110</v>
+        <v>530101</v>
       </c>
       <c r="B343" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C343" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530111</v>
+        <v>530110</v>
       </c>
       <c r="B344" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C344" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530120</v>
+        <v>530111</v>
       </c>
       <c r="B345" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C345" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530121</v>
+        <v>530120</v>
       </c>
       <c r="B346" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C346" s="4">
-        <v>2</v>
-      </c>
-      <c r="D346" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530122</v>
+        <v>530121</v>
       </c>
       <c r="B347" s="3">
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5111,13 +5119,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530123</v>
+        <v>530122</v>
       </c>
       <c r="B348" s="3">
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5126,41 +5134,41 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530130</v>
+        <v>530123</v>
       </c>
       <c r="B349" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D349" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B350" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C350" s="4">
-        <v>2</v>
-      </c>
-      <c r="D350" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D350" s="5"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B351" s="3">
         <v>5200</v>
       </c>
       <c r="C351" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D351" s="5">
         <v>1</v>
@@ -5169,13 +5177,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5184,41 +5192,41 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530140</v>
+        <v>530133</v>
       </c>
       <c r="B353" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D353" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D353" s="5">
+        <v>1</v>
+      </c>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530141</v>
+        <v>530140</v>
       </c>
       <c r="B354" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C354" s="4">
-        <v>2</v>
-      </c>
-      <c r="D354" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D354" s="5"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530142</v>
+        <v>530141</v>
       </c>
       <c r="B355" s="3">
         <v>5206</v>
       </c>
       <c r="C355" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5227,13 +5235,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530143</v>
+        <v>530142</v>
       </c>
       <c r="B356" s="3">
         <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D356" s="5">
         <v>1</v>
@@ -5242,41 +5250,41 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530150</v>
+        <v>530143</v>
       </c>
       <c r="B357" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D357" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D357" s="5">
+        <v>1</v>
+      </c>
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530151</v>
+        <v>530150</v>
       </c>
       <c r="B358" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C358" s="4">
-        <v>2</v>
-      </c>
-      <c r="D358" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530152</v>
+        <v>530151</v>
       </c>
       <c r="B359" s="3">
         <v>5203</v>
       </c>
       <c r="C359" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D359" s="5">
         <v>1</v>
@@ -5285,13 +5293,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530153</v>
+        <v>530152</v>
       </c>
       <c r="B360" s="3">
         <v>5203</v>
       </c>
       <c r="C360" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5300,41 +5308,41 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530160</v>
+        <v>530153</v>
       </c>
       <c r="B361" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D361" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D361" s="5">
+        <v>1</v>
+      </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530161</v>
+        <v>530160</v>
       </c>
       <c r="B362" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C362" s="4">
-        <v>2</v>
-      </c>
-      <c r="D362" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D362" s="5"/>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530162</v>
+        <v>530161</v>
       </c>
       <c r="B363" s="3">
         <v>5200</v>
       </c>
       <c r="C363" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5343,13 +5351,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530163</v>
+        <v>530162</v>
       </c>
       <c r="B364" s="3">
         <v>5200</v>
       </c>
       <c r="C364" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D364" s="5">
         <v>1</v>
@@ -5358,41 +5366,41 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530170</v>
+        <v>530163</v>
       </c>
       <c r="B365" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C365" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D365" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D365" s="5">
+        <v>1</v>
+      </c>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530171</v>
+        <v>530170</v>
       </c>
       <c r="B366" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C366" s="4">
-        <v>2</v>
-      </c>
-      <c r="D366" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D366" s="5"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530172</v>
+        <v>530171</v>
       </c>
       <c r="B367" s="3">
         <v>5206</v>
       </c>
       <c r="C367" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5401,13 +5409,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530173</v>
+        <v>530172</v>
       </c>
       <c r="B368" s="3">
         <v>5206</v>
       </c>
       <c r="C368" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5416,20 +5424,22 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530180</v>
+        <v>530173</v>
       </c>
       <c r="B369" s="3">
-        <v>5022</v>
+        <v>5206</v>
       </c>
       <c r="C369" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D369" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D369" s="5">
+        <v>1</v>
+      </c>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530181</v>
+        <v>530180</v>
       </c>
       <c r="B370" s="3">
         <v>5022</v>
@@ -5441,1364 +5451,353 @@
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371"/>
-      <c r="B371"/>
-      <c r="C371"/>
-      <c r="D371"/>
-      <c r="E371"/>
+      <c r="A371" s="2">
+        <v>530181</v>
+      </c>
+      <c r="B371" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C371" s="4">
+        <v>73000</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B372" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C372" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D372" s="5"/>
-      <c r="E372" s="2"/>
+      <c r="A372" s="6"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B373" s="3">
         <v>5006</v>
       </c>
       <c r="C373" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B374" s="3">
         <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B375" s="3">
         <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550010</v>
+        <v>550003</v>
       </c>
       <c r="B376" s="3">
         <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550011</v>
+        <v>550010</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550012</v>
+        <v>550011</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="6"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
-      <c r="D379" s="6"/>
-      <c r="E379" s="6"/>
+      <c r="A379" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B379" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C379" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B380" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C380" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D380" s="5"/>
-      <c r="E380" s="2"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>520160</v>
+        <v>559000</v>
       </c>
       <c r="B381" s="3">
         <v>5013</v>
       </c>
       <c r="C381" s="4">
-        <v>120160</v>
+        <v>559000</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>520161</v>
-      </c>
-      <c r="B382" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C382" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="2"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>520162</v>
-      </c>
-      <c r="B383" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C383" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D383" s="5"/>
-      <c r="E383" s="2"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
+      <c r="A384" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B384" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C384" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>521100</v>
+        <v>550001</v>
       </c>
       <c r="B385" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C385" s="4">
-        <v>121100</v>
+        <v>-4</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>521110</v>
+        <v>550002</v>
       </c>
       <c r="B386" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C386" s="4">
-        <v>121110</v>
+        <v>-5</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>521111</v>
+        <v>550003</v>
       </c>
       <c r="B387" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C387" s="4">
-        <v>121111</v>
+        <v>-8</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>521112</v>
-      </c>
-      <c r="B388" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C388" s="4">
-        <v>30</v>
-      </c>
-      <c r="D388" s="5"/>
-      <c r="E388" s="2"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>521120</v>
+        <v>559000</v>
       </c>
       <c r="B389" s="3">
         <v>5013</v>
       </c>
       <c r="C389" s="4">
-        <v>121120</v>
+        <v>559000</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>521121</v>
-      </c>
-      <c r="B390" s="3">
-        <v>5108</v>
-      </c>
-      <c r="C390" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D390" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E390" s="2"/>
-    </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>521122</v>
+        <v>540000</v>
       </c>
       <c r="B391" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C391" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>521123</v>
+        <v>540001</v>
       </c>
       <c r="B392" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C392" s="4">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>521124</v>
+        <v>540002</v>
       </c>
       <c r="B393" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C393" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D393" s="5">
-        <v>-10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>521130</v>
+        <v>540010</v>
       </c>
       <c r="B394" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C394" s="4">
-        <v>121130</v>
+        <v>-50</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>521140</v>
+        <v>540011</v>
       </c>
       <c r="B395" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C395" s="4">
-        <v>121140</v>
+        <v>-50</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>521141</v>
+        <v>540012</v>
       </c>
       <c r="B396" s="3">
-        <v>5108</v>
+        <v>5006</v>
       </c>
       <c r="C396" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D396" s="5">
-        <v>-3</v>
-      </c>
+        <v>-50</v>
+      </c>
+      <c r="D396" s="5"/>
       <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
-        <v>521150</v>
-      </c>
-      <c r="B397" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C397" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D397" s="5"/>
-      <c r="E397" s="2"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>521151</v>
+        <v>540020</v>
       </c>
       <c r="B398" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C398" s="4">
-        <v>2</v>
+        <v>140020</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>521152</v>
+        <v>540021</v>
       </c>
       <c r="B399" s="3">
-        <v>5003</v>
+        <v>5303</v>
       </c>
       <c r="C399" s="4">
-        <v>3</v>
-      </c>
-      <c r="D399" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D399" s="5">
+        <v>72000</v>
+      </c>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>521160</v>
+        <v>540030</v>
       </c>
       <c r="B400" s="3">
         <v>5013</v>
       </c>
       <c r="C400" s="4">
-        <v>121160</v>
+        <v>140030</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>521170</v>
+        <v>540040</v>
       </c>
       <c r="B401" s="3">
         <v>5013</v>
       </c>
       <c r="C401" s="4">
-        <v>121170</v>
+        <v>140040</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>521180</v>
-      </c>
-      <c r="B402" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C402" s="4">
-        <v>121180</v>
-      </c>
-      <c r="D402" s="5"/>
-      <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="6"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
-      <c r="D403" s="6"/>
-      <c r="E403" s="6"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B404" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C404" s="4">
-        <v>5</v>
-      </c>
-      <c r="D404" s="5"/>
-      <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
-        <v>530001</v>
-      </c>
-      <c r="B405" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C405" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D405" s="5"/>
-      <c r="E405" s="2"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>530002</v>
-      </c>
-      <c r="B406" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C406" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D406" s="5"/>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>530003</v>
-      </c>
-      <c r="B407" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C407" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D407" s="5"/>
-      <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
-        <v>530010</v>
-      </c>
-      <c r="B408" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C408" s="4">
-        <v>130010</v>
-      </c>
-      <c r="D408" s="5"/>
-      <c r="E408" s="2"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="2">
-        <v>530011</v>
-      </c>
-      <c r="B409" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C409" s="4">
-        <v>3</v>
-      </c>
-      <c r="D409" s="5"/>
-      <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="2">
-        <v>530012</v>
-      </c>
-      <c r="B410" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C410" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D410" s="5"/>
-      <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="2">
-        <v>530020</v>
-      </c>
-      <c r="B411" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C411" s="4">
-        <v>130020</v>
-      </c>
-      <c r="D411" s="5"/>
-      <c r="E411" s="2"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="2">
-        <v>530021</v>
-      </c>
-      <c r="B412" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C412" s="4">
-        <v>4</v>
-      </c>
-      <c r="D412" s="5"/>
-      <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A413" s="2">
-        <v>530022</v>
-      </c>
-      <c r="B413" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C413" s="4">
-        <v>-40</v>
-      </c>
-      <c r="D413" s="5"/>
-      <c r="E413" s="2"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>530030</v>
-      </c>
-      <c r="B414" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C414" s="4">
-        <v>130030</v>
-      </c>
-      <c r="D414" s="5"/>
-      <c r="E414" s="2"/>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>530031</v>
-      </c>
-      <c r="B415" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C415" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D415" s="5"/>
-      <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>530040</v>
-      </c>
-      <c r="B416" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C416" s="4">
-        <v>130040</v>
-      </c>
-      <c r="D416" s="5"/>
-      <c r="E416" s="2"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="2">
-        <v>530041</v>
-      </c>
-      <c r="B417" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C417" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D417" s="5"/>
-      <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="2">
-        <v>530050</v>
-      </c>
-      <c r="B418" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C418" s="4">
-        <v>130050</v>
-      </c>
-      <c r="D418" s="5"/>
-      <c r="E418" s="2"/>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>530051</v>
-      </c>
-      <c r="B419" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C419" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D419" s="5"/>
-      <c r="E419" s="2"/>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="2">
-        <v>530060</v>
-      </c>
-      <c r="B420" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C420" s="4">
-        <v>130060</v>
-      </c>
-      <c r="D420" s="5"/>
-      <c r="E420" s="2"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" s="2">
-        <v>530061</v>
-      </c>
-      <c r="B421" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C421" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D421" s="5"/>
-      <c r="E421" s="2"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" s="2">
-        <v>530070</v>
-      </c>
-      <c r="B422" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C422" s="4">
-        <v>130070</v>
-      </c>
-      <c r="D422" s="5"/>
-      <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>530071</v>
-      </c>
-      <c r="B423" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C423" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D423" s="5"/>
-      <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>530080</v>
-      </c>
-      <c r="B424" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C424" s="4">
-        <v>130080</v>
-      </c>
-      <c r="D424" s="5"/>
-      <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A425" s="2">
-        <v>530081</v>
-      </c>
-      <c r="B425" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C425" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D425" s="5"/>
-      <c r="E425" s="2"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426" s="2">
-        <v>530090</v>
-      </c>
-      <c r="B426" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C426" s="4">
-        <v>130090</v>
-      </c>
-      <c r="D426" s="5"/>
-      <c r="E426" s="2"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427" s="2">
-        <v>530091</v>
-      </c>
-      <c r="B427" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C427" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D427" s="5"/>
-      <c r="E427" s="2"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428" s="2">
-        <v>530100</v>
-      </c>
-      <c r="B428" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C428" s="4">
-        <v>130100</v>
-      </c>
-      <c r="D428" s="5"/>
-      <c r="E428" s="2"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A429" s="2">
-        <v>530101</v>
-      </c>
-      <c r="B429" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C429" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D429" s="5"/>
-      <c r="E429" s="2"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>530110</v>
-      </c>
-      <c r="B430" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C430" s="4">
-        <v>130110</v>
-      </c>
-      <c r="D430" s="5"/>
-      <c r="E430" s="2"/>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>530111</v>
-      </c>
-      <c r="B431" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C431" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D431" s="5"/>
-      <c r="E431" s="2"/>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432" s="2">
-        <v>530120</v>
-      </c>
-      <c r="B432" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C432" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D432" s="5"/>
-      <c r="E432" s="2"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" s="2">
-        <v>530121</v>
-      </c>
-      <c r="B433" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C433" s="4">
-        <v>2</v>
-      </c>
-      <c r="D433" s="5">
-        <v>1</v>
-      </c>
-      <c r="E433" s="2"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434" s="2">
-        <v>530122</v>
-      </c>
-      <c r="B434" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C434" s="4">
-        <v>3</v>
-      </c>
-      <c r="D434" s="5">
-        <v>1</v>
-      </c>
-      <c r="E434" s="2"/>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A435" s="2">
-        <v>530123</v>
-      </c>
-      <c r="B435" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C435" s="4">
-        <v>4</v>
-      </c>
-      <c r="D435" s="5">
-        <v>1</v>
-      </c>
-      <c r="E435" s="2"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A436" s="2">
-        <v>530130</v>
-      </c>
-      <c r="B436" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C436" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D436" s="5"/>
-      <c r="E436" s="2"/>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" s="2">
-        <v>530131</v>
-      </c>
-      <c r="B437" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C437" s="4">
-        <v>2</v>
-      </c>
-      <c r="D437" s="5">
-        <v>1</v>
-      </c>
-      <c r="E437" s="2"/>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" s="2">
-        <v>530132</v>
-      </c>
-      <c r="B438" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C438" s="4">
-        <v>3</v>
-      </c>
-      <c r="D438" s="5">
-        <v>1</v>
-      </c>
-      <c r="E438" s="2"/>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" s="2">
-        <v>530133</v>
-      </c>
-      <c r="B439" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C439" s="4">
-        <v>4</v>
-      </c>
-      <c r="D439" s="5">
-        <v>1</v>
-      </c>
-      <c r="E439" s="2"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A440" s="2">
-        <v>530140</v>
-      </c>
-      <c r="B440" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C440" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D440" s="5"/>
-      <c r="E440" s="2"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A441" s="2">
-        <v>530141</v>
-      </c>
-      <c r="B441" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C441" s="4">
-        <v>2</v>
-      </c>
-      <c r="D441" s="5">
-        <v>1</v>
-      </c>
-      <c r="E441" s="2"/>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" s="2">
-        <v>530142</v>
-      </c>
-      <c r="B442" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C442" s="4">
-        <v>3</v>
-      </c>
-      <c r="D442" s="5">
-        <v>1</v>
-      </c>
-      <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>530143</v>
-      </c>
-      <c r="B443" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C443" s="4">
-        <v>4</v>
-      </c>
-      <c r="D443" s="5">
-        <v>1</v>
-      </c>
-      <c r="E443" s="2"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" s="2">
-        <v>530150</v>
-      </c>
-      <c r="B444" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C444" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D444" s="5"/>
-      <c r="E444" s="2"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A445" s="2">
-        <v>530151</v>
-      </c>
-      <c r="B445" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C445" s="4">
-        <v>2</v>
-      </c>
-      <c r="D445" s="5">
-        <v>1</v>
-      </c>
-      <c r="E445" s="2"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A446" s="2">
-        <v>530152</v>
-      </c>
-      <c r="B446" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C446" s="4">
-        <v>3</v>
-      </c>
-      <c r="D446" s="5">
-        <v>1</v>
-      </c>
-      <c r="E446" s="2"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A447" s="2">
-        <v>530153</v>
-      </c>
-      <c r="B447" s="3">
-        <v>5203</v>
-      </c>
-      <c r="C447" s="4">
-        <v>4</v>
-      </c>
-      <c r="D447" s="5">
-        <v>1</v>
-      </c>
-      <c r="E447" s="2"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448" s="2">
-        <v>530160</v>
-      </c>
-      <c r="B448" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C448" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D448" s="5"/>
-      <c r="E448" s="2"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A449" s="2">
-        <v>530161</v>
-      </c>
-      <c r="B449" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C449" s="4">
-        <v>2</v>
-      </c>
-      <c r="D449" s="5">
-        <v>1</v>
-      </c>
-      <c r="E449" s="2"/>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A450" s="2">
-        <v>530162</v>
-      </c>
-      <c r="B450" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C450" s="4">
-        <v>3</v>
-      </c>
-      <c r="D450" s="5">
-        <v>1</v>
-      </c>
-      <c r="E450" s="2"/>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A451" s="2">
-        <v>530163</v>
-      </c>
-      <c r="B451" s="3">
-        <v>5200</v>
-      </c>
-      <c r="C451" s="4">
-        <v>4</v>
-      </c>
-      <c r="D451" s="5">
-        <v>1</v>
-      </c>
-      <c r="E451" s="2"/>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A452" s="2">
-        <v>530170</v>
-      </c>
-      <c r="B452" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C452" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D452" s="5"/>
-      <c r="E452" s="2"/>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453" s="2">
-        <v>530171</v>
-      </c>
-      <c r="B453" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C453" s="4">
-        <v>2</v>
-      </c>
-      <c r="D453" s="5">
-        <v>1</v>
-      </c>
-      <c r="E453" s="2"/>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A454" s="2">
-        <v>530172</v>
-      </c>
-      <c r="B454" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C454" s="4">
-        <v>3</v>
-      </c>
-      <c r="D454" s="5">
-        <v>1</v>
-      </c>
-      <c r="E454" s="2"/>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
-        <v>530173</v>
-      </c>
-      <c r="B455" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C455" s="4">
-        <v>4</v>
-      </c>
-      <c r="D455" s="5">
-        <v>1</v>
-      </c>
-      <c r="E455" s="2"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A456" s="2">
-        <v>530180</v>
-      </c>
-      <c r="B456" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C456" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D456" s="5"/>
-      <c r="E456" s="2"/>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" s="2">
-        <v>530181</v>
-      </c>
-      <c r="B457" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C457" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D457" s="5"/>
-      <c r="E457" s="2"/>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458" s="6"/>
-      <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
-      <c r="D458" s="6"/>
-      <c r="E458" s="6"/>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A459" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B459" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C459" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D459" s="5"/>
-      <c r="E459" s="2"/>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460" s="2">
-        <v>550001</v>
-      </c>
-      <c r="B460" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C460" s="4">
-        <v>-4</v>
-      </c>
-      <c r="D460" s="5"/>
-      <c r="E460" s="2"/>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A461" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B461" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C461" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D461" s="5"/>
-      <c r="E461" s="2"/>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462" s="2">
-        <v>550003</v>
-      </c>
-      <c r="B462" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C462" s="4">
-        <v>-8</v>
-      </c>
-      <c r="D462" s="5"/>
-      <c r="E462" s="2"/>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463" s="6"/>
-      <c r="B463" s="6"/>
-      <c r="C463" s="6"/>
-      <c r="D463" s="6"/>
-      <c r="E463" s="6"/>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B464" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C464" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D464" s="5"/>
-      <c r="E464" s="2"/>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B466" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C466" s="4">
-        <v>50</v>
-      </c>
-      <c r="D466" s="5"/>
-      <c r="E466" s="2"/>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="2">
-        <v>540001</v>
-      </c>
-      <c r="B467" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C467" s="4">
-        <v>50</v>
-      </c>
-      <c r="D467" s="5"/>
-      <c r="E467" s="2"/>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="2">
-        <v>540002</v>
-      </c>
-      <c r="B468" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C468" s="4">
-        <v>50</v>
-      </c>
-      <c r="D468" s="5"/>
-      <c r="E468" s="2"/>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="2">
-        <v>540010</v>
-      </c>
-      <c r="B469" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C469" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D469" s="5"/>
-      <c r="E469" s="2"/>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="2">
-        <v>540011</v>
-      </c>
-      <c r="B470" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C470" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D470" s="5"/>
-      <c r="E470" s="2"/>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471" s="2">
-        <v>540012</v>
-      </c>
-      <c r="B471" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C471" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D471" s="5"/>
-      <c r="E471" s="2"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="2">
-        <v>540020</v>
-      </c>
-      <c r="B473" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C473" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D473" s="5"/>
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="2">
-        <v>540021</v>
-      </c>
-      <c r="B474" s="3">
-        <v>5303</v>
-      </c>
-      <c r="C474" s="4">
-        <v>101</v>
-      </c>
-      <c r="D474" s="5">
-        <v>72000</v>
-      </c>
-      <c r="E474" s="2"/>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="2">
-        <v>540030</v>
-      </c>
-      <c r="B475" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C475" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D475" s="5"/>
-      <c r="E475" s="2"/>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="2">
-        <v>540040</v>
-      </c>
-      <c r="B476" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C476" s="4">
-        <v>140040</v>
-      </c>
-      <c r="D476" s="5"/>
-      <c r="E476" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865BD36-A6FC-477A-9F90-A01E754140B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36655AB9-08E1-4F1B-90F4-3C71E3220EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="6015" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="5460" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4046,141 +4046,141 @@
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
+      <c r="A264" s="2">
+        <v>518117</v>
+      </c>
+      <c r="B264" s="3">
+        <v>5209</v>
+      </c>
+      <c r="C264" s="4">
+        <v>70201</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>519100</v>
-      </c>
-      <c r="B265" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C265" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="2"/>
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519101</v>
+        <v>519100</v>
       </c>
       <c r="B266" s="3">
-        <v>0</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C266" s="4">
+        <v>119100</v>
+      </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519102</v>
+        <v>519101</v>
       </c>
       <c r="B267" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C267" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519110</v>
+        <v>519102</v>
       </c>
       <c r="B268" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C268" s="4">
-        <v>191100</v>
+        <v>-2</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519111</v>
+        <v>519110</v>
       </c>
       <c r="B269" s="3">
-        <v>0</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C269" s="4">
+        <v>191100</v>
+      </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519112</v>
+        <v>519111</v>
       </c>
       <c r="B270" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C270" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C270" s="4"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519120</v>
+        <v>519112</v>
       </c>
       <c r="B271" s="3">
-        <v>0</v>
-      </c>
-      <c r="C271" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C271" s="4">
+        <v>-2</v>
+      </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519121</v>
+        <v>519120</v>
       </c>
       <c r="B272" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C272" s="4">
-        <v>119121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C272" s="4"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519122</v>
+        <v>519121</v>
       </c>
       <c r="B273" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C273" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D273" s="5">
-        <v>-3</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519123</v>
+        <v>519122</v>
       </c>
       <c r="B274" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C274" s="4">
-        <v>10</v>
-      </c>
-      <c r="D274" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D274" s="5">
+        <v>-3</v>
+      </c>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519130</v>
+        <v>519123</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
@@ -4193,160 +4193,160 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519131</v>
+        <v>519130</v>
       </c>
       <c r="B276" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C276" s="4">
-        <v>119130</v>
+        <v>10</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519140</v>
+        <v>519131</v>
       </c>
       <c r="B277" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C277" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519141</v>
+        <v>519140</v>
       </c>
       <c r="B278" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C278" s="4">
-        <v>119140</v>
+        <v>10</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>519150</v>
+        <v>519141</v>
       </c>
       <c r="B279" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C279" s="4">
-        <v>10</v>
+        <v>119140</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>519151</v>
+        <v>519150</v>
       </c>
       <c r="B280" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C280" s="4">
-        <v>119150</v>
+        <v>10</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
+      <c r="A281" s="2">
+        <v>519151</v>
+      </c>
+      <c r="B281" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C281" s="4">
+        <v>119150</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>520100</v>
-      </c>
-      <c r="B282" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C282" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D282" s="5"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520110</v>
+        <v>520100</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520120</v>
+        <v>520110</v>
       </c>
       <c r="B284" s="3">
         <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>120120</v>
+        <v>120110</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520121</v>
+        <v>520120</v>
       </c>
       <c r="B285" s="3">
         <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>120121</v>
+        <v>120120</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520122</v>
+        <v>520121</v>
       </c>
       <c r="B286" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C286" s="4">
-        <v>-3</v>
+        <v>120121</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520123</v>
+        <v>520122</v>
       </c>
       <c r="B287" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C287" s="4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520124</v>
+        <v>520123</v>
       </c>
       <c r="B288" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C288" s="4">
         <v>10</v>
@@ -4356,417 +4356,417 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520130</v>
+        <v>520124</v>
       </c>
       <c r="B289" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C289" s="4">
-        <v>120130</v>
+        <v>10</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520140</v>
+        <v>520130</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120140</v>
+        <v>120130</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520150</v>
+        <v>520140</v>
       </c>
       <c r="B291" s="3">
         <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>120150</v>
+        <v>120140</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520160</v>
+        <v>520150</v>
       </c>
       <c r="B292" s="3">
         <v>5013</v>
       </c>
       <c r="C292" s="4">
-        <v>120160</v>
+        <v>120150</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>520161</v>
+        <v>520160</v>
       </c>
       <c r="B293" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C293" s="4">
-        <v>-30</v>
+        <v>120160</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>520162</v>
+        <v>520161</v>
       </c>
       <c r="B294" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C294" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
+      <c r="A295" s="2">
+        <v>520162</v>
+      </c>
+      <c r="B295" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C295" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>521100</v>
-      </c>
-      <c r="B296" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C296" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D296" s="5"/>
-      <c r="E296" s="2"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521110</v>
+        <v>521100</v>
       </c>
       <c r="B297" s="3">
         <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521111</v>
+        <v>521110</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521112</v>
+        <v>521111</v>
       </c>
       <c r="B299" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>30</v>
+        <v>121111</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521113</v>
+        <v>521112</v>
       </c>
       <c r="B300" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C300" s="4">
-        <v>121112</v>
+        <v>30</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521114</v>
+        <v>521113</v>
       </c>
       <c r="B301" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C301" s="4">
-        <v>10</v>
+        <v>121112</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521120</v>
+        <v>521114</v>
       </c>
       <c r="B302" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C302" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521121</v>
+        <v>521120</v>
       </c>
       <c r="B303" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C303" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D303" s="5">
-        <v>-3</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521122</v>
+        <v>521121</v>
       </c>
       <c r="B304" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C304" s="4">
-        <v>10</v>
-      </c>
-      <c r="D304" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D304" s="5">
+        <v>-3</v>
+      </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521123</v>
+        <v>521122</v>
       </c>
       <c r="B305" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C305" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521124</v>
+        <v>521123</v>
       </c>
       <c r="B306" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C306" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D306" s="5">
-        <v>-10</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521130</v>
+        <v>521124</v>
       </c>
       <c r="B307" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C307" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D307" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D307" s="5">
+        <v>-10</v>
+      </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521140</v>
+        <v>521130</v>
       </c>
       <c r="B308" s="3">
         <v>5013</v>
       </c>
       <c r="C308" s="4">
-        <v>121140</v>
+        <v>121130</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521141</v>
+        <v>521140</v>
       </c>
       <c r="B309" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C309" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D309" s="5">
-        <v>-3</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521150</v>
+        <v>521141</v>
       </c>
       <c r="B310" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C310" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D310" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D310" s="5">
+        <v>-3</v>
+      </c>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521151</v>
+        <v>521150</v>
       </c>
       <c r="B311" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>2</v>
+        <v>121150</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521152</v>
+        <v>521151</v>
       </c>
       <c r="B312" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C312" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521160</v>
+        <v>521152</v>
       </c>
       <c r="B313" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C313" s="4">
-        <v>121160</v>
+        <v>10</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521170</v>
+        <v>521160</v>
       </c>
       <c r="B314" s="3">
         <v>5013</v>
       </c>
       <c r="C314" s="4">
-        <v>121170</v>
+        <v>121160</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>521180</v>
+        <v>521170</v>
       </c>
       <c r="B315" s="3">
         <v>5013</v>
       </c>
       <c r="C315" s="4">
-        <v>121180</v>
+        <v>121170</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>521181</v>
+        <v>521180</v>
       </c>
       <c r="B316" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C316" s="4">
-        <v>3</v>
+        <v>121180</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="2">
+        <v>521181</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C317" s="4">
+        <v>3</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B318" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C318" s="4">
-        <v>5</v>
-      </c>
-      <c r="D318" s="5"/>
-      <c r="E318" s="2"/>
+      <c r="A318" s="6"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530001</v>
+        <v>530000</v>
       </c>
       <c r="B319" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C319" s="4">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530002</v>
+        <v>530001</v>
       </c>
       <c r="B320" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C320" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530003</v>
+        <v>530002</v>
       </c>
       <c r="B321" s="3">
         <v>5003</v>
@@ -4779,353 +4779,351 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530010</v>
+        <v>530003</v>
       </c>
       <c r="B322" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C322" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530011</v>
+        <v>530010</v>
       </c>
       <c r="B323" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C323" s="4">
-        <v>2</v>
+        <v>130010</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530012</v>
+        <v>530011</v>
       </c>
       <c r="B324" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C324" s="4">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530020</v>
+        <v>530012</v>
       </c>
       <c r="B325" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C325" s="4">
-        <v>130020</v>
+        <v>-20</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530021</v>
+        <v>530020</v>
       </c>
       <c r="B326" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C326" s="4">
-        <v>3</v>
+        <v>130020</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530022</v>
+        <v>530021</v>
       </c>
       <c r="B327" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C327" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530030</v>
+        <v>530022</v>
       </c>
       <c r="B328" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C328" s="4">
-        <v>130030</v>
+        <v>-40</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530031</v>
+        <v>530030</v>
       </c>
       <c r="B329" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C329" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530040</v>
+        <v>530031</v>
       </c>
       <c r="B330" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C330" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530041</v>
+        <v>530040</v>
       </c>
       <c r="B331" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C331" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530050</v>
+        <v>530041</v>
       </c>
       <c r="B332" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C332" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530051</v>
+        <v>530050</v>
       </c>
       <c r="B333" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C333" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530060</v>
+        <v>530051</v>
       </c>
       <c r="B334" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C334" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530061</v>
+        <v>530060</v>
       </c>
       <c r="B335" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C335" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530070</v>
+        <v>530061</v>
       </c>
       <c r="B336" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C336" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530071</v>
+        <v>530070</v>
       </c>
       <c r="B337" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C337" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530080</v>
+        <v>530071</v>
       </c>
       <c r="B338" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C338" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530081</v>
+        <v>530080</v>
       </c>
       <c r="B339" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C339" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530090</v>
+        <v>530081</v>
       </c>
       <c r="B340" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C340" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530091</v>
+        <v>530090</v>
       </c>
       <c r="B341" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C341" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530100</v>
+        <v>530091</v>
       </c>
       <c r="B342" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C342" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530101</v>
+        <v>530100</v>
       </c>
       <c r="B343" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C343" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530110</v>
+        <v>530101</v>
       </c>
       <c r="B344" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C344" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530111</v>
+        <v>530110</v>
       </c>
       <c r="B345" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C345" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530120</v>
+        <v>530111</v>
       </c>
       <c r="B346" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C346" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530121</v>
+        <v>530120</v>
       </c>
       <c r="B347" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C347" s="4">
-        <v>2</v>
-      </c>
-      <c r="D347" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D347" s="5"/>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530122</v>
+        <v>530121</v>
       </c>
       <c r="B348" s="3">
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5134,13 +5132,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530123</v>
+        <v>530122</v>
       </c>
       <c r="B349" s="3">
         <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349" s="5">
         <v>1</v>
@@ -5149,41 +5147,41 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530130</v>
+        <v>530123</v>
       </c>
       <c r="B350" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C350" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D350" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D350" s="5">
+        <v>1</v>
+      </c>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B351" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C351" s="4">
-        <v>2</v>
-      </c>
-      <c r="D351" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D351" s="5"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5192,13 +5190,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B353" s="3">
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5207,41 +5205,41 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530140</v>
+        <v>530133</v>
       </c>
       <c r="B354" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D354" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D354" s="5">
+        <v>1</v>
+      </c>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530141</v>
+        <v>530140</v>
       </c>
       <c r="B355" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C355" s="4">
-        <v>2</v>
-      </c>
-      <c r="D355" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D355" s="5"/>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530142</v>
+        <v>530141</v>
       </c>
       <c r="B356" s="3">
         <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356" s="5">
         <v>1</v>
@@ -5250,13 +5248,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530143</v>
+        <v>530142</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5265,41 +5263,41 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530150</v>
+        <v>530143</v>
       </c>
       <c r="B358" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D358" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D358" s="5">
+        <v>1</v>
+      </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530151</v>
+        <v>530150</v>
       </c>
       <c r="B359" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C359" s="4">
-        <v>2</v>
-      </c>
-      <c r="D359" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D359" s="5"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530152</v>
+        <v>530151</v>
       </c>
       <c r="B360" s="3">
         <v>5203</v>
       </c>
       <c r="C360" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5308,13 +5306,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530153</v>
+        <v>530152</v>
       </c>
       <c r="B361" s="3">
         <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361" s="5">
         <v>1</v>
@@ -5323,41 +5321,41 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530160</v>
+        <v>530153</v>
       </c>
       <c r="B362" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D362" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D362" s="5">
+        <v>1</v>
+      </c>
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530161</v>
+        <v>530160</v>
       </c>
       <c r="B363" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C363" s="4">
-        <v>2</v>
-      </c>
-      <c r="D363" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D363" s="5"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530162</v>
+        <v>530161</v>
       </c>
       <c r="B364" s="3">
         <v>5200</v>
       </c>
       <c r="C364" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D364" s="5">
         <v>1</v>
@@ -5366,13 +5364,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530163</v>
+        <v>530162</v>
       </c>
       <c r="B365" s="3">
         <v>5200</v>
       </c>
       <c r="C365" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5381,41 +5379,41 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530170</v>
+        <v>530163</v>
       </c>
       <c r="B366" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C366" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D366" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D366" s="5">
+        <v>1</v>
+      </c>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530171</v>
+        <v>530170</v>
       </c>
       <c r="B367" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C367" s="4">
-        <v>2</v>
-      </c>
-      <c r="D367" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D367" s="5"/>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530172</v>
+        <v>530171</v>
       </c>
       <c r="B368" s="3">
         <v>5206</v>
       </c>
       <c r="C368" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5424,13 +5422,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530173</v>
+        <v>530172</v>
       </c>
       <c r="B369" s="3">
         <v>5206</v>
       </c>
       <c r="C369" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D369" s="5">
         <v>1</v>
@@ -5439,20 +5437,22 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530180</v>
+        <v>530173</v>
       </c>
       <c r="B370" s="3">
-        <v>5022</v>
+        <v>5206</v>
       </c>
       <c r="C370" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D370" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D370" s="5">
+        <v>1</v>
+      </c>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530181</v>
+        <v>530180</v>
       </c>
       <c r="B371" s="3">
         <v>5022</v>
@@ -5464,129 +5464,135 @@
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="6"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
-      <c r="D372" s="6"/>
-      <c r="E372" s="6"/>
+      <c r="A372" s="2">
+        <v>530181</v>
+      </c>
+      <c r="B372" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C372" s="4">
+        <v>73000</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B373" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C373" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D373" s="5"/>
-      <c r="E373" s="2"/>
+      <c r="A373" s="6"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B374" s="3">
         <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B375" s="3">
         <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B376" s="3">
         <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550010</v>
+        <v>550003</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550011</v>
+        <v>550010</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550012</v>
+        <v>550011</v>
       </c>
       <c r="B379" s="3">
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
+      <c r="A380" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C380" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
         <v>559000</v>
       </c>
-      <c r="B381" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C381" s="4">
+      <c r="B382" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C382" s="4">
         <v>559000</v>
       </c>
-      <c r="D381" s="5"/>
-      <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
@@ -5596,96 +5602,90 @@
       <c r="E383" s="6"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B384" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C384" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D384" s="5"/>
-      <c r="E384" s="2"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B385" s="3">
         <v>5006</v>
       </c>
       <c r="C385" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B386" s="3">
         <v>5006</v>
       </c>
       <c r="C386" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B387" s="3">
         <v>5006</v>
       </c>
       <c r="C387" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
+      <c r="A388" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C388" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
         <v>559000</v>
       </c>
-      <c r="B389" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C389" s="4">
+      <c r="B390" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C390" s="4">
         <v>559000</v>
       </c>
-      <c r="D389" s="5"/>
-      <c r="E389" s="2"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B391" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C391" s="4">
-        <v>50</v>
-      </c>
-      <c r="D391" s="5"/>
-      <c r="E391" s="2"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>540001</v>
+        <v>540000</v>
       </c>
       <c r="B392" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C392" s="4">
         <v>50</v>
@@ -5695,10 +5695,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>540002</v>
+        <v>540001</v>
       </c>
       <c r="B393" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C393" s="4">
         <v>50</v>
@@ -5708,23 +5708,23 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>540010</v>
+        <v>540002</v>
       </c>
       <c r="B394" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>540011</v>
+        <v>540010</v>
       </c>
       <c r="B395" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C395" s="4">
         <v>-50</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>540012</v>
+        <v>540011</v>
       </c>
       <c r="B396" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C396" s="4">
         <v>-50</v>
@@ -5745,59 +5745,72 @@
       <c r="D396" s="5"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="2">
-        <v>540020</v>
-      </c>
-      <c r="B398" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C398" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D398" s="5"/>
-      <c r="E398" s="2"/>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B397" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C397" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D397" s="5"/>
+      <c r="E397" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>540021</v>
+        <v>540020</v>
       </c>
       <c r="B399" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C399" s="4">
-        <v>101</v>
-      </c>
-      <c r="D399" s="5">
-        <v>72000</v>
-      </c>
+        <v>140020</v>
+      </c>
+      <c r="D399" s="5"/>
       <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B400" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C400" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D400" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D400" s="5">
+        <v>72000</v>
+      </c>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B401" s="3">
         <v>5013</v>
       </c>
       <c r="C401" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B402" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C402" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36655AB9-08E1-4F1B-90F4-3C71E3220EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F10B7-38F4-446C-806F-BD2DE5344B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="5460" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10890" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,274 +859,270 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="2">
+        <v>500078</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5018</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>510000</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C23" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>510001</v>
+        <v>510000</v>
       </c>
       <c r="B24" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C24" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>510002</v>
+        <v>510001</v>
       </c>
       <c r="B25" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C25" s="4">
-        <v>100</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>510010</v>
+        <v>510002</v>
       </c>
       <c r="B26" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C26" s="4">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>510020</v>
+        <v>510010</v>
       </c>
       <c r="B27" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C27" s="4">
         <v>60000</v>
       </c>
       <c r="D27" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>510030</v>
+        <v>510020</v>
       </c>
       <c r="B28" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C28" s="4">
         <v>60000</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>61000</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>510031</v>
+        <v>510030</v>
       </c>
       <c r="B29" s="3">
-        <v>5023</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>5117</v>
+      </c>
+      <c r="C29" s="4">
+        <v>60000</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>510040</v>
+        <v>510031</v>
       </c>
       <c r="B30" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10</v>
-      </c>
+        <v>5023</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="2">
+        <v>510040</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>511000</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C32" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>511001</v>
+        <v>511000</v>
       </c>
       <c r="B33" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C33" s="4">
-        <v>200</v>
+        <v>60001</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>511002</v>
+        <v>511001</v>
       </c>
       <c r="B34" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C34" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>511003</v>
+        <v>511002</v>
       </c>
       <c r="B35" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C35" s="4">
-        <v>201</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>511004</v>
+        <v>511003</v>
       </c>
       <c r="B36" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C36" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>511010</v>
+        <v>511004</v>
       </c>
       <c r="B37" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C37" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-2</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>511020</v>
+        <v>511010</v>
       </c>
       <c r="B38" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C38" s="4">
         <v>60001</v>
       </c>
       <c r="D38" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>511030</v>
+        <v>511020</v>
       </c>
       <c r="B39" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C39" s="4">
         <v>60001</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>61000</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="2">
+        <v>511030</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C40" s="4">
+        <v>60001</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>512000</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C41" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>512001</v>
+        <v>512000</v>
       </c>
       <c r="B42" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C42" s="4">
-        <v>500</v>
+        <v>60002</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -1135,274 +1131,276 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>512002</v>
+        <v>512001</v>
       </c>
       <c r="B43" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C43" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>512003</v>
+        <v>512002</v>
       </c>
       <c r="B44" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C44" s="4">
-        <v>403</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>512004</v>
+        <v>512003</v>
       </c>
       <c r="B45" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C45" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>403</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>512005</v>
+        <v>512004</v>
       </c>
       <c r="B46" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C46" s="4">
-        <v>404</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>512006</v>
+        <v>512005</v>
       </c>
       <c r="B47" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C47" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>512010</v>
+        <v>512006</v>
       </c>
       <c r="B48" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C48" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D48" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>512020</v>
+        <v>512010</v>
       </c>
       <c r="B49" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C49" s="4">
         <v>60002</v>
       </c>
       <c r="D49" s="5">
-        <v>61003</v>
+        <v>-2</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>512030</v>
+        <v>512020</v>
       </c>
       <c r="B50" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C50" s="4">
         <v>60002</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>61003</v>
+      </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="2">
+        <v>512030</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C51" s="4">
+        <v>60002</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>512040</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C52" s="4">
-        <v>20</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="2">
+        <v>512040</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C53" s="4">
+        <v>20</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>513000</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C54" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="2"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>513001</v>
+        <v>513000</v>
       </c>
       <c r="B55" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C55" s="4">
-        <v>601</v>
+        <v>60003</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="2"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>513002</v>
+        <v>513001</v>
       </c>
       <c r="B56" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C56" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>601</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>513003</v>
+        <v>513002</v>
       </c>
       <c r="B57" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C57" s="4">
-        <v>502</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>513004</v>
+        <v>513003</v>
       </c>
       <c r="B58" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C58" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>502</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
       <c r="E58" s="8"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>513010</v>
+        <v>513004</v>
       </c>
       <c r="B59" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C59" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D59" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>513020</v>
+        <v>513010</v>
       </c>
       <c r="B60" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C60" s="4">
         <v>60003</v>
       </c>
       <c r="D60" s="5">
-        <v>61004</v>
+        <v>-2</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>513030</v>
+        <v>513020</v>
       </c>
       <c r="B61" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C61" s="4">
         <v>60003</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <v>61004</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61"/>
     </row>
     <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>513031</v>
+        <v>513030</v>
       </c>
       <c r="B62" s="3">
-        <v>5006</v>
+        <v>5117</v>
       </c>
       <c r="C62" s="4">
-        <v>15</v>
+        <v>60003</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="2"/>
@@ -1410,587 +1408,585 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>513040</v>
+        <v>513031</v>
       </c>
       <c r="B63" s="3">
         <v>5006</v>
       </c>
       <c r="C63" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
       <c r="F63"/>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="2">
+        <v>513040</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C64" s="4">
+        <v>20</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
       <c r="F64"/>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>514000</v>
-      </c>
-      <c r="B65" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C65" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="2"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>514001</v>
+        <v>514000</v>
       </c>
       <c r="B66" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C66" s="4">
-        <v>601</v>
+        <v>60004</v>
       </c>
       <c r="D66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>514002</v>
+        <v>514001</v>
       </c>
       <c r="B67" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C67" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D67" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>514010</v>
+        <v>514002</v>
       </c>
       <c r="B68" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C68" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D68" s="5">
-        <v>-2</v>
-      </c>
+        <v>60003</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="2"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>514020</v>
+        <v>514010</v>
       </c>
       <c r="B69" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C69" s="4">
         <v>60004</v>
       </c>
       <c r="D69" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>514030</v>
+        <v>514020</v>
       </c>
       <c r="B70" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C70" s="4">
         <v>60004</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>61000</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70"/>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="2">
+        <v>514030</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C71" s="4">
+        <v>60004</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="2"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>515000</v>
-      </c>
-      <c r="B72" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C72" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="2"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>515001</v>
+        <v>515000</v>
       </c>
       <c r="B73" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C73" s="4">
-        <v>201</v>
+        <v>60005</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="2"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>515002</v>
+        <v>515001</v>
       </c>
       <c r="B74" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C74" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>515003</v>
+        <v>515002</v>
       </c>
       <c r="B75" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C75" s="4">
-        <v>301</v>
-      </c>
-      <c r="D75" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D75" s="7"/>
       <c r="E75" s="8"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>515004</v>
+        <v>515003</v>
       </c>
       <c r="B76" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C76" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
       <c r="E76" s="8"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>515010</v>
+        <v>515004</v>
       </c>
       <c r="B77" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C77" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D77" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>60008</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
       <c r="F77"/>
     </row>
     <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>515020</v>
+        <v>515010</v>
       </c>
       <c r="B78" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C78" s="4">
         <v>60005</v>
       </c>
       <c r="D78" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>515030</v>
+        <v>515020</v>
       </c>
       <c r="B79" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C79" s="4">
         <v>60005</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5">
+        <v>61000</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C80" s="4">
+        <v>60005</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="2"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>516000</v>
-      </c>
-      <c r="B81" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C81" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="2"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>516001</v>
+        <v>516000</v>
       </c>
       <c r="B82" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C82" s="4">
-        <v>200</v>
+        <v>60006</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="2"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>516002</v>
+        <v>516001</v>
       </c>
       <c r="B83" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C83" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D83" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
       <c r="E83" s="8"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>516003</v>
+        <v>516002</v>
       </c>
       <c r="B84" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C84" s="4">
-        <v>300</v>
-      </c>
-      <c r="D84" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="8"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>516004</v>
+        <v>516003</v>
       </c>
       <c r="B85" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C85" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D85" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
       <c r="E85" s="8"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>516010</v>
+        <v>516004</v>
       </c>
       <c r="B86" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C86" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D86" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>60007</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="8"/>
       <c r="F86"/>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>516020</v>
+        <v>516010</v>
       </c>
       <c r="B87" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C87" s="4">
         <v>60006</v>
       </c>
       <c r="D87" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>516030</v>
+        <v>516020</v>
       </c>
       <c r="B88" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C88" s="4">
         <v>60006</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="5">
+        <v>61000</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88"/>
     </row>
     <row r="89" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="2">
+        <v>516030</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C89" s="4">
+        <v>60006</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="2"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>517000</v>
-      </c>
-      <c r="B90" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C90" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="2"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>517001</v>
+        <v>517000</v>
       </c>
       <c r="B91" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C91" s="4">
-        <v>300</v>
+        <v>60007</v>
       </c>
       <c r="D91" s="5">
         <v>1</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="2"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>517002</v>
+        <v>517001</v>
       </c>
       <c r="B92" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C92" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
       <c r="E92" s="8"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>517003</v>
+        <v>517002</v>
       </c>
       <c r="B93" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C93" s="4">
-        <v>400</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="8"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>517004</v>
+        <v>517003</v>
       </c>
       <c r="B94" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C94" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D94" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
       <c r="E94" s="8"/>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>517005</v>
+        <v>517004</v>
       </c>
       <c r="B95" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C95" s="4">
-        <v>402</v>
-      </c>
-      <c r="D95" s="5">
-        <v>0</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="8"/>
       <c r="F95"/>
     </row>
     <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>517006</v>
+        <v>517005</v>
       </c>
       <c r="B96" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C96" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D96" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>517007</v>
+        <v>517006</v>
       </c>
       <c r="B97" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C97" s="4">
-        <v>403</v>
-      </c>
-      <c r="D97" s="5">
-        <v>0</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D97" s="5"/>
       <c r="E97" s="8"/>
       <c r="F97"/>
     </row>
     <row r="98" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>517010</v>
+        <v>517007</v>
       </c>
       <c r="B98" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C98" s="4">
-        <v>60007</v>
+        <v>403</v>
       </c>
       <c r="D98" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E98" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="8"/>
       <c r="F98"/>
     </row>
     <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>517020</v>
+        <v>517010</v>
       </c>
       <c r="B99" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C99" s="4">
         <v>60007</v>
       </c>
       <c r="D99" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>517030</v>
+        <v>517020</v>
       </c>
       <c r="B100" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C100" s="4">
         <v>60007</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5">
+        <v>61000</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
+      <c r="A101" s="2">
+        <v>517030</v>
+      </c>
+      <c r="B101" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C101" s="4">
+        <v>60007</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="2"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>518000</v>
-      </c>
-      <c r="B102" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C102" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D102" s="5">
-        <v>1</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="2"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>518001</v>
+        <v>518000</v>
       </c>
       <c r="B103" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C103" s="4">
-        <v>301</v>
+        <v>60008</v>
       </c>
       <c r="D103" s="5">
         <v>1</v>
@@ -2000,157 +1996,157 @@
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>518002</v>
+        <v>518001</v>
       </c>
       <c r="B104" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C104" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D104" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>518003</v>
+        <v>518002</v>
       </c>
       <c r="B105" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C105" s="4">
-        <v>400</v>
-      </c>
-      <c r="D105" s="5">
-        <v>0</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D105" s="5"/>
       <c r="E105" s="2"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>518004</v>
+        <v>518003</v>
       </c>
       <c r="B106" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C106" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D106" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>518005</v>
+        <v>518004</v>
       </c>
       <c r="B107" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C107" s="4">
-        <v>401</v>
-      </c>
-      <c r="D107" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="2"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>518006</v>
+        <v>518005</v>
       </c>
       <c r="B108" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C108" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D108" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>518010</v>
+        <v>518006</v>
       </c>
       <c r="B109" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C109" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D109" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="2"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>518020</v>
+        <v>518010</v>
       </c>
       <c r="B110" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C110" s="4">
         <v>60008</v>
       </c>
       <c r="D110" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>518030</v>
+        <v>518020</v>
       </c>
       <c r="B111" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C111" s="4">
         <v>60008</v>
       </c>
-      <c r="D111" s="5"/>
+      <c r="D111" s="5">
+        <v>61000</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
+      <c r="A112" s="2">
+        <v>518030</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C112" s="4">
+        <v>60008</v>
+      </c>
       <c r="D112" s="5"/>
       <c r="E112" s="2"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>519000</v>
-      </c>
-      <c r="B113" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C113" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D113" s="5">
-        <v>1</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>519001</v>
+        <v>519000</v>
       </c>
       <c r="B114" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C114" s="4">
-        <v>401</v>
+        <v>60009</v>
       </c>
       <c r="D114" s="5">
         <v>1</v>
@@ -2160,143 +2156,143 @@
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>519002</v>
+        <v>519001</v>
       </c>
       <c r="B115" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C115" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D115" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>519003</v>
+        <v>519002</v>
       </c>
       <c r="B116" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C116" s="4">
-        <v>402</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="2"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>519004</v>
+        <v>519003</v>
       </c>
       <c r="B117" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C117" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>519005</v>
+        <v>519004</v>
       </c>
       <c r="B118" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C118" s="4">
-        <v>404</v>
-      </c>
-      <c r="D118" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="2"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>519010</v>
+        <v>519005</v>
       </c>
       <c r="B119" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C119" s="4">
-        <v>60009</v>
+        <v>404</v>
       </c>
       <c r="D119" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>519020</v>
+        <v>519010</v>
       </c>
       <c r="B120" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C120" s="4">
         <v>60009</v>
       </c>
       <c r="D120" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>519030</v>
+        <v>519020</v>
       </c>
       <c r="B121" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C121" s="4">
         <v>60009</v>
       </c>
-      <c r="D121" s="5"/>
+      <c r="D121" s="5">
+        <v>61000</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
+      <c r="A122" s="2">
+        <v>519030</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C122" s="4">
+        <v>60009</v>
+      </c>
       <c r="D122" s="5"/>
       <c r="E122" s="2"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>520000</v>
-      </c>
-      <c r="B123" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C123" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D123" s="5">
-        <v>1</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="2"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>520001</v>
+        <v>520000</v>
       </c>
       <c r="B124" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C124" s="4">
-        <v>502</v>
+        <v>60010</v>
       </c>
       <c r="D124" s="5">
         <v>1</v>
@@ -2306,230 +2302,238 @@
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>520002</v>
+        <v>520001</v>
       </c>
       <c r="B125" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C125" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D125" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>520003</v>
+        <v>520002</v>
       </c>
       <c r="B126" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C126" s="4">
-        <v>501</v>
-      </c>
-      <c r="D126" s="5">
-        <v>1</v>
-      </c>
+        <v>60002</v>
+      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="2"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>520004</v>
+        <v>520003</v>
       </c>
       <c r="B127" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C127" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>520005</v>
+        <v>520004</v>
       </c>
       <c r="B128" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C128" s="4">
-        <v>500</v>
-      </c>
-      <c r="D128" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="2"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>520010</v>
+        <v>520005</v>
       </c>
       <c r="B129" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C129" s="4">
-        <v>60010</v>
+        <v>500</v>
       </c>
       <c r="D129" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>520020</v>
+        <v>520010</v>
       </c>
       <c r="B130" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C130" s="4">
         <v>60010</v>
       </c>
       <c r="D130" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>520030</v>
+        <v>520020</v>
       </c>
       <c r="B131" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C131" s="4">
         <v>60010</v>
       </c>
-      <c r="D131" s="5"/>
+      <c r="D131" s="5">
+        <v>61000</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
+      <c r="A132" s="2">
+        <v>520030</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C132" s="4">
+        <v>60010</v>
+      </c>
       <c r="D132" s="5"/>
       <c r="E132" s="2"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>521000</v>
-      </c>
-      <c r="B133" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C133" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D133" s="5">
-        <v>1</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="2"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>521001</v>
+        <v>521000</v>
       </c>
       <c r="B134" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C134" s="4">
-        <v>501</v>
+        <v>60011</v>
       </c>
       <c r="D134" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>521002</v>
+        <v>521001</v>
       </c>
       <c r="B135" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C135" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D135" s="5">
+        <v>0</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>521003</v>
+        <v>521002</v>
       </c>
       <c r="B136" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C136" s="4">
-        <v>700</v>
-      </c>
-      <c r="D136" s="5">
-        <v>0</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D136" s="5"/>
       <c r="E136" s="2"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>521010</v>
+        <v>521003</v>
       </c>
       <c r="B137" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C137" s="4">
-        <v>60011</v>
+        <v>700</v>
       </c>
       <c r="D137" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>521020</v>
+        <v>521010</v>
       </c>
       <c r="B138" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C138" s="4">
         <v>60011</v>
       </c>
       <c r="D138" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>521030</v>
+        <v>521020</v>
       </c>
       <c r="B139" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C139" s="4">
         <v>60011</v>
       </c>
-      <c r="D139" s="5"/>
+      <c r="D139" s="5">
+        <v>61000</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="2">
+        <v>521030</v>
+      </c>
+      <c r="B140" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C140" s="4">
+        <v>60011</v>
+      </c>
       <c r="D140" s="5"/>
       <c r="E140" s="2"/>
       <c r="F140"/>
@@ -2567,31 +2571,25 @@
       <c r="F144"/>
     </row>
     <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="2"/>
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>501000</v>
-      </c>
-      <c r="B146" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C146" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="2"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>501010</v>
+        <v>501000</v>
       </c>
       <c r="B147" s="3">
         <v>5013</v>
       </c>
       <c r="C147" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="2"/>
@@ -2599,13 +2597,13 @@
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501020</v>
+        <v>501010</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
@@ -2613,13 +2611,13 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501030</v>
+        <v>501020</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
@@ -2627,13 +2625,13 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501040</v>
+        <v>501030</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101040</v>
+        <v>101030</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
@@ -2641,13 +2639,13 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501050</v>
+        <v>501040</v>
       </c>
       <c r="B151" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C151" s="4">
-        <v>10</v>
+        <v>101040</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -2655,44 +2653,44 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501051</v>
+        <v>501050</v>
       </c>
       <c r="B152" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C152" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>501051</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C153" s="4">
+        <v>5</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>502000</v>
-      </c>
-      <c r="B154" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C154" s="4">
-        <v>102000</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>502010</v>
+        <v>502000</v>
       </c>
       <c r="B155" s="3">
         <v>5013</v>
       </c>
       <c r="C155" s="4">
-        <v>102010</v>
+        <v>102000</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="2"/>
@@ -2700,13 +2698,13 @@
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B156" s="3">
         <v>5013</v>
       </c>
       <c r="C156" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
@@ -2714,13 +2712,13 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B157" s="3">
         <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>102030</v>
+        <v>102020</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
@@ -2728,52 +2726,56 @@
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502031</v>
+        <v>502030</v>
       </c>
       <c r="B158" s="3">
-        <v>5109</v>
+        <v>5013</v>
       </c>
       <c r="C158" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D158" s="5">
-        <v>0</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D158" s="5"/>
       <c r="E158" s="2"/>
       <c r="F158"/>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502032</v>
+        <v>502031</v>
       </c>
       <c r="B159" s="3">
-        <v>5104</v>
+        <v>5109</v>
       </c>
       <c r="C159" s="4">
         <v>60000</v>
       </c>
       <c r="D159" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C160" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D160" s="5">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>509000</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>509010</v>
+        <v>509000</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -2783,7 +2785,7 @@
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>509020</v>
+        <v>509010</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
@@ -2793,95 +2795,91 @@
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>509030</v>
+        <v>509020</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>510100</v>
-      </c>
-      <c r="B166" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C166" s="4">
-        <v>15</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="2"/>
-    </row>
+    <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>509030</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510101</v>
+        <v>510100</v>
       </c>
       <c r="B167" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C167" s="4">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B168" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C168" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="B169" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C169" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="B170" s="3">
         <v>5003</v>
       </c>
       <c r="C170" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510110</v>
+        <v>510104</v>
       </c>
       <c r="B171" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C171" s="4">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B172" s="3">
         <v>5000</v>
@@ -2894,7 +2892,7 @@
     </row>
     <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B173" s="3">
         <v>5000</v>
@@ -2907,7 +2905,7 @@
     </row>
     <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B174" s="3">
         <v>5000</v>
@@ -2920,7 +2918,7 @@
     </row>
     <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B175" s="3">
         <v>5000</v>
@@ -2931,735 +2929,741 @@
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>510150</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C176" s="4">
+        <v>15</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="2"/>
+    </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B177" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C177" s="4">
-        <v>1</v>
-      </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="2"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
         <v>511061</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B179" s="3">
         <v>5119</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C179" s="4">
         <v>60001</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D179" s="5">
         <v>61002</v>
       </c>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>512100</v>
-      </c>
-      <c r="B180" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C180" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="2"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512110</v>
+        <v>512100</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="B182" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C182" s="4">
-        <v>-50</v>
+        <v>112110</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>512120</v>
+        <v>512111</v>
       </c>
       <c r="B183" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C183" s="4">
-        <v>112120</v>
+        <v>-50</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>512130</v>
+        <v>512120</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>512140</v>
+        <v>512130</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>112140</v>
+        <v>112130</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="A186" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C186" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>513100</v>
-      </c>
-      <c r="B187" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C187" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="2"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513110</v>
+        <v>513100</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513120</v>
+        <v>513110</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113120</v>
+        <v>113110</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513121</v>
+        <v>513120</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113121</v>
+        <v>113120</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513130</v>
+        <v>513121</v>
       </c>
       <c r="B191" s="3">
         <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>113130</v>
+        <v>113121</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513140</v>
+        <v>513130</v>
       </c>
       <c r="B192" s="3">
         <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>113140</v>
+        <v>113130</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513150</v>
+        <v>513140</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113150</v>
+        <v>113140</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513160</v>
+        <v>513150</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113160</v>
+        <v>113150</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513161</v>
+        <v>513160</v>
       </c>
       <c r="B195" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D195" s="5">
-        <v>-5</v>
-      </c>
+        <v>113160</v>
+      </c>
+      <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513200</v>
+        <v>513161</v>
       </c>
       <c r="B196" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C196" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D196" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D196" s="5">
+        <v>-5</v>
+      </c>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>513210</v>
+        <v>513200</v>
       </c>
       <c r="B197" s="3">
         <v>5013</v>
       </c>
       <c r="C197" s="4">
-        <v>113210</v>
+        <v>113200</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>513220</v>
+        <v>513210</v>
       </c>
       <c r="B198" s="3">
         <v>5013</v>
       </c>
       <c r="C198" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>513230</v>
+        <v>513220</v>
       </c>
       <c r="B199" s="3">
         <v>5013</v>
       </c>
       <c r="C199" s="4">
-        <v>113160</v>
+        <v>113220</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C200" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
         <v>513231</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B201" s="3">
         <v>5107</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C201" s="4">
         <v>60003</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D201" s="5">
         <v>-5</v>
       </c>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>515100</v>
-      </c>
-      <c r="B202" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C202" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="2"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515101</v>
+        <v>515100</v>
       </c>
       <c r="B203" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>10</v>
+        <v>115100</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515102</v>
+        <v>515101</v>
       </c>
       <c r="B204" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C204" s="4">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515103</v>
+        <v>515102</v>
       </c>
       <c r="B205" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C205" s="4">
-        <v>115101</v>
+        <v>-2</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515104</v>
+        <v>515103</v>
       </c>
       <c r="B206" s="3">
         <v>5013</v>
       </c>
       <c r="C206" s="4">
-        <v>115102</v>
+        <v>115101</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515110</v>
+        <v>515104</v>
       </c>
       <c r="B207" s="3">
         <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>115110</v>
+        <v>115102</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515111</v>
+        <v>515110</v>
       </c>
       <c r="B208" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>20</v>
+        <v>115110</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515112</v>
+        <v>515111</v>
       </c>
       <c r="B209" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C209" s="4">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515113</v>
+        <v>515112</v>
       </c>
       <c r="B210" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C210" s="4">
-        <v>115111</v>
+        <v>-2</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515114</v>
+        <v>515113</v>
       </c>
       <c r="B211" s="3">
         <v>5013</v>
       </c>
       <c r="C211" s="4">
-        <v>115112</v>
+        <v>115111</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515120</v>
+        <v>515114</v>
       </c>
       <c r="B212" s="3">
         <v>5013</v>
       </c>
       <c r="C212" s="4">
-        <v>115120</v>
+        <v>115112</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515121</v>
+        <v>515120</v>
       </c>
       <c r="B213" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C213" s="4">
-        <v>5</v>
+        <v>115120</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515122</v>
+        <v>515121</v>
       </c>
       <c r="B214" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C214" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515130</v>
+        <v>515122</v>
       </c>
       <c r="B215" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C215" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515131</v>
+        <v>515130</v>
       </c>
       <c r="B216" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C216" s="4">
-        <v>10</v>
+        <v>115120</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515132</v>
+        <v>515131</v>
       </c>
       <c r="B217" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C217" s="4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515140</v>
+        <v>515132</v>
       </c>
       <c r="B218" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C218" s="4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515150</v>
+        <v>515140</v>
       </c>
       <c r="B219" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C219" s="4">
-        <v>115150</v>
+        <v>100</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515160</v>
+        <v>515150</v>
       </c>
       <c r="B220" s="3">
         <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>115160</v>
+        <v>115150</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515170</v>
+        <v>515160</v>
       </c>
       <c r="B221" s="3">
         <v>5013</v>
       </c>
       <c r="C221" s="4">
-        <v>115170</v>
+        <v>115160</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>515171</v>
+        <v>515170</v>
       </c>
       <c r="B222" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C222" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D222" s="5">
-        <v>-3</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D222" s="5"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>515180</v>
+        <v>515171</v>
       </c>
       <c r="B223" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C223" s="4">
-        <v>115180</v>
-      </c>
-      <c r="D223" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D223" s="5">
+        <v>-3</v>
+      </c>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>515181</v>
+        <v>515180</v>
       </c>
       <c r="B224" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C224" s="4">
-        <v>15</v>
+        <v>115180</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
+      <c r="A225" s="2">
+        <v>515181</v>
+      </c>
+      <c r="B225" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C225" s="4">
+        <v>15</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>516100</v>
-      </c>
-      <c r="B226" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C226" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="2"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516101</v>
+        <v>516100</v>
       </c>
       <c r="B227" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C227" s="4">
-        <v>15</v>
+        <v>116100</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516102</v>
+        <v>516101</v>
       </c>
       <c r="B228" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C228" s="4">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516103</v>
+        <v>516102</v>
       </c>
       <c r="B229" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C229" s="4">
-        <v>116101</v>
+        <v>-2</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516104</v>
+        <v>516103</v>
       </c>
       <c r="B230" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C230" s="4">
-        <v>-5</v>
+        <v>116101</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516105</v>
+        <v>516104</v>
       </c>
       <c r="B231" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C231" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516110</v>
+        <v>516105</v>
       </c>
       <c r="B232" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C232" s="4">
-        <v>116110</v>
+        <v>5</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516120</v>
+        <v>516110</v>
       </c>
       <c r="B233" s="3">
         <v>5013</v>
       </c>
       <c r="C233" s="4">
-        <v>116120</v>
+        <v>116110</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516121</v>
+        <v>516120</v>
       </c>
       <c r="B234" s="3">
         <v>5013</v>
@@ -3672,22 +3676,20 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>516122</v>
+        <v>516121</v>
       </c>
       <c r="B235" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C235" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D235" s="5">
-        <v>-4</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D235" s="5"/>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>516130</v>
+        <v>516122</v>
       </c>
       <c r="B236" s="3">
         <v>5107</v>
@@ -3696,229 +3698,229 @@
         <v>60006</v>
       </c>
       <c r="D236" s="5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>516131</v>
+        <v>516130</v>
       </c>
       <c r="B237" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C237" s="4">
-        <v>10</v>
-      </c>
-      <c r="D237" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D237" s="5">
+        <v>-3</v>
+      </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C238" s="4">
+        <v>10</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
         <v>516132</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B239" s="3">
         <v>5107</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C239" s="4">
         <v>60006</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D239" s="5">
         <v>-3</v>
       </c>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>517100</v>
-      </c>
-      <c r="B240" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C240" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="2"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517110</v>
+        <v>517100</v>
       </c>
       <c r="B241" s="3">
         <v>5013</v>
       </c>
       <c r="C241" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517120</v>
+        <v>517110</v>
       </c>
       <c r="B242" s="3">
         <v>5013</v>
       </c>
       <c r="C242" s="4">
-        <v>117120</v>
+        <v>117110</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517121</v>
+        <v>517120</v>
       </c>
       <c r="B243" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C243" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D243" s="5">
-        <v>-3</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517122</v>
+        <v>517121</v>
       </c>
       <c r="B244" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C244" s="4">
-        <v>10</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D244" s="5">
+        <v>-3</v>
+      </c>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517130</v>
+        <v>517122</v>
       </c>
       <c r="B245" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C245" s="4">
-        <v>117130</v>
+        <v>10</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517131</v>
+        <v>517130</v>
       </c>
       <c r="B246" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>700</v>
-      </c>
-      <c r="D246" s="5">
-        <v>1</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517132</v>
+        <v>517131</v>
       </c>
       <c r="B247" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C247" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D247" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D247" s="5">
+        <v>1</v>
+      </c>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517140</v>
+        <v>517132</v>
       </c>
       <c r="B248" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C248" s="4">
-        <v>117140</v>
+        <v>60011</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517141</v>
+        <v>517140</v>
       </c>
       <c r="B249" s="3">
         <v>5013</v>
       </c>
       <c r="C249" s="4">
-        <v>117141</v>
+        <v>117140</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517150</v>
+        <v>517141</v>
       </c>
       <c r="B250" s="3">
         <v>5013</v>
       </c>
       <c r="C250" s="4">
-        <v>117150</v>
+        <v>117141</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517151</v>
+        <v>517150</v>
       </c>
       <c r="B251" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C251" s="4">
-        <v>20</v>
+        <v>117150</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>517152</v>
+        <v>517151</v>
       </c>
       <c r="B252" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C252" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D252" s="5">
-        <v>-3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D252" s="5"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>517153</v>
+        <v>517152</v>
       </c>
       <c r="B253" s="3">
         <v>5107</v>
       </c>
       <c r="C253" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D253" s="5">
         <v>-3</v>
@@ -3927,13 +3929,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>517154</v>
+        <v>517153</v>
       </c>
       <c r="B254" s="3">
         <v>5107</v>
       </c>
       <c r="C254" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D254" s="5">
         <v>-3</v>
@@ -3941,50 +3943,54 @@
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
+      <c r="A255" s="2">
+        <v>517154</v>
+      </c>
+      <c r="B255" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C255" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D255" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>518100</v>
-      </c>
-      <c r="B256" s="3">
-        <v>0</v>
-      </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="2"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518110</v>
+        <v>518100</v>
       </c>
       <c r="B257" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C257" s="4">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C257" s="4"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518111</v>
+        <v>518110</v>
       </c>
       <c r="B258" s="3">
-        <v>0</v>
-      </c>
-      <c r="C258" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C258" s="4">
+        <v>-20</v>
+      </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518112</v>
+        <v>518111</v>
       </c>
       <c r="B259" s="3">
         <v>0</v>
@@ -3995,205 +4001,203 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518113</v>
+        <v>518112</v>
       </c>
       <c r="B260" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C260" s="4">
-        <v>118114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C260" s="4"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>518114</v>
+        <v>518113</v>
       </c>
       <c r="B261" s="3">
         <v>5013</v>
       </c>
       <c r="C261" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>518115</v>
+        <v>518114</v>
       </c>
       <c r="B262" s="3">
         <v>5013</v>
       </c>
       <c r="C262" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>518116</v>
+        <v>518115</v>
       </c>
       <c r="B263" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C263" s="4">
-        <v>5</v>
+        <v>118116</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>518117</v>
+        <v>518116</v>
       </c>
       <c r="B264" s="3">
-        <v>5209</v>
+        <v>5003</v>
       </c>
       <c r="C264" s="4">
-        <v>70201</v>
+        <v>5</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
+      <c r="A265" s="2">
+        <v>518117</v>
+      </c>
+      <c r="B265" s="3">
+        <v>5209</v>
+      </c>
+      <c r="C265" s="4">
+        <v>70201</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>519100</v>
-      </c>
-      <c r="B266" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C266" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D266" s="5"/>
-      <c r="E266" s="2"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519101</v>
+        <v>519100</v>
       </c>
       <c r="B267" s="3">
-        <v>0</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C267" s="4">
+        <v>119100</v>
+      </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519102</v>
+        <v>519101</v>
       </c>
       <c r="B268" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C268" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C268" s="4"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519110</v>
+        <v>519102</v>
       </c>
       <c r="B269" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C269" s="4">
-        <v>191100</v>
+        <v>-2</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519111</v>
+        <v>519110</v>
       </c>
       <c r="B270" s="3">
-        <v>0</v>
-      </c>
-      <c r="C270" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C270" s="4">
+        <v>191100</v>
+      </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519112</v>
+        <v>519111</v>
       </c>
       <c r="B271" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C271" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C271" s="4"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519120</v>
+        <v>519112</v>
       </c>
       <c r="B272" s="3">
-        <v>0</v>
-      </c>
-      <c r="C272" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C272" s="4">
+        <v>-2</v>
+      </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519121</v>
+        <v>519120</v>
       </c>
       <c r="B273" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C273" s="4">
-        <v>119121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C273" s="4"/>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519122</v>
+        <v>519121</v>
       </c>
       <c r="B274" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C274" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D274" s="5">
-        <v>-3</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519123</v>
+        <v>519122</v>
       </c>
       <c r="B275" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C275" s="4">
-        <v>10</v>
-      </c>
-      <c r="D275" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D275" s="5">
+        <v>-3</v>
+      </c>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519130</v>
+        <v>519123</v>
       </c>
       <c r="B276" s="3">
         <v>5003</v>
@@ -4206,160 +4210,160 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519131</v>
+        <v>519130</v>
       </c>
       <c r="B277" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C277" s="4">
-        <v>119130</v>
+        <v>10</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519140</v>
+        <v>519131</v>
       </c>
       <c r="B278" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>519141</v>
+        <v>519140</v>
       </c>
       <c r="B279" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C279" s="4">
-        <v>119140</v>
+        <v>10</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>519150</v>
+        <v>519141</v>
       </c>
       <c r="B280" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>10</v>
+        <v>119140</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>519151</v>
+        <v>519150</v>
       </c>
       <c r="B281" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C281" s="4">
-        <v>119150</v>
+        <v>10</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
+      <c r="A282" s="2">
+        <v>519151</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C282" s="4">
+        <v>119150</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>520100</v>
-      </c>
-      <c r="B283" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C283" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D283" s="5"/>
-      <c r="E283" s="2"/>
+      <c r="A283" s="6"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520110</v>
+        <v>520100</v>
       </c>
       <c r="B284" s="3">
         <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520120</v>
+        <v>520110</v>
       </c>
       <c r="B285" s="3">
         <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>120120</v>
+        <v>120110</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520121</v>
+        <v>520120</v>
       </c>
       <c r="B286" s="3">
         <v>5013</v>
       </c>
       <c r="C286" s="4">
-        <v>120121</v>
+        <v>120120</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520122</v>
+        <v>520121</v>
       </c>
       <c r="B287" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C287" s="4">
-        <v>-3</v>
+        <v>120121</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520123</v>
+        <v>520122</v>
       </c>
       <c r="B288" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C288" s="4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520124</v>
+        <v>520123</v>
       </c>
       <c r="B289" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C289" s="4">
         <v>10</v>
@@ -4369,417 +4373,417 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520130</v>
+        <v>520124</v>
       </c>
       <c r="B290" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C290" s="4">
-        <v>120130</v>
+        <v>10</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520140</v>
+        <v>520130</v>
       </c>
       <c r="B291" s="3">
         <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>120140</v>
+        <v>120130</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520150</v>
+        <v>520140</v>
       </c>
       <c r="B292" s="3">
         <v>5013</v>
       </c>
       <c r="C292" s="4">
-        <v>120150</v>
+        <v>120140</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>520160</v>
+        <v>520150</v>
       </c>
       <c r="B293" s="3">
         <v>5013</v>
       </c>
       <c r="C293" s="4">
-        <v>120160</v>
+        <v>120150</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>520161</v>
+        <v>520160</v>
       </c>
       <c r="B294" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>-30</v>
+        <v>120160</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>520162</v>
+        <v>520161</v>
       </c>
       <c r="B295" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C295" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
+      <c r="A296" s="2">
+        <v>520162</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C296" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D296" s="5"/>
+      <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
-        <v>521100</v>
-      </c>
-      <c r="B297" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C297" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D297" s="5"/>
-      <c r="E297" s="2"/>
+      <c r="A297" s="6"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521110</v>
+        <v>521100</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521111</v>
+        <v>521110</v>
       </c>
       <c r="B299" s="3">
         <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521112</v>
+        <v>521111</v>
       </c>
       <c r="B300" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C300" s="4">
-        <v>30</v>
+        <v>121111</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521113</v>
+        <v>521112</v>
       </c>
       <c r="B301" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C301" s="4">
-        <v>121112</v>
+        <v>30</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521114</v>
+        <v>521113</v>
       </c>
       <c r="B302" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C302" s="4">
-        <v>10</v>
+        <v>121112</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521120</v>
+        <v>521114</v>
       </c>
       <c r="B303" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C303" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521121</v>
+        <v>521120</v>
       </c>
       <c r="B304" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C304" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D304" s="5">
-        <v>-3</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521122</v>
+        <v>521121</v>
       </c>
       <c r="B305" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C305" s="4">
-        <v>10</v>
-      </c>
-      <c r="D305" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D305" s="5">
+        <v>-3</v>
+      </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521123</v>
+        <v>521122</v>
       </c>
       <c r="B306" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C306" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521124</v>
+        <v>521123</v>
       </c>
       <c r="B307" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C307" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D307" s="5">
-        <v>-10</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521130</v>
+        <v>521124</v>
       </c>
       <c r="B308" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C308" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D308" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D308" s="5">
+        <v>-10</v>
+      </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521140</v>
+        <v>521130</v>
       </c>
       <c r="B309" s="3">
         <v>5013</v>
       </c>
       <c r="C309" s="4">
-        <v>121140</v>
+        <v>121130</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521141</v>
+        <v>521140</v>
       </c>
       <c r="B310" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C310" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D310" s="5">
-        <v>-3</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521150</v>
+        <v>521141</v>
       </c>
       <c r="B311" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C311" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D311" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D311" s="5">
+        <v>-3</v>
+      </c>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521151</v>
+        <v>521150</v>
       </c>
       <c r="B312" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>2</v>
+        <v>121150</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521152</v>
+        <v>521151</v>
       </c>
       <c r="B313" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C313" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521160</v>
+        <v>521152</v>
       </c>
       <c r="B314" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C314" s="4">
-        <v>121160</v>
+        <v>10</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>521170</v>
+        <v>521160</v>
       </c>
       <c r="B315" s="3">
         <v>5013</v>
       </c>
       <c r="C315" s="4">
-        <v>121170</v>
+        <v>121160</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>521180</v>
+        <v>521170</v>
       </c>
       <c r="B316" s="3">
         <v>5013</v>
       </c>
       <c r="C316" s="4">
-        <v>121180</v>
+        <v>121170</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>521181</v>
+        <v>521180</v>
       </c>
       <c r="B317" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C317" s="4">
-        <v>3</v>
+        <v>121180</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
+      <c r="A318" s="2">
+        <v>521181</v>
+      </c>
+      <c r="B318" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C318" s="4">
+        <v>3</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B319" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C319" s="4">
-        <v>5</v>
-      </c>
-      <c r="D319" s="5"/>
-      <c r="E319" s="2"/>
+      <c r="A319" s="6"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530001</v>
+        <v>530000</v>
       </c>
       <c r="B320" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C320" s="4">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530002</v>
+        <v>530001</v>
       </c>
       <c r="B321" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C321" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530003</v>
+        <v>530002</v>
       </c>
       <c r="B322" s="3">
         <v>5003</v>
@@ -4792,353 +4796,351 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530010</v>
+        <v>530003</v>
       </c>
       <c r="B323" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C323" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530011</v>
+        <v>530010</v>
       </c>
       <c r="B324" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C324" s="4">
-        <v>2</v>
+        <v>130010</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530012</v>
+        <v>530011</v>
       </c>
       <c r="B325" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C325" s="4">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530020</v>
+        <v>530012</v>
       </c>
       <c r="B326" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C326" s="4">
-        <v>130020</v>
+        <v>-20</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530021</v>
+        <v>530020</v>
       </c>
       <c r="B327" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C327" s="4">
-        <v>3</v>
+        <v>130020</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530022</v>
+        <v>530021</v>
       </c>
       <c r="B328" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C328" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530030</v>
+        <v>530022</v>
       </c>
       <c r="B329" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C329" s="4">
-        <v>130030</v>
+        <v>-40</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530031</v>
+        <v>530030</v>
       </c>
       <c r="B330" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C330" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530040</v>
+        <v>530031</v>
       </c>
       <c r="B331" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C331" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530041</v>
+        <v>530040</v>
       </c>
       <c r="B332" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530050</v>
+        <v>530041</v>
       </c>
       <c r="B333" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C333" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530051</v>
+        <v>530050</v>
       </c>
       <c r="B334" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530060</v>
+        <v>530051</v>
       </c>
       <c r="B335" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C335" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530061</v>
+        <v>530060</v>
       </c>
       <c r="B336" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530070</v>
+        <v>530061</v>
       </c>
       <c r="B337" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C337" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530071</v>
+        <v>530070</v>
       </c>
       <c r="B338" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530080</v>
+        <v>530071</v>
       </c>
       <c r="B339" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C339" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530081</v>
+        <v>530080</v>
       </c>
       <c r="B340" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530090</v>
+        <v>530081</v>
       </c>
       <c r="B341" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C341" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530091</v>
+        <v>530090</v>
       </c>
       <c r="B342" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530100</v>
+        <v>530091</v>
       </c>
       <c r="B343" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C343" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530101</v>
+        <v>530100</v>
       </c>
       <c r="B344" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C344" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530110</v>
+        <v>530101</v>
       </c>
       <c r="B345" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C345" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530111</v>
+        <v>530110</v>
       </c>
       <c r="B346" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C346" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530120</v>
+        <v>530111</v>
       </c>
       <c r="B347" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C347" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530121</v>
+        <v>530120</v>
       </c>
       <c r="B348" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C348" s="4">
-        <v>2</v>
-      </c>
-      <c r="D348" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D348" s="5"/>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530122</v>
+        <v>530121</v>
       </c>
       <c r="B349" s="3">
         <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D349" s="5">
         <v>1</v>
@@ -5147,13 +5149,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530123</v>
+        <v>530122</v>
       </c>
       <c r="B350" s="3">
         <v>5203</v>
       </c>
       <c r="C350" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5162,41 +5164,41 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530130</v>
+        <v>530123</v>
       </c>
       <c r="B351" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C351" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D351" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D351" s="5">
+        <v>1</v>
+      </c>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B352" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C352" s="4">
-        <v>2</v>
-      </c>
-      <c r="D352" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D352" s="5"/>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B353" s="3">
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5205,13 +5207,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B354" s="3">
         <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D354" s="5">
         <v>1</v>
@@ -5220,41 +5222,41 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530140</v>
+        <v>530133</v>
       </c>
       <c r="B355" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C355" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D355" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D355" s="5">
+        <v>1</v>
+      </c>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530141</v>
+        <v>530140</v>
       </c>
       <c r="B356" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C356" s="4">
-        <v>2</v>
-      </c>
-      <c r="D356" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D356" s="5"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530142</v>
+        <v>530141</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5263,13 +5265,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530143</v>
+        <v>530142</v>
       </c>
       <c r="B358" s="3">
         <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D358" s="5">
         <v>1</v>
@@ -5278,41 +5280,41 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530150</v>
+        <v>530143</v>
       </c>
       <c r="B359" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C359" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D359" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D359" s="5">
+        <v>1</v>
+      </c>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530151</v>
+        <v>530150</v>
       </c>
       <c r="B360" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C360" s="4">
-        <v>2</v>
-      </c>
-      <c r="D360" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D360" s="5"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530152</v>
+        <v>530151</v>
       </c>
       <c r="B361" s="3">
         <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D361" s="5">
         <v>1</v>
@@ -5321,13 +5323,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530153</v>
+        <v>530152</v>
       </c>
       <c r="B362" s="3">
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5336,41 +5338,41 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530160</v>
+        <v>530153</v>
       </c>
       <c r="B363" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D363" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D363" s="5">
+        <v>1</v>
+      </c>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530161</v>
+        <v>530160</v>
       </c>
       <c r="B364" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C364" s="4">
-        <v>2</v>
-      </c>
-      <c r="D364" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D364" s="5"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530162</v>
+        <v>530161</v>
       </c>
       <c r="B365" s="3">
         <v>5200</v>
       </c>
       <c r="C365" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5379,13 +5381,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530163</v>
+        <v>530162</v>
       </c>
       <c r="B366" s="3">
         <v>5200</v>
       </c>
       <c r="C366" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" s="5">
         <v>1</v>
@@ -5394,41 +5396,41 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530170</v>
+        <v>530163</v>
       </c>
       <c r="B367" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D367" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D367" s="5">
+        <v>1</v>
+      </c>
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530171</v>
+        <v>530170</v>
       </c>
       <c r="B368" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C368" s="4">
-        <v>2</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D368" s="5"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530172</v>
+        <v>530171</v>
       </c>
       <c r="B369" s="3">
         <v>5206</v>
       </c>
       <c r="C369" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D369" s="5">
         <v>1</v>
@@ -5437,13 +5439,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530173</v>
+        <v>530172</v>
       </c>
       <c r="B370" s="3">
         <v>5206</v>
       </c>
       <c r="C370" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5452,20 +5454,22 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530180</v>
+        <v>530173</v>
       </c>
       <c r="B371" s="3">
-        <v>5022</v>
+        <v>5206</v>
       </c>
       <c r="C371" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D371" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D371" s="5">
+        <v>1</v>
+      </c>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530181</v>
+        <v>530180</v>
       </c>
       <c r="B372" s="3">
         <v>5022</v>
@@ -5477,129 +5481,135 @@
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6"/>
-      <c r="E373" s="6"/>
+      <c r="A373" s="2">
+        <v>530181</v>
+      </c>
+      <c r="B373" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C373" s="4">
+        <v>73000</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B374" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C374" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D374" s="5"/>
-      <c r="E374" s="2"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B375" s="3">
         <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B376" s="3">
         <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550010</v>
+        <v>550003</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550011</v>
+        <v>550010</v>
       </c>
       <c r="B379" s="3">
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>550012</v>
+        <v>550011</v>
       </c>
       <c r="B380" s="3">
         <v>5006</v>
       </c>
       <c r="C380" s="4">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
+      <c r="A381" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B381" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C381" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
         <v>559000</v>
       </c>
-      <c r="B382" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C382" s="4">
+      <c r="B383" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C383" s="4">
         <v>559000</v>
       </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-      <c r="D383" s="6"/>
-      <c r="E383" s="6"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
@@ -5609,96 +5619,90 @@
       <c r="E384" s="6"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B385" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C385" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D385" s="5"/>
-      <c r="E385" s="2"/>
+      <c r="A385" s="6"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B386" s="3">
         <v>5006</v>
       </c>
       <c r="C386" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B387" s="3">
         <v>5006</v>
       </c>
       <c r="C387" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B388" s="3">
         <v>5006</v>
       </c>
       <c r="C388" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-      <c r="D389" s="6"/>
-      <c r="E389" s="6"/>
+      <c r="A389" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B389" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C389" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
+      <c r="A390" s="6"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="6"/>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
         <v>559000</v>
       </c>
-      <c r="B390" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C390" s="4">
+      <c r="B391" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C391" s="4">
         <v>559000</v>
       </c>
-      <c r="D390" s="5"/>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B392" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C392" s="4">
-        <v>50</v>
-      </c>
-      <c r="D392" s="5"/>
-      <c r="E392" s="2"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>540001</v>
+        <v>540000</v>
       </c>
       <c r="B393" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C393" s="4">
         <v>50</v>
@@ -5708,10 +5712,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>540002</v>
+        <v>540001</v>
       </c>
       <c r="B394" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C394" s="4">
         <v>50</v>
@@ -5721,23 +5725,23 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>540010</v>
+        <v>540002</v>
       </c>
       <c r="B395" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
-        <v>540011</v>
+        <v>540010</v>
       </c>
       <c r="B396" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C396" s="4">
         <v>-50</v>
@@ -5747,10 +5751,10 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>540012</v>
+        <v>540011</v>
       </c>
       <c r="B397" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C397" s="4">
         <v>-50</v>
@@ -5758,59 +5762,72 @@
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>540020</v>
-      </c>
-      <c r="B399" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C399" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D399" s="5"/>
-      <c r="E399" s="2"/>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B398" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C398" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D398" s="5"/>
+      <c r="E398" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>540021</v>
+        <v>540020</v>
       </c>
       <c r="B400" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C400" s="4">
-        <v>101</v>
-      </c>
-      <c r="D400" s="5">
-        <v>72000</v>
-      </c>
+        <v>140020</v>
+      </c>
+      <c r="D400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B401" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C401" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D401" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D401" s="5">
+        <v>72000</v>
+      </c>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B402" s="3">
         <v>5013</v>
       </c>
       <c r="C402" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B403" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C403" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F10B7-38F4-446C-806F-BD2DE5344B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231F03C-CB13-4B6C-9664-D07ECA22DD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18150" yWindow="3840" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F403"/>
+  <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5140,7 @@
         <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>2</v>
+        <v>61000</v>
       </c>
       <c r="D349" s="5">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>5203</v>
       </c>
       <c r="C350" s="4">
-        <v>3</v>
+        <v>61001</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>5203</v>
       </c>
       <c r="C351" s="4">
-        <v>4</v>
+        <v>61002</v>
       </c>
       <c r="D351" s="5">
         <v>1</v>
@@ -5179,41 +5179,41 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530130</v>
+        <v>530124</v>
       </c>
       <c r="B352" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C352" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D352" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D352" s="5">
+        <v>1</v>
+      </c>
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B353" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C353" s="4">
-        <v>2</v>
-      </c>
-      <c r="D353" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D353" s="5"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B354" s="3">
         <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>3</v>
+        <v>61000</v>
       </c>
       <c r="D354" s="5">
         <v>1</v>
@@ -5222,13 +5222,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B355" s="3">
         <v>5200</v>
       </c>
       <c r="C355" s="4">
-        <v>4</v>
+        <v>61001</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5237,26 +5237,28 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530140</v>
+        <v>530133</v>
       </c>
       <c r="B356" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C356" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D356" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D356" s="5">
+        <v>1</v>
+      </c>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530141</v>
+        <v>530134</v>
       </c>
       <c r="B357" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C357" s="4">
-        <v>2</v>
+        <v>61003</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5265,28 +5267,26 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530142</v>
+        <v>530140</v>
       </c>
       <c r="B358" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C358" s="4">
-        <v>3</v>
-      </c>
-      <c r="D358" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530143</v>
+        <v>530141</v>
       </c>
       <c r="B359" s="3">
         <v>5206</v>
       </c>
       <c r="C359" s="4">
-        <v>4</v>
+        <v>61000</v>
       </c>
       <c r="D359" s="5">
         <v>1</v>
@@ -5295,26 +5295,28 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530150</v>
+        <v>530142</v>
       </c>
       <c r="B360" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C360" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D360" s="5"/>
+        <v>61001</v>
+      </c>
+      <c r="D360" s="5">
+        <v>1</v>
+      </c>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530151</v>
+        <v>530143</v>
       </c>
       <c r="B361" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C361" s="4">
-        <v>2</v>
+        <v>61002</v>
       </c>
       <c r="D361" s="5">
         <v>1</v>
@@ -5323,13 +5325,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530152</v>
+        <v>530144</v>
       </c>
       <c r="B362" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C362" s="4">
-        <v>3</v>
+        <v>61003</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5338,41 +5340,41 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530153</v>
+        <v>530150</v>
       </c>
       <c r="B363" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C363" s="4">
-        <v>4</v>
-      </c>
-      <c r="D363" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D363" s="5"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530160</v>
+        <v>530151</v>
       </c>
       <c r="B364" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C364" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D364" s="5"/>
+        <v>61000</v>
+      </c>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530161</v>
+        <v>530152</v>
       </c>
       <c r="B365" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C365" s="4">
-        <v>2</v>
+        <v>61001</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5381,13 +5383,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530162</v>
+        <v>530153</v>
       </c>
       <c r="B366" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C366" s="4">
-        <v>3</v>
+        <v>61002</v>
       </c>
       <c r="D366" s="5">
         <v>1</v>
@@ -5396,13 +5398,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530163</v>
+        <v>530154</v>
       </c>
       <c r="B367" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C367" s="4">
-        <v>4</v>
+        <v>61003</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5411,26 +5413,26 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530170</v>
+        <v>530160</v>
       </c>
       <c r="B368" s="3">
         <v>5013</v>
       </c>
       <c r="C368" s="4">
-        <v>130170</v>
+        <v>130160</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530171</v>
+        <v>530161</v>
       </c>
       <c r="B369" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C369" s="4">
-        <v>2</v>
+        <v>61000</v>
       </c>
       <c r="D369" s="5">
         <v>1</v>
@@ -5439,13 +5441,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530172</v>
+        <v>530162</v>
       </c>
       <c r="B370" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C370" s="4">
-        <v>3</v>
+        <v>61001</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5454,13 +5456,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530173</v>
+        <v>530163</v>
       </c>
       <c r="B371" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C371" s="4">
-        <v>4</v>
+        <v>61002</v>
       </c>
       <c r="D371" s="5">
         <v>1</v>
@@ -5469,210 +5471,232 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530180</v>
+        <v>530164</v>
       </c>
       <c r="B372" s="3">
-        <v>5022</v>
+        <v>5200</v>
       </c>
       <c r="C372" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D372" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D372" s="5">
+        <v>1</v>
+      </c>
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>530181</v>
+        <v>530170</v>
       </c>
       <c r="B373" s="3">
-        <v>5022</v>
+        <v>5013</v>
       </c>
       <c r="C373" s="4">
-        <v>73000</v>
+        <v>130170</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
+      <c r="A374" s="2">
+        <v>530171</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C374" s="4">
+        <v>61000</v>
+      </c>
+      <c r="D374" s="5">
+        <v>1</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550000</v>
+        <v>530172</v>
       </c>
       <c r="B375" s="3">
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="C375" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D375" s="5"/>
+        <v>61001</v>
+      </c>
+      <c r="D375" s="5">
+        <v>1</v>
+      </c>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550001</v>
+        <v>530173</v>
       </c>
       <c r="B376" s="3">
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="C376" s="4">
-        <v>-4</v>
-      </c>
-      <c r="D376" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D376" s="5">
+        <v>1</v>
+      </c>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550002</v>
+        <v>530174</v>
       </c>
       <c r="B377" s="3">
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="C377" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D377" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D377" s="5">
+        <v>1</v>
+      </c>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550003</v>
+        <v>530180</v>
       </c>
       <c r="B378" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C378" s="4">
-        <v>-8</v>
+        <v>73000</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550010</v>
+        <v>530181</v>
       </c>
       <c r="B379" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C379" s="4">
-        <v>15</v>
+        <v>73000</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="2">
-        <v>550011</v>
-      </c>
-      <c r="B380" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C380" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D380" s="5"/>
-      <c r="E380" s="2"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>550012</v>
+        <v>550000</v>
       </c>
       <c r="B381" s="3">
         <v>5006</v>
       </c>
       <c r="C381" s="4">
-        <v>-50</v>
+        <v>-2</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
+      <c r="A382" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B382" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C382" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>559000</v>
+        <v>550002</v>
       </c>
       <c r="B383" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C383" s="4">
-        <v>559000</v>
+        <v>-5</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
+      <c r="A384" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B384" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C384" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-      <c r="D385" s="6"/>
-      <c r="E385" s="6"/>
+      <c r="A385" s="2">
+        <v>550010</v>
+      </c>
+      <c r="B385" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C385" s="4">
+        <v>15</v>
+      </c>
+      <c r="D385" s="5"/>
+      <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550000</v>
+        <v>550011</v>
       </c>
       <c r="B386" s="3">
         <v>5006</v>
       </c>
       <c r="C386" s="4">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550001</v>
+        <v>550012</v>
       </c>
       <c r="B387" s="3">
         <v>5006</v>
       </c>
       <c r="C387" s="4">
-        <v>-4</v>
+        <v>-50</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B388" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C388" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D388" s="5"/>
-      <c r="E388" s="2"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>550003</v>
+        <v>559000</v>
       </c>
       <c r="B389" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C389" s="4">
-        <v>-8</v>
+        <v>559000</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
@@ -5685,149 +5709,215 @@
       <c r="E390" s="6"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B391" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C391" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D391" s="5"/>
-      <c r="E391" s="2"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B392" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C392" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>540000</v>
+        <v>550001</v>
       </c>
       <c r="B393" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C393" s="4">
-        <v>50</v>
+        <v>-4</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>540001</v>
+        <v>550002</v>
       </c>
       <c r="B394" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>50</v>
+        <v>-5</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>540002</v>
+        <v>550003</v>
       </c>
       <c r="B395" s="3">
         <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>50</v>
+        <v>-8</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
-        <v>540010</v>
-      </c>
-      <c r="B396" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C396" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D396" s="5"/>
-      <c r="E396" s="2"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>540011</v>
+        <v>559000</v>
       </c>
       <c r="B397" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C397" s="4">
-        <v>-50</v>
+        <v>559000</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="2">
-        <v>540012</v>
-      </c>
-      <c r="B398" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C398" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D398" s="5"/>
-      <c r="E398" s="2"/>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>540000</v>
+      </c>
+      <c r="B399" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C399" s="4">
+        <v>50</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>540020</v>
+        <v>540001</v>
       </c>
       <c r="B400" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C400" s="4">
-        <v>140020</v>
+        <v>50</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>540021</v>
+        <v>540002</v>
       </c>
       <c r="B401" s="3">
-        <v>5303</v>
+        <v>5006</v>
       </c>
       <c r="C401" s="4">
-        <v>101</v>
-      </c>
-      <c r="D401" s="5">
-        <v>72000</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D401" s="5"/>
       <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540030</v>
+        <v>540010</v>
       </c>
       <c r="B402" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C402" s="4">
-        <v>140030</v>
+        <v>-50</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>540040</v>
+        <v>540011</v>
       </c>
       <c r="B403" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C403" s="4">
-        <v>140040</v>
+        <v>-50</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B404" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C404" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D404" s="5"/>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>540020</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C406" s="4">
+        <v>140020</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>540030</v>
+      </c>
+      <c r="B407" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C407" s="4">
+        <v>140030</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C408" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D408" s="5"/>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>540041</v>
+      </c>
+      <c r="B409" s="3">
+        <v>5303</v>
+      </c>
+      <c r="C409" s="4">
+        <v>101</v>
+      </c>
+      <c r="D409" s="5">
+        <v>72000</v>
+      </c>
+      <c r="E409" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231F03C-CB13-4B6C-9664-D07ECA22DD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100F8D6-2312-4E8A-BD3A-93D833C7CAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="3840" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16005" yWindow="5160" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H356" sqref="H356"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>5013</v>
       </c>
       <c r="C12" s="4">
-        <v>100050</v>
+        <v>100060</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -771,7 +771,7 @@
         <v>5003</v>
       </c>
       <c r="C15" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -964,104 +964,108 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>510031</v>
+        <v>510040</v>
       </c>
       <c r="B30" s="3">
-        <v>5023</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>510040</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="2">
+        <v>511000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5102</v>
+      </c>
+      <c r="C32" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>511000</v>
+        <v>511001</v>
       </c>
       <c r="B33" s="3">
-        <v>5102</v>
+        <v>5301</v>
       </c>
       <c r="C33" s="4">
-        <v>60001</v>
+        <v>200</v>
       </c>
       <c r="D33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>511001</v>
+        <v>511002</v>
       </c>
       <c r="B34" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C34" s="4">
-        <v>200</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>511002</v>
+        <v>511003</v>
       </c>
       <c r="B35" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C35" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>511003</v>
+        <v>511004</v>
       </c>
       <c r="B36" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C36" s="4">
-        <v>201</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>511004</v>
+        <v>511005</v>
       </c>
       <c r="B37" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C37" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>701</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1348,13 +1352,13 @@
     </row>
     <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>513004</v>
+        <v>513006</v>
       </c>
       <c r="B59" s="3">
         <v>5300</v>
       </c>
       <c r="C59" s="4">
-        <v>60010</v>
+        <v>60011</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
@@ -1490,129 +1494,129 @@
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>514010</v>
+        <v>514003</v>
       </c>
       <c r="B69" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C69" s="4">
-        <v>60004</v>
+        <v>600</v>
       </c>
       <c r="D69" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="8"/>
       <c r="F69"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>514020</v>
+        <v>514004</v>
       </c>
       <c r="B70" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C70" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D70" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
       <c r="F70"/>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>514030</v>
+        <v>514010</v>
       </c>
       <c r="B71" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C71" s="4">
         <v>60004</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <v>-2</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="2">
+        <v>514020</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C72" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D72" s="5">
+        <v>61000</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>515000</v>
+        <v>514030</v>
       </c>
       <c r="B73" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C73" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="2"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>515001</v>
-      </c>
-      <c r="B74" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C74" s="4">
-        <v>201</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-      <c r="E74" s="8"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>515002</v>
+        <v>515000</v>
       </c>
       <c r="B75" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C75" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
+        <v>60005</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>515003</v>
+        <v>515001</v>
       </c>
       <c r="B76" s="3">
         <v>5301</v>
       </c>
       <c r="C76" s="4">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>515004</v>
+        <v>515002</v>
       </c>
       <c r="B77" s="3">
         <v>5300</v>
       </c>
       <c r="C77" s="4">
-        <v>60008</v>
+        <v>60001</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="8"/>
@@ -1620,129 +1624,129 @@
     </row>
     <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>515010</v>
+        <v>515003</v>
       </c>
       <c r="B78" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C78" s="4">
-        <v>60005</v>
+        <v>301</v>
       </c>
       <c r="D78" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="8"/>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>515020</v>
+        <v>515004</v>
       </c>
       <c r="B79" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C79" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D79" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>60008</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>515030</v>
+        <v>515010</v>
       </c>
       <c r="B80" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C80" s="4">
         <v>60005</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5">
+        <v>-2</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
+      <c r="A81" s="2">
+        <v>515020</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C81" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D81" s="5">
+        <v>61000</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>516000</v>
+        <v>515030</v>
       </c>
       <c r="B82" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C82" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="2"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>516001</v>
-      </c>
-      <c r="B83" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C83" s="4">
-        <v>200</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1</v>
-      </c>
-      <c r="E83" s="8"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="2"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>516002</v>
+        <v>516000</v>
       </c>
       <c r="B84" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C84" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="8"/>
+        <v>60006</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>516003</v>
+        <v>516001</v>
       </c>
       <c r="B85" s="3">
         <v>5301</v>
       </c>
       <c r="C85" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>516004</v>
+        <v>516002</v>
       </c>
       <c r="B86" s="3">
         <v>5300</v>
       </c>
       <c r="C86" s="4">
-        <v>60007</v>
+        <v>60001</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8"/>
@@ -1750,113 +1754,113 @@
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>516010</v>
+        <v>516003</v>
       </c>
       <c r="B87" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C87" s="4">
-        <v>60006</v>
+        <v>300</v>
       </c>
       <c r="D87" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="8"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>516020</v>
+        <v>516004</v>
       </c>
       <c r="B88" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C88" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D88" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>60007</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="8"/>
       <c r="F88"/>
     </row>
     <row r="89" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>516030</v>
+        <v>516010</v>
       </c>
       <c r="B89" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C89" s="4">
         <v>60006</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5">
+        <v>-2</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5"/>
+      <c r="A90" s="2">
+        <v>516020</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C90" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D90" s="5">
+        <v>61000</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>517000</v>
+        <v>516030</v>
       </c>
       <c r="B91" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C91" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D91" s="5"/>
       <c r="E91" s="2"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>517001</v>
-      </c>
-      <c r="B92" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C92" s="4">
-        <v>300</v>
-      </c>
-      <c r="D92" s="5">
-        <v>1</v>
-      </c>
-      <c r="E92" s="8"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="2"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>517002</v>
+        <v>517000</v>
       </c>
       <c r="B93" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C93" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="8"/>
+        <v>60007</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>517003</v>
+        <v>517001</v>
       </c>
       <c r="B94" s="3">
         <v>5301</v>
       </c>
       <c r="C94" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -1866,13 +1870,13 @@
     </row>
     <row r="95" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>517004</v>
+        <v>517002</v>
       </c>
       <c r="B95" s="3">
         <v>5300</v>
       </c>
       <c r="C95" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8"/>
@@ -1880,29 +1884,29 @@
     </row>
     <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>517005</v>
+        <v>517003</v>
       </c>
       <c r="B96" s="3">
         <v>5301</v>
       </c>
       <c r="C96" s="4">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>517006</v>
+        <v>517004</v>
       </c>
       <c r="B97" s="3">
         <v>5300</v>
       </c>
       <c r="C97" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8"/>
@@ -1910,13 +1914,13 @@
     </row>
     <row r="98" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>517007</v>
+        <v>517005</v>
       </c>
       <c r="B98" s="3">
         <v>5301</v>
       </c>
       <c r="C98" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -1926,129 +1930,129 @@
     </row>
     <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>517010</v>
+        <v>517006</v>
       </c>
       <c r="B99" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C99" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D99" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>60009</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="8"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>517020</v>
+        <v>517007</v>
       </c>
       <c r="B100" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C100" s="4">
-        <v>60007</v>
+        <v>403</v>
       </c>
       <c r="D100" s="5">
-        <v>61000</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="8"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>517030</v>
+        <v>517010</v>
       </c>
       <c r="B101" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C101" s="4">
         <v>60007</v>
       </c>
-      <c r="D101" s="5"/>
+      <c r="D101" s="5">
+        <v>-2</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
+      <c r="A102" s="2">
+        <v>517020</v>
+      </c>
+      <c r="B102" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C102" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D102" s="5">
+        <v>61000</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>518000</v>
+        <v>517030</v>
       </c>
       <c r="B103" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C103" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="2"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>518001</v>
-      </c>
-      <c r="B104" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C104" s="4">
-        <v>301</v>
-      </c>
-      <c r="D104" s="5">
-        <v>1</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="2"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>518002</v>
+        <v>518000</v>
       </c>
       <c r="B105" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C105" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D105" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>518003</v>
+        <v>518001</v>
       </c>
       <c r="B106" s="3">
         <v>5301</v>
       </c>
       <c r="C106" s="4">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>518004</v>
+        <v>518002</v>
       </c>
       <c r="B107" s="3">
         <v>5300</v>
       </c>
       <c r="C107" s="4">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="2"/>
@@ -2056,13 +2060,13 @@
     </row>
     <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>518005</v>
+        <v>518003</v>
       </c>
       <c r="B108" s="3">
         <v>5301</v>
       </c>
       <c r="C108" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -2072,13 +2076,13 @@
     </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>518006</v>
+        <v>518004</v>
       </c>
       <c r="B109" s="3">
         <v>5300</v>
       </c>
       <c r="C109" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
@@ -2086,113 +2090,113 @@
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>518010</v>
+        <v>518005</v>
       </c>
       <c r="B110" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C110" s="4">
-        <v>60008</v>
+        <v>401</v>
       </c>
       <c r="D110" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>518020</v>
+        <v>518006</v>
       </c>
       <c r="B111" s="3">
-        <v>5123</v>
+        <v>5300</v>
       </c>
       <c r="C111" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D111" s="5">
-        <v>61000</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>518030</v>
+        <v>518010</v>
       </c>
       <c r="B112" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C112" s="4">
         <v>60008</v>
       </c>
-      <c r="D112" s="5"/>
+      <c r="D112" s="5">
+        <v>-2</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5"/>
+      <c r="A113" s="2">
+        <v>518020</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C113" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D113" s="5">
+        <v>61000</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>519000</v>
+        <v>518030</v>
       </c>
       <c r="B114" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C114" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D114" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="2"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>519001</v>
-      </c>
-      <c r="B115" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C115" s="4">
-        <v>401</v>
-      </c>
-      <c r="D115" s="5">
-        <v>1</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="2"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>519002</v>
+        <v>519000</v>
       </c>
       <c r="B116" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C116" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D116" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>519003</v>
+        <v>519001</v>
       </c>
       <c r="B117" s="3">
         <v>5301</v>
       </c>
       <c r="C117" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D117" s="5">
         <v>1</v>
@@ -2202,13 +2206,13 @@
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>519004</v>
+        <v>519002</v>
       </c>
       <c r="B118" s="3">
         <v>5300</v>
       </c>
       <c r="C118" s="4">
-        <v>60007</v>
+        <v>60008</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="2"/>
@@ -2216,129 +2220,129 @@
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>519005</v>
+        <v>519003</v>
       </c>
       <c r="B119" s="3">
         <v>5301</v>
       </c>
       <c r="C119" s="4">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D119" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>519010</v>
+        <v>519004</v>
       </c>
       <c r="B120" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C120" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D120" s="5">
-        <v>-2</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="2"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>519020</v>
+        <v>519005</v>
       </c>
       <c r="B121" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C121" s="4">
-        <v>60009</v>
+        <v>404</v>
       </c>
       <c r="D121" s="5">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>519030</v>
+        <v>519010</v>
       </c>
       <c r="B122" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C122" s="4">
         <v>60009</v>
       </c>
-      <c r="D122" s="5"/>
+      <c r="D122" s="5">
+        <v>-2</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="5"/>
+      <c r="A123" s="2">
+        <v>519020</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C123" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D123" s="5">
+        <v>61000</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>520000</v>
+        <v>519030</v>
       </c>
       <c r="B124" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C124" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D124" s="5">
-        <v>1</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="2"/>
       <c r="F124"/>
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>520001</v>
-      </c>
-      <c r="B125" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C125" s="4">
-        <v>502</v>
-      </c>
-      <c r="D125" s="5">
-        <v>1</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="2"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>520002</v>
+        <v>520000</v>
       </c>
       <c r="B126" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C126" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D126" s="5"/>
+        <v>60010</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>520003</v>
+        <v>520001</v>
       </c>
       <c r="B127" s="3">
         <v>5301</v>
       </c>
       <c r="C127" s="4">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
@@ -2348,13 +2352,13 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>520004</v>
+        <v>520002</v>
       </c>
       <c r="B128" s="3">
         <v>5300</v>
       </c>
       <c r="C128" s="4">
-        <v>60011</v>
+        <v>60002</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="2"/>
@@ -2362,129 +2366,129 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>520005</v>
+        <v>520003</v>
       </c>
       <c r="B129" s="3">
         <v>5301</v>
       </c>
       <c r="C129" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D129" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>520010</v>
+        <v>520004</v>
       </c>
       <c r="B130" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C130" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D130" s="5">
-        <v>-2</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="2"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>520020</v>
+        <v>520005</v>
       </c>
       <c r="B131" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C131" s="4">
-        <v>60010</v>
+        <v>500</v>
       </c>
       <c r="D131" s="5">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>520030</v>
+        <v>520010</v>
       </c>
       <c r="B132" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C132" s="4">
         <v>60010</v>
       </c>
-      <c r="D132" s="5"/>
+      <c r="D132" s="5">
+        <v>-2</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
+      <c r="A133" s="2">
+        <v>520020</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C133" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D133" s="5">
+        <v>61000</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>521000</v>
+        <v>520030</v>
       </c>
       <c r="B134" s="3">
-        <v>5102</v>
+        <v>5117</v>
       </c>
       <c r="C134" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="E134" s="2"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>521001</v>
-      </c>
-      <c r="B135" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C135" s="4">
-        <v>501</v>
-      </c>
-      <c r="D135" s="5">
-        <v>0</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="2"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>521002</v>
+        <v>521000</v>
       </c>
       <c r="B136" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C136" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D136" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>521003</v>
+        <v>521001</v>
       </c>
       <c r="B137" s="3">
         <v>5301</v>
       </c>
       <c r="C137" s="4">
-        <v>700</v>
+        <v>501</v>
       </c>
       <c r="D137" s="5">
         <v>0</v>
@@ -2494,62 +2498,76 @@
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>521010</v>
+        <v>521002</v>
       </c>
       <c r="B138" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C138" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D138" s="5">
-        <v>-2</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D138" s="5"/>
       <c r="E138" s="2"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>521020</v>
+        <v>521003</v>
       </c>
       <c r="B139" s="3">
-        <v>5123</v>
+        <v>5301</v>
       </c>
       <c r="C139" s="4">
-        <v>60011</v>
+        <v>700</v>
       </c>
       <c r="D139" s="5">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>521030</v>
+        <v>521010</v>
       </c>
       <c r="B140" s="3">
-        <v>5117</v>
+        <v>5107</v>
       </c>
       <c r="C140" s="4">
         <v>60011</v>
       </c>
-      <c r="D140" s="5"/>
+      <c r="D140" s="5">
+        <v>-2</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="5"/>
+      <c r="A141" s="2">
+        <v>521020</v>
+      </c>
+      <c r="B141" s="3">
+        <v>5123</v>
+      </c>
+      <c r="C141" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D141" s="5">
+        <v>61000</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141"/>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="2">
+        <v>521030</v>
+      </c>
+      <c r="B142" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C142" s="4">
+        <v>60011</v>
+      </c>
       <c r="D142" s="5"/>
       <c r="E142" s="2"/>
       <c r="F142"/>
@@ -2775,46 +2793,72 @@
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>509000</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
+        <v>510100</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C162" s="4">
+        <v>15</v>
+      </c>
       <c r="D162" s="5"/>
       <c r="E162" s="2"/>
-      <c r="F162"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>509010</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
+        <v>510101</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C163" s="4">
+        <v>-10</v>
+      </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
-      <c r="F163"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>509020</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="4"/>
+        <v>510102</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C164" s="4">
+        <v>-5</v>
+      </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>509030</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="4"/>
+        <v>510103</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C165" s="4">
+        <v>10</v>
+      </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>510104</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C166" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="2"/>
+    </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510100</v>
+        <v>510110</v>
       </c>
       <c r="B167" s="3">
         <v>5000</v>
@@ -2827,342 +2871,344 @@
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510101</v>
+        <v>510120</v>
       </c>
       <c r="B168" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C168" s="4">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510102</v>
+        <v>510130</v>
       </c>
       <c r="B169" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C169" s="4">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510103</v>
+        <v>510140</v>
       </c>
       <c r="B170" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C170" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510104</v>
+        <v>510150</v>
       </c>
       <c r="B171" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C171" s="4">
-        <v>-30</v>
+        <v>15</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>510110</v>
-      </c>
-      <c r="B172" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C172" s="4">
-        <v>15</v>
-      </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510120</v>
+        <v>511060</v>
       </c>
       <c r="B173" s="3">
-        <v>5000</v>
+        <v>5009</v>
       </c>
       <c r="C173" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>510130</v>
+        <v>511061</v>
       </c>
       <c r="B174" s="3">
-        <v>5000</v>
+        <v>5119</v>
       </c>
       <c r="C174" s="4">
-        <v>15</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>60001</v>
+      </c>
+      <c r="D174" s="5">
+        <v>61002</v>
+      </c>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>510140</v>
-      </c>
-      <c r="B175" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C175" s="4">
-        <v>15</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>510150</v>
+        <v>512100</v>
       </c>
       <c r="B176" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C176" s="4">
-        <v>15</v>
+        <v>112100</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="A177" s="2">
+        <v>512110</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C177" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>511060</v>
+        <v>512111</v>
       </c>
       <c r="B178" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C178" s="4">
-        <v>1</v>
+        <v>-50</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>511061</v>
+        <v>512120</v>
       </c>
       <c r="B179" s="3">
-        <v>5119</v>
+        <v>5013</v>
       </c>
       <c r="C179" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D179" s="5">
-        <v>61002</v>
-      </c>
+        <v>112120</v>
+      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
+      <c r="A180" s="2">
+        <v>512130</v>
+      </c>
+      <c r="B180" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C180" s="4">
+        <v>112130</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512100</v>
+        <v>512140</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112100</v>
+        <v>112140</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>512110</v>
-      </c>
-      <c r="B182" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C182" s="4">
-        <v>112110</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="2"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>512111</v>
+        <v>513100</v>
       </c>
       <c r="B183" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C183" s="4">
-        <v>-50</v>
+        <v>113100</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>512120</v>
+        <v>513110</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>112120</v>
+        <v>113110</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>512130</v>
+        <v>513120</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>112130</v>
+        <v>113120</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>512140</v>
+        <v>513121</v>
       </c>
       <c r="B186" s="3">
         <v>5013</v>
       </c>
       <c r="C186" s="4">
-        <v>112140</v>
+        <v>113121</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
+      <c r="A187" s="2">
+        <v>513130</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C187" s="4">
+        <v>113130</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513100</v>
+        <v>513140</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113100</v>
+        <v>113140</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513110</v>
+        <v>513150</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113110</v>
+        <v>113150</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513120</v>
+        <v>513160</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113120</v>
+        <v>113160</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513121</v>
+        <v>513161</v>
       </c>
       <c r="B191" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C191" s="4">
-        <v>113121</v>
-      </c>
-      <c r="D191" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D191" s="5">
+        <v>-5</v>
+      </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513130</v>
+        <v>513200</v>
       </c>
       <c r="B192" s="3">
         <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>113130</v>
+        <v>113200</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513140</v>
+        <v>513210</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113140</v>
+        <v>113210</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513150</v>
+        <v>513220</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113150</v>
+        <v>113220</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513160</v>
+        <v>513230</v>
       </c>
       <c r="B195" s="3">
         <v>5013</v>
@@ -3175,7 +3221,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513161</v>
+        <v>513231</v>
       </c>
       <c r="B196" s="3">
         <v>5107</v>
@@ -3189,108 +3235,106 @@
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>513200</v>
-      </c>
-      <c r="B197" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C197" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="2"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>513210</v>
+        <v>515100</v>
       </c>
       <c r="B198" s="3">
         <v>5013</v>
       </c>
       <c r="C198" s="4">
-        <v>113210</v>
+        <v>115100</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>513220</v>
+        <v>515101</v>
       </c>
       <c r="B199" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C199" s="4">
-        <v>113220</v>
+        <v>10</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>513230</v>
+        <v>515102</v>
       </c>
       <c r="B200" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C200" s="4">
-        <v>113160</v>
+        <v>-2</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>513231</v>
+        <v>515103</v>
       </c>
       <c r="B201" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C201" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D201" s="5">
-        <v>-5</v>
-      </c>
+        <v>115101</v>
+      </c>
+      <c r="D201" s="5"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
+      <c r="A202" s="2">
+        <v>515104</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C202" s="4">
+        <v>115102</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515100</v>
+        <v>515110</v>
       </c>
       <c r="B203" s="3">
         <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>115100</v>
+        <v>115110</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515101</v>
+        <v>515111</v>
       </c>
       <c r="B204" s="3">
         <v>5000</v>
       </c>
       <c r="C204" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515102</v>
+        <v>515112</v>
       </c>
       <c r="B205" s="3">
         <v>5006</v>
@@ -3303,442 +3347,438 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515103</v>
+        <v>515113</v>
       </c>
       <c r="B206" s="3">
         <v>5013</v>
       </c>
       <c r="C206" s="4">
-        <v>115101</v>
+        <v>115111</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515104</v>
+        <v>515114</v>
       </c>
       <c r="B207" s="3">
         <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>115102</v>
+        <v>115112</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515110</v>
+        <v>515120</v>
       </c>
       <c r="B208" s="3">
         <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>115110</v>
+        <v>115120</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515111</v>
+        <v>515121</v>
       </c>
       <c r="B209" s="3">
         <v>5000</v>
       </c>
       <c r="C209" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515112</v>
+        <v>515122</v>
       </c>
       <c r="B210" s="3">
         <v>5006</v>
       </c>
       <c r="C210" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515113</v>
+        <v>515130</v>
       </c>
       <c r="B211" s="3">
         <v>5013</v>
       </c>
       <c r="C211" s="4">
-        <v>115111</v>
+        <v>115120</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515114</v>
+        <v>515131</v>
       </c>
       <c r="B212" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C212" s="4">
-        <v>115112</v>
+        <v>10</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515120</v>
+        <v>515132</v>
       </c>
       <c r="B213" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C213" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515121</v>
+        <v>515140</v>
       </c>
       <c r="B214" s="3">
         <v>5000</v>
       </c>
       <c r="C214" s="4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515122</v>
+        <v>515150</v>
       </c>
       <c r="B215" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C215" s="4">
-        <v>-1</v>
+        <v>115150</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515130</v>
+        <v>515160</v>
       </c>
       <c r="B216" s="3">
         <v>5013</v>
       </c>
       <c r="C216" s="4">
-        <v>115120</v>
+        <v>115160</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515131</v>
+        <v>515170</v>
       </c>
       <c r="B217" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C217" s="4">
-        <v>10</v>
+        <v>115170</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515132</v>
+        <v>515171</v>
       </c>
       <c r="B218" s="3">
-        <v>5006</v>
+        <v>5107</v>
       </c>
       <c r="C218" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D218" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D218" s="5">
+        <v>-3</v>
+      </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515140</v>
+        <v>515180</v>
       </c>
       <c r="B219" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C219" s="4">
-        <v>100</v>
+        <v>115180</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515150</v>
+        <v>515181</v>
       </c>
       <c r="B220" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C220" s="4">
-        <v>115150</v>
+        <v>15</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>515160</v>
-      </c>
-      <c r="B221" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C221" s="4">
-        <v>115160</v>
-      </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="2"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>515170</v>
+        <v>516100</v>
       </c>
       <c r="B222" s="3">
         <v>5013</v>
       </c>
       <c r="C222" s="4">
-        <v>115170</v>
+        <v>116100</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>515171</v>
+        <v>516101</v>
       </c>
       <c r="B223" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C223" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D223" s="5">
-        <v>-3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>515180</v>
+        <v>516102</v>
       </c>
       <c r="B224" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C224" s="4">
-        <v>115180</v>
+        <v>-2</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>515181</v>
+        <v>516103</v>
       </c>
       <c r="B225" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C225" s="4">
-        <v>15</v>
+        <v>116101</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
+      <c r="A226" s="2">
+        <v>516104</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C226" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516100</v>
+        <v>516105</v>
       </c>
       <c r="B227" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C227" s="4">
-        <v>116100</v>
+        <v>5</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516101</v>
+        <v>516110</v>
       </c>
       <c r="B228" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C228" s="4">
-        <v>15</v>
+        <v>116110</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516102</v>
+        <v>516120</v>
       </c>
       <c r="B229" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C229" s="4">
-        <v>-2</v>
+        <v>116120</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516103</v>
+        <v>516121</v>
       </c>
       <c r="B230" s="3">
         <v>5013</v>
       </c>
       <c r="C230" s="4">
-        <v>116101</v>
+        <v>116120</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516104</v>
+        <v>516122</v>
       </c>
       <c r="B231" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C231" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D231" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D231" s="5">
+        <v>-4</v>
+      </c>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516105</v>
+        <v>516130</v>
       </c>
       <c r="B232" s="3">
-        <v>5006</v>
+        <v>5107</v>
       </c>
       <c r="C232" s="4">
-        <v>5</v>
-      </c>
-      <c r="D232" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D232" s="5">
+        <v>-3</v>
+      </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516110</v>
+        <v>516131</v>
       </c>
       <c r="B233" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C233" s="4">
-        <v>116110</v>
+        <v>10</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516120</v>
+        <v>516132</v>
       </c>
       <c r="B234" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C234" s="4">
-        <v>116120</v>
-      </c>
-      <c r="D234" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D234" s="5">
+        <v>-3</v>
+      </c>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>516121</v>
-      </c>
-      <c r="B235" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C235" s="4">
-        <v>116120</v>
-      </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="2"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>516122</v>
+        <v>517100</v>
       </c>
       <c r="B236" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C236" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D236" s="5">
-        <v>-4</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D236" s="5"/>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>516130</v>
+        <v>517110</v>
       </c>
       <c r="B237" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C237" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D237" s="5">
-        <v>-3</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>516131</v>
+        <v>517120</v>
       </c>
       <c r="B238" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C238" s="4">
-        <v>10</v>
+        <v>117120</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>516132</v>
+        <v>517121</v>
       </c>
       <c r="B239" s="3">
         <v>5107</v>
       </c>
       <c r="C239" s="4">
-        <v>60006</v>
+        <v>60007</v>
       </c>
       <c r="D239" s="5">
         <v>-3</v>
@@ -3746,358 +3786,358 @@
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
+      <c r="A240" s="2">
+        <v>517122</v>
+      </c>
+      <c r="B240" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C240" s="4">
+        <v>10</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517100</v>
+        <v>517130</v>
       </c>
       <c r="B241" s="3">
         <v>5013</v>
       </c>
       <c r="C241" s="4">
-        <v>117100</v>
+        <v>117130</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517110</v>
+        <v>517131</v>
       </c>
       <c r="B242" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C242" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D242" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D242" s="5">
+        <v>1</v>
+      </c>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517120</v>
+        <v>517132</v>
       </c>
       <c r="B243" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C243" s="4">
-        <v>117120</v>
+        <v>60011</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517121</v>
+        <v>517140</v>
       </c>
       <c r="B244" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C244" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D244" s="5">
-        <v>-3</v>
-      </c>
+        <v>117140</v>
+      </c>
+      <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517122</v>
+        <v>517141</v>
       </c>
       <c r="B245" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C245" s="4">
-        <v>10</v>
+        <v>117141</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517130</v>
+        <v>517150</v>
       </c>
       <c r="B246" s="3">
         <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>117130</v>
+        <v>117150</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517131</v>
+        <v>517151</v>
       </c>
       <c r="B247" s="3">
-        <v>5301</v>
+        <v>5003</v>
       </c>
       <c r="C247" s="4">
-        <v>700</v>
-      </c>
-      <c r="D247" s="5">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517132</v>
+        <v>517152</v>
       </c>
       <c r="B248" s="3">
-        <v>5300</v>
+        <v>5107</v>
       </c>
       <c r="C248" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D248" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D248" s="5">
+        <v>-3</v>
+      </c>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517140</v>
+        <v>517153</v>
       </c>
       <c r="B249" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C249" s="4">
-        <v>117140</v>
-      </c>
-      <c r="D249" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D249" s="5">
+        <v>-3</v>
+      </c>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517141</v>
+        <v>517154</v>
       </c>
       <c r="B250" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C250" s="4">
-        <v>117141</v>
-      </c>
-      <c r="D250" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D250" s="5">
+        <v>-3</v>
+      </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>517150</v>
-      </c>
-      <c r="B251" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C251" s="4">
-        <v>117150</v>
-      </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="2"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>517151</v>
+        <v>518100</v>
       </c>
       <c r="B252" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C252" s="4">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C252" s="4"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>517152</v>
+        <v>518110</v>
       </c>
       <c r="B253" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C253" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D253" s="5">
-        <v>-3</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D253" s="5"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>517153</v>
+        <v>518111</v>
       </c>
       <c r="B254" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C254" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D254" s="5">
-        <v>-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="5"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>517154</v>
+        <v>518112</v>
       </c>
       <c r="B255" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C255" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D255" s="5">
-        <v>-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="5"/>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="6"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
+      <c r="A256" s="2">
+        <v>518113</v>
+      </c>
+      <c r="B256" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C256" s="4">
+        <v>118114</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518100</v>
+        <v>518114</v>
       </c>
       <c r="B257" s="3">
-        <v>0</v>
-      </c>
-      <c r="C257" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C257" s="4">
+        <v>118115</v>
+      </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518110</v>
+        <v>518115</v>
       </c>
       <c r="B258" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C258" s="4">
-        <v>-20</v>
+        <v>118116</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518111</v>
+        <v>518116</v>
       </c>
       <c r="B259" s="3">
-        <v>0</v>
-      </c>
-      <c r="C259" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C259" s="4">
+        <v>5</v>
+      </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518112</v>
+        <v>518117</v>
       </c>
       <c r="B260" s="3">
-        <v>0</v>
-      </c>
-      <c r="C260" s="4"/>
+        <v>5209</v>
+      </c>
+      <c r="C260" s="4">
+        <v>70201</v>
+      </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>518113</v>
-      </c>
-      <c r="B261" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C261" s="4">
-        <v>118114</v>
-      </c>
-      <c r="D261" s="5"/>
-      <c r="E261" s="2"/>
+      <c r="A261" s="6"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>518114</v>
+        <v>519100</v>
       </c>
       <c r="B262" s="3">
         <v>5013</v>
       </c>
       <c r="C262" s="4">
-        <v>118115</v>
+        <v>119100</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>518115</v>
+        <v>519101</v>
       </c>
       <c r="B263" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C263" s="4">
-        <v>118116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C263" s="4"/>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>518116</v>
+        <v>519102</v>
       </c>
       <c r="B264" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C264" s="4">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>518117</v>
+        <v>519110</v>
       </c>
       <c r="B265" s="3">
-        <v>5209</v>
+        <v>5013</v>
       </c>
       <c r="C265" s="4">
-        <v>70201</v>
+        <v>191100</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="6"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
+      <c r="A266" s="2">
+        <v>519111</v>
+      </c>
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519100</v>
+        <v>519112</v>
       </c>
       <c r="B267" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C267" s="4">
-        <v>119100</v>
+        <v>-2</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519101</v>
+        <v>519120</v>
       </c>
       <c r="B268" s="3">
         <v>0</v>
@@ -4108,96 +4148,100 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519102</v>
+        <v>519121</v>
       </c>
       <c r="B269" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C269" s="4">
-        <v>-2</v>
+        <v>119121</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519110</v>
+        <v>519122</v>
       </c>
       <c r="B270" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C270" s="4">
-        <v>191100</v>
-      </c>
-      <c r="D270" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D270" s="5">
+        <v>-3</v>
+      </c>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519111</v>
+        <v>519123</v>
       </c>
       <c r="B271" s="3">
-        <v>0</v>
-      </c>
-      <c r="C271" s="4"/>
+        <v>5003</v>
+      </c>
+      <c r="C271" s="4">
+        <v>10</v>
+      </c>
       <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519112</v>
+        <v>519130</v>
       </c>
       <c r="B272" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C272" s="4">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519120</v>
+        <v>519131</v>
       </c>
       <c r="B273" s="3">
-        <v>0</v>
-      </c>
-      <c r="C273" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C273" s="4">
+        <v>119130</v>
+      </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519121</v>
+        <v>519140</v>
       </c>
       <c r="B274" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C274" s="4">
-        <v>119121</v>
+        <v>10</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519122</v>
+        <v>519141</v>
       </c>
       <c r="B275" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C275" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D275" s="5">
-        <v>-3</v>
-      </c>
+        <v>119140</v>
+      </c>
+      <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519123</v>
+        <v>519150</v>
       </c>
       <c r="B276" s="3">
         <v>5003</v>
@@ -4210,632 +4254,632 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519130</v>
+        <v>519151</v>
       </c>
       <c r="B277" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C277" s="4">
-        <v>10</v>
+        <v>119150</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>519131</v>
-      </c>
-      <c r="B278" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C278" s="4">
-        <v>119130</v>
-      </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="2"/>
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>519140</v>
+        <v>520100</v>
       </c>
       <c r="B279" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C279" s="4">
-        <v>10</v>
+        <v>120100</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>519141</v>
+        <v>520110</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>119140</v>
+        <v>120110</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>519150</v>
+        <v>520120</v>
       </c>
       <c r="B281" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>10</v>
+        <v>120120</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>519151</v>
+        <v>520121</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>119150</v>
+        <v>120121</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
+      <c r="A283" s="2">
+        <v>520122</v>
+      </c>
+      <c r="B283" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C283" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520100</v>
+        <v>520123</v>
       </c>
       <c r="B284" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C284" s="4">
-        <v>120100</v>
+        <v>10</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520110</v>
+        <v>520124</v>
       </c>
       <c r="B285" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C285" s="4">
-        <v>120110</v>
+        <v>10</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520120</v>
+        <v>520130</v>
       </c>
       <c r="B286" s="3">
         <v>5013</v>
       </c>
       <c r="C286" s="4">
-        <v>120120</v>
+        <v>120130</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520121</v>
+        <v>520140</v>
       </c>
       <c r="B287" s="3">
         <v>5013</v>
       </c>
       <c r="C287" s="4">
-        <v>120121</v>
+        <v>120140</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520122</v>
+        <v>520150</v>
       </c>
       <c r="B288" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>-3</v>
+        <v>120150</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520123</v>
+        <v>520160</v>
       </c>
       <c r="B289" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>10</v>
+        <v>120160</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520124</v>
+        <v>520161</v>
       </c>
       <c r="B290" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C290" s="4">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520130</v>
+        <v>520162</v>
       </c>
       <c r="B291" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C291" s="4">
-        <v>120130</v>
+        <v>-10</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>520140</v>
-      </c>
-      <c r="B292" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C292" s="4">
-        <v>120140</v>
-      </c>
-      <c r="D292" s="5"/>
-      <c r="E292" s="2"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>520150</v>
+        <v>521100</v>
       </c>
       <c r="B293" s="3">
         <v>5013</v>
       </c>
       <c r="C293" s="4">
-        <v>120150</v>
+        <v>121100</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>520160</v>
+        <v>521110</v>
       </c>
       <c r="B294" s="3">
         <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>120160</v>
+        <v>121110</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>520161</v>
+        <v>521111</v>
       </c>
       <c r="B295" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C295" s="4">
-        <v>-30</v>
+        <v>121111</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>520162</v>
+        <v>521112</v>
       </c>
       <c r="B296" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C296" s="4">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
+      <c r="A297" s="2">
+        <v>521113</v>
+      </c>
+      <c r="B297" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C297" s="4">
+        <v>121112</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521100</v>
+        <v>521114</v>
       </c>
       <c r="B298" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C298" s="4">
-        <v>121100</v>
+        <v>10</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521110</v>
+        <v>521120</v>
       </c>
       <c r="B299" s="3">
         <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>121110</v>
+        <v>121120</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521111</v>
+        <v>521121</v>
       </c>
       <c r="B300" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C300" s="4">
-        <v>121111</v>
-      </c>
-      <c r="D300" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D300" s="5">
+        <v>-3</v>
+      </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521112</v>
+        <v>521122</v>
       </c>
       <c r="B301" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C301" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521113</v>
+        <v>521123</v>
       </c>
       <c r="B302" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C302" s="4">
-        <v>121112</v>
+        <v>-30</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521114</v>
+        <v>521124</v>
       </c>
       <c r="B303" s="3">
-        <v>5000</v>
+        <v>5107</v>
       </c>
       <c r="C303" s="4">
-        <v>10</v>
-      </c>
-      <c r="D303" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D303" s="5">
+        <v>-10</v>
+      </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521120</v>
+        <v>521130</v>
       </c>
       <c r="B304" s="3">
         <v>5013</v>
       </c>
       <c r="C304" s="4">
-        <v>121120</v>
+        <v>121130</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521121</v>
+        <v>521140</v>
       </c>
       <c r="B305" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C305" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D305" s="5">
-        <v>-3</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521122</v>
+        <v>521141</v>
       </c>
       <c r="B306" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C306" s="4">
-        <v>10</v>
-      </c>
-      <c r="D306" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D306" s="5">
+        <v>-3</v>
+      </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521123</v>
+        <v>521150</v>
       </c>
       <c r="B307" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>-30</v>
+        <v>121150</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521124</v>
+        <v>521151</v>
       </c>
       <c r="B308" s="3">
-        <v>5107</v>
+        <v>5006</v>
       </c>
       <c r="C308" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D308" s="5">
-        <v>-10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521130</v>
+        <v>521152</v>
       </c>
       <c r="B309" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C309" s="4">
-        <v>121130</v>
+        <v>10</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521140</v>
+        <v>521160</v>
       </c>
       <c r="B310" s="3">
         <v>5013</v>
       </c>
       <c r="C310" s="4">
-        <v>121140</v>
+        <v>121160</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521141</v>
+        <v>521170</v>
       </c>
       <c r="B311" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D311" s="5">
-        <v>-3</v>
-      </c>
+        <v>121170</v>
+      </c>
+      <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521150</v>
+        <v>521180</v>
       </c>
       <c r="B312" s="3">
         <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>121150</v>
+        <v>121180</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521151</v>
+        <v>521181</v>
       </c>
       <c r="B313" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C313" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="2">
-        <v>521152</v>
-      </c>
-      <c r="B314" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C314" s="4">
-        <v>10</v>
-      </c>
-      <c r="D314" s="5"/>
-      <c r="E314" s="2"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>521160</v>
+        <v>530000</v>
       </c>
       <c r="B315" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C315" s="4">
-        <v>121160</v>
+        <v>5</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>521170</v>
+        <v>530001</v>
       </c>
       <c r="B316" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C316" s="4">
-        <v>121170</v>
+        <v>-30</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>521180</v>
+        <v>530002</v>
       </c>
       <c r="B317" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C317" s="4">
-        <v>121180</v>
+        <v>-10</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>521181</v>
+        <v>530003</v>
       </c>
       <c r="B318" s="3">
         <v>5003</v>
       </c>
       <c r="C318" s="4">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
+      <c r="A319" s="2">
+        <v>530010</v>
+      </c>
+      <c r="B319" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C319" s="4">
+        <v>130010</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530000</v>
+        <v>530011</v>
       </c>
       <c r="B320" s="3">
-        <v>5006</v>
+        <v>5009</v>
       </c>
       <c r="C320" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530001</v>
+        <v>530012</v>
       </c>
       <c r="B321" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C321" s="4">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530002</v>
+        <v>530020</v>
       </c>
       <c r="B322" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C322" s="4">
-        <v>-10</v>
+        <v>130020</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530003</v>
+        <v>530021</v>
       </c>
       <c r="B323" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C323" s="4">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530010</v>
+        <v>530022</v>
       </c>
       <c r="B324" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C324" s="4">
-        <v>130010</v>
+        <v>-40</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530011</v>
+        <v>530030</v>
       </c>
       <c r="B325" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C325" s="4">
-        <v>2</v>
+        <v>130030</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530012</v>
+        <v>530031</v>
       </c>
       <c r="B326" s="3">
         <v>5003</v>
@@ -4848,296 +4892,304 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530020</v>
+        <v>530040</v>
       </c>
       <c r="B327" s="3">
         <v>5013</v>
       </c>
       <c r="C327" s="4">
-        <v>130020</v>
+        <v>130040</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530021</v>
+        <v>530041</v>
       </c>
       <c r="B328" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C328" s="4">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530022</v>
+        <v>530050</v>
       </c>
       <c r="B329" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C329" s="4">
-        <v>-40</v>
+        <v>130050</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530030</v>
+        <v>530051</v>
       </c>
       <c r="B330" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C330" s="4">
-        <v>130030</v>
+        <v>-20</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530031</v>
+        <v>530060</v>
       </c>
       <c r="B331" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C331" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530040</v>
+        <v>530061</v>
       </c>
       <c r="B332" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C332" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530041</v>
+        <v>530070</v>
       </c>
       <c r="B333" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C333" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530050</v>
+        <v>530071</v>
       </c>
       <c r="B334" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C334" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530051</v>
+        <v>530080</v>
       </c>
       <c r="B335" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C335" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530060</v>
+        <v>530081</v>
       </c>
       <c r="B336" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C336" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530061</v>
+        <v>530090</v>
       </c>
       <c r="B337" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C337" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530070</v>
+        <v>530091</v>
       </c>
       <c r="B338" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C338" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530071</v>
+        <v>530100</v>
       </c>
       <c r="B339" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C339" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530080</v>
+        <v>530101</v>
       </c>
       <c r="B340" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C340" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530081</v>
+        <v>530110</v>
       </c>
       <c r="B341" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C341" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530090</v>
+        <v>530111</v>
       </c>
       <c r="B342" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C342" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530091</v>
+        <v>530120</v>
       </c>
       <c r="B343" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C343" s="4">
-        <v>-20</v>
+        <v>130120</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530100</v>
+        <v>530121</v>
       </c>
       <c r="B344" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C344" s="4">
-        <v>130100</v>
-      </c>
-      <c r="D344" s="5"/>
+        <v>61000</v>
+      </c>
+      <c r="D344" s="5">
+        <v>1</v>
+      </c>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530101</v>
+        <v>530122</v>
       </c>
       <c r="B345" s="3">
-        <v>5003</v>
+        <v>5203</v>
       </c>
       <c r="C345" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D345" s="5"/>
+        <v>61001</v>
+      </c>
+      <c r="D345" s="5">
+        <v>1</v>
+      </c>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530110</v>
+        <v>530123</v>
       </c>
       <c r="B346" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C346" s="4">
-        <v>130110</v>
-      </c>
-      <c r="D346" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D346" s="5">
+        <v>1</v>
+      </c>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530111</v>
+        <v>530124</v>
       </c>
       <c r="B347" s="3">
-        <v>5003</v>
+        <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D347" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D347" s="5">
+        <v>1</v>
+      </c>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530120</v>
+        <v>530130</v>
       </c>
       <c r="B348" s="3">
         <v>5013</v>
       </c>
       <c r="C348" s="4">
-        <v>130120</v>
+        <v>130130</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530121</v>
+        <v>530131</v>
       </c>
       <c r="B349" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C349" s="4">
         <v>61000</v>
@@ -5149,10 +5201,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530122</v>
+        <v>530132</v>
       </c>
       <c r="B350" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C350" s="4">
         <v>61001</v>
@@ -5164,10 +5216,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530123</v>
+        <v>530133</v>
       </c>
       <c r="B351" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C351" s="4">
         <v>61002</v>
@@ -5179,10 +5231,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530124</v>
+        <v>530134</v>
       </c>
       <c r="B352" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C352" s="4">
         <v>61003</v>
@@ -5194,23 +5246,23 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530130</v>
+        <v>530140</v>
       </c>
       <c r="B353" s="3">
         <v>5013</v>
       </c>
       <c r="C353" s="4">
-        <v>130130</v>
+        <v>130140</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530131</v>
+        <v>530141</v>
       </c>
       <c r="B354" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C354" s="4">
         <v>61000</v>
@@ -5222,10 +5274,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530132</v>
+        <v>530142</v>
       </c>
       <c r="B355" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C355" s="4">
         <v>61001</v>
@@ -5237,10 +5289,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530133</v>
+        <v>530143</v>
       </c>
       <c r="B356" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C356" s="4">
         <v>61002</v>
@@ -5252,10 +5304,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530134</v>
+        <v>530144</v>
       </c>
       <c r="B357" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C357" s="4">
         <v>61003</v>
@@ -5267,23 +5319,23 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530140</v>
+        <v>530150</v>
       </c>
       <c r="B358" s="3">
         <v>5013</v>
       </c>
       <c r="C358" s="4">
-        <v>130140</v>
+        <v>130150</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530141</v>
+        <v>530151</v>
       </c>
       <c r="B359" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C359" s="4">
         <v>61000</v>
@@ -5295,10 +5347,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530142</v>
+        <v>530152</v>
       </c>
       <c r="B360" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C360" s="4">
         <v>61001</v>
@@ -5310,10 +5362,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530143</v>
+        <v>530153</v>
       </c>
       <c r="B361" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C361" s="4">
         <v>61002</v>
@@ -5325,10 +5377,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530144</v>
+        <v>530154</v>
       </c>
       <c r="B362" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C362" s="4">
         <v>61003</v>
@@ -5340,23 +5392,23 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530150</v>
+        <v>530160</v>
       </c>
       <c r="B363" s="3">
         <v>5013</v>
       </c>
       <c r="C363" s="4">
-        <v>130150</v>
+        <v>130160</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530151</v>
+        <v>530161</v>
       </c>
       <c r="B364" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C364" s="4">
         <v>61000</v>
@@ -5368,10 +5420,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530152</v>
+        <v>530162</v>
       </c>
       <c r="B365" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C365" s="4">
         <v>61001</v>
@@ -5383,10 +5435,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530153</v>
+        <v>530163</v>
       </c>
       <c r="B366" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C366" s="4">
         <v>61002</v>
@@ -5398,10 +5450,10 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530154</v>
+        <v>530164</v>
       </c>
       <c r="B367" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C367" s="4">
         <v>61003</v>
@@ -5413,23 +5465,23 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530160</v>
+        <v>530170</v>
       </c>
       <c r="B368" s="3">
         <v>5013</v>
       </c>
       <c r="C368" s="4">
-        <v>130160</v>
+        <v>130170</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530161</v>
+        <v>530171</v>
       </c>
       <c r="B369" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C369" s="4">
         <v>61000</v>
@@ -5441,10 +5493,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530162</v>
+        <v>530172</v>
       </c>
       <c r="B370" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C370" s="4">
         <v>61001</v>
@@ -5456,10 +5508,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530163</v>
+        <v>530173</v>
       </c>
       <c r="B371" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C371" s="4">
         <v>61002</v>
@@ -5471,10 +5523,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530164</v>
+        <v>530174</v>
       </c>
       <c r="B372" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C372" s="4">
         <v>61003</v>
@@ -5485,221 +5537,201 @@
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="2">
-        <v>530170</v>
-      </c>
-      <c r="B373" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C373" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D373" s="5"/>
-      <c r="E373" s="2"/>
+      <c r="A373" s="6"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>530171</v>
+        <v>550000</v>
       </c>
       <c r="B374" s="3">
-        <v>5206</v>
+        <v>5006</v>
       </c>
       <c r="C374" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D374" s="5">
-        <v>1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D374" s="5"/>
       <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>530172</v>
+        <v>550001</v>
       </c>
       <c r="B375" s="3">
-        <v>5206</v>
+        <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D375" s="5">
-        <v>1</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>530173</v>
+        <v>550002</v>
       </c>
       <c r="B376" s="3">
-        <v>5206</v>
+        <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>61002</v>
-      </c>
-      <c r="D376" s="5">
-        <v>1</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>530174</v>
+        <v>550003</v>
       </c>
       <c r="B377" s="3">
-        <v>5206</v>
+        <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D377" s="5">
-        <v>1</v>
-      </c>
+        <v>-8</v>
+      </c>
+      <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>530180</v>
+        <v>550010</v>
       </c>
       <c r="B378" s="3">
-        <v>5022</v>
+        <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>73000</v>
+        <v>15</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>530181</v>
+        <v>550011</v>
       </c>
       <c r="B379" s="3">
-        <v>5022</v>
+        <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>73000</v>
+        <v>-20</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
+      <c r="A380" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C380" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D380" s="5"/>
+      <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B381" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C381" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D381" s="5"/>
-      <c r="E381" s="2"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>550001</v>
+        <v>550020</v>
       </c>
       <c r="B382" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C382" s="4">
-        <v>-4</v>
+        <v>73000</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>550002</v>
+        <v>550021</v>
       </c>
       <c r="B383" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C383" s="4">
-        <v>-5</v>
+        <v>73001</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>550003</v>
+        <v>550022</v>
       </c>
       <c r="B384" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C384" s="4">
-        <v>-8</v>
+        <v>73002</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550010</v>
+        <v>550023</v>
       </c>
       <c r="B385" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C385" s="4">
-        <v>15</v>
+        <v>73003</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550011</v>
+        <v>550024</v>
       </c>
       <c r="B386" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C386" s="4">
-        <v>-20</v>
+        <v>73004</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>550012</v>
-      </c>
-      <c r="B387" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C387" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D387" s="5"/>
-      <c r="E387" s="2"/>
+      <c r="A387" s="6"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
+      <c r="A388" s="2">
+        <v>559000</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C388" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B389" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C389" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D389" s="5"/>
-      <c r="E389" s="2"/>
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
@@ -5709,83 +5741,76 @@
       <c r="E390" s="6"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
-      <c r="D391" s="6"/>
-      <c r="E391" s="6"/>
+      <c r="A391" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B391" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C391" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>550000</v>
+        <v>550001</v>
       </c>
       <c r="B392" s="3">
         <v>5006</v>
       </c>
       <c r="C392" s="4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>550001</v>
+        <v>550002</v>
       </c>
       <c r="B393" s="3">
         <v>5006</v>
       </c>
       <c r="C393" s="4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>550002</v>
+        <v>550003</v>
       </c>
       <c r="B394" s="3">
         <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="2">
-        <v>550003</v>
-      </c>
-      <c r="B395" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C395" s="4">
-        <v>-8</v>
-      </c>
-      <c r="D395" s="5"/>
-      <c r="E395" s="2"/>
+      <c r="A395" s="6"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="6"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
+      <c r="A396" s="2">
         <v>559000</v>
       </c>
-      <c r="B397" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C397" s="4">
+      <c r="B396" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C396" s="4">
         <v>559000</v>
       </c>
-      <c r="D397" s="5"/>
-      <c r="E397" s="2"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="2"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2">

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100F8D6-2312-4E8A-BD3A-93D833C7CAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4430D21-0B34-41B9-905A-8C76F0AE833B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16005" yWindow="5160" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="4020" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="H401" sqref="H401"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>513006</v>
+        <v>513004</v>
       </c>
       <c r="B59" s="3">
         <v>5300</v>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4430D21-0B34-41B9-905A-8C76F0AE833B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8C5D8-EFD9-4634-85D5-057B43514F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="4020" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="3495" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F409"/>
+  <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5905,44 +5905,496 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B407" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C407" s="4">
-        <v>140030</v>
-      </c>
+        <v>5302</v>
+      </c>
+      <c r="C407" s="4"/>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B408" s="3">
         <v>5013</v>
       </c>
       <c r="C408" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
+        <v>540040</v>
+      </c>
+      <c r="B409" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C409" s="4">
+        <v>140040</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
         <v>540041</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B410" s="3">
         <v>5303</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C410" s="4">
         <v>101</v>
       </c>
-      <c r="D409" s="5">
+      <c r="D410" s="5">
         <v>72000</v>
       </c>
-      <c r="E409" s="2"/>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>540100</v>
+      </c>
+      <c r="B411" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C411" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D411" s="5"/>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>540101</v>
+      </c>
+      <c r="B412" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C412" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D412" s="5"/>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>540102</v>
+      </c>
+      <c r="B413" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C413" s="4">
+        <v>60002</v>
+      </c>
+      <c r="D413" s="5"/>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>540103</v>
+      </c>
+      <c r="B414" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C414" s="4">
+        <v>60003</v>
+      </c>
+      <c r="D414" s="5"/>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>540104</v>
+      </c>
+      <c r="B415" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C415" s="4">
+        <v>60004</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>540105</v>
+      </c>
+      <c r="B416" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C416" s="4">
+        <v>60005</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>540106</v>
+      </c>
+      <c r="B417" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C417" s="4">
+        <v>60006</v>
+      </c>
+      <c r="D417" s="5"/>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>540107</v>
+      </c>
+      <c r="B418" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C418" s="4">
+        <v>60007</v>
+      </c>
+      <c r="D418" s="5"/>
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>540108</v>
+      </c>
+      <c r="B419" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C419" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>540109</v>
+      </c>
+      <c r="B420" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C420" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D420" s="5"/>
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>540110</v>
+      </c>
+      <c r="B421" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C421" s="4">
+        <v>60010</v>
+      </c>
+      <c r="D421" s="5"/>
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>540111</v>
+      </c>
+      <c r="B422" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C422" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D422" s="5"/>
+      <c r="E422" s="2"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>540120</v>
+      </c>
+      <c r="B423" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C423" s="4">
+        <v>100</v>
+      </c>
+      <c r="D423" s="5">
+        <v>0</v>
+      </c>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>540121</v>
+      </c>
+      <c r="B424" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C424" s="4">
+        <v>101</v>
+      </c>
+      <c r="D424" s="5">
+        <v>0</v>
+      </c>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>540122</v>
+      </c>
+      <c r="B425" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C425" s="4">
+        <v>200</v>
+      </c>
+      <c r="D425" s="5">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>540123</v>
+      </c>
+      <c r="B426" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C426" s="4">
+        <v>201</v>
+      </c>
+      <c r="D426" s="5">
+        <v>0</v>
+      </c>
+      <c r="E426" s="2"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>540124</v>
+      </c>
+      <c r="B427" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C427" s="4">
+        <v>300</v>
+      </c>
+      <c r="D427" s="5">
+        <v>0</v>
+      </c>
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>540125</v>
+      </c>
+      <c r="B428" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C428" s="4">
+        <v>301</v>
+      </c>
+      <c r="D428" s="5">
+        <v>0</v>
+      </c>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>540126</v>
+      </c>
+      <c r="B429" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C429" s="4">
+        <v>400</v>
+      </c>
+      <c r="D429" s="5">
+        <v>0</v>
+      </c>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>540127</v>
+      </c>
+      <c r="B430" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C430" s="4">
+        <v>401</v>
+      </c>
+      <c r="D430" s="5">
+        <v>0</v>
+      </c>
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>540128</v>
+      </c>
+      <c r="B431" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C431" s="4">
+        <v>402</v>
+      </c>
+      <c r="D431" s="5">
+        <v>0</v>
+      </c>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>540129</v>
+      </c>
+      <c r="B432" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C432" s="4">
+        <v>403</v>
+      </c>
+      <c r="D432" s="5">
+        <v>0</v>
+      </c>
+      <c r="E432" s="2"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>540130</v>
+      </c>
+      <c r="B433" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C433" s="4">
+        <v>404</v>
+      </c>
+      <c r="D433" s="5">
+        <v>0</v>
+      </c>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>540131</v>
+      </c>
+      <c r="B434" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C434" s="4">
+        <v>500</v>
+      </c>
+      <c r="D434" s="5">
+        <v>0</v>
+      </c>
+      <c r="E434" s="2"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>540132</v>
+      </c>
+      <c r="B435" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C435" s="4">
+        <v>501</v>
+      </c>
+      <c r="D435" s="5">
+        <v>0</v>
+      </c>
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>540133</v>
+      </c>
+      <c r="B436" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C436" s="4">
+        <v>502</v>
+      </c>
+      <c r="D436" s="5">
+        <v>0</v>
+      </c>
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>540134</v>
+      </c>
+      <c r="B437" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C437" s="4">
+        <v>600</v>
+      </c>
+      <c r="D437" s="5">
+        <v>0</v>
+      </c>
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>540135</v>
+      </c>
+      <c r="B438" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C438" s="4">
+        <v>601</v>
+      </c>
+      <c r="D438" s="5">
+        <v>0</v>
+      </c>
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>540136</v>
+      </c>
+      <c r="B439" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C439" s="4">
+        <v>700</v>
+      </c>
+      <c r="D439" s="5">
+        <v>0</v>
+      </c>
+      <c r="E439" s="2"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>540137</v>
+      </c>
+      <c r="B440" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C440" s="4">
+        <v>701</v>
+      </c>
+      <c r="D440" s="5">
+        <v>0</v>
+      </c>
+      <c r="E440" s="2"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>540138</v>
+      </c>
+      <c r="B441" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C441" s="4">
+        <v>702</v>
+      </c>
+      <c r="D441" s="5">
+        <v>0</v>
+      </c>
+      <c r="E441" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8C5D8-EFD9-4634-85D5-057B43514F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01202A-4B33-4834-904D-43DF49ED52E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3495" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="3825" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,7 +851,7 @@
         <v>5123</v>
       </c>
       <c r="C21" s="4">
-        <v>60006</v>
+        <v>60000</v>
       </c>
       <c r="D21" s="5">
         <v>61001</v>
@@ -1358,7 +1358,7 @@
         <v>5300</v>
       </c>
       <c r="C59" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
@@ -4036,7 +4036,7 @@
         <v>5003</v>
       </c>
       <c r="C259" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01202A-4B33-4834-904D-43DF49ED52E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953044BD-C057-4582-8987-0465FD095B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="3825" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="4650" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F441"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,278 +870,274 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="2">
+        <v>500079</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5304</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>510000</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C24" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>510001</v>
+        <v>510000</v>
       </c>
       <c r="B25" s="3">
-        <v>5300</v>
+        <v>5102</v>
       </c>
       <c r="C25" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>510002</v>
+        <v>510001</v>
       </c>
       <c r="B26" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C26" s="4">
-        <v>100</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>510010</v>
+        <v>510002</v>
       </c>
       <c r="B27" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C27" s="4">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="D27" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>510020</v>
+        <v>510010</v>
       </c>
       <c r="B28" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C28" s="4">
         <v>60000</v>
       </c>
       <c r="D28" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>510030</v>
+        <v>510020</v>
       </c>
       <c r="B29" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C29" s="4">
         <v>60000</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>61000</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>510040</v>
+        <v>510030</v>
       </c>
       <c r="B30" s="3">
-        <v>5006</v>
+        <v>5117</v>
       </c>
       <c r="C30" s="4">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="2">
+        <v>510040</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>511000</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C32" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>511001</v>
+        <v>511000</v>
       </c>
       <c r="B33" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C33" s="4">
-        <v>200</v>
+        <v>60001</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>511002</v>
+        <v>511001</v>
       </c>
       <c r="B34" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C34" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>511003</v>
+        <v>511002</v>
       </c>
       <c r="B35" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C35" s="4">
-        <v>201</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>511004</v>
+        <v>511003</v>
       </c>
       <c r="B36" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C36" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>511005</v>
+        <v>511004</v>
       </c>
       <c r="B37" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C37" s="4">
-        <v>701</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>511010</v>
+        <v>511005</v>
       </c>
       <c r="B38" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C38" s="4">
-        <v>60001</v>
+        <v>701</v>
       </c>
       <c r="D38" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>511020</v>
+        <v>511010</v>
       </c>
       <c r="B39" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C39" s="4">
         <v>60001</v>
       </c>
       <c r="D39" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>511030</v>
+        <v>511020</v>
       </c>
       <c r="B40" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C40" s="4">
         <v>60001</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5">
+        <v>61000</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="2">
+        <v>511030</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C41" s="4">
+        <v>60001</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>512000</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C42" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>512001</v>
+        <v>512000</v>
       </c>
       <c r="B43" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C43" s="4">
-        <v>500</v>
+        <v>60002</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1150,275 +1146,277 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>512002</v>
+        <v>512001</v>
       </c>
       <c r="B44" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C44" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>512003</v>
+        <v>512002</v>
       </c>
       <c r="B45" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C45" s="4">
-        <v>403</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>512004</v>
+        <v>512003</v>
       </c>
       <c r="B46" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C46" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>403</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>512005</v>
+        <v>512004</v>
       </c>
       <c r="B47" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C47" s="4">
-        <v>404</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>512006</v>
+        <v>512005</v>
       </c>
       <c r="B48" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C48" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>512010</v>
+        <v>512006</v>
       </c>
       <c r="B49" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C49" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D49" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>512020</v>
+        <v>512010</v>
       </c>
       <c r="B50" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C50" s="4">
         <v>60002</v>
       </c>
       <c r="D50" s="5">
-        <v>61003</v>
+        <v>-2</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>512030</v>
+        <v>512020</v>
       </c>
       <c r="B51" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C51" s="4">
         <v>60002</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5">
+        <v>61003</v>
+      </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="2">
+        <v>512030</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C52" s="4">
+        <v>60002</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>512040</v>
-      </c>
-      <c r="B53" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C53" s="4">
-        <v>20</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="2">
+        <v>512040</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C54" s="4">
+        <v>20</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="2"/>
       <c r="F54"/>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>513000</v>
-      </c>
-      <c r="B55" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C55" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="2"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>513001</v>
+        <v>513000</v>
       </c>
       <c r="B56" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C56" s="4">
-        <v>601</v>
+        <v>60003</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="2"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>513002</v>
+        <v>513001</v>
       </c>
       <c r="B57" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C57" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>601</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>513003</v>
+        <v>513002</v>
       </c>
       <c r="B58" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C58" s="4">
-        <v>502</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="8"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>513004</v>
+        <v>513003</v>
       </c>
       <c r="B59" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C59" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>502</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>513010</v>
+        <v>513004</v>
       </c>
       <c r="B60" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C60" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D60" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>513020</v>
+        <v>513010</v>
       </c>
       <c r="B61" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C61" s="4">
         <v>60003</v>
       </c>
       <c r="D61" s="5">
-        <v>61004</v>
+        <v>-2</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61"/>
     </row>
     <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>513030</v>
+        <v>513020</v>
       </c>
       <c r="B62" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C62" s="4">
         <v>60003</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <v>61004</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62"/>
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>513031</v>
+        <v>513030</v>
       </c>
       <c r="B63" s="3">
-        <v>5006</v>
+        <v>5117</v>
       </c>
       <c r="C63" s="4">
-        <v>15</v>
+        <v>60003</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="2"/>
@@ -1426,617 +1424,615 @@
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>513040</v>
+        <v>513031</v>
       </c>
       <c r="B64" s="3">
         <v>5006</v>
       </c>
       <c r="C64" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
       <c r="F64"/>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="2">
+        <v>513040</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C65" s="4">
+        <v>20</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>514000</v>
-      </c>
-      <c r="B66" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C66" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="2"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>514001</v>
+        <v>514000</v>
       </c>
       <c r="B67" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C67" s="4">
-        <v>601</v>
+        <v>60004</v>
       </c>
       <c r="D67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>514002</v>
+        <v>514001</v>
       </c>
       <c r="B68" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C68" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D68" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>514003</v>
+        <v>514002</v>
       </c>
       <c r="B69" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C69" s="4">
-        <v>600</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0</v>
-      </c>
-      <c r="E69" s="8"/>
+        <v>60003</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>514004</v>
+        <v>514003</v>
       </c>
       <c r="B70" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C70" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>600</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
       <c r="E70" s="8"/>
       <c r="F70"/>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>514010</v>
+        <v>514004</v>
       </c>
       <c r="B71" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C71" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D71" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>514020</v>
+        <v>514010</v>
       </c>
       <c r="B72" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C72" s="4">
         <v>60004</v>
       </c>
       <c r="D72" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>514030</v>
+        <v>514020</v>
       </c>
       <c r="B73" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C73" s="4">
         <v>60004</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <v>61000</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="2">
+        <v>514030</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C74" s="4">
+        <v>60004</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="2"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>515000</v>
-      </c>
-      <c r="B75" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C75" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="2"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>515001</v>
+        <v>515000</v>
       </c>
       <c r="B76" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C76" s="4">
-        <v>201</v>
+        <v>60005</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="2"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>515002</v>
+        <v>515001</v>
       </c>
       <c r="B77" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C77" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77"/>
     </row>
     <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>515003</v>
+        <v>515002</v>
       </c>
       <c r="B78" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C78" s="4">
-        <v>301</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="8"/>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>515004</v>
+        <v>515003</v>
       </c>
       <c r="B79" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C79" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D79" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
       <c r="E79" s="8"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>515010</v>
+        <v>515004</v>
       </c>
       <c r="B80" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C80" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D80" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>60008</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>515020</v>
+        <v>515010</v>
       </c>
       <c r="B81" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C81" s="4">
         <v>60005</v>
       </c>
       <c r="D81" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>515030</v>
+        <v>515020</v>
       </c>
       <c r="B82" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C82" s="4">
         <v>60005</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5">
+        <v>61000</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C83" s="4">
+        <v>60005</v>
+      </c>
       <c r="D83" s="5"/>
       <c r="E83" s="2"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>516000</v>
-      </c>
-      <c r="B84" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C84" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="2"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>516001</v>
+        <v>516000</v>
       </c>
       <c r="B85" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C85" s="4">
-        <v>200</v>
+        <v>60006</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="2"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>516002</v>
+        <v>516001</v>
       </c>
       <c r="B86" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C86" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D86" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86"/>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>516003</v>
+        <v>516002</v>
       </c>
       <c r="B87" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C87" s="4">
-        <v>300</v>
-      </c>
-      <c r="D87" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D87" s="5"/>
       <c r="E87" s="8"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>516004</v>
+        <v>516003</v>
       </c>
       <c r="B88" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C88" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D88" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
       <c r="E88" s="8"/>
       <c r="F88"/>
     </row>
     <row r="89" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>516010</v>
+        <v>516004</v>
       </c>
       <c r="B89" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C89" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D89" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E89" s="2"/>
+        <v>60007</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="8"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>516020</v>
+        <v>516010</v>
       </c>
       <c r="B90" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C90" s="4">
         <v>60006</v>
       </c>
       <c r="D90" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>516030</v>
+        <v>516020</v>
       </c>
       <c r="B91" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C91" s="4">
         <v>60006</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5">
+        <v>61000</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="2">
+        <v>516030</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C92" s="4">
+        <v>60006</v>
+      </c>
       <c r="D92" s="5"/>
       <c r="E92" s="2"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>517000</v>
-      </c>
-      <c r="B93" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C93" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="2"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>517001</v>
+        <v>517000</v>
       </c>
       <c r="B94" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C94" s="4">
-        <v>300</v>
+        <v>60007</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="2"/>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>517002</v>
+        <v>517001</v>
       </c>
       <c r="B95" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C95" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D95" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
       <c r="E95" s="8"/>
       <c r="F95"/>
     </row>
     <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>517003</v>
+        <v>517002</v>
       </c>
       <c r="B96" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C96" s="4">
-        <v>400</v>
-      </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D96" s="5"/>
       <c r="E96" s="8"/>
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>517004</v>
+        <v>517003</v>
       </c>
       <c r="B97" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C97" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D97" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
       <c r="E97" s="8"/>
       <c r="F97"/>
     </row>
     <row r="98" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>517005</v>
+        <v>517004</v>
       </c>
       <c r="B98" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C98" s="4">
-        <v>402</v>
-      </c>
-      <c r="D98" s="5">
-        <v>0</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="8"/>
       <c r="F98"/>
     </row>
     <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>517006</v>
+        <v>517005</v>
       </c>
       <c r="B99" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C99" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
       <c r="E99" s="8"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>517007</v>
+        <v>517006</v>
       </c>
       <c r="B100" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C100" s="4">
-        <v>403</v>
-      </c>
-      <c r="D100" s="5">
-        <v>0</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="8"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>517010</v>
+        <v>517007</v>
       </c>
       <c r="B101" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C101" s="4">
-        <v>60007</v>
+        <v>403</v>
       </c>
       <c r="D101" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="8"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>517020</v>
+        <v>517010</v>
       </c>
       <c r="B102" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C102" s="4">
         <v>60007</v>
       </c>
       <c r="D102" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>517030</v>
+        <v>517020</v>
       </c>
       <c r="B103" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C103" s="4">
         <v>60007</v>
       </c>
-      <c r="D103" s="5"/>
+      <c r="D103" s="5">
+        <v>61000</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="2">
+        <v>517030</v>
+      </c>
+      <c r="B104" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C104" s="4">
+        <v>60007</v>
+      </c>
       <c r="D104" s="5"/>
       <c r="E104" s="2"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>518000</v>
-      </c>
-      <c r="B105" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C105" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D105" s="5">
-        <v>1</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="2"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>518001</v>
+        <v>518000</v>
       </c>
       <c r="B106" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C106" s="4">
-        <v>301</v>
+        <v>60008</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
@@ -2046,157 +2042,157 @@
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>518002</v>
+        <v>518001</v>
       </c>
       <c r="B107" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C107" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D107" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>518003</v>
+        <v>518002</v>
       </c>
       <c r="B108" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C108" s="4">
-        <v>400</v>
-      </c>
-      <c r="D108" s="5">
-        <v>0</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D108" s="5"/>
       <c r="E108" s="2"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>518004</v>
+        <v>518003</v>
       </c>
       <c r="B109" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C109" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D109" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>518005</v>
+        <v>518004</v>
       </c>
       <c r="B110" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C110" s="4">
-        <v>401</v>
-      </c>
-      <c r="D110" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="2"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>518006</v>
+        <v>518005</v>
       </c>
       <c r="B111" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C111" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D111" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>518010</v>
+        <v>518006</v>
       </c>
       <c r="B112" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C112" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D112" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="2"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>518020</v>
+        <v>518010</v>
       </c>
       <c r="B113" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C113" s="4">
         <v>60008</v>
       </c>
       <c r="D113" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>518030</v>
+        <v>518020</v>
       </c>
       <c r="B114" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C114" s="4">
         <v>60008</v>
       </c>
-      <c r="D114" s="5"/>
+      <c r="D114" s="5">
+        <v>61000</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
+      <c r="A115" s="2">
+        <v>518030</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C115" s="4">
+        <v>60008</v>
+      </c>
       <c r="D115" s="5"/>
       <c r="E115" s="2"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>519000</v>
-      </c>
-      <c r="B116" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C116" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D116" s="5">
-        <v>1</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="2"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>519001</v>
+        <v>519000</v>
       </c>
       <c r="B117" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C117" s="4">
-        <v>401</v>
+        <v>60009</v>
       </c>
       <c r="D117" s="5">
         <v>1</v>
@@ -2206,143 +2202,143 @@
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>519002</v>
+        <v>519001</v>
       </c>
       <c r="B118" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C118" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D118" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>519003</v>
+        <v>519002</v>
       </c>
       <c r="B119" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C119" s="4">
-        <v>402</v>
-      </c>
-      <c r="D119" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="2"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>519004</v>
+        <v>519003</v>
       </c>
       <c r="B120" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C120" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D120" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>519005</v>
+        <v>519004</v>
       </c>
       <c r="B121" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C121" s="4">
-        <v>404</v>
-      </c>
-      <c r="D121" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="2"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>519010</v>
+        <v>519005</v>
       </c>
       <c r="B122" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C122" s="4">
-        <v>60009</v>
+        <v>404</v>
       </c>
       <c r="D122" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>519020</v>
+        <v>519010</v>
       </c>
       <c r="B123" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C123" s="4">
         <v>60009</v>
       </c>
       <c r="D123" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>519030</v>
+        <v>519020</v>
       </c>
       <c r="B124" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C124" s="4">
         <v>60009</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="5">
+        <v>61000</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124"/>
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="4"/>
+      <c r="A125" s="2">
+        <v>519030</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C125" s="4">
+        <v>60009</v>
+      </c>
       <c r="D125" s="5"/>
       <c r="E125" s="2"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>520000</v>
-      </c>
-      <c r="B126" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C126" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D126" s="5">
-        <v>1</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="2"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>520001</v>
+        <v>520000</v>
       </c>
       <c r="B127" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C127" s="4">
-        <v>502</v>
+        <v>60010</v>
       </c>
       <c r="D127" s="5">
         <v>1</v>
@@ -2352,230 +2348,238 @@
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>520002</v>
+        <v>520001</v>
       </c>
       <c r="B128" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C128" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D128" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>520003</v>
+        <v>520002</v>
       </c>
       <c r="B129" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C129" s="4">
-        <v>501</v>
-      </c>
-      <c r="D129" s="5">
-        <v>1</v>
-      </c>
+        <v>60002</v>
+      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="2"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>520004</v>
+        <v>520003</v>
       </c>
       <c r="B130" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C130" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D130" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>520005</v>
+        <v>520004</v>
       </c>
       <c r="B131" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C131" s="4">
-        <v>500</v>
-      </c>
-      <c r="D131" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="2"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>520010</v>
+        <v>520005</v>
       </c>
       <c r="B132" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C132" s="4">
-        <v>60010</v>
+        <v>500</v>
       </c>
       <c r="D132" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>520020</v>
+        <v>520010</v>
       </c>
       <c r="B133" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C133" s="4">
         <v>60010</v>
       </c>
       <c r="D133" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>520030</v>
+        <v>520020</v>
       </c>
       <c r="B134" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C134" s="4">
         <v>60010</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="5">
+        <v>61000</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="2">
+        <v>520030</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60010</v>
+      </c>
       <c r="D135" s="5"/>
       <c r="E135" s="2"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>521000</v>
-      </c>
-      <c r="B136" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C136" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D136" s="5">
-        <v>1</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="2"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>521001</v>
+        <v>521000</v>
       </c>
       <c r="B137" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C137" s="4">
-        <v>501</v>
+        <v>60011</v>
       </c>
       <c r="D137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>521002</v>
+        <v>521001</v>
       </c>
       <c r="B138" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C138" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D138" s="5">
+        <v>0</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>521003</v>
+        <v>521002</v>
       </c>
       <c r="B139" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C139" s="4">
-        <v>700</v>
-      </c>
-      <c r="D139" s="5">
-        <v>0</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D139" s="5"/>
       <c r="E139" s="2"/>
       <c r="F139"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>521010</v>
+        <v>521003</v>
       </c>
       <c r="B140" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C140" s="4">
-        <v>60011</v>
+        <v>700</v>
       </c>
       <c r="D140" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>521020</v>
+        <v>521010</v>
       </c>
       <c r="B141" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C141" s="4">
         <v>60011</v>
       </c>
       <c r="D141" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141"/>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>521030</v>
+        <v>521020</v>
       </c>
       <c r="B142" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C142" s="4">
         <v>60011</v>
       </c>
-      <c r="D142" s="5"/>
+      <c r="D142" s="5">
+        <v>61000</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142"/>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="4"/>
+      <c r="A143" s="2">
+        <v>521030</v>
+      </c>
+      <c r="B143" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C143" s="4">
+        <v>60011</v>
+      </c>
       <c r="D143" s="5"/>
       <c r="E143" s="2"/>
       <c r="F143"/>
@@ -2597,31 +2601,25 @@
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="2"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>501000</v>
-      </c>
-      <c r="B147" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C147" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="2"/>
       <c r="F147"/>
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501010</v>
+        <v>501000</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
@@ -2629,13 +2627,13 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501020</v>
+        <v>501010</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
@@ -2643,13 +2641,13 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501030</v>
+        <v>501020</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
@@ -2657,13 +2655,13 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501040</v>
+        <v>501030</v>
       </c>
       <c r="B151" s="3">
         <v>5013</v>
       </c>
       <c r="C151" s="4">
-        <v>101040</v>
+        <v>101030</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -2671,13 +2669,13 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501050</v>
+        <v>501040</v>
       </c>
       <c r="B152" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C152" s="4">
-        <v>10</v>
+        <v>101040</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
@@ -2685,44 +2683,44 @@
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>501051</v>
+        <v>501050</v>
       </c>
       <c r="B153" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C153" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="2"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>501051</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C154" s="4">
+        <v>5</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="2"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>502000</v>
-      </c>
-      <c r="B155" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C155" s="4">
-        <v>102000</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="2"/>
       <c r="F155"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502010</v>
+        <v>502000</v>
       </c>
       <c r="B156" s="3">
         <v>5013</v>
       </c>
       <c r="C156" s="4">
-        <v>102010</v>
+        <v>102000</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
@@ -2730,13 +2728,13 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B157" s="3">
         <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
@@ -2744,13 +2742,13 @@
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B158" s="3">
         <v>5013</v>
       </c>
       <c r="C158" s="4">
-        <v>102030</v>
+        <v>102020</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
@@ -2758,120 +2756,121 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502031</v>
+        <v>502030</v>
       </c>
       <c r="B159" s="3">
-        <v>5109</v>
+        <v>5013</v>
       </c>
       <c r="C159" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D159" s="5">
-        <v>0</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="2"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>502032</v>
+        <v>502031</v>
       </c>
       <c r="B160" s="3">
-        <v>5104</v>
+        <v>5109</v>
       </c>
       <c r="C160" s="4">
         <v>60000</v>
       </c>
       <c r="D160" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C161" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D161" s="5">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>510100</v>
-      </c>
-      <c r="B162" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C162" s="4">
-        <v>15</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="2"/>
+      <c r="F162"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>510101</v>
+        <v>510100</v>
       </c>
       <c r="B163" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C163" s="4">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B164" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C164" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="B165" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C165" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="B166" s="3">
         <v>5003</v>
       </c>
       <c r="C166" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510110</v>
+        <v>510104</v>
       </c>
       <c r="B167" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C167" s="4">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B168" s="3">
         <v>5000</v>
@@ -2884,7 +2883,7 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B169" s="3">
         <v>5000</v>
@@ -2897,7 +2896,7 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B170" s="3">
         <v>5000</v>
@@ -2910,7 +2909,7 @@
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B171" s="3">
         <v>5000</v>
@@ -2922,740 +2921,741 @@
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="A172" s="2">
+        <v>510150</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C172" s="4">
+        <v>15</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B173" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C173" s="4">
-        <v>1</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="2"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
         <v>511061</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B175" s="3">
         <v>5119</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C175" s="4">
         <v>60001</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D175" s="5">
         <v>61002</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>512100</v>
-      </c>
-      <c r="B176" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C176" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="2"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>512110</v>
+        <v>512100</v>
       </c>
       <c r="B177" s="3">
         <v>5013</v>
       </c>
       <c r="C177" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="B178" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C178" s="4">
-        <v>-50</v>
+        <v>112110</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>512120</v>
+        <v>512111</v>
       </c>
       <c r="B179" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C179" s="4">
-        <v>112120</v>
+        <v>-50</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>512130</v>
+        <v>512120</v>
       </c>
       <c r="B180" s="3">
         <v>5013</v>
       </c>
       <c r="C180" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512140</v>
+        <v>512130</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112140</v>
+        <v>112130</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="A182" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C182" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>513100</v>
-      </c>
-      <c r="B183" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C183" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="2"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>513110</v>
+        <v>513100</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>513120</v>
+        <v>513110</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>113120</v>
+        <v>113110</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>513121</v>
+        <v>513120</v>
       </c>
       <c r="B186" s="3">
         <v>5013</v>
       </c>
       <c r="C186" s="4">
-        <v>113121</v>
+        <v>113120</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>513130</v>
+        <v>513121</v>
       </c>
       <c r="B187" s="3">
         <v>5013</v>
       </c>
       <c r="C187" s="4">
-        <v>113130</v>
+        <v>113121</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513140</v>
+        <v>513130</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113140</v>
+        <v>113130</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513150</v>
+        <v>513140</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113150</v>
+        <v>113140</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513160</v>
+        <v>513150</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113160</v>
+        <v>113150</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513161</v>
+        <v>513160</v>
       </c>
       <c r="B191" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D191" s="5">
-        <v>-5</v>
-      </c>
+        <v>113160</v>
+      </c>
+      <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513200</v>
+        <v>513161</v>
       </c>
       <c r="B192" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C192" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D192" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D192" s="5">
+        <v>-5</v>
+      </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513210</v>
+        <v>513200</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113210</v>
+        <v>113200</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513220</v>
+        <v>513210</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513230</v>
+        <v>513220</v>
       </c>
       <c r="B195" s="3">
         <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>113160</v>
+        <v>113220</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C196" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
         <v>513231</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B197" s="3">
         <v>5107</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C197" s="4">
         <v>60003</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D197" s="5">
         <v>-5</v>
       </c>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>515100</v>
-      </c>
-      <c r="B198" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C198" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>515101</v>
+        <v>515100</v>
       </c>
       <c r="B199" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C199" s="4">
-        <v>10</v>
+        <v>115100</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>515102</v>
+        <v>515101</v>
       </c>
       <c r="B200" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C200" s="4">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>515103</v>
+        <v>515102</v>
       </c>
       <c r="B201" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C201" s="4">
-        <v>115101</v>
+        <v>-2</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>515104</v>
+        <v>515103</v>
       </c>
       <c r="B202" s="3">
         <v>5013</v>
       </c>
       <c r="C202" s="4">
-        <v>115102</v>
+        <v>115101</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515110</v>
+        <v>515104</v>
       </c>
       <c r="B203" s="3">
         <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>115110</v>
+        <v>115102</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515111</v>
+        <v>515110</v>
       </c>
       <c r="B204" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C204" s="4">
-        <v>20</v>
+        <v>115110</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515112</v>
+        <v>515111</v>
       </c>
       <c r="B205" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C205" s="4">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515113</v>
+        <v>515112</v>
       </c>
       <c r="B206" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C206" s="4">
-        <v>115111</v>
+        <v>-2</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515114</v>
+        <v>515113</v>
       </c>
       <c r="B207" s="3">
         <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>115112</v>
+        <v>115111</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515120</v>
+        <v>515114</v>
       </c>
       <c r="B208" s="3">
         <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>115120</v>
+        <v>115112</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515121</v>
+        <v>515120</v>
       </c>
       <c r="B209" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C209" s="4">
-        <v>5</v>
+        <v>115120</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515122</v>
+        <v>515121</v>
       </c>
       <c r="B210" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C210" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515130</v>
+        <v>515122</v>
       </c>
       <c r="B211" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C211" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515131</v>
+        <v>515130</v>
       </c>
       <c r="B212" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C212" s="4">
-        <v>10</v>
+        <v>115120</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515132</v>
+        <v>515131</v>
       </c>
       <c r="B213" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C213" s="4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515140</v>
+        <v>515132</v>
       </c>
       <c r="B214" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C214" s="4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515150</v>
+        <v>515140</v>
       </c>
       <c r="B215" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C215" s="4">
-        <v>115150</v>
+        <v>100</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515160</v>
+        <v>515150</v>
       </c>
       <c r="B216" s="3">
         <v>5013</v>
       </c>
       <c r="C216" s="4">
-        <v>115160</v>
+        <v>115150</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515170</v>
+        <v>515160</v>
       </c>
       <c r="B217" s="3">
         <v>5013</v>
       </c>
       <c r="C217" s="4">
-        <v>115170</v>
+        <v>115160</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515171</v>
+        <v>515170</v>
       </c>
       <c r="B218" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C218" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D218" s="5">
-        <v>-3</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515180</v>
+        <v>515171</v>
       </c>
       <c r="B219" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C219" s="4">
-        <v>115180</v>
-      </c>
-      <c r="D219" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D219" s="5">
+        <v>-3</v>
+      </c>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515181</v>
+        <v>515180</v>
       </c>
       <c r="B220" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>15</v>
+        <v>115180</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
+      <c r="A221" s="2">
+        <v>515181</v>
+      </c>
+      <c r="B221" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C221" s="4">
+        <v>15</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>516100</v>
-      </c>
-      <c r="B222" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C222" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="2"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>516101</v>
+        <v>516100</v>
       </c>
       <c r="B223" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C223" s="4">
-        <v>15</v>
+        <v>116100</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>516102</v>
+        <v>516101</v>
       </c>
       <c r="B224" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C224" s="4">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>516103</v>
+        <v>516102</v>
       </c>
       <c r="B225" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C225" s="4">
-        <v>116101</v>
+        <v>-2</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>516104</v>
+        <v>516103</v>
       </c>
       <c r="B226" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C226" s="4">
-        <v>-5</v>
+        <v>116101</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516105</v>
+        <v>516104</v>
       </c>
       <c r="B227" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C227" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516110</v>
+        <v>516105</v>
       </c>
       <c r="B228" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C228" s="4">
-        <v>116110</v>
+        <v>5</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516120</v>
+        <v>516110</v>
       </c>
       <c r="B229" s="3">
         <v>5013</v>
       </c>
       <c r="C229" s="4">
-        <v>116120</v>
+        <v>116110</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516121</v>
+        <v>516120</v>
       </c>
       <c r="B230" s="3">
         <v>5013</v>
@@ -3668,22 +3668,20 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516122</v>
+        <v>516121</v>
       </c>
       <c r="B231" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C231" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D231" s="5">
-        <v>-4</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516130</v>
+        <v>516122</v>
       </c>
       <c r="B232" s="3">
         <v>5107</v>
@@ -3692,229 +3690,229 @@
         <v>60006</v>
       </c>
       <c r="D232" s="5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516131</v>
+        <v>516130</v>
       </c>
       <c r="B233" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C233" s="4">
-        <v>10</v>
-      </c>
-      <c r="D233" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D233" s="5">
+        <v>-3</v>
+      </c>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B234" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C234" s="4">
+        <v>10</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
         <v>516132</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B235" s="3">
         <v>5107</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C235" s="4">
         <v>60006</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D235" s="5">
         <v>-3</v>
       </c>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>517100</v>
-      </c>
-      <c r="B236" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C236" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="2"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>517110</v>
+        <v>517100</v>
       </c>
       <c r="B237" s="3">
         <v>5013</v>
       </c>
       <c r="C237" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>517120</v>
+        <v>517110</v>
       </c>
       <c r="B238" s="3">
         <v>5013</v>
       </c>
       <c r="C238" s="4">
-        <v>117120</v>
+        <v>117110</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>517121</v>
+        <v>517120</v>
       </c>
       <c r="B239" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C239" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D239" s="5">
-        <v>-3</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D239" s="5"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>517122</v>
+        <v>517121</v>
       </c>
       <c r="B240" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C240" s="4">
-        <v>10</v>
-      </c>
-      <c r="D240" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D240" s="5">
+        <v>-3</v>
+      </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517130</v>
+        <v>517122</v>
       </c>
       <c r="B241" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C241" s="4">
-        <v>117130</v>
+        <v>10</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517131</v>
+        <v>517130</v>
       </c>
       <c r="B242" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C242" s="4">
-        <v>700</v>
-      </c>
-      <c r="D242" s="5">
-        <v>1</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517132</v>
+        <v>517131</v>
       </c>
       <c r="B243" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C243" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D243" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517140</v>
+        <v>517132</v>
       </c>
       <c r="B244" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C244" s="4">
-        <v>117140</v>
+        <v>60011</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517141</v>
+        <v>517140</v>
       </c>
       <c r="B245" s="3">
         <v>5013</v>
       </c>
       <c r="C245" s="4">
-        <v>117141</v>
+        <v>117140</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517150</v>
+        <v>517141</v>
       </c>
       <c r="B246" s="3">
         <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>117150</v>
+        <v>117141</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517151</v>
+        <v>517150</v>
       </c>
       <c r="B247" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C247" s="4">
-        <v>20</v>
+        <v>117150</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517152</v>
+        <v>517151</v>
       </c>
       <c r="B248" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C248" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D248" s="5">
-        <v>-3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517153</v>
+        <v>517152</v>
       </c>
       <c r="B249" s="3">
         <v>5107</v>
       </c>
       <c r="C249" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D249" s="5">
         <v>-3</v>
@@ -3923,13 +3921,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517154</v>
+        <v>517153</v>
       </c>
       <c r="B250" s="3">
         <v>5107</v>
       </c>
       <c r="C250" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D250" s="5">
         <v>-3</v>
@@ -3937,50 +3935,54 @@
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
+      <c r="A251" s="2">
+        <v>517154</v>
+      </c>
+      <c r="B251" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C251" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D251" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>518100</v>
-      </c>
-      <c r="B252" s="3">
-        <v>0</v>
-      </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="2"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>518110</v>
+        <v>518100</v>
       </c>
       <c r="B253" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C253" s="4">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C253" s="4"/>
       <c r="D253" s="5"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>518111</v>
+        <v>518110</v>
       </c>
       <c r="B254" s="3">
-        <v>0</v>
-      </c>
-      <c r="C254" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C254" s="4">
+        <v>-20</v>
+      </c>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>518112</v>
+        <v>518111</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -3991,205 +3993,203 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>518113</v>
+        <v>518112</v>
       </c>
       <c r="B256" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C256" s="4">
-        <v>118114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C256" s="4"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518114</v>
+        <v>518113</v>
       </c>
       <c r="B257" s="3">
         <v>5013</v>
       </c>
       <c r="C257" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518115</v>
+        <v>518114</v>
       </c>
       <c r="B258" s="3">
         <v>5013</v>
       </c>
       <c r="C258" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518116</v>
+        <v>518115</v>
       </c>
       <c r="B259" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C259" s="4">
-        <v>10</v>
+        <v>118116</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518117</v>
+        <v>518116</v>
       </c>
       <c r="B260" s="3">
-        <v>5209</v>
+        <v>5003</v>
       </c>
       <c r="C260" s="4">
-        <v>70201</v>
+        <v>10</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
+      <c r="A261" s="2">
+        <v>518117</v>
+      </c>
+      <c r="B261" s="3">
+        <v>5209</v>
+      </c>
+      <c r="C261" s="4">
+        <v>70201</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>519100</v>
-      </c>
-      <c r="B262" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C262" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D262" s="5"/>
-      <c r="E262" s="2"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>519101</v>
+        <v>519100</v>
       </c>
       <c r="B263" s="3">
-        <v>0</v>
-      </c>
-      <c r="C263" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C263" s="4">
+        <v>119100</v>
+      </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>519102</v>
+        <v>519101</v>
       </c>
       <c r="B264" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C264" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C264" s="4"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>519110</v>
+        <v>519102</v>
       </c>
       <c r="B265" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C265" s="4">
-        <v>191100</v>
+        <v>-2</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519111</v>
+        <v>519110</v>
       </c>
       <c r="B266" s="3">
-        <v>0</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C266" s="4">
+        <v>191100</v>
+      </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519112</v>
+        <v>519111</v>
       </c>
       <c r="B267" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C267" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519120</v>
+        <v>519112</v>
       </c>
       <c r="B268" s="3">
-        <v>0</v>
-      </c>
-      <c r="C268" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C268" s="4">
+        <v>-2</v>
+      </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519121</v>
+        <v>519120</v>
       </c>
       <c r="B269" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C269" s="4">
-        <v>119121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C269" s="4"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519122</v>
+        <v>519121</v>
       </c>
       <c r="B270" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C270" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D270" s="5">
-        <v>-3</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519123</v>
+        <v>519122</v>
       </c>
       <c r="B271" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C271" s="4">
-        <v>10</v>
-      </c>
-      <c r="D271" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D271" s="5">
+        <v>-3</v>
+      </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519130</v>
+        <v>519123</v>
       </c>
       <c r="B272" s="3">
         <v>5003</v>
@@ -4202,160 +4202,160 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519131</v>
+        <v>519130</v>
       </c>
       <c r="B273" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C273" s="4">
-        <v>119130</v>
+        <v>10</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519140</v>
+        <v>519131</v>
       </c>
       <c r="B274" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C274" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519141</v>
+        <v>519140</v>
       </c>
       <c r="B275" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C275" s="4">
-        <v>119140</v>
+        <v>10</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519150</v>
+        <v>519141</v>
       </c>
       <c r="B276" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C276" s="4">
-        <v>10</v>
+        <v>119140</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519151</v>
+        <v>519150</v>
       </c>
       <c r="B277" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C277" s="4">
-        <v>119150</v>
+        <v>10</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="6"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
+      <c r="A278" s="2">
+        <v>519151</v>
+      </c>
+      <c r="B278" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C278" s="4">
+        <v>119150</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>520100</v>
-      </c>
-      <c r="B279" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C279" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>520110</v>
+        <v>520100</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>520120</v>
+        <v>520110</v>
       </c>
       <c r="B281" s="3">
         <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>120120</v>
+        <v>120110</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>520121</v>
+        <v>520120</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>120121</v>
+        <v>120120</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520122</v>
+        <v>520121</v>
       </c>
       <c r="B283" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>-3</v>
+        <v>120121</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520123</v>
+        <v>520122</v>
       </c>
       <c r="B284" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C284" s="4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520124</v>
+        <v>520123</v>
       </c>
       <c r="B285" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C285" s="4">
         <v>10</v>
@@ -4365,417 +4365,417 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520130</v>
+        <v>520124</v>
       </c>
       <c r="B286" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C286" s="4">
-        <v>120130</v>
+        <v>10</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520140</v>
+        <v>520130</v>
       </c>
       <c r="B287" s="3">
         <v>5013</v>
       </c>
       <c r="C287" s="4">
-        <v>120140</v>
+        <v>120130</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520150</v>
+        <v>520140</v>
       </c>
       <c r="B288" s="3">
         <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>120150</v>
+        <v>120140</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520160</v>
+        <v>520150</v>
       </c>
       <c r="B289" s="3">
         <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>120160</v>
+        <v>120150</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520161</v>
+        <v>520160</v>
       </c>
       <c r="B290" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>-30</v>
+        <v>120160</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520162</v>
+        <v>520161</v>
       </c>
       <c r="B291" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C291" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
+      <c r="A292" s="2">
+        <v>520162</v>
+      </c>
+      <c r="B292" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C292" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>521100</v>
-      </c>
-      <c r="B293" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C293" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="2"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>521110</v>
+        <v>521100</v>
       </c>
       <c r="B294" s="3">
         <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>521111</v>
+        <v>521110</v>
       </c>
       <c r="B295" s="3">
         <v>5013</v>
       </c>
       <c r="C295" s="4">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>521112</v>
+        <v>521111</v>
       </c>
       <c r="B296" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C296" s="4">
-        <v>30</v>
+        <v>121111</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521113</v>
+        <v>521112</v>
       </c>
       <c r="B297" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C297" s="4">
-        <v>121112</v>
+        <v>30</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521114</v>
+        <v>521113</v>
       </c>
       <c r="B298" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>10</v>
+        <v>121112</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521120</v>
+        <v>521114</v>
       </c>
       <c r="B299" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C299" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521121</v>
+        <v>521120</v>
       </c>
       <c r="B300" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C300" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D300" s="5">
-        <v>-3</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521122</v>
+        <v>521121</v>
       </c>
       <c r="B301" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C301" s="4">
-        <v>10</v>
-      </c>
-      <c r="D301" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D301" s="5">
+        <v>-3</v>
+      </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521123</v>
+        <v>521122</v>
       </c>
       <c r="B302" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C302" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521124</v>
+        <v>521123</v>
       </c>
       <c r="B303" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C303" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D303" s="5">
-        <v>-10</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521130</v>
+        <v>521124</v>
       </c>
       <c r="B304" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C304" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D304" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D304" s="5">
+        <v>-10</v>
+      </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521140</v>
+        <v>521130</v>
       </c>
       <c r="B305" s="3">
         <v>5013</v>
       </c>
       <c r="C305" s="4">
-        <v>121140</v>
+        <v>121130</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521141</v>
+        <v>521140</v>
       </c>
       <c r="B306" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C306" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D306" s="5">
-        <v>-3</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521150</v>
+        <v>521141</v>
       </c>
       <c r="B307" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C307" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D307" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D307" s="5">
+        <v>-3</v>
+      </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521151</v>
+        <v>521150</v>
       </c>
       <c r="B308" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C308" s="4">
-        <v>2</v>
+        <v>121150</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521152</v>
+        <v>521151</v>
       </c>
       <c r="B309" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C309" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521160</v>
+        <v>521152</v>
       </c>
       <c r="B310" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C310" s="4">
-        <v>121160</v>
+        <v>10</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521170</v>
+        <v>521160</v>
       </c>
       <c r="B311" s="3">
         <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>121170</v>
+        <v>121160</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521180</v>
+        <v>521170</v>
       </c>
       <c r="B312" s="3">
         <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>121180</v>
+        <v>121170</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521181</v>
+        <v>521180</v>
       </c>
       <c r="B313" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>3</v>
+        <v>121180</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
+      <c r="A314" s="2">
+        <v>521181</v>
+      </c>
+      <c r="B314" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C314" s="4">
+        <v>3</v>
+      </c>
+      <c r="D314" s="5"/>
+      <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B315" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C315" s="4">
-        <v>5</v>
-      </c>
-      <c r="D315" s="5"/>
-      <c r="E315" s="2"/>
+      <c r="A315" s="6"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>530001</v>
+        <v>530000</v>
       </c>
       <c r="B316" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C316" s="4">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>530002</v>
+        <v>530001</v>
       </c>
       <c r="B317" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C317" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530003</v>
+        <v>530002</v>
       </c>
       <c r="B318" s="3">
         <v>5003</v>
@@ -4788,353 +4788,351 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530010</v>
+        <v>530003</v>
       </c>
       <c r="B319" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C319" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530011</v>
+        <v>530010</v>
       </c>
       <c r="B320" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C320" s="4">
-        <v>2</v>
+        <v>130010</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530012</v>
+        <v>530011</v>
       </c>
       <c r="B321" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C321" s="4">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530020</v>
+        <v>530012</v>
       </c>
       <c r="B322" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C322" s="4">
-        <v>130020</v>
+        <v>-20</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530021</v>
+        <v>530020</v>
       </c>
       <c r="B323" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C323" s="4">
-        <v>3</v>
+        <v>130020</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530022</v>
+        <v>530021</v>
       </c>
       <c r="B324" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C324" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530030</v>
+        <v>530022</v>
       </c>
       <c r="B325" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C325" s="4">
-        <v>130030</v>
+        <v>-40</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530031</v>
+        <v>530030</v>
       </c>
       <c r="B326" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C326" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530040</v>
+        <v>530031</v>
       </c>
       <c r="B327" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C327" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530041</v>
+        <v>530040</v>
       </c>
       <c r="B328" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C328" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530050</v>
+        <v>530041</v>
       </c>
       <c r="B329" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C329" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530051</v>
+        <v>530050</v>
       </c>
       <c r="B330" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C330" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530060</v>
+        <v>530051</v>
       </c>
       <c r="B331" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C331" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530061</v>
+        <v>530060</v>
       </c>
       <c r="B332" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530070</v>
+        <v>530061</v>
       </c>
       <c r="B333" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C333" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530071</v>
+        <v>530070</v>
       </c>
       <c r="B334" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530080</v>
+        <v>530071</v>
       </c>
       <c r="B335" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C335" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530081</v>
+        <v>530080</v>
       </c>
       <c r="B336" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530090</v>
+        <v>530081</v>
       </c>
       <c r="B337" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C337" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530091</v>
+        <v>530090</v>
       </c>
       <c r="B338" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530100</v>
+        <v>530091</v>
       </c>
       <c r="B339" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C339" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530101</v>
+        <v>530100</v>
       </c>
       <c r="B340" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530110</v>
+        <v>530101</v>
       </c>
       <c r="B341" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C341" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530111</v>
+        <v>530110</v>
       </c>
       <c r="B342" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530120</v>
+        <v>530111</v>
       </c>
       <c r="B343" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C343" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530121</v>
+        <v>530120</v>
       </c>
       <c r="B344" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C344" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D344" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530122</v>
+        <v>530121</v>
       </c>
       <c r="B345" s="3">
         <v>5203</v>
       </c>
       <c r="C345" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D345" s="5">
         <v>1</v>
@@ -5143,13 +5141,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530123</v>
+        <v>530122</v>
       </c>
       <c r="B346" s="3">
         <v>5203</v>
       </c>
       <c r="C346" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D346" s="5">
         <v>1</v>
@@ -5158,13 +5156,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530124</v>
+        <v>530123</v>
       </c>
       <c r="B347" s="3">
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5173,41 +5171,41 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530130</v>
+        <v>530124</v>
       </c>
       <c r="B348" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D348" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D348" s="5">
+        <v>1</v>
+      </c>
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B349" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C349" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D349" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B350" s="3">
         <v>5200</v>
       </c>
       <c r="C350" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5216,13 +5214,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B351" s="3">
         <v>5200</v>
       </c>
       <c r="C351" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D351" s="5">
         <v>1</v>
@@ -5231,13 +5229,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530134</v>
+        <v>530133</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5246,41 +5244,41 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530140</v>
+        <v>530134</v>
       </c>
       <c r="B353" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D353" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D353" s="5">
+        <v>1</v>
+      </c>
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530141</v>
+        <v>530140</v>
       </c>
       <c r="B354" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C354" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D354" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D354" s="5"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530142</v>
+        <v>530141</v>
       </c>
       <c r="B355" s="3">
         <v>5206</v>
       </c>
       <c r="C355" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5289,13 +5287,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530143</v>
+        <v>530142</v>
       </c>
       <c r="B356" s="3">
         <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D356" s="5">
         <v>1</v>
@@ -5304,13 +5302,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530144</v>
+        <v>530143</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5319,41 +5317,41 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530150</v>
+        <v>530144</v>
       </c>
       <c r="B358" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D358" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D358" s="5">
+        <v>1</v>
+      </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530151</v>
+        <v>530150</v>
       </c>
       <c r="B359" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C359" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D359" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D359" s="5"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530152</v>
+        <v>530151</v>
       </c>
       <c r="B360" s="3">
         <v>5203</v>
       </c>
       <c r="C360" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5362,13 +5360,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530153</v>
+        <v>530152</v>
       </c>
       <c r="B361" s="3">
         <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D361" s="5">
         <v>1</v>
@@ -5377,13 +5375,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530154</v>
+        <v>530153</v>
       </c>
       <c r="B362" s="3">
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5392,41 +5390,41 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530160</v>
+        <v>530154</v>
       </c>
       <c r="B363" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D363" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D363" s="5">
+        <v>1</v>
+      </c>
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530161</v>
+        <v>530160</v>
       </c>
       <c r="B364" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C364" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D364" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D364" s="5"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530162</v>
+        <v>530161</v>
       </c>
       <c r="B365" s="3">
         <v>5200</v>
       </c>
       <c r="C365" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5435,13 +5433,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530163</v>
+        <v>530162</v>
       </c>
       <c r="B366" s="3">
         <v>5200</v>
       </c>
       <c r="C366" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D366" s="5">
         <v>1</v>
@@ -5450,13 +5448,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530164</v>
+        <v>530163</v>
       </c>
       <c r="B367" s="3">
         <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5465,41 +5463,41 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530170</v>
+        <v>530164</v>
       </c>
       <c r="B368" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C368" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D368" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D368" s="5">
+        <v>1</v>
+      </c>
       <c r="E368" s="2"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530171</v>
+        <v>530170</v>
       </c>
       <c r="B369" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C369" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D369" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D369" s="5"/>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530172</v>
+        <v>530171</v>
       </c>
       <c r="B370" s="3">
         <v>5206</v>
       </c>
       <c r="C370" s="4">
-        <v>61001</v>
+        <v>61000</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5508,13 +5506,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530173</v>
+        <v>530172</v>
       </c>
       <c r="B371" s="3">
         <v>5206</v>
       </c>
       <c r="C371" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D371" s="5">
         <v>1</v>
@@ -5523,13 +5521,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530174</v>
+        <v>530173</v>
       </c>
       <c r="B372" s="3">
         <v>5206</v>
       </c>
       <c r="C372" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D372" s="5">
         <v>1</v>
@@ -5537,201 +5535,209 @@
       <c r="E372" s="2"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6"/>
-      <c r="E373" s="6"/>
+      <c r="A373" s="2">
+        <v>530174</v>
+      </c>
+      <c r="B373" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C373" s="4">
+        <v>61003</v>
+      </c>
+      <c r="D373" s="5">
+        <v>1</v>
+      </c>
+      <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B374" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C374" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D374" s="5"/>
-      <c r="E374" s="2"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B375" s="3">
         <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B376" s="3">
         <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550010</v>
+        <v>550003</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550011</v>
+        <v>550010</v>
       </c>
       <c r="B379" s="3">
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>550012</v>
+        <v>550011</v>
       </c>
       <c r="B380" s="3">
         <v>5006</v>
       </c>
       <c r="C380" s="4">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
+      <c r="A381" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B381" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C381" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D381" s="5"/>
+      <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>550020</v>
-      </c>
-      <c r="B382" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C382" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="2"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>550021</v>
+        <v>550020</v>
       </c>
       <c r="B383" s="3">
         <v>5022</v>
       </c>
       <c r="C383" s="4">
-        <v>73001</v>
+        <v>73000</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>550022</v>
+        <v>550021</v>
       </c>
       <c r="B384" s="3">
         <v>5022</v>
       </c>
       <c r="C384" s="4">
-        <v>73002</v>
+        <v>73001</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550023</v>
+        <v>550022</v>
       </c>
       <c r="B385" s="3">
         <v>5022</v>
       </c>
       <c r="C385" s="4">
-        <v>73003</v>
+        <v>73002</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550024</v>
+        <v>550023</v>
       </c>
       <c r="B386" s="3">
         <v>5022</v>
       </c>
       <c r="C386" s="4">
-        <v>73004</v>
+        <v>73003</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
+      <c r="A387" s="2">
+        <v>550024</v>
+      </c>
+      <c r="B387" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C387" s="4">
+        <v>73004</v>
+      </c>
+      <c r="D387" s="5"/>
+      <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
         <v>559000</v>
       </c>
-      <c r="B388" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C388" s="4">
+      <c r="B389" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C389" s="4">
         <v>559000</v>
       </c>
-      <c r="D388" s="5"/>
-      <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-      <c r="D389" s="6"/>
-      <c r="E389" s="6"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="2"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
@@ -5741,96 +5747,90 @@
       <c r="E390" s="6"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B391" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C391" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D391" s="5"/>
-      <c r="E391" s="2"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B392" s="3">
         <v>5006</v>
       </c>
       <c r="C392" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B393" s="3">
         <v>5006</v>
       </c>
       <c r="C393" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B394" s="3">
         <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="6"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="6"/>
+      <c r="A395" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B395" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C395" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
         <v>559000</v>
       </c>
-      <c r="B396" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C396" s="4">
+      <c r="B397" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C397" s="4">
         <v>559000</v>
       </c>
-      <c r="D396" s="5"/>
-      <c r="E396" s="2"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B399" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C399" s="4">
-        <v>50</v>
-      </c>
-      <c r="D399" s="5"/>
-      <c r="E399" s="2"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="2"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
-        <v>540001</v>
+        <v>540000</v>
       </c>
       <c r="B400" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C400" s="4">
         <v>50</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>540002</v>
+        <v>540001</v>
       </c>
       <c r="B401" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C401" s="4">
         <v>50</v>
@@ -5853,23 +5853,23 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540010</v>
+        <v>540002</v>
       </c>
       <c r="B402" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C402" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="2"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>540011</v>
+        <v>540010</v>
       </c>
       <c r="B403" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C403" s="4">
         <v>-50</v>
@@ -5879,10 +5879,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>540012</v>
+        <v>540011</v>
       </c>
       <c r="B404" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C404" s="4">
         <v>-50</v>
@@ -5890,251 +5890,249 @@
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>540020</v>
-      </c>
-      <c r="B406" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C406" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D406" s="5"/>
-      <c r="E406" s="2"/>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B405" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C405" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="2"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>540021</v>
+        <v>540020</v>
       </c>
       <c r="B407" s="3">
-        <v>5302</v>
-      </c>
-      <c r="C407" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C407" s="4">
+        <v>140020</v>
+      </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B408" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C408" s="4">
-        <v>140030</v>
-      </c>
+        <v>5302</v>
+      </c>
+      <c r="C408" s="4"/>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B409" s="3">
         <v>5013</v>
       </c>
       <c r="C409" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>540041</v>
+        <v>540040</v>
       </c>
       <c r="B410" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C410" s="4">
-        <v>101</v>
-      </c>
-      <c r="D410" s="5">
-        <v>72000</v>
-      </c>
+        <v>140040</v>
+      </c>
+      <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>540100</v>
+        <v>540041</v>
       </c>
       <c r="B411" s="3">
-        <v>5300</v>
+        <v>5303</v>
       </c>
       <c r="C411" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D411" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D411" s="5">
+        <v>72000</v>
+      </c>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>540101</v>
+        <v>540100</v>
       </c>
       <c r="B412" s="3">
         <v>5300</v>
       </c>
       <c r="C412" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>540102</v>
+        <v>540101</v>
       </c>
       <c r="B413" s="3">
         <v>5300</v>
       </c>
       <c r="C413" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>540103</v>
+        <v>540102</v>
       </c>
       <c r="B414" s="3">
         <v>5300</v>
       </c>
       <c r="C414" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>540104</v>
+        <v>540103</v>
       </c>
       <c r="B415" s="3">
         <v>5300</v>
       </c>
       <c r="C415" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>540105</v>
+        <v>540104</v>
       </c>
       <c r="B416" s="3">
         <v>5300</v>
       </c>
       <c r="C416" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>540106</v>
+        <v>540105</v>
       </c>
       <c r="B417" s="3">
         <v>5300</v>
       </c>
       <c r="C417" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>540107</v>
+        <v>540106</v>
       </c>
       <c r="B418" s="3">
         <v>5300</v>
       </c>
       <c r="C418" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>540108</v>
+        <v>540107</v>
       </c>
       <c r="B419" s="3">
         <v>5300</v>
       </c>
       <c r="C419" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>540109</v>
+        <v>540108</v>
       </c>
       <c r="B420" s="3">
         <v>5300</v>
       </c>
       <c r="C420" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>540110</v>
+        <v>540109</v>
       </c>
       <c r="B421" s="3">
         <v>5300</v>
       </c>
       <c r="C421" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>540111</v>
+        <v>540110</v>
       </c>
       <c r="B422" s="3">
         <v>5300</v>
       </c>
       <c r="C422" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>540120</v>
+        <v>540111</v>
       </c>
       <c r="B423" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C423" s="4">
-        <v>100</v>
-      </c>
-      <c r="D423" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>540121</v>
+        <v>540120</v>
       </c>
       <c r="B424" s="3">
         <v>5301</v>
       </c>
       <c r="C424" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D424" s="5">
         <v>0</v>
@@ -6143,13 +6141,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>540122</v>
+        <v>540121</v>
       </c>
       <c r="B425" s="3">
         <v>5301</v>
       </c>
       <c r="C425" s="4">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="D425" s="5">
         <v>0</v>
@@ -6158,13 +6156,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>540123</v>
+        <v>540122</v>
       </c>
       <c r="B426" s="3">
         <v>5301</v>
       </c>
       <c r="C426" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D426" s="5">
         <v>0</v>
@@ -6173,13 +6171,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>540124</v>
+        <v>540123</v>
       </c>
       <c r="B427" s="3">
         <v>5301</v>
       </c>
       <c r="C427" s="4">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D427" s="5">
         <v>0</v>
@@ -6188,13 +6186,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>540125</v>
+        <v>540124</v>
       </c>
       <c r="B428" s="3">
         <v>5301</v>
       </c>
       <c r="C428" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D428" s="5">
         <v>0</v>
@@ -6203,13 +6201,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>540126</v>
+        <v>540125</v>
       </c>
       <c r="B429" s="3">
         <v>5301</v>
       </c>
       <c r="C429" s="4">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D429" s="5">
         <v>0</v>
@@ -6218,13 +6216,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>540127</v>
+        <v>540126</v>
       </c>
       <c r="B430" s="3">
         <v>5301</v>
       </c>
       <c r="C430" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D430" s="5">
         <v>0</v>
@@ -6233,13 +6231,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>540128</v>
+        <v>540127</v>
       </c>
       <c r="B431" s="3">
         <v>5301</v>
       </c>
       <c r="C431" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D431" s="5">
         <v>0</v>
@@ -6248,13 +6246,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>540129</v>
+        <v>540128</v>
       </c>
       <c r="B432" s="3">
         <v>5301</v>
       </c>
       <c r="C432" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D432" s="5">
         <v>0</v>
@@ -6263,13 +6261,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>540130</v>
+        <v>540129</v>
       </c>
       <c r="B433" s="3">
         <v>5301</v>
       </c>
       <c r="C433" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D433" s="5">
         <v>0</v>
@@ -6278,13 +6276,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>540131</v>
+        <v>540130</v>
       </c>
       <c r="B434" s="3">
         <v>5301</v>
       </c>
       <c r="C434" s="4">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="D434" s="5">
         <v>0</v>
@@ -6293,13 +6291,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>540132</v>
+        <v>540131</v>
       </c>
       <c r="B435" s="3">
         <v>5301</v>
       </c>
       <c r="C435" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D435" s="5">
         <v>0</v>
@@ -6308,13 +6306,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>540133</v>
+        <v>540132</v>
       </c>
       <c r="B436" s="3">
         <v>5301</v>
       </c>
       <c r="C436" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D436" s="5">
         <v>0</v>
@@ -6323,13 +6321,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>540134</v>
+        <v>540133</v>
       </c>
       <c r="B437" s="3">
         <v>5301</v>
       </c>
       <c r="C437" s="4">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="D437" s="5">
         <v>0</v>
@@ -6338,13 +6336,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>540135</v>
+        <v>540134</v>
       </c>
       <c r="B438" s="3">
         <v>5301</v>
       </c>
       <c r="C438" s="4">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D438" s="5">
         <v>0</v>
@@ -6353,13 +6351,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>540136</v>
+        <v>540135</v>
       </c>
       <c r="B439" s="3">
         <v>5301</v>
       </c>
       <c r="C439" s="4">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="D439" s="5">
         <v>0</v>
@@ -6368,13 +6366,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>540137</v>
+        <v>540136</v>
       </c>
       <c r="B440" s="3">
         <v>5301</v>
       </c>
       <c r="C440" s="4">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D440" s="5">
         <v>0</v>
@@ -6383,18 +6381,33 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>540138</v>
+        <v>540137</v>
       </c>
       <c r="B441" s="3">
         <v>5301</v>
       </c>
       <c r="C441" s="4">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D441" s="5">
         <v>0</v>
       </c>
       <c r="E441" s="2"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>540138</v>
+      </c>
+      <c r="B442" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C442" s="4">
+        <v>702</v>
+      </c>
+      <c r="D442" s="5">
+        <v>0</v>
+      </c>
+      <c r="E442" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953044BD-C057-4582-8987-0465FD095B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4671D3F0-6A29-4C9C-82B4-AD5FE8FEE3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="4650" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="3450" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6409,6 +6409,17 @@
       </c>
       <c r="E442" s="2"/>
     </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>540139</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5302</v>
+      </c>
+      <c r="C443" s="4"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4671D3F0-6A29-4C9C-82B4-AD5FE8FEE3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953044BD-C057-4582-8987-0465FD095B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3450" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="4650" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6409,17 +6409,6 @@
       </c>
       <c r="E442" s="2"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>540139</v>
-      </c>
-      <c r="B443" s="3">
-        <v>5302</v>
-      </c>
-      <c r="C443" s="4"/>
-      <c r="D443" s="5"/>
-      <c r="E443" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953044BD-C057-4582-8987-0465FD095B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072AF0-E70A-4B09-944C-F842C93DF927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="4650" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="3090" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="H405" sqref="H405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072AF0-E70A-4B09-944C-F842C93DF927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E3B666-BC73-4A56-8E06-7CB9BC4C111E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="3090" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="5085" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="H405" sqref="H405"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2728,27 +2728,29 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502010</v>
+        <v>502001</v>
       </c>
       <c r="B157" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C157" s="4">
-        <v>102010</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="D157" s="5">
+        <v>0</v>
+      </c>
+      <c r="E157" s="8"/>
       <c r="F157"/>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B158" s="3">
         <v>5013</v>
       </c>
       <c r="C158" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
@@ -2756,13 +2758,13 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B159" s="3">
         <v>5013</v>
       </c>
       <c r="C159" s="4">
-        <v>102030</v>
+        <v>102020</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="2"/>
@@ -2770,120 +2772,121 @@
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>502031</v>
+        <v>502030</v>
       </c>
       <c r="B160" s="3">
-        <v>5109</v>
+        <v>5013</v>
       </c>
       <c r="C160" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D160" s="5">
-        <v>0</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D160" s="5"/>
       <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>502032</v>
+        <v>502031</v>
       </c>
       <c r="B161" s="3">
-        <v>5104</v>
+        <v>5109</v>
       </c>
       <c r="C161" s="4">
         <v>60000</v>
       </c>
       <c r="D161" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C162" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D162" s="5">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2"/>
       <c r="F162"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>510100</v>
-      </c>
-      <c r="B163" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C163" s="4">
-        <v>15</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="2"/>
+      <c r="F163"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>510101</v>
+        <v>510100</v>
       </c>
       <c r="B164" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C164" s="4">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B165" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C165" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="B166" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C166" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="B167" s="3">
         <v>5003</v>
       </c>
       <c r="C167" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510110</v>
+        <v>510104</v>
       </c>
       <c r="B168" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C168" s="4">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B169" s="3">
         <v>5000</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B170" s="3">
         <v>5000</v>
@@ -2909,7 +2912,7 @@
     </row>
     <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B171" s="3">
         <v>5000</v>
@@ -2920,9 +2923,9 @@
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B172" s="3">
         <v>5000</v>
@@ -2932,799 +2935,799 @@
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="6"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
+      <c r="A173" s="2">
+        <v>510150</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C173" s="4">
+        <v>15</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B174" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C174" s="4">
-        <v>1</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="2"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
         <v>511061</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B176" s="3">
         <v>5119</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C176" s="4">
         <v>60001</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D176" s="5">
         <v>61002</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>512100</v>
-      </c>
-      <c r="B177" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C177" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="2"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>512110</v>
+        <v>512100</v>
       </c>
       <c r="B178" s="3">
         <v>5013</v>
       </c>
       <c r="C178" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="B179" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C179" s="4">
-        <v>-50</v>
+        <v>112110</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>512120</v>
+        <v>512111</v>
       </c>
       <c r="B180" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C180" s="4">
-        <v>112120</v>
+        <v>-50</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512130</v>
+        <v>512120</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>512140</v>
+        <v>512130</v>
       </c>
       <c r="B182" s="3">
         <v>5013</v>
       </c>
       <c r="C182" s="4">
-        <v>112140</v>
+        <v>112130</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="A183" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C183" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>513100</v>
-      </c>
-      <c r="B184" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C184" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="2"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>513110</v>
+        <v>513100</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>513120</v>
+        <v>513110</v>
       </c>
       <c r="B186" s="3">
         <v>5013</v>
       </c>
       <c r="C186" s="4">
-        <v>113120</v>
+        <v>113110</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>513121</v>
+        <v>513120</v>
       </c>
       <c r="B187" s="3">
         <v>5013</v>
       </c>
       <c r="C187" s="4">
-        <v>113121</v>
+        <v>113120</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513130</v>
+        <v>513121</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113130</v>
+        <v>113121</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513140</v>
+        <v>513130</v>
       </c>
       <c r="B189" s="3">
         <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>113140</v>
+        <v>113130</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513150</v>
+        <v>513140</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113150</v>
+        <v>113140</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513160</v>
+        <v>513141</v>
       </c>
       <c r="B191" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C191" s="4">
-        <v>113160</v>
-      </c>
-      <c r="D191" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D191" s="5">
+        <v>72001</v>
+      </c>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513161</v>
+        <v>513150</v>
       </c>
       <c r="B192" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D192" s="5">
-        <v>-5</v>
-      </c>
+        <v>113150</v>
+      </c>
+      <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513200</v>
+        <v>513160</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113200</v>
+        <v>113160</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513210</v>
+        <v>513161</v>
       </c>
       <c r="B194" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C194" s="4">
-        <v>113210</v>
-      </c>
-      <c r="D194" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D194" s="5">
+        <v>-5</v>
+      </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513220</v>
+        <v>513200</v>
       </c>
       <c r="B195" s="3">
         <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>113220</v>
+        <v>113200</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513230</v>
+        <v>513210</v>
       </c>
       <c r="B196" s="3">
         <v>5013</v>
       </c>
       <c r="C196" s="4">
-        <v>113160</v>
+        <v>113210</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>513231</v>
+        <v>513220</v>
       </c>
       <c r="B197" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C197" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D197" s="5">
-        <v>-5</v>
-      </c>
+        <v>113220</v>
+      </c>
+      <c r="D197" s="5"/>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="A198" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C198" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>515100</v>
+        <v>513231</v>
       </c>
       <c r="B199" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C199" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D199" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D199" s="5">
+        <v>-5</v>
+      </c>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>515101</v>
-      </c>
-      <c r="B200" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C200" s="4">
-        <v>10</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="2"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>515102</v>
+        <v>515100</v>
       </c>
       <c r="B201" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C201" s="4">
-        <v>-2</v>
+        <v>115100</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>515103</v>
+        <v>515101</v>
       </c>
       <c r="B202" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C202" s="4">
-        <v>115101</v>
+        <v>10</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515104</v>
+        <v>515102</v>
       </c>
       <c r="B203" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C203" s="4">
-        <v>115102</v>
+        <v>-2</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515110</v>
+        <v>515103</v>
       </c>
       <c r="B204" s="3">
         <v>5013</v>
       </c>
       <c r="C204" s="4">
-        <v>115110</v>
+        <v>115101</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515111</v>
+        <v>515104</v>
       </c>
       <c r="B205" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C205" s="4">
-        <v>20</v>
+        <v>115102</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515112</v>
+        <v>515110</v>
       </c>
       <c r="B206" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C206" s="4">
-        <v>-2</v>
+        <v>115110</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515113</v>
+        <v>515111</v>
       </c>
       <c r="B207" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C207" s="4">
-        <v>115111</v>
+        <v>20</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515114</v>
+        <v>515112</v>
       </c>
       <c r="B208" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C208" s="4">
-        <v>115112</v>
+        <v>-2</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515120</v>
+        <v>515113</v>
       </c>
       <c r="B209" s="3">
         <v>5013</v>
       </c>
       <c r="C209" s="4">
-        <v>115120</v>
+        <v>115111</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515121</v>
+        <v>515114</v>
       </c>
       <c r="B210" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C210" s="4">
-        <v>5</v>
+        <v>115112</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515122</v>
+        <v>515120</v>
       </c>
       <c r="B211" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C211" s="4">
-        <v>-1</v>
+        <v>115120</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515130</v>
+        <v>515121</v>
       </c>
       <c r="B212" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C212" s="4">
-        <v>115120</v>
+        <v>5</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515131</v>
+        <v>515122</v>
       </c>
       <c r="B213" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C213" s="4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515132</v>
+        <v>515130</v>
       </c>
       <c r="B214" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C214" s="4">
-        <v>-1</v>
+        <v>115120</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515140</v>
+        <v>515131</v>
       </c>
       <c r="B215" s="3">
         <v>5000</v>
       </c>
       <c r="C215" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515150</v>
+        <v>515132</v>
       </c>
       <c r="B216" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C216" s="4">
-        <v>115150</v>
+        <v>-1</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515160</v>
+        <v>515140</v>
       </c>
       <c r="B217" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C217" s="4">
-        <v>115160</v>
+        <v>100</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515170</v>
+        <v>515150</v>
       </c>
       <c r="B218" s="3">
         <v>5013</v>
       </c>
       <c r="C218" s="4">
-        <v>115170</v>
+        <v>115150</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515171</v>
+        <v>515160</v>
       </c>
       <c r="B219" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C219" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D219" s="5">
-        <v>-3</v>
-      </c>
+        <v>115160</v>
+      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515180</v>
+        <v>515170</v>
       </c>
       <c r="B220" s="3">
         <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>115180</v>
+        <v>115170</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515181</v>
+        <v>515171</v>
       </c>
       <c r="B221" s="3">
-        <v>5000</v>
+        <v>5107</v>
       </c>
       <c r="C221" s="4">
-        <v>15</v>
-      </c>
-      <c r="D221" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D221" s="5">
+        <v>-3</v>
+      </c>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="A222" s="2">
+        <v>515180</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C222" s="4">
+        <v>115180</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>516100</v>
+        <v>515181</v>
       </c>
       <c r="B223" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C223" s="4">
-        <v>116100</v>
+        <v>15</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>516101</v>
-      </c>
-      <c r="B224" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C224" s="4">
-        <v>15</v>
-      </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="2"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>516102</v>
+        <v>516100</v>
       </c>
       <c r="B225" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C225" s="4">
-        <v>-2</v>
+        <v>116100</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>516103</v>
+        <v>516101</v>
       </c>
       <c r="B226" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C226" s="4">
-        <v>116101</v>
+        <v>15</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516104</v>
+        <v>516102</v>
       </c>
       <c r="B227" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C227" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516105</v>
+        <v>516103</v>
       </c>
       <c r="B228" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C228" s="4">
-        <v>5</v>
+        <v>116101</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516110</v>
+        <v>516104</v>
       </c>
       <c r="B229" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C229" s="4">
-        <v>116110</v>
+        <v>-5</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516120</v>
+        <v>516105</v>
       </c>
       <c r="B230" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C230" s="4">
-        <v>116120</v>
+        <v>5</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516121</v>
+        <v>516110</v>
       </c>
       <c r="B231" s="3">
         <v>5013</v>
       </c>
       <c r="C231" s="4">
-        <v>116120</v>
+        <v>116110</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516122</v>
+        <v>516120</v>
       </c>
       <c r="B232" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C232" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D232" s="5">
-        <v>-4</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516130</v>
+        <v>516121</v>
       </c>
       <c r="B233" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C233" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D233" s="5">
-        <v>-3</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D233" s="5"/>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516131</v>
+        <v>516122</v>
       </c>
       <c r="B234" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C234" s="4">
-        <v>10</v>
-      </c>
-      <c r="D234" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D234" s="5">
+        <v>-4</v>
+      </c>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>516132</v>
+        <v>516130</v>
       </c>
       <c r="B235" s="3">
         <v>5107</v>
@@ -3738,211 +3741,209 @@
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="A236" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B236" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C236" s="4">
+        <v>10</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>517100</v>
+        <v>516132</v>
       </c>
       <c r="B237" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C237" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D237" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D237" s="5">
+        <v>-3</v>
+      </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>517110</v>
-      </c>
-      <c r="B238" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C238" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="2"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>517120</v>
+        <v>517100</v>
       </c>
       <c r="B239" s="3">
         <v>5013</v>
       </c>
       <c r="C239" s="4">
-        <v>117120</v>
+        <v>117100</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>517121</v>
+        <v>517110</v>
       </c>
       <c r="B240" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C240" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D240" s="5">
-        <v>-3</v>
-      </c>
+        <v>117110</v>
+      </c>
+      <c r="D240" s="5"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517122</v>
+        <v>517120</v>
       </c>
       <c r="B241" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C241" s="4">
-        <v>10</v>
+        <v>117120</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517130</v>
+        <v>517121</v>
       </c>
       <c r="B242" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C242" s="4">
-        <v>117130</v>
-      </c>
-      <c r="D242" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D242" s="5">
+        <v>-3</v>
+      </c>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517131</v>
+        <v>517122</v>
       </c>
       <c r="B243" s="3">
-        <v>5301</v>
+        <v>5003</v>
       </c>
       <c r="C243" s="4">
-        <v>700</v>
-      </c>
-      <c r="D243" s="5">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517132</v>
+        <v>517130</v>
       </c>
       <c r="B244" s="3">
-        <v>5300</v>
+        <v>5013</v>
       </c>
       <c r="C244" s="4">
-        <v>60011</v>
+        <v>117130</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517140</v>
+        <v>517131</v>
       </c>
       <c r="B245" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C245" s="4">
-        <v>117140</v>
-      </c>
-      <c r="D245" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D245" s="5">
+        <v>1</v>
+      </c>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517141</v>
+        <v>517132</v>
       </c>
       <c r="B246" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C246" s="4">
-        <v>117141</v>
+        <v>60011</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517150</v>
+        <v>517140</v>
       </c>
       <c r="B247" s="3">
         <v>5013</v>
       </c>
       <c r="C247" s="4">
-        <v>117150</v>
+        <v>117140</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517151</v>
+        <v>517141</v>
       </c>
       <c r="B248" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C248" s="4">
-        <v>20</v>
+        <v>117141</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517152</v>
+        <v>517150</v>
       </c>
       <c r="B249" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C249" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D249" s="5">
-        <v>-3</v>
-      </c>
+        <v>117150</v>
+      </c>
+      <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517153</v>
+        <v>517151</v>
       </c>
       <c r="B250" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C250" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D250" s="5">
-        <v>-3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D250" s="5"/>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517154</v>
+        <v>517152</v>
       </c>
       <c r="B251" s="3">
         <v>5107</v>
       </c>
       <c r="C251" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D251" s="5">
         <v>-3</v>
@@ -3950,39 +3951,45 @@
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
+      <c r="A252" s="2">
+        <v>517153</v>
+      </c>
+      <c r="B252" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C252" s="4">
+        <v>60008</v>
+      </c>
+      <c r="D252" s="5">
+        <v>-3</v>
+      </c>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>518100</v>
+        <v>517154</v>
       </c>
       <c r="B253" s="3">
-        <v>0</v>
-      </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="5"/>
+        <v>5107</v>
+      </c>
+      <c r="C253" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D253" s="5">
+        <v>-3</v>
+      </c>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>518110</v>
-      </c>
-      <c r="B254" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C254" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="2"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>518111</v>
+        <v>518100</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -3993,164 +4000,164 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>518112</v>
+        <v>518110</v>
       </c>
       <c r="B256" s="3">
-        <v>0</v>
-      </c>
-      <c r="C256" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C256" s="4">
+        <v>-20</v>
+      </c>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518113</v>
+        <v>518111</v>
       </c>
       <c r="B257" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C257" s="4">
-        <v>118114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C257" s="4"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518114</v>
+        <v>518112</v>
       </c>
       <c r="B258" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C258" s="4">
-        <v>118115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C258" s="4"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518115</v>
+        <v>518113</v>
       </c>
       <c r="B259" s="3">
         <v>5013</v>
       </c>
       <c r="C259" s="4">
-        <v>118116</v>
+        <v>118114</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518116</v>
+        <v>518114</v>
       </c>
       <c r="B260" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C260" s="4">
-        <v>10</v>
+        <v>118115</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>518117</v>
+        <v>518115</v>
       </c>
       <c r="B261" s="3">
-        <v>5209</v>
+        <v>5013</v>
       </c>
       <c r="C261" s="4">
-        <v>70201</v>
+        <v>118116</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
+      <c r="A262" s="2">
+        <v>518116</v>
+      </c>
+      <c r="B262" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C262" s="4">
+        <v>10</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>519100</v>
+        <v>518117</v>
       </c>
       <c r="B263" s="3">
-        <v>5013</v>
+        <v>5209</v>
       </c>
       <c r="C263" s="4">
-        <v>119100</v>
+        <v>70201</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>519101</v>
-      </c>
-      <c r="B264" s="3">
-        <v>0</v>
-      </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="2"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>519102</v>
+        <v>519100</v>
       </c>
       <c r="B265" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C265" s="4">
-        <v>-2</v>
+        <v>119100</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519110</v>
+        <v>519101</v>
       </c>
       <c r="B266" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C266" s="4">
-        <v>191100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C266" s="4"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519111</v>
+        <v>519102</v>
       </c>
       <c r="B267" s="3">
-        <v>0</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C267" s="4">
+        <v>-2</v>
+      </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519112</v>
+        <v>519110</v>
       </c>
       <c r="B268" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C268" s="4">
-        <v>-2</v>
+        <v>191100</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519120</v>
+        <v>519111</v>
       </c>
       <c r="B269" s="3">
         <v>0</v>
@@ -4161,74 +4168,72 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519121</v>
+        <v>519112</v>
       </c>
       <c r="B270" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C270" s="4">
-        <v>119121</v>
+        <v>-2</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519122</v>
+        <v>519120</v>
       </c>
       <c r="B271" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C271" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D271" s="5">
-        <v>-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519123</v>
+        <v>519121</v>
       </c>
       <c r="B272" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C272" s="4">
-        <v>10</v>
+        <v>119121</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519130</v>
+        <v>519122</v>
       </c>
       <c r="B273" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C273" s="4">
-        <v>10</v>
-      </c>
-      <c r="D273" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D273" s="5">
+        <v>-3</v>
+      </c>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519131</v>
+        <v>519123</v>
       </c>
       <c r="B274" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C274" s="4">
-        <v>119130</v>
+        <v>10</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519140</v>
+        <v>519130</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
@@ -4241,20 +4246,20 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519141</v>
+        <v>519131</v>
       </c>
       <c r="B276" s="3">
         <v>5013</v>
       </c>
       <c r="C276" s="4">
-        <v>119140</v>
+        <v>119130</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519150</v>
+        <v>519140</v>
       </c>
       <c r="B277" s="3">
         <v>5003</v>
@@ -4267,658 +4272,658 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519151</v>
+        <v>519141</v>
       </c>
       <c r="B278" s="3">
         <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>119150</v>
+        <v>119140</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
+      <c r="A279" s="2">
+        <v>519150</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C279" s="4">
+        <v>10</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>520100</v>
+        <v>519151</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>120100</v>
+        <v>119150</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>520110</v>
-      </c>
-      <c r="B281" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C281" s="4">
-        <v>120110</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="2"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>520120</v>
+        <v>520100</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>120120</v>
+        <v>120100</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520121</v>
+        <v>520110</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120121</v>
+        <v>120110</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520122</v>
+        <v>520120</v>
       </c>
       <c r="B284" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>-3</v>
+        <v>120120</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520123</v>
+        <v>520121</v>
       </c>
       <c r="B285" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C285" s="4">
-        <v>10</v>
+        <v>120121</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520124</v>
+        <v>520122</v>
       </c>
       <c r="B286" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C286" s="4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520130</v>
+        <v>520123</v>
       </c>
       <c r="B287" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C287" s="4">
-        <v>120130</v>
+        <v>10</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520140</v>
+        <v>520124</v>
       </c>
       <c r="B288" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C288" s="4">
-        <v>120140</v>
+        <v>10</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520150</v>
+        <v>520130</v>
       </c>
       <c r="B289" s="3">
         <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>120150</v>
+        <v>120130</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520160</v>
+        <v>520140</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120160</v>
+        <v>120140</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520161</v>
+        <v>520150</v>
       </c>
       <c r="B291" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>-30</v>
+        <v>120150</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520162</v>
+        <v>520160</v>
       </c>
       <c r="B292" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C292" s="4">
-        <v>-10</v>
+        <v>120160</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+      <c r="A293" s="2">
+        <v>520161</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C293" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>521100</v>
+        <v>520162</v>
       </c>
       <c r="B294" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C294" s="4">
-        <v>121100</v>
+        <v>-10</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>521110</v>
-      </c>
-      <c r="B295" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C295" s="4">
-        <v>121110</v>
-      </c>
-      <c r="D295" s="5"/>
-      <c r="E295" s="2"/>
+      <c r="A295" s="6"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>521111</v>
+        <v>521100</v>
       </c>
       <c r="B296" s="3">
         <v>5013</v>
       </c>
       <c r="C296" s="4">
-        <v>121111</v>
+        <v>121100</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521112</v>
+        <v>521110</v>
       </c>
       <c r="B297" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>30</v>
+        <v>121110</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521113</v>
+        <v>521111</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121112</v>
+        <v>121111</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521114</v>
+        <v>521112</v>
       </c>
       <c r="B299" s="3">
         <v>5000</v>
       </c>
       <c r="C299" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521120</v>
+        <v>521113</v>
       </c>
       <c r="B300" s="3">
         <v>5013</v>
       </c>
       <c r="C300" s="4">
-        <v>121120</v>
+        <v>121112</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521121</v>
+        <v>521114</v>
       </c>
       <c r="B301" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C301" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D301" s="5">
-        <v>-3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521122</v>
+        <v>521120</v>
       </c>
       <c r="B302" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C302" s="4">
-        <v>10</v>
+        <v>121120</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521123</v>
+        <v>521121</v>
       </c>
       <c r="B303" s="3">
-        <v>5000</v>
+        <v>5107</v>
       </c>
       <c r="C303" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D303" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D303" s="5">
+        <v>-3</v>
+      </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521124</v>
+        <v>521122</v>
       </c>
       <c r="B304" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C304" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D304" s="5">
-        <v>-10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521130</v>
+        <v>521123</v>
       </c>
       <c r="B305" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C305" s="4">
-        <v>121130</v>
+        <v>-30</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521140</v>
+        <v>521124</v>
       </c>
       <c r="B306" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C306" s="4">
-        <v>121140</v>
-      </c>
-      <c r="D306" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D306" s="5">
+        <v>-10</v>
+      </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521141</v>
+        <v>521130</v>
       </c>
       <c r="B307" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D307" s="5">
-        <v>-3</v>
-      </c>
+        <v>121130</v>
+      </c>
+      <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521150</v>
+        <v>521140</v>
       </c>
       <c r="B308" s="3">
         <v>5013</v>
       </c>
       <c r="C308" s="4">
-        <v>121150</v>
+        <v>121140</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521151</v>
+        <v>521141</v>
       </c>
       <c r="B309" s="3">
-        <v>5006</v>
+        <v>5107</v>
       </c>
       <c r="C309" s="4">
-        <v>2</v>
-      </c>
-      <c r="D309" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D309" s="5">
+        <v>-3</v>
+      </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521152</v>
+        <v>521150</v>
       </c>
       <c r="B310" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C310" s="4">
-        <v>10</v>
+        <v>121150</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521160</v>
+        <v>521151</v>
       </c>
       <c r="B311" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C311" s="4">
-        <v>121160</v>
+        <v>2</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521170</v>
+        <v>521152</v>
       </c>
       <c r="B312" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C312" s="4">
-        <v>121170</v>
+        <v>10</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521180</v>
+        <v>521160</v>
       </c>
       <c r="B313" s="3">
         <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>121180</v>
+        <v>121160</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521181</v>
+        <v>521170</v>
       </c>
       <c r="B314" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C314" s="4">
-        <v>3</v>
+        <v>121170</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
+      <c r="A315" s="2">
+        <v>521180</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C315" s="4">
+        <v>121180</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>530000</v>
+        <v>521181</v>
       </c>
       <c r="B316" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C316" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>530001</v>
-      </c>
-      <c r="B317" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C317" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D317" s="5"/>
-      <c r="E317" s="2"/>
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530002</v>
+        <v>530000</v>
       </c>
       <c r="B318" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C318" s="4">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530003</v>
+        <v>530001</v>
       </c>
       <c r="B319" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C319" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530010</v>
+        <v>530002</v>
       </c>
       <c r="B320" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C320" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530011</v>
+        <v>530003</v>
       </c>
       <c r="B321" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C321" s="4">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530012</v>
+        <v>530010</v>
       </c>
       <c r="B322" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C322" s="4">
-        <v>-20</v>
+        <v>130010</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530020</v>
+        <v>530011</v>
       </c>
       <c r="B323" s="3">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="C323" s="4">
-        <v>130020</v>
+        <v>2</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530021</v>
+        <v>530012</v>
       </c>
       <c r="B324" s="3">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="C324" s="4">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530022</v>
+        <v>530020</v>
       </c>
       <c r="B325" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C325" s="4">
-        <v>-40</v>
+        <v>130020</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530030</v>
+        <v>530021</v>
       </c>
       <c r="B326" s="3">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="C326" s="4">
-        <v>130030</v>
+        <v>3</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530031</v>
+        <v>530022</v>
       </c>
       <c r="B327" s="3">
         <v>5003</v>
       </c>
       <c r="C327" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530040</v>
+        <v>530030</v>
       </c>
       <c r="B328" s="3">
         <v>5013</v>
       </c>
       <c r="C328" s="4">
-        <v>130040</v>
+        <v>130030</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530041</v>
+        <v>530031</v>
       </c>
       <c r="B329" s="3">
         <v>5003</v>
@@ -4931,20 +4936,20 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530050</v>
+        <v>530040</v>
       </c>
       <c r="B330" s="3">
         <v>5013</v>
       </c>
       <c r="C330" s="4">
-        <v>130050</v>
+        <v>130040</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530051</v>
+        <v>530041</v>
       </c>
       <c r="B331" s="3">
         <v>5003</v>
@@ -4957,20 +4962,20 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530060</v>
+        <v>530050</v>
       </c>
       <c r="B332" s="3">
         <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>130060</v>
+        <v>130050</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530061</v>
+        <v>530051</v>
       </c>
       <c r="B333" s="3">
         <v>5003</v>
@@ -4983,20 +4988,20 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530070</v>
+        <v>530060</v>
       </c>
       <c r="B334" s="3">
         <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>130070</v>
+        <v>130060</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530071</v>
+        <v>530061</v>
       </c>
       <c r="B335" s="3">
         <v>5003</v>
@@ -5009,20 +5014,20 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530080</v>
+        <v>530070</v>
       </c>
       <c r="B336" s="3">
         <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>130080</v>
+        <v>130070</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530081</v>
+        <v>530071</v>
       </c>
       <c r="B337" s="3">
         <v>5003</v>
@@ -5035,20 +5040,20 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530090</v>
+        <v>530080</v>
       </c>
       <c r="B338" s="3">
         <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>130090</v>
+        <v>130080</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530091</v>
+        <v>530081</v>
       </c>
       <c r="B339" s="3">
         <v>5003</v>
@@ -5061,20 +5066,20 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530100</v>
+        <v>530090</v>
       </c>
       <c r="B340" s="3">
         <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>130100</v>
+        <v>130090</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530101</v>
+        <v>530091</v>
       </c>
       <c r="B341" s="3">
         <v>5003</v>
@@ -5087,20 +5092,20 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530110</v>
+        <v>530100</v>
       </c>
       <c r="B342" s="3">
         <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>130110</v>
+        <v>130100</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530111</v>
+        <v>530101</v>
       </c>
       <c r="B343" s="3">
         <v>5003</v>
@@ -5113,56 +5118,52 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530120</v>
+        <v>530110</v>
       </c>
       <c r="B344" s="3">
         <v>5013</v>
       </c>
       <c r="C344" s="4">
-        <v>130120</v>
+        <v>130110</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530121</v>
+        <v>530111</v>
       </c>
       <c r="B345" s="3">
-        <v>5203</v>
+        <v>5003</v>
       </c>
       <c r="C345" s="4">
-        <v>61000</v>
-      </c>
-      <c r="D345" s="5">
-        <v>1</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530122</v>
+        <v>530120</v>
       </c>
       <c r="B346" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C346" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D346" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D346" s="5"/>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530123</v>
+        <v>530121</v>
       </c>
       <c r="B347" s="3">
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5171,13 +5172,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530124</v>
+        <v>530122</v>
       </c>
       <c r="B348" s="3">
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5186,26 +5187,28 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530130</v>
+        <v>530123</v>
       </c>
       <c r="B349" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D349" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530131</v>
+        <v>530124</v>
       </c>
       <c r="B350" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C350" s="4">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5214,28 +5217,26 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530132</v>
+        <v>530130</v>
       </c>
       <c r="B351" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C351" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D351" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D351" s="5"/>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530133</v>
+        <v>530131</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5244,13 +5245,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530134</v>
+        <v>530132</v>
       </c>
       <c r="B353" s="3">
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5259,26 +5260,28 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530140</v>
+        <v>530133</v>
       </c>
       <c r="B354" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D354" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D354" s="5">
+        <v>1</v>
+      </c>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530141</v>
+        <v>530134</v>
       </c>
       <c r="B355" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C355" s="4">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5287,28 +5290,26 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530142</v>
+        <v>530140</v>
       </c>
       <c r="B356" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C356" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D356" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D356" s="5"/>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530143</v>
+        <v>530141</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5317,13 +5318,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530144</v>
+        <v>530142</v>
       </c>
       <c r="B358" s="3">
         <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D358" s="5">
         <v>1</v>
@@ -5332,26 +5333,28 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530150</v>
+        <v>530143</v>
       </c>
       <c r="B359" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C359" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D359" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D359" s="5">
+        <v>1</v>
+      </c>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530151</v>
+        <v>530144</v>
       </c>
       <c r="B360" s="3">
-        <v>5203</v>
+        <v>5206</v>
       </c>
       <c r="C360" s="4">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5360,28 +5363,26 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530152</v>
+        <v>530150</v>
       </c>
       <c r="B361" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C361" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D361" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D361" s="5"/>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530153</v>
+        <v>530151</v>
       </c>
       <c r="B362" s="3">
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5390,13 +5391,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530154</v>
+        <v>530152</v>
       </c>
       <c r="B363" s="3">
         <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5405,26 +5406,28 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530160</v>
+        <v>530153</v>
       </c>
       <c r="B364" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C364" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D364" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530161</v>
+        <v>530154</v>
       </c>
       <c r="B365" s="3">
-        <v>5200</v>
+        <v>5203</v>
       </c>
       <c r="C365" s="4">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5433,28 +5436,26 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530162</v>
+        <v>530160</v>
       </c>
       <c r="B366" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C366" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D366" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D366" s="5"/>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530163</v>
+        <v>530161</v>
       </c>
       <c r="B367" s="3">
         <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5463,13 +5464,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530164</v>
+        <v>530162</v>
       </c>
       <c r="B368" s="3">
         <v>5200</v>
       </c>
       <c r="C368" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5478,26 +5479,28 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530170</v>
+        <v>530163</v>
       </c>
       <c r="B369" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C369" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D369" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D369" s="5">
+        <v>1</v>
+      </c>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530171</v>
+        <v>530164</v>
       </c>
       <c r="B370" s="3">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="C370" s="4">
-        <v>61000</v>
+        <v>61003</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5506,28 +5509,26 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530172</v>
+        <v>530170</v>
       </c>
       <c r="B371" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C371" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D371" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D371" s="5"/>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530173</v>
+        <v>530171</v>
       </c>
       <c r="B372" s="3">
         <v>5206</v>
       </c>
       <c r="C372" s="4">
-        <v>61002</v>
+        <v>61000</v>
       </c>
       <c r="D372" s="5">
         <v>1</v>
@@ -5536,13 +5537,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>530174</v>
+        <v>530172</v>
       </c>
       <c r="B373" s="3">
         <v>5206</v>
       </c>
       <c r="C373" s="4">
-        <v>61003</v>
+        <v>61001</v>
       </c>
       <c r="D373" s="5">
         <v>1</v>
@@ -5550,191 +5551,201 @@
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
+      <c r="A374" s="2">
+        <v>530173</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C374" s="4">
+        <v>61002</v>
+      </c>
+      <c r="D374" s="5">
+        <v>1</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>550000</v>
+        <v>530174</v>
       </c>
       <c r="B375" s="3">
-        <v>5006</v>
+        <v>5206</v>
       </c>
       <c r="C375" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D375" s="5"/>
+        <v>61003</v>
+      </c>
+      <c r="D375" s="5">
+        <v>1</v>
+      </c>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="2">
-        <v>550001</v>
-      </c>
-      <c r="B376" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C376" s="4">
-        <v>-4</v>
-      </c>
-      <c r="D376" s="5"/>
-      <c r="E376" s="2"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550002</v>
+        <v>550000</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550003</v>
+        <v>550001</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550010</v>
+        <v>550002</v>
       </c>
       <c r="B379" s="3">
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>550011</v>
+        <v>550003</v>
       </c>
       <c r="B380" s="3">
         <v>5006</v>
       </c>
       <c r="C380" s="4">
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>550012</v>
+        <v>550010</v>
       </c>
       <c r="B381" s="3">
         <v>5006</v>
       </c>
       <c r="C381" s="4">
-        <v>-50</v>
+        <v>15</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
+      <c r="A382" s="2">
+        <v>550011</v>
+      </c>
+      <c r="B382" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C382" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>550020</v>
+        <v>550012</v>
       </c>
       <c r="B383" s="3">
-        <v>5022</v>
+        <v>5006</v>
       </c>
       <c r="C383" s="4">
-        <v>73000</v>
+        <v>-50</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="2">
-        <v>550021</v>
-      </c>
-      <c r="B384" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C384" s="4">
-        <v>73001</v>
-      </c>
-      <c r="D384" s="5"/>
-      <c r="E384" s="2"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550022</v>
+        <v>550020</v>
       </c>
       <c r="B385" s="3">
         <v>5022</v>
       </c>
       <c r="C385" s="4">
-        <v>73002</v>
+        <v>73000</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550023</v>
+        <v>550021</v>
       </c>
       <c r="B386" s="3">
         <v>5022</v>
       </c>
       <c r="C386" s="4">
-        <v>73003</v>
+        <v>73001</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550024</v>
+        <v>550022</v>
       </c>
       <c r="B387" s="3">
         <v>5022</v>
       </c>
       <c r="C387" s="4">
-        <v>73004</v>
+        <v>73002</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
+      <c r="A388" s="2">
+        <v>550023</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C388" s="4">
+        <v>73003</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>559000</v>
+        <v>550024</v>
       </c>
       <c r="B389" s="3">
-        <v>5013</v>
+        <v>5022</v>
       </c>
       <c r="C389" s="4">
-        <v>559000</v>
+        <v>73004</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
@@ -5747,116 +5758,110 @@
       <c r="E390" s="6"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
-      <c r="D391" s="6"/>
-      <c r="E391" s="6"/>
+      <c r="A391" s="2">
+        <v>559000</v>
+      </c>
+      <c r="B391" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C391" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="2"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B392" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C392" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D392" s="5"/>
-      <c r="E392" s="2"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="2">
-        <v>550001</v>
-      </c>
-      <c r="B393" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C393" s="4">
-        <v>-4</v>
-      </c>
-      <c r="D393" s="5"/>
-      <c r="E393" s="2"/>
+      <c r="A393" s="6"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>550002</v>
+        <v>550000</v>
       </c>
       <c r="B394" s="3">
         <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>550003</v>
+        <v>550001</v>
       </c>
       <c r="B395" s="3">
         <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="6"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
+      <c r="A396" s="2">
+        <v>550002</v>
+      </c>
+      <c r="B396" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C396" s="4">
+        <v>-5</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>559000</v>
+        <v>550003</v>
       </c>
       <c r="B397" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C397" s="4">
-        <v>559000</v>
+        <v>-8</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B400" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C400" s="4">
-        <v>50</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="2">
-        <v>540001</v>
-      </c>
-      <c r="B401" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C401" s="4">
-        <v>50</v>
-      </c>
-      <c r="D401" s="5"/>
-      <c r="E401" s="2"/>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>559000</v>
+      </c>
+      <c r="B399" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C399" s="4">
+        <v>559000</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540002</v>
+        <v>540000</v>
       </c>
       <c r="B402" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C402" s="4">
         <v>50</v>
@@ -5866,36 +5871,36 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>540010</v>
+        <v>540001</v>
       </c>
       <c r="B403" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C403" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>540011</v>
+        <v>540002</v>
       </c>
       <c r="B404" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C404" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>540012</v>
+        <v>540010</v>
       </c>
       <c r="B405" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C405" s="4">
         <v>-50</v>
@@ -5903,266 +5908,262 @@
       <c r="D405" s="5"/>
       <c r="E405" s="2"/>
     </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>540011</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C406" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="2"/>
+    </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>540020</v>
+        <v>540012</v>
       </c>
       <c r="B407" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C407" s="4">
-        <v>140020</v>
+        <v>-50</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
-        <v>540021</v>
-      </c>
-      <c r="B408" s="3">
-        <v>5302</v>
-      </c>
-      <c r="C408" s="4"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="2"/>
-    </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>540030</v>
+        <v>540020</v>
       </c>
       <c r="B409" s="3">
         <v>5013</v>
       </c>
       <c r="C409" s="4">
-        <v>140030</v>
+        <v>140020</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>540040</v>
+        <v>540021</v>
       </c>
       <c r="B410" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C410" s="4">
-        <v>140040</v>
-      </c>
+        <v>5302</v>
+      </c>
+      <c r="C410" s="4"/>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>540041</v>
+        <v>540030</v>
       </c>
       <c r="B411" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C411" s="4">
-        <v>101</v>
-      </c>
-      <c r="D411" s="5">
-        <v>72000</v>
-      </c>
+        <v>140030</v>
+      </c>
+      <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>540100</v>
+        <v>540040</v>
       </c>
       <c r="B412" s="3">
-        <v>5300</v>
+        <v>5013</v>
       </c>
       <c r="C412" s="4">
-        <v>60000</v>
+        <v>140040</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>540101</v>
+        <v>540041</v>
       </c>
       <c r="B413" s="3">
-        <v>5300</v>
+        <v>5303</v>
       </c>
       <c r="C413" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D413" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D413" s="5">
+        <v>72000</v>
+      </c>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>540102</v>
+        <v>540100</v>
       </c>
       <c r="B414" s="3">
         <v>5300</v>
       </c>
       <c r="C414" s="4">
-        <v>60002</v>
+        <v>60000</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>540103</v>
+        <v>540101</v>
       </c>
       <c r="B415" s="3">
         <v>5300</v>
       </c>
       <c r="C415" s="4">
-        <v>60003</v>
+        <v>60001</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>540104</v>
+        <v>540102</v>
       </c>
       <c r="B416" s="3">
         <v>5300</v>
       </c>
       <c r="C416" s="4">
-        <v>60004</v>
+        <v>60002</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>540105</v>
+        <v>540103</v>
       </c>
       <c r="B417" s="3">
         <v>5300</v>
       </c>
       <c r="C417" s="4">
-        <v>60005</v>
+        <v>60003</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>540106</v>
+        <v>540104</v>
       </c>
       <c r="B418" s="3">
         <v>5300</v>
       </c>
       <c r="C418" s="4">
-        <v>60006</v>
+        <v>60004</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>540107</v>
+        <v>540105</v>
       </c>
       <c r="B419" s="3">
         <v>5300</v>
       </c>
       <c r="C419" s="4">
-        <v>60007</v>
+        <v>60005</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>540108</v>
+        <v>540106</v>
       </c>
       <c r="B420" s="3">
         <v>5300</v>
       </c>
       <c r="C420" s="4">
-        <v>60008</v>
+        <v>60006</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>540109</v>
+        <v>540107</v>
       </c>
       <c r="B421" s="3">
         <v>5300</v>
       </c>
       <c r="C421" s="4">
-        <v>60009</v>
+        <v>60007</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>540110</v>
+        <v>540108</v>
       </c>
       <c r="B422" s="3">
         <v>5300</v>
       </c>
       <c r="C422" s="4">
-        <v>60010</v>
+        <v>60008</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>540111</v>
+        <v>540109</v>
       </c>
       <c r="B423" s="3">
         <v>5300</v>
       </c>
       <c r="C423" s="4">
-        <v>60011</v>
+        <v>60009</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>540120</v>
+        <v>540110</v>
       </c>
       <c r="B424" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C424" s="4">
-        <v>100</v>
-      </c>
-      <c r="D424" s="5">
-        <v>0</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D424" s="5"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>540121</v>
+        <v>540111</v>
       </c>
       <c r="B425" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C425" s="4">
-        <v>101</v>
-      </c>
-      <c r="D425" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D425" s="5"/>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>540122</v>
+        <v>540120</v>
       </c>
       <c r="B426" s="3">
         <v>5301</v>
       </c>
       <c r="C426" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D426" s="5">
         <v>0</v>
@@ -6171,13 +6172,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>540123</v>
+        <v>540121</v>
       </c>
       <c r="B427" s="3">
         <v>5301</v>
       </c>
       <c r="C427" s="4">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="D427" s="5">
         <v>0</v>
@@ -6186,13 +6187,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>540124</v>
+        <v>540122</v>
       </c>
       <c r="B428" s="3">
         <v>5301</v>
       </c>
       <c r="C428" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D428" s="5">
         <v>0</v>
@@ -6201,13 +6202,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>540125</v>
+        <v>540123</v>
       </c>
       <c r="B429" s="3">
         <v>5301</v>
       </c>
       <c r="C429" s="4">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D429" s="5">
         <v>0</v>
@@ -6216,13 +6217,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>540126</v>
+        <v>540124</v>
       </c>
       <c r="B430" s="3">
         <v>5301</v>
       </c>
       <c r="C430" s="4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D430" s="5">
         <v>0</v>
@@ -6231,13 +6232,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>540127</v>
+        <v>540125</v>
       </c>
       <c r="B431" s="3">
         <v>5301</v>
       </c>
       <c r="C431" s="4">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="D431" s="5">
         <v>0</v>
@@ -6246,13 +6247,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>540128</v>
+        <v>540126</v>
       </c>
       <c r="B432" s="3">
         <v>5301</v>
       </c>
       <c r="C432" s="4">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D432" s="5">
         <v>0</v>
@@ -6261,13 +6262,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>540129</v>
+        <v>540127</v>
       </c>
       <c r="B433" s="3">
         <v>5301</v>
       </c>
       <c r="C433" s="4">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D433" s="5">
         <v>0</v>
@@ -6276,13 +6277,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>540130</v>
+        <v>540128</v>
       </c>
       <c r="B434" s="3">
         <v>5301</v>
       </c>
       <c r="C434" s="4">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D434" s="5">
         <v>0</v>
@@ -6291,13 +6292,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>540131</v>
+        <v>540129</v>
       </c>
       <c r="B435" s="3">
         <v>5301</v>
       </c>
       <c r="C435" s="4">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="D435" s="5">
         <v>0</v>
@@ -6306,13 +6307,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>540132</v>
+        <v>540130</v>
       </c>
       <c r="B436" s="3">
         <v>5301</v>
       </c>
       <c r="C436" s="4">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="D436" s="5">
         <v>0</v>
@@ -6321,13 +6322,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>540133</v>
+        <v>540131</v>
       </c>
       <c r="B437" s="3">
         <v>5301</v>
       </c>
       <c r="C437" s="4">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D437" s="5">
         <v>0</v>
@@ -6336,13 +6337,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>540134</v>
+        <v>540132</v>
       </c>
       <c r="B438" s="3">
         <v>5301</v>
       </c>
       <c r="C438" s="4">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="D438" s="5">
         <v>0</v>
@@ -6351,13 +6352,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>540135</v>
+        <v>540133</v>
       </c>
       <c r="B439" s="3">
         <v>5301</v>
       </c>
       <c r="C439" s="4">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D439" s="5">
         <v>0</v>
@@ -6366,13 +6367,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>540136</v>
+        <v>540134</v>
       </c>
       <c r="B440" s="3">
         <v>5301</v>
       </c>
       <c r="C440" s="4">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D440" s="5">
         <v>0</v>
@@ -6381,13 +6382,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>540137</v>
+        <v>540135</v>
       </c>
       <c r="B441" s="3">
         <v>5301</v>
       </c>
       <c r="C441" s="4">
-        <v>701</v>
+        <v>601</v>
       </c>
       <c r="D441" s="5">
         <v>0</v>
@@ -6396,18 +6397,48 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>540138</v>
+        <v>540136</v>
       </c>
       <c r="B442" s="3">
         <v>5301</v>
       </c>
       <c r="C442" s="4">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D442" s="5">
         <v>0</v>
       </c>
       <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>540137</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C443" s="4">
+        <v>701</v>
+      </c>
+      <c r="D443" s="5">
+        <v>0</v>
+      </c>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>540138</v>
+      </c>
+      <c r="B444" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C444" s="4">
+        <v>702</v>
+      </c>
+      <c r="D444" s="5">
+        <v>0</v>
+      </c>
+      <c r="E444" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E3B666-BC73-4A56-8E06-7CB9BC4C111E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4E31A-3A1A-4F7D-8825-1B476FB4ACD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="5085" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13050" yWindow="3735" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347:D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4864,10 +4864,10 @@
         <v>5003</v>
       </c>
       <c r="C324" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="D324" s="5"/>
-      <c r="E324" s="2"/>
+      <c r="E324" s="8"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
@@ -4906,7 +4906,7 @@
         <v>-40</v>
       </c>
       <c r="D327" s="5"/>
-      <c r="E327" s="2"/>
+      <c r="E327" s="8"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
@@ -5163,7 +5163,7 @@
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D349" s="5">
         <v>1</v>
@@ -5208,7 +5208,7 @@
         <v>5203</v>
       </c>
       <c r="C350" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5251,7 +5251,7 @@
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D354" s="5">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>5200</v>
       </c>
       <c r="C355" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D358" s="5">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>5206</v>
       </c>
       <c r="C359" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D359" s="5">
         <v>1</v>
@@ -5354,7 +5354,7 @@
         <v>5206</v>
       </c>
       <c r="C360" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>5203</v>
       </c>
       <c r="C364" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D364" s="5">
         <v>1</v>
@@ -5427,7 +5427,7 @@
         <v>5203</v>
       </c>
       <c r="C365" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5455,7 +5455,7 @@
         <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>5200</v>
       </c>
       <c r="C368" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>5200</v>
       </c>
       <c r="C369" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D369" s="5">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>5200</v>
       </c>
       <c r="C370" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>5206</v>
       </c>
       <c r="C372" s="4">
-        <v>61000</v>
+        <v>61001</v>
       </c>
       <c r="D372" s="5">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>5206</v>
       </c>
       <c r="C373" s="4">
-        <v>61001</v>
+        <v>61002</v>
       </c>
       <c r="D373" s="5">
         <v>1</v>
@@ -5558,7 +5558,7 @@
         <v>5206</v>
       </c>
       <c r="C374" s="4">
-        <v>61002</v>
+        <v>61003</v>
       </c>
       <c r="D374" s="5">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>5206</v>
       </c>
       <c r="C375" s="4">
-        <v>61003</v>
+        <v>61004</v>
       </c>
       <c r="D375" s="5">
         <v>1</v>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4E31A-3A1A-4F7D-8825-1B476FB4ACD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B621F33-7315-42ED-96DB-FEC37C43155B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="3735" windowWidth="25785" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="3930" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F444"/>
+  <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347:D375"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="H382" sqref="H382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
         <v>5003</v>
       </c>
       <c r="C16" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2584,42 +2584,47 @@
       <c r="E143" s="2"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="2"/>
-      <c r="F144"/>
-    </row>
+    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="2"/>
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="4"/>
+      <c r="A146" s="2">
+        <v>501000</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C146" s="4">
+        <v>101000</v>
+      </c>
       <c r="D146" s="5"/>
       <c r="E146" s="2"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>501010</v>
+      </c>
+      <c r="B147" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C147" s="4">
+        <v>101010</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="2"/>
       <c r="F147"/>
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501000</v>
+        <v>501020</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101000</v>
+        <v>101020</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
@@ -2627,13 +2632,13 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501010</v>
+        <v>501030</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101010</v>
+        <v>101030</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
@@ -2641,13 +2646,13 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501020</v>
+        <v>501040</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101020</v>
+        <v>101040</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
@@ -2655,13 +2660,13 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501030</v>
+        <v>501050</v>
       </c>
       <c r="B151" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C151" s="4">
-        <v>101030</v>
+        <v>20</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -2669,58 +2674,60 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501040</v>
+        <v>501051</v>
       </c>
       <c r="B152" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C152" s="4">
-        <v>101040</v>
+        <v>10</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>501050</v>
-      </c>
-      <c r="B153" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C153" s="4">
-        <v>10</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="2"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>501051</v>
+        <v>502000</v>
       </c>
       <c r="B154" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C154" s="4">
-        <v>5</v>
+        <v>102000</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="2"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>502001</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C155" s="4">
+        <v>702</v>
+      </c>
+      <c r="D155" s="5">
+        <v>0</v>
+      </c>
+      <c r="E155" s="8"/>
       <c r="F155"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502000</v>
+        <v>502010</v>
       </c>
       <c r="B156" s="3">
         <v>5013</v>
       </c>
       <c r="C156" s="4">
-        <v>102000</v>
+        <v>102010</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="2"/>
@@ -2728,29 +2735,27 @@
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502001</v>
+        <v>502020</v>
       </c>
       <c r="B157" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>702</v>
-      </c>
-      <c r="D157" s="5">
-        <v>0</v>
-      </c>
-      <c r="E157" s="8"/>
+        <v>102020</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="2"/>
       <c r="F157"/>
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502010</v>
+        <v>502030</v>
       </c>
       <c r="B158" s="3">
         <v>5013</v>
       </c>
       <c r="C158" s="4">
-        <v>102010</v>
+        <v>102030</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
@@ -2758,976 +2763,976 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502020</v>
+        <v>502031</v>
       </c>
       <c r="B159" s="3">
-        <v>5013</v>
+        <v>5109</v>
       </c>
       <c r="C159" s="4">
-        <v>102020</v>
-      </c>
-      <c r="D159" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>502030</v>
+        <v>502032</v>
       </c>
       <c r="B160" s="3">
-        <v>5013</v>
+        <v>5104</v>
       </c>
       <c r="C160" s="4">
-        <v>102030</v>
-      </c>
-      <c r="D160" s="5"/>
+        <v>60000</v>
+      </c>
+      <c r="D160" s="5">
+        <v>3</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>502031</v>
-      </c>
-      <c r="B161" s="3">
-        <v>5109</v>
-      </c>
-      <c r="C161" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D161" s="5">
-        <v>0</v>
-      </c>
-      <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>502032</v>
+        <v>510100</v>
       </c>
       <c r="B162" s="3">
-        <v>5104</v>
+        <v>5000</v>
       </c>
       <c r="C162" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D162" s="5">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D162" s="5"/>
       <c r="E162" s="2"/>
-      <c r="F162"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F163"/>
+      <c r="A163" s="2">
+        <v>510101</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C163" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>510100</v>
+        <v>510102</v>
       </c>
       <c r="B164" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C164" s="4">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>510101</v>
+        <v>510103</v>
       </c>
       <c r="B165" s="3">
         <v>5003</v>
       </c>
       <c r="C165" s="4">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>510102</v>
+        <v>510104</v>
       </c>
       <c r="B166" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C166" s="4">
-        <v>-5</v>
+        <v>-30</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510103</v>
+        <v>510110</v>
       </c>
       <c r="B167" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C167" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510104</v>
+        <v>510120</v>
       </c>
       <c r="B168" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C168" s="4">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510110</v>
+        <v>510130</v>
       </c>
       <c r="B169" s="3">
         <v>5000</v>
       </c>
       <c r="C169" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510120</v>
+        <v>510140</v>
       </c>
       <c r="B170" s="3">
         <v>5000</v>
       </c>
       <c r="C170" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510130</v>
+        <v>510150</v>
       </c>
       <c r="B171" s="3">
         <v>5000</v>
       </c>
       <c r="C171" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>510140</v>
-      </c>
-      <c r="B172" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C172" s="4">
-        <v>15</v>
-      </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="2"/>
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>510150</v>
+        <v>511060</v>
       </c>
       <c r="B173" s="3">
-        <v>5000</v>
+        <v>5009</v>
       </c>
       <c r="C173" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="6"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
+      <c r="A174" s="2">
+        <v>511061</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5119</v>
+      </c>
+      <c r="C174" s="4">
+        <v>60001</v>
+      </c>
+      <c r="D174" s="5">
+        <v>61002</v>
+      </c>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B175" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C175" s="4">
-        <v>1</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="2"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>511061</v>
+        <v>512100</v>
       </c>
       <c r="B176" s="3">
-        <v>5119</v>
+        <v>5013</v>
       </c>
       <c r="C176" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D176" s="5">
-        <v>61002</v>
-      </c>
+        <v>112100</v>
+      </c>
+      <c r="D176" s="5"/>
       <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="A177" s="2">
+        <v>512110</v>
+      </c>
+      <c r="B177" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C177" s="4">
+        <v>112110</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>512100</v>
+        <v>512111</v>
       </c>
       <c r="B178" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C178" s="4">
-        <v>112100</v>
+        <v>-50</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>512110</v>
+        <v>512120</v>
       </c>
       <c r="B179" s="3">
         <v>5013</v>
       </c>
       <c r="C179" s="4">
-        <v>112110</v>
+        <v>112120</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>512111</v>
+        <v>512130</v>
       </c>
       <c r="B180" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C180" s="4">
-        <v>-50</v>
+        <v>112130</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512120</v>
+        <v>512140</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112120</v>
+        <v>112140</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>512130</v>
-      </c>
-      <c r="B182" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C182" s="4">
-        <v>112130</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="2"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>512140</v>
+        <v>513100</v>
       </c>
       <c r="B183" s="3">
         <v>5013</v>
       </c>
       <c r="C183" s="4">
-        <v>112140</v>
+        <v>113100</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="A184" s="2">
+        <v>513110</v>
+      </c>
+      <c r="B184" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C184" s="4">
+        <v>113110</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>513100</v>
+        <v>513120</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>113100</v>
+        <v>113120</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>513110</v>
+        <v>513121</v>
       </c>
       <c r="B186" s="3">
         <v>5013</v>
       </c>
       <c r="C186" s="4">
-        <v>113110</v>
+        <v>113121</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>513120</v>
+        <v>513130</v>
       </c>
       <c r="B187" s="3">
         <v>5013</v>
       </c>
       <c r="C187" s="4">
-        <v>113120</v>
+        <v>113130</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513121</v>
+        <v>513140</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113121</v>
+        <v>113140</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513130</v>
+        <v>513141</v>
       </c>
       <c r="B189" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C189" s="4">
-        <v>113130</v>
-      </c>
-      <c r="D189" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D189" s="5">
+        <v>72001</v>
+      </c>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513140</v>
+        <v>513150</v>
       </c>
       <c r="B190" s="3">
         <v>5013</v>
       </c>
       <c r="C190" s="4">
-        <v>113140</v>
+        <v>113150</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513141</v>
+        <v>513160</v>
       </c>
       <c r="B191" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>601</v>
-      </c>
-      <c r="D191" s="5">
-        <v>72001</v>
-      </c>
+        <v>113160</v>
+      </c>
+      <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513150</v>
+        <v>513161</v>
       </c>
       <c r="B192" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C192" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D192" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D192" s="5">
+        <v>-5</v>
+      </c>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513160</v>
+        <v>513200</v>
       </c>
       <c r="B193" s="3">
         <v>5013</v>
       </c>
       <c r="C193" s="4">
-        <v>113160</v>
+        <v>113200</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513161</v>
+        <v>513210</v>
       </c>
       <c r="B194" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D194" s="5">
-        <v>-5</v>
-      </c>
+        <v>113210</v>
+      </c>
+      <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513200</v>
+        <v>513220</v>
       </c>
       <c r="B195" s="3">
         <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>113200</v>
+        <v>113220</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513210</v>
+        <v>513230</v>
       </c>
       <c r="B196" s="3">
         <v>5013</v>
       </c>
       <c r="C196" s="4">
-        <v>113210</v>
+        <v>113160</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>513220</v>
+        <v>513231</v>
       </c>
       <c r="B197" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C197" s="4">
-        <v>113220</v>
-      </c>
-      <c r="D197" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D197" s="5">
+        <v>-5</v>
+      </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>513230</v>
-      </c>
-      <c r="B198" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C198" s="4">
-        <v>113160</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="2"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>513231</v>
+        <v>515100</v>
       </c>
       <c r="B199" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C199" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D199" s="5">
-        <v>-5</v>
-      </c>
+        <v>115100</v>
+      </c>
+      <c r="D199" s="5"/>
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
+      <c r="A200" s="2">
+        <v>515101</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C200" s="4">
+        <v>20</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>515100</v>
+        <v>515102</v>
       </c>
       <c r="B201" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C201" s="4">
-        <v>115100</v>
+        <v>-2</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>515101</v>
+        <v>515103</v>
       </c>
       <c r="B202" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C202" s="4">
-        <v>10</v>
+        <v>115101</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515102</v>
+        <v>515104</v>
       </c>
       <c r="B203" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>-2</v>
+        <v>115102</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515103</v>
+        <v>515110</v>
       </c>
       <c r="B204" s="3">
         <v>5013</v>
       </c>
       <c r="C204" s="4">
-        <v>115101</v>
+        <v>115110</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515104</v>
+        <v>515111</v>
       </c>
       <c r="B205" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C205" s="4">
-        <v>115102</v>
+        <v>40</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515110</v>
+        <v>515112</v>
       </c>
       <c r="B206" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C206" s="4">
-        <v>115110</v>
+        <v>-2</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515111</v>
+        <v>515113</v>
       </c>
       <c r="B207" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C207" s="4">
-        <v>20</v>
+        <v>115111</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515112</v>
+        <v>515114</v>
       </c>
       <c r="B208" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>-2</v>
+        <v>115112</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515113</v>
+        <v>515120</v>
       </c>
       <c r="B209" s="3">
         <v>5013</v>
       </c>
       <c r="C209" s="4">
-        <v>115111</v>
+        <v>115120</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515114</v>
+        <v>515121</v>
       </c>
       <c r="B210" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C210" s="4">
-        <v>115112</v>
+        <v>10</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515120</v>
+        <v>515122</v>
       </c>
       <c r="B211" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C211" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515121</v>
+        <v>515130</v>
       </c>
       <c r="B212" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C212" s="4">
-        <v>5</v>
+        <v>115120</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515122</v>
+        <v>515131</v>
       </c>
       <c r="B213" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C213" s="4">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515130</v>
+        <v>515132</v>
       </c>
       <c r="B214" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C214" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515131</v>
+        <v>515140</v>
       </c>
       <c r="B215" s="3">
         <v>5000</v>
       </c>
       <c r="C215" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515132</v>
+        <v>515150</v>
       </c>
       <c r="B216" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C216" s="4">
-        <v>-1</v>
+        <v>115150</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515140</v>
+        <v>515160</v>
       </c>
       <c r="B217" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C217" s="4">
-        <v>100</v>
+        <v>115160</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515150</v>
+        <v>515170</v>
       </c>
       <c r="B218" s="3">
         <v>5013</v>
       </c>
       <c r="C218" s="4">
-        <v>115150</v>
+        <v>115170</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515160</v>
+        <v>515171</v>
       </c>
       <c r="B219" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C219" s="4">
-        <v>115160</v>
-      </c>
-      <c r="D219" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D219" s="5">
+        <v>-4</v>
+      </c>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515170</v>
+        <v>515180</v>
       </c>
       <c r="B220" s="3">
         <v>5013</v>
       </c>
       <c r="C220" s="4">
-        <v>115170</v>
+        <v>115180</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515171</v>
+        <v>515181</v>
       </c>
       <c r="B221" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C221" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D221" s="5">
-        <v>-3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>515180</v>
-      </c>
-      <c r="B222" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C222" s="4">
-        <v>115180</v>
-      </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="2"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>515181</v>
+        <v>516100</v>
       </c>
       <c r="B223" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C223" s="4">
-        <v>15</v>
+        <v>116100</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
+      <c r="A224" s="2">
+        <v>516101</v>
+      </c>
+      <c r="B224" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C224" s="4">
+        <v>20</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>516100</v>
+        <v>516102</v>
       </c>
       <c r="B225" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C225" s="4">
-        <v>116100</v>
+        <v>-2</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>516101</v>
+        <v>516103</v>
       </c>
       <c r="B226" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C226" s="4">
-        <v>15</v>
+        <v>116101</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516102</v>
+        <v>516104</v>
       </c>
       <c r="B227" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C227" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516103</v>
+        <v>516105</v>
       </c>
       <c r="B228" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C228" s="4">
-        <v>116101</v>
+        <v>5</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516104</v>
+        <v>516110</v>
       </c>
       <c r="B229" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C229" s="4">
-        <v>-5</v>
+        <v>116110</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516105</v>
+        <v>516120</v>
       </c>
       <c r="B230" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C230" s="4">
-        <v>5</v>
+        <v>116120</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516110</v>
+        <v>516121</v>
       </c>
       <c r="B231" s="3">
         <v>5013</v>
       </c>
       <c r="C231" s="4">
-        <v>116110</v>
+        <v>116120</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516120</v>
+        <v>516122</v>
       </c>
       <c r="B232" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C232" s="4">
-        <v>116120</v>
-      </c>
-      <c r="D232" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D232" s="5">
+        <v>-4</v>
+      </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516121</v>
+        <v>516130</v>
       </c>
       <c r="B233" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C233" s="4">
-        <v>116120</v>
-      </c>
-      <c r="D233" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D233" s="5">
+        <v>-4</v>
+      </c>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516122</v>
+        <v>516131</v>
       </c>
       <c r="B234" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C234" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D234" s="5">
-        <v>-4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D234" s="5"/>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>516130</v>
+        <v>516132</v>
       </c>
       <c r="B235" s="3">
         <v>5107</v>
@@ -3736,260 +3741,256 @@
         <v>60006</v>
       </c>
       <c r="D235" s="5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>516131</v>
-      </c>
-      <c r="B236" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C236" s="4">
-        <v>10</v>
-      </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="2"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>516132</v>
+        <v>517100</v>
       </c>
       <c r="B237" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C237" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D237" s="5">
-        <v>-3</v>
-      </c>
+        <v>117100</v>
+      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="A238" s="2">
+        <v>517110</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C238" s="4">
+        <v>117110</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>517100</v>
+        <v>517120</v>
       </c>
       <c r="B239" s="3">
         <v>5013</v>
       </c>
       <c r="C239" s="4">
-        <v>117100</v>
+        <v>117120</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>517110</v>
+        <v>517121</v>
       </c>
       <c r="B240" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C240" s="4">
-        <v>117110</v>
-      </c>
-      <c r="D240" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D240" s="5">
+        <v>-4</v>
+      </c>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517120</v>
+        <v>517122</v>
       </c>
       <c r="B241" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C241" s="4">
-        <v>117120</v>
+        <v>20</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517121</v>
+        <v>517130</v>
       </c>
       <c r="B242" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C242" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D242" s="5">
-        <v>-3</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517122</v>
+        <v>517131</v>
       </c>
       <c r="B243" s="3">
-        <v>5003</v>
+        <v>5301</v>
       </c>
       <c r="C243" s="4">
-        <v>10</v>
-      </c>
-      <c r="D243" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517130</v>
+        <v>517132</v>
       </c>
       <c r="B244" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C244" s="4">
-        <v>117130</v>
+        <v>60011</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517131</v>
+        <v>517140</v>
       </c>
       <c r="B245" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C245" s="4">
-        <v>700</v>
-      </c>
-      <c r="D245" s="5">
-        <v>1</v>
-      </c>
+        <v>117140</v>
+      </c>
+      <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517132</v>
+        <v>517141</v>
       </c>
       <c r="B246" s="3">
-        <v>5300</v>
+        <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>60011</v>
+        <v>117141</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517140</v>
+        <v>517150</v>
       </c>
       <c r="B247" s="3">
         <v>5013</v>
       </c>
       <c r="C247" s="4">
-        <v>117140</v>
+        <v>117150</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517141</v>
+        <v>517151</v>
       </c>
       <c r="B248" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C248" s="4">
-        <v>117141</v>
+        <v>20</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517150</v>
+        <v>517152</v>
       </c>
       <c r="B249" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C249" s="4">
-        <v>117150</v>
-      </c>
-      <c r="D249" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D249" s="5">
+        <v>-4</v>
+      </c>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517151</v>
+        <v>517153</v>
       </c>
       <c r="B250" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C250" s="4">
-        <v>20</v>
-      </c>
-      <c r="D250" s="5"/>
+        <v>60008</v>
+      </c>
+      <c r="D250" s="5">
+        <v>-4</v>
+      </c>
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517152</v>
+        <v>517154</v>
       </c>
       <c r="B251" s="3">
         <v>5107</v>
       </c>
       <c r="C251" s="4">
-        <v>60007</v>
+        <v>60009</v>
       </c>
       <c r="D251" s="5">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>517153</v>
-      </c>
-      <c r="B252" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C252" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D252" s="5">
-        <v>-3</v>
-      </c>
-      <c r="E252" s="2"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>517154</v>
+        <v>518100</v>
       </c>
       <c r="B253" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C253" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D253" s="5">
-        <v>-3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C253" s="4"/>
+      <c r="D253" s="5"/>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="6"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
+      <c r="A254" s="2">
+        <v>518110</v>
+      </c>
+      <c r="B254" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C254" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D254" s="5"/>
+      <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>518100</v>
+        <v>518111</v>
       </c>
       <c r="B255" s="3">
         <v>0</v>
@@ -4000,164 +4001,164 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>518110</v>
+        <v>518112</v>
       </c>
       <c r="B256" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C256" s="4">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C256" s="4"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518111</v>
+        <v>518113</v>
       </c>
       <c r="B257" s="3">
-        <v>0</v>
-      </c>
-      <c r="C257" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C257" s="4">
+        <v>118114</v>
+      </c>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518112</v>
+        <v>518114</v>
       </c>
       <c r="B258" s="3">
-        <v>0</v>
-      </c>
-      <c r="C258" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C258" s="4">
+        <v>118115</v>
+      </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518113</v>
+        <v>518115</v>
       </c>
       <c r="B259" s="3">
         <v>5013</v>
       </c>
       <c r="C259" s="4">
-        <v>118114</v>
+        <v>118116</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518114</v>
+        <v>518116</v>
       </c>
       <c r="B260" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C260" s="4">
-        <v>118115</v>
+        <v>10</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>518115</v>
+        <v>518117</v>
       </c>
       <c r="B261" s="3">
-        <v>5013</v>
+        <v>5209</v>
       </c>
       <c r="C261" s="4">
-        <v>118116</v>
+        <v>70201</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>518116</v>
-      </c>
-      <c r="B262" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C262" s="4">
-        <v>10</v>
-      </c>
-      <c r="D262" s="5"/>
-      <c r="E262" s="2"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>518117</v>
+        <v>519100</v>
       </c>
       <c r="B263" s="3">
-        <v>5209</v>
+        <v>5013</v>
       </c>
       <c r="C263" s="4">
-        <v>70201</v>
+        <v>119100</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="6"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
+      <c r="A264" s="2">
+        <v>519101</v>
+      </c>
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>519100</v>
+        <v>519102</v>
       </c>
       <c r="B265" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C265" s="4">
-        <v>119100</v>
+        <v>-2</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519101</v>
+        <v>519110</v>
       </c>
       <c r="B266" s="3">
-        <v>0</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C266" s="4">
+        <v>191100</v>
+      </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519102</v>
+        <v>519111</v>
       </c>
       <c r="B267" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C267" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519110</v>
+        <v>519112</v>
       </c>
       <c r="B268" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C268" s="4">
-        <v>191100</v>
+        <v>-2</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519111</v>
+        <v>519120</v>
       </c>
       <c r="B269" s="3">
         <v>0</v>
@@ -4168,762 +4169,764 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519112</v>
+        <v>519121</v>
       </c>
       <c r="B270" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C270" s="4">
-        <v>-2</v>
+        <v>119121</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519120</v>
+        <v>519122</v>
       </c>
       <c r="B271" s="3">
-        <v>0</v>
-      </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="5"/>
+        <v>5107</v>
+      </c>
+      <c r="C271" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D271" s="5">
+        <v>-4</v>
+      </c>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519121</v>
+        <v>519123</v>
       </c>
       <c r="B272" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C272" s="4">
-        <v>119121</v>
+        <v>20</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519122</v>
+        <v>519130</v>
       </c>
       <c r="B273" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C273" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D273" s="5">
-        <v>-3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519123</v>
+        <v>519131</v>
       </c>
       <c r="B274" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C274" s="4">
-        <v>10</v>
+        <v>119130</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519130</v>
+        <v>519140</v>
       </c>
       <c r="B275" s="3">
         <v>5003</v>
       </c>
       <c r="C275" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519131</v>
+        <v>519141</v>
       </c>
       <c r="B276" s="3">
         <v>5013</v>
       </c>
       <c r="C276" s="4">
-        <v>119130</v>
+        <v>119140</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519140</v>
+        <v>519150</v>
       </c>
       <c r="B277" s="3">
         <v>5003</v>
       </c>
       <c r="C277" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519141</v>
+        <v>519151</v>
       </c>
       <c r="B278" s="3">
         <v>5013</v>
       </c>
       <c r="C278" s="4">
-        <v>119140</v>
+        <v>119150</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>519150</v>
-      </c>
-      <c r="B279" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C279" s="4">
-        <v>10</v>
-      </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>519151</v>
+        <v>520100</v>
       </c>
       <c r="B280" s="3">
         <v>5013</v>
       </c>
       <c r="C280" s="4">
-        <v>119150</v>
+        <v>120100</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
+      <c r="A281" s="2">
+        <v>520110</v>
+      </c>
+      <c r="B281" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C281" s="4">
+        <v>120110</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>520100</v>
+        <v>520120</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>120100</v>
+        <v>120120</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520110</v>
+        <v>520121</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120110</v>
+        <v>120121</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520120</v>
+        <v>520122</v>
       </c>
       <c r="B284" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C284" s="4">
-        <v>120120</v>
+        <v>-3</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520121</v>
+        <v>520123</v>
       </c>
       <c r="B285" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C285" s="4">
-        <v>120121</v>
+        <v>10</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520122</v>
+        <v>520124</v>
       </c>
       <c r="B286" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C286" s="4">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520123</v>
+        <v>520130</v>
       </c>
       <c r="B287" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C287" s="4">
-        <v>10</v>
+        <v>120130</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520124</v>
+        <v>520140</v>
       </c>
       <c r="B288" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>10</v>
+        <v>120140</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520130</v>
+        <v>520150</v>
       </c>
       <c r="B289" s="3">
         <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>120130</v>
+        <v>120150</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520140</v>
+        <v>520160</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120140</v>
+        <v>120160</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520150</v>
+        <v>520161</v>
       </c>
       <c r="B291" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C291" s="4">
-        <v>120150</v>
+        <v>-30</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520160</v>
+        <v>520162</v>
       </c>
       <c r="B292" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C292" s="4">
-        <v>120160</v>
+        <v>-10</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>520161</v>
-      </c>
-      <c r="B293" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C293" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="2"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>520162</v>
+        <v>521100</v>
       </c>
       <c r="B294" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C294" s="4">
-        <v>-10</v>
+        <v>121100</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
+      <c r="A295" s="2">
+        <v>521110</v>
+      </c>
+      <c r="B295" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C295" s="4">
+        <v>121110</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>521100</v>
+        <v>521111</v>
       </c>
       <c r="B296" s="3">
         <v>5013</v>
       </c>
       <c r="C296" s="4">
-        <v>121100</v>
+        <v>121111</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521110</v>
+        <v>521112</v>
       </c>
       <c r="B297" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C297" s="4">
-        <v>121110</v>
+        <v>40</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521111</v>
+        <v>521113</v>
       </c>
       <c r="B298" s="3">
         <v>5013</v>
       </c>
       <c r="C298" s="4">
-        <v>121111</v>
+        <v>121112</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521112</v>
+        <v>521114</v>
       </c>
       <c r="B299" s="3">
         <v>5000</v>
       </c>
       <c r="C299" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521113</v>
+        <v>521120</v>
       </c>
       <c r="B300" s="3">
         <v>5013</v>
       </c>
       <c r="C300" s="4">
-        <v>121112</v>
+        <v>121120</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521114</v>
+        <v>521121</v>
       </c>
       <c r="B301" s="3">
-        <v>5000</v>
+        <v>5107</v>
       </c>
       <c r="C301" s="4">
-        <v>10</v>
-      </c>
-      <c r="D301" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D301" s="5">
+        <v>-4</v>
+      </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521120</v>
+        <v>521122</v>
       </c>
       <c r="B302" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C302" s="4">
-        <v>121120</v>
+        <v>30</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521121</v>
+        <v>521123</v>
       </c>
       <c r="B303" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C303" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D303" s="5">
-        <v>-3</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521122</v>
+        <v>521124</v>
       </c>
       <c r="B304" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C304" s="4">
-        <v>10</v>
-      </c>
-      <c r="D304" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D304" s="5">
+        <v>-10</v>
+      </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521123</v>
+        <v>521130</v>
       </c>
       <c r="B305" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C305" s="4">
-        <v>-30</v>
+        <v>121130</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521124</v>
+        <v>521140</v>
       </c>
       <c r="B306" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C306" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D306" s="5">
-        <v>-10</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521130</v>
+        <v>521141</v>
       </c>
       <c r="B307" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C307" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D307" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D307" s="5">
+        <v>-4</v>
+      </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521140</v>
+        <v>521150</v>
       </c>
       <c r="B308" s="3">
         <v>5013</v>
       </c>
       <c r="C308" s="4">
-        <v>121140</v>
+        <v>121150</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521141</v>
+        <v>521151</v>
       </c>
       <c r="B309" s="3">
-        <v>5107</v>
+        <v>5006</v>
       </c>
       <c r="C309" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D309" s="5">
-        <v>-3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521150</v>
+        <v>521152</v>
       </c>
       <c r="B310" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C310" s="4">
-        <v>121150</v>
+        <v>10</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521151</v>
+        <v>521160</v>
       </c>
       <c r="B311" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C311" s="4">
-        <v>2</v>
+        <v>121160</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521152</v>
+        <v>521170</v>
       </c>
       <c r="B312" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>10</v>
+        <v>121170</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521160</v>
+        <v>521180</v>
       </c>
       <c r="B313" s="3">
         <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>121160</v>
+        <v>121180</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521170</v>
+        <v>521181</v>
       </c>
       <c r="B314" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C314" s="4">
-        <v>121170</v>
+        <v>3</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="2">
-        <v>521180</v>
-      </c>
-      <c r="B315" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C315" s="4">
-        <v>121180</v>
-      </c>
-      <c r="D315" s="5"/>
-      <c r="E315" s="2"/>
+      <c r="A315" s="6"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>521181</v>
+        <v>530000</v>
       </c>
       <c r="B316" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C316" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
+      <c r="A317" s="2">
+        <v>530001</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C317" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530000</v>
+        <v>530002</v>
       </c>
       <c r="B318" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C318" s="4">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530001</v>
+        <v>530003</v>
       </c>
       <c r="B319" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C319" s="4">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530002</v>
+        <v>530010</v>
       </c>
       <c r="B320" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C320" s="4">
-        <v>-10</v>
+        <v>130010</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530003</v>
+        <v>530011</v>
       </c>
       <c r="B321" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C321" s="4">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530010</v>
+        <v>530012</v>
       </c>
       <c r="B322" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C322" s="4">
-        <v>130010</v>
+        <v>-40</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530011</v>
+        <v>530020</v>
       </c>
       <c r="B323" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C323" s="4">
-        <v>2</v>
+        <v>130020</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530012</v>
+        <v>530021</v>
       </c>
       <c r="B324" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C324" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D324" s="5"/>
-      <c r="E324" s="8"/>
+      <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530020</v>
+        <v>530022</v>
       </c>
       <c r="B325" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C325" s="4">
-        <v>130020</v>
+        <v>-40</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530021</v>
+        <v>530030</v>
       </c>
       <c r="B326" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C326" s="4">
-        <v>3</v>
+        <v>130030</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530022</v>
+        <v>530031</v>
       </c>
       <c r="B327" s="3">
         <v>5003</v>
       </c>
       <c r="C327" s="4">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D327" s="5"/>
-      <c r="E327" s="8"/>
+      <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530030</v>
+        <v>530040</v>
       </c>
       <c r="B328" s="3">
         <v>5013</v>
       </c>
       <c r="C328" s="4">
-        <v>130030</v>
+        <v>130040</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530031</v>
+        <v>530041</v>
       </c>
       <c r="B329" s="3">
         <v>5003</v>
@@ -4936,20 +4939,20 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530040</v>
+        <v>530050</v>
       </c>
       <c r="B330" s="3">
         <v>5013</v>
       </c>
       <c r="C330" s="4">
-        <v>130040</v>
+        <v>130050</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530041</v>
+        <v>530051</v>
       </c>
       <c r="B331" s="3">
         <v>5003</v>
@@ -4962,20 +4965,20 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530050</v>
+        <v>530060</v>
       </c>
       <c r="B332" s="3">
         <v>5013</v>
       </c>
       <c r="C332" s="4">
-        <v>130050</v>
+        <v>130060</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530051</v>
+        <v>530061</v>
       </c>
       <c r="B333" s="3">
         <v>5003</v>
@@ -4988,20 +4991,20 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530060</v>
+        <v>530070</v>
       </c>
       <c r="B334" s="3">
         <v>5013</v>
       </c>
       <c r="C334" s="4">
-        <v>130060</v>
+        <v>130070</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530061</v>
+        <v>530071</v>
       </c>
       <c r="B335" s="3">
         <v>5003</v>
@@ -5014,20 +5017,20 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530070</v>
+        <v>530080</v>
       </c>
       <c r="B336" s="3">
         <v>5013</v>
       </c>
       <c r="C336" s="4">
-        <v>130070</v>
+        <v>130080</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530071</v>
+        <v>530081</v>
       </c>
       <c r="B337" s="3">
         <v>5003</v>
@@ -5040,20 +5043,20 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530080</v>
+        <v>530090</v>
       </c>
       <c r="B338" s="3">
         <v>5013</v>
       </c>
       <c r="C338" s="4">
-        <v>130080</v>
+        <v>130090</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530081</v>
+        <v>530091</v>
       </c>
       <c r="B339" s="3">
         <v>5003</v>
@@ -5066,20 +5069,20 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530090</v>
+        <v>530100</v>
       </c>
       <c r="B340" s="3">
         <v>5013</v>
       </c>
       <c r="C340" s="4">
-        <v>130090</v>
+        <v>130100</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530091</v>
+        <v>530101</v>
       </c>
       <c r="B341" s="3">
         <v>5003</v>
@@ -5092,20 +5095,20 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530100</v>
+        <v>530110</v>
       </c>
       <c r="B342" s="3">
         <v>5013</v>
       </c>
       <c r="C342" s="4">
-        <v>130100</v>
+        <v>130110</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530101</v>
+        <v>530111</v>
       </c>
       <c r="B343" s="3">
         <v>5003</v>
@@ -5118,52 +5121,56 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530110</v>
+        <v>530120</v>
       </c>
       <c r="B344" s="3">
         <v>5013</v>
       </c>
       <c r="C344" s="4">
-        <v>130110</v>
+        <v>130120</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530111</v>
+        <v>530121</v>
       </c>
       <c r="B345" s="3">
-        <v>5003</v>
+        <v>5203</v>
       </c>
       <c r="C345" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D345" s="5"/>
+        <v>61001</v>
+      </c>
+      <c r="D345" s="5">
+        <v>1</v>
+      </c>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530120</v>
+        <v>530122</v>
       </c>
       <c r="B346" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C346" s="4">
-        <v>130120</v>
-      </c>
-      <c r="D346" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D346" s="5">
+        <v>1</v>
+      </c>
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530121</v>
+        <v>530123</v>
       </c>
       <c r="B347" s="3">
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5172,13 +5179,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530122</v>
+        <v>530124</v>
       </c>
       <c r="B348" s="3">
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5187,28 +5194,26 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530123</v>
+        <v>530130</v>
       </c>
       <c r="B349" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C349" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D349" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530124</v>
+        <v>530131</v>
       </c>
       <c r="B350" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C350" s="4">
-        <v>61004</v>
+        <v>61001</v>
       </c>
       <c r="D350" s="5">
         <v>1</v>
@@ -5217,26 +5222,28 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530130</v>
+        <v>530132</v>
       </c>
       <c r="B351" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C351" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D351" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D351" s="5">
+        <v>1</v>
+      </c>
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530131</v>
+        <v>530133</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5245,13 +5252,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530132</v>
+        <v>530134</v>
       </c>
       <c r="B353" s="3">
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5260,28 +5267,26 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530133</v>
+        <v>530140</v>
       </c>
       <c r="B354" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C354" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D354" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D354" s="5"/>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530134</v>
+        <v>530141</v>
       </c>
       <c r="B355" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C355" s="4">
-        <v>61004</v>
+        <v>61001</v>
       </c>
       <c r="D355" s="5">
         <v>1</v>
@@ -5290,26 +5295,28 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530140</v>
+        <v>530142</v>
       </c>
       <c r="B356" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D356" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D356" s="5">
+        <v>1</v>
+      </c>
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530141</v>
+        <v>530143</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5318,13 +5325,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530142</v>
+        <v>530144</v>
       </c>
       <c r="B358" s="3">
         <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D358" s="5">
         <v>1</v>
@@ -5333,28 +5340,26 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530143</v>
+        <v>530150</v>
       </c>
       <c r="B359" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C359" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D359" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D359" s="5"/>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530144</v>
+        <v>530151</v>
       </c>
       <c r="B360" s="3">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="C360" s="4">
-        <v>61004</v>
+        <v>61001</v>
       </c>
       <c r="D360" s="5">
         <v>1</v>
@@ -5363,26 +5368,28 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530150</v>
+        <v>530152</v>
       </c>
       <c r="B361" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D361" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D361" s="5">
+        <v>1</v>
+      </c>
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530151</v>
+        <v>530153</v>
       </c>
       <c r="B362" s="3">
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5391,13 +5398,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530152</v>
+        <v>530154</v>
       </c>
       <c r="B363" s="3">
         <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5406,28 +5413,26 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530153</v>
+        <v>530160</v>
       </c>
       <c r="B364" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C364" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D364" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D364" s="5"/>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530154</v>
+        <v>530161</v>
       </c>
       <c r="B365" s="3">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="C365" s="4">
-        <v>61004</v>
+        <v>61001</v>
       </c>
       <c r="D365" s="5">
         <v>1</v>
@@ -5436,26 +5441,28 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530160</v>
+        <v>530162</v>
       </c>
       <c r="B366" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C366" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D366" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D366" s="5">
+        <v>1</v>
+      </c>
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530161</v>
+        <v>530163</v>
       </c>
       <c r="B367" s="3">
         <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5464,13 +5471,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530162</v>
+        <v>530164</v>
       </c>
       <c r="B368" s="3">
         <v>5200</v>
       </c>
       <c r="C368" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5479,28 +5486,26 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530163</v>
+        <v>530170</v>
       </c>
       <c r="B369" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C369" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D369" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D369" s="5"/>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530164</v>
+        <v>530171</v>
       </c>
       <c r="B370" s="3">
-        <v>5200</v>
+        <v>5206</v>
       </c>
       <c r="C370" s="4">
-        <v>61004</v>
+        <v>61001</v>
       </c>
       <c r="D370" s="5">
         <v>1</v>
@@ -5509,26 +5514,28 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530170</v>
+        <v>530172</v>
       </c>
       <c r="B371" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C371" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D371" s="5"/>
+        <v>61002</v>
+      </c>
+      <c r="D371" s="5">
+        <v>1</v>
+      </c>
       <c r="E371" s="2"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530171</v>
+        <v>530173</v>
       </c>
       <c r="B372" s="3">
         <v>5206</v>
       </c>
       <c r="C372" s="4">
-        <v>61001</v>
+        <v>61003</v>
       </c>
       <c r="D372" s="5">
         <v>1</v>
@@ -5537,13 +5544,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>530172</v>
+        <v>530174</v>
       </c>
       <c r="B373" s="3">
         <v>5206</v>
       </c>
       <c r="C373" s="4">
-        <v>61002</v>
+        <v>61004</v>
       </c>
       <c r="D373" s="5">
         <v>1</v>
@@ -5551,201 +5558,191 @@
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>530173</v>
-      </c>
-      <c r="B374" s="3">
-        <v>5206</v>
-      </c>
-      <c r="C374" s="4">
-        <v>61003</v>
-      </c>
-      <c r="D374" s="5">
-        <v>1</v>
-      </c>
-      <c r="E374" s="2"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
-        <v>530174</v>
+        <v>550000</v>
       </c>
       <c r="B375" s="3">
-        <v>5206</v>
+        <v>5006</v>
       </c>
       <c r="C375" s="4">
-        <v>61004</v>
-      </c>
-      <c r="D375" s="5">
-        <v>1</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="D375" s="5"/>
       <c r="E375" s="2"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="6"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
+      <c r="A376" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B376" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C376" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D376" s="5"/>
+      <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550000</v>
+        <v>550002</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550001</v>
+        <v>550003</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550002</v>
+        <v>550010</v>
       </c>
       <c r="B379" s="3">
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>550003</v>
+        <v>550011</v>
       </c>
       <c r="B380" s="3">
         <v>5006</v>
       </c>
       <c r="C380" s="4">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>550010</v>
+        <v>550012</v>
       </c>
       <c r="B381" s="3">
         <v>5006</v>
       </c>
       <c r="C381" s="4">
-        <v>15</v>
+        <v>-50</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="2">
-        <v>550011</v>
-      </c>
-      <c r="B382" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C382" s="4">
-        <v>-20</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="2"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>550012</v>
+        <v>550020</v>
       </c>
       <c r="B383" s="3">
-        <v>5006</v>
+        <v>5022</v>
       </c>
       <c r="C383" s="4">
-        <v>-50</v>
+        <v>73000</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="2"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
+      <c r="A384" s="2">
+        <v>550021</v>
+      </c>
+      <c r="B384" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C384" s="4">
+        <v>73001</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550020</v>
+        <v>550022</v>
       </c>
       <c r="B385" s="3">
         <v>5022</v>
       </c>
       <c r="C385" s="4">
-        <v>73000</v>
+        <v>73002</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550021</v>
+        <v>550023</v>
       </c>
       <c r="B386" s="3">
         <v>5022</v>
       </c>
       <c r="C386" s="4">
-        <v>73001</v>
+        <v>73003</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550022</v>
+        <v>550024</v>
       </c>
       <c r="B387" s="3">
         <v>5022</v>
       </c>
       <c r="C387" s="4">
-        <v>73002</v>
+        <v>73004</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>550023</v>
-      </c>
-      <c r="B388" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C388" s="4">
-        <v>73003</v>
-      </c>
-      <c r="D388" s="5"/>
-      <c r="E388" s="2"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>550024</v>
+        <v>559000</v>
       </c>
       <c r="B389" s="3">
-        <v>5022</v>
+        <v>5013</v>
       </c>
       <c r="C389" s="4">
-        <v>73004</v>
+        <v>559000</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="2"/>
@@ -5758,110 +5755,116 @@
       <c r="E390" s="6"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B391" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C391" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D391" s="5"/>
-      <c r="E391" s="2"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="6"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
+      <c r="A392" s="2">
+        <v>550000</v>
+      </c>
+      <c r="B392" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C392" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D392" s="5"/>
+      <c r="E392" s="2"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="6"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
+      <c r="A393" s="2">
+        <v>550001</v>
+      </c>
+      <c r="B393" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C393" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D393" s="5"/>
+      <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>550000</v>
+        <v>550002</v>
       </c>
       <c r="B394" s="3">
         <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>550001</v>
+        <v>550003</v>
       </c>
       <c r="B395" s="3">
         <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="2">
-        <v>550002</v>
-      </c>
-      <c r="B396" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C396" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D396" s="5"/>
-      <c r="E396" s="2"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>550003</v>
+        <v>559000</v>
       </c>
       <c r="B397" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C397" s="4">
-        <v>-8</v>
+        <v>559000</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="6"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>559000</v>
-      </c>
-      <c r="B399" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C399" s="4">
-        <v>559000</v>
-      </c>
-      <c r="D399" s="5"/>
-      <c r="E399" s="2"/>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>540000</v>
+      </c>
+      <c r="B400" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C400" s="4">
+        <v>50</v>
+      </c>
+      <c r="D400" s="5"/>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>540001</v>
+      </c>
+      <c r="B401" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C401" s="4">
+        <v>50</v>
+      </c>
+      <c r="D401" s="5"/>
+      <c r="E401" s="2"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540000</v>
+        <v>540002</v>
       </c>
       <c r="B402" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C402" s="4">
         <v>50</v>
@@ -5871,36 +5874,36 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>540001</v>
+        <v>540010</v>
       </c>
       <c r="B403" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C403" s="4">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>540002</v>
+        <v>540011</v>
       </c>
       <c r="B404" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C404" s="4">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="2"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>540010</v>
+        <v>540012</v>
       </c>
       <c r="B405" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C405" s="4">
         <v>-50</v>
@@ -5908,262 +5911,266 @@
       <c r="D405" s="5"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
-        <v>540011</v>
-      </c>
-      <c r="B406" s="3">
-        <v>5003</v>
-      </c>
-      <c r="C406" s="4">
-        <v>-50</v>
-      </c>
-      <c r="D406" s="5"/>
-      <c r="E406" s="2"/>
-    </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>540012</v>
+        <v>540020</v>
       </c>
       <c r="B407" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C407" s="4">
-        <v>-50</v>
+        <v>140020</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="2"/>
     </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>540021</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5302</v>
+      </c>
+      <c r="C408" s="4"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="2"/>
+    </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>540020</v>
+        <v>540030</v>
       </c>
       <c r="B409" s="3">
         <v>5013</v>
       </c>
       <c r="C409" s="4">
-        <v>140020</v>
+        <v>140030</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>540021</v>
+        <v>540040</v>
       </c>
       <c r="B410" s="3">
-        <v>5302</v>
-      </c>
-      <c r="C410" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C410" s="4">
+        <v>140040</v>
+      </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>540030</v>
+        <v>540041</v>
       </c>
       <c r="B411" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C411" s="4">
-        <v>140030</v>
-      </c>
-      <c r="D411" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D411" s="5">
+        <v>72000</v>
+      </c>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>540040</v>
+        <v>540100</v>
       </c>
       <c r="B412" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C412" s="4">
-        <v>140040</v>
+        <v>60000</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>540041</v>
+        <v>540101</v>
       </c>
       <c r="B413" s="3">
-        <v>5303</v>
+        <v>5300</v>
       </c>
       <c r="C413" s="4">
-        <v>101</v>
-      </c>
-      <c r="D413" s="5">
-        <v>72000</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>540100</v>
+        <v>540102</v>
       </c>
       <c r="B414" s="3">
         <v>5300</v>
       </c>
       <c r="C414" s="4">
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>540101</v>
+        <v>540103</v>
       </c>
       <c r="B415" s="3">
         <v>5300</v>
       </c>
       <c r="C415" s="4">
-        <v>60001</v>
+        <v>60003</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>540102</v>
+        <v>540104</v>
       </c>
       <c r="B416" s="3">
         <v>5300</v>
       </c>
       <c r="C416" s="4">
-        <v>60002</v>
+        <v>60004</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>540103</v>
+        <v>540105</v>
       </c>
       <c r="B417" s="3">
         <v>5300</v>
       </c>
       <c r="C417" s="4">
-        <v>60003</v>
+        <v>60005</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>540104</v>
+        <v>540106</v>
       </c>
       <c r="B418" s="3">
         <v>5300</v>
       </c>
       <c r="C418" s="4">
-        <v>60004</v>
+        <v>60006</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>540105</v>
+        <v>540107</v>
       </c>
       <c r="B419" s="3">
         <v>5300</v>
       </c>
       <c r="C419" s="4">
-        <v>60005</v>
+        <v>60007</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>540106</v>
+        <v>540108</v>
       </c>
       <c r="B420" s="3">
         <v>5300</v>
       </c>
       <c r="C420" s="4">
-        <v>60006</v>
+        <v>60008</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>540107</v>
+        <v>540109</v>
       </c>
       <c r="B421" s="3">
         <v>5300</v>
       </c>
       <c r="C421" s="4">
-        <v>60007</v>
+        <v>60009</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>540108</v>
+        <v>540110</v>
       </c>
       <c r="B422" s="3">
         <v>5300</v>
       </c>
       <c r="C422" s="4">
-        <v>60008</v>
+        <v>60010</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>540109</v>
+        <v>540111</v>
       </c>
       <c r="B423" s="3">
         <v>5300</v>
       </c>
       <c r="C423" s="4">
-        <v>60009</v>
+        <v>60011</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>540110</v>
+        <v>540120</v>
       </c>
       <c r="B424" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C424" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D424" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="D424" s="5">
+        <v>0</v>
+      </c>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>540111</v>
+        <v>540121</v>
       </c>
       <c r="B425" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C425" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D425" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D425" s="5">
+        <v>0</v>
+      </c>
       <c r="E425" s="2"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>540120</v>
+        <v>540122</v>
       </c>
       <c r="B426" s="3">
         <v>5301</v>
       </c>
       <c r="C426" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D426" s="5">
         <v>0</v>
@@ -6172,13 +6179,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>540121</v>
+        <v>540123</v>
       </c>
       <c r="B427" s="3">
         <v>5301</v>
       </c>
       <c r="C427" s="4">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D427" s="5">
         <v>0</v>
@@ -6187,13 +6194,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>540122</v>
+        <v>540124</v>
       </c>
       <c r="B428" s="3">
         <v>5301</v>
       </c>
       <c r="C428" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D428" s="5">
         <v>0</v>
@@ -6202,13 +6209,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>540123</v>
+        <v>540125</v>
       </c>
       <c r="B429" s="3">
         <v>5301</v>
       </c>
       <c r="C429" s="4">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="D429" s="5">
         <v>0</v>
@@ -6217,13 +6224,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>540124</v>
+        <v>540126</v>
       </c>
       <c r="B430" s="3">
         <v>5301</v>
       </c>
       <c r="C430" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D430" s="5">
         <v>0</v>
@@ -6232,13 +6239,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>540125</v>
+        <v>540127</v>
       </c>
       <c r="B431" s="3">
         <v>5301</v>
       </c>
       <c r="C431" s="4">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D431" s="5">
         <v>0</v>
@@ -6247,13 +6254,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>540126</v>
+        <v>540128</v>
       </c>
       <c r="B432" s="3">
         <v>5301</v>
       </c>
       <c r="C432" s="4">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D432" s="5">
         <v>0</v>
@@ -6262,13 +6269,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>540127</v>
+        <v>540129</v>
       </c>
       <c r="B433" s="3">
         <v>5301</v>
       </c>
       <c r="C433" s="4">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D433" s="5">
         <v>0</v>
@@ -6277,13 +6284,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>540128</v>
+        <v>540130</v>
       </c>
       <c r="B434" s="3">
         <v>5301</v>
       </c>
       <c r="C434" s="4">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D434" s="5">
         <v>0</v>
@@ -6292,13 +6299,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>540129</v>
+        <v>540131</v>
       </c>
       <c r="B435" s="3">
         <v>5301</v>
       </c>
       <c r="C435" s="4">
-        <v>403</v>
+        <v>500</v>
       </c>
       <c r="D435" s="5">
         <v>0</v>
@@ -6307,13 +6314,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>540130</v>
+        <v>540132</v>
       </c>
       <c r="B436" s="3">
         <v>5301</v>
       </c>
       <c r="C436" s="4">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="D436" s="5">
         <v>0</v>
@@ -6322,13 +6329,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>540131</v>
+        <v>540133</v>
       </c>
       <c r="B437" s="3">
         <v>5301</v>
       </c>
       <c r="C437" s="4">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D437" s="5">
         <v>0</v>
@@ -6337,13 +6344,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>540132</v>
+        <v>540134</v>
       </c>
       <c r="B438" s="3">
         <v>5301</v>
       </c>
       <c r="C438" s="4">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="D438" s="5">
         <v>0</v>
@@ -6352,13 +6359,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>540133</v>
+        <v>540135</v>
       </c>
       <c r="B439" s="3">
         <v>5301</v>
       </c>
       <c r="C439" s="4">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="D439" s="5">
         <v>0</v>
@@ -6367,13 +6374,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>540134</v>
+        <v>540136</v>
       </c>
       <c r="B440" s="3">
         <v>5301</v>
       </c>
       <c r="C440" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D440" s="5">
         <v>0</v>
@@ -6382,13 +6389,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>540135</v>
+        <v>540137</v>
       </c>
       <c r="B441" s="3">
         <v>5301</v>
       </c>
       <c r="C441" s="4">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="D441" s="5">
         <v>0</v>
@@ -6397,48 +6404,18 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>540136</v>
+        <v>540138</v>
       </c>
       <c r="B442" s="3">
         <v>5301</v>
       </c>
       <c r="C442" s="4">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D442" s="5">
         <v>0</v>
       </c>
       <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>540137</v>
-      </c>
-      <c r="B443" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C443" s="4">
-        <v>701</v>
-      </c>
-      <c r="D443" s="5">
-        <v>0</v>
-      </c>
-      <c r="E443" s="2"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" s="2">
-        <v>540138</v>
-      </c>
-      <c r="B444" s="3">
-        <v>5301</v>
-      </c>
-      <c r="C444" s="4">
-        <v>702</v>
-      </c>
-      <c r="D444" s="5">
-        <v>0</v>
-      </c>
-      <c r="E444" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B621F33-7315-42ED-96DB-FEC37C43155B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C215B82-0424-4FED-B806-ECF3A6B598DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="3930" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="3660" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="H382" sqref="H382"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,26 +781,26 @@
         <v>500072</v>
       </c>
       <c r="B16" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C16" s="4">
-        <v>80</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>500073</v>
       </c>
       <c r="B17" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C17" s="4">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -981,7 +981,7 @@
         <v>5006</v>
       </c>
       <c r="C31" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -1286,7 +1286,7 @@
         <v>5006</v>
       </c>
       <c r="C54" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="2"/>
@@ -4070,9 +4070,11 @@
         <v>5209</v>
       </c>
       <c r="C261" s="4">
+        <v>61004</v>
+      </c>
+      <c r="D261" s="5">
         <v>70201</v>
       </c>
-      <c r="D261" s="5"/>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C215B82-0424-4FED-B806-ECF3A6B598DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58174CD7-EA03-4FFE-81FF-68652A0FF8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="3660" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9945" yWindow="3870" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:XFD410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58174CD7-EA03-4FFE-81FF-68652A0FF8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7D5E8-D200-4435-8954-59E9562A26F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="3870" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="4470" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:XFD410"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="L392" sqref="L392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,26 +781,26 @@
         <v>500072</v>
       </c>
       <c r="B16" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C16" s="4">
         <v>20</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>500073</v>
       </c>
       <c r="B17" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C17" s="4">
         <v>80</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -840,8 +840,8 @@
       <c r="C20" s="4">
         <v>60002</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -856,7 +856,7 @@
       <c r="D21" s="5">
         <v>61001</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -867,7 +867,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1430,7 +1430,7 @@
         <v>5006</v>
       </c>
       <c r="C64" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
@@ -1444,7 +1444,7 @@
         <v>5006</v>
       </c>
       <c r="C65" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
@@ -5626,7 +5626,7 @@
         <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7D5E8-D200-4435-8954-59E9562A26F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0EF34-9EEA-4C80-879D-EEFED90810AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="4470" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="5070" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="L392" sqref="L392"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
         <v>5300</v>
       </c>
       <c r="C71" s="4">
-        <v>60010</v>
+        <v>60011</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0EF34-9EEA-4C80-879D-EEFED90810AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54448F0A-8968-40D7-8453-069B5A2E2EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="5070" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="4335" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5636,7 +5636,7 @@
         <v>550011</v>
       </c>
       <c r="B380" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C380" s="4">
         <v>-20</v>
@@ -5649,7 +5649,7 @@
         <v>550012</v>
       </c>
       <c r="B381" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C381" s="4">
         <v>-50</v>
@@ -6422,6 +6422,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54448F0A-8968-40D7-8453-069B5A2E2EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2BD8C-6310-4FA8-829C-7D56BD4ACB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="4335" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="3225" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="B382" sqref="B382"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5623,7 +5623,7 @@
         <v>550010</v>
       </c>
       <c r="B379" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C379" s="4">
         <v>30</v>

--- a/ExcelConfig/pbjson/excel/应用效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/应用效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2BD8C-6310-4FA8-829C-7D56BD4ACB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B4A6D5-5B08-4793-801D-36B5C7561B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="3225" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="4755" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#应用效果表" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +248,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F442"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,79 +1086,77 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>511010</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5107</v>
-      </c>
-      <c r="C39" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D39" s="5">
-        <v>-2</v>
-      </c>
+      <c r="A39" s="8">
+        <v>511006</v>
+      </c>
+      <c r="B39" s="9">
+        <v>5300</v>
+      </c>
+      <c r="C39" s="10">
+        <v>60011</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>511020</v>
+        <v>511010</v>
       </c>
       <c r="B40" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C40" s="4">
         <v>60001</v>
       </c>
       <c r="D40" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>511030</v>
+        <v>511020</v>
       </c>
       <c r="B41" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C41" s="4">
         <v>60001</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5">
+        <v>61000</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="2">
+        <v>511030</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C42" s="4">
+        <v>60001</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>512000</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C43" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>512001</v>
+        <v>512000</v>
       </c>
       <c r="B44" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C44" s="4">
-        <v>500</v>
+        <v>60002</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -1161,276 +1165,277 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>512002</v>
+        <v>512001</v>
       </c>
       <c r="B45" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C45" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>512003</v>
+        <v>512002</v>
       </c>
       <c r="B46" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C46" s="4">
-        <v>403</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>512004</v>
+        <v>512003</v>
       </c>
       <c r="B47" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C47" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>403</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>512005</v>
+        <v>512004</v>
       </c>
       <c r="B48" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C48" s="4">
-        <v>404</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>512006</v>
+        <v>512005</v>
       </c>
       <c r="B49" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C49" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>512010</v>
+        <v>512006</v>
       </c>
       <c r="B50" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C50" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D50" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>512020</v>
+        <v>512010</v>
       </c>
       <c r="B51" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C51" s="4">
         <v>60002</v>
       </c>
       <c r="D51" s="5">
-        <v>61003</v>
+        <v>-2</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>512030</v>
+        <v>512020</v>
       </c>
       <c r="B52" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C52" s="4">
         <v>60002</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5">
+        <v>61003</v>
+      </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="2">
+        <v>512030</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C53" s="4">
+        <v>60002</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>512040</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C54" s="4">
-        <v>25</v>
-      </c>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="2"/>
-      <c r="F54"/>
     </row>
     <row r="55" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="2">
+        <v>512040</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C55" s="4">
+        <v>25</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="2"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>513000</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C56" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="2"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>513001</v>
+        <v>513000</v>
       </c>
       <c r="B57" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C57" s="4">
-        <v>601</v>
+        <v>60003</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="2"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>513002</v>
+        <v>513001</v>
       </c>
       <c r="B58" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C58" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>601</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
       <c r="E58" s="8"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>513003</v>
+        <v>513002</v>
       </c>
       <c r="B59" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C59" s="4">
-        <v>502</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
+        <v>60004</v>
+      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="8"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>513004</v>
+        <v>513003</v>
       </c>
       <c r="B60" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C60" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>502</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>513010</v>
+        <v>513004</v>
       </c>
       <c r="B61" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C61" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D61" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>60010</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
       <c r="F61"/>
     </row>
     <row r="62" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>513020</v>
+        <v>513010</v>
       </c>
       <c r="B62" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C62" s="4">
         <v>60003</v>
       </c>
       <c r="D62" s="5">
-        <v>61004</v>
+        <v>-2</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62"/>
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>513030</v>
+        <v>513020</v>
       </c>
       <c r="B63" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C63" s="4">
         <v>60003</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <v>61004</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63"/>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>513031</v>
+        <v>513030</v>
       </c>
       <c r="B64" s="3">
-        <v>5006</v>
+        <v>5117</v>
       </c>
       <c r="C64" s="4">
-        <v>60</v>
+        <v>60003</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="2"/>
@@ -1438,617 +1443,615 @@
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>513040</v>
+        <v>513031</v>
       </c>
       <c r="B65" s="3">
         <v>5006</v>
       </c>
       <c r="C65" s="4">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="2"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="2">
+        <v>513040</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C66" s="4">
+        <v>25</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="2"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>514000</v>
-      </c>
-      <c r="B67" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C67" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="2"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>514001</v>
+        <v>514000</v>
       </c>
       <c r="B68" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C68" s="4">
-        <v>601</v>
+        <v>60004</v>
       </c>
       <c r="D68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>514002</v>
+        <v>514001</v>
       </c>
       <c r="B69" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C69" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>514003</v>
+        <v>514002</v>
       </c>
       <c r="B70" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C70" s="4">
-        <v>600</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>60003</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70"/>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>514004</v>
+        <v>514003</v>
       </c>
       <c r="B71" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C71" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>600</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>514010</v>
+        <v>514004</v>
       </c>
       <c r="B72" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C72" s="4">
-        <v>60004</v>
-      </c>
-      <c r="D72" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>60011</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>514020</v>
+        <v>514010</v>
       </c>
       <c r="B73" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C73" s="4">
         <v>60004</v>
       </c>
       <c r="D73" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>514030</v>
+        <v>514020</v>
       </c>
       <c r="B74" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C74" s="4">
         <v>60004</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5">
+        <v>61000</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="2">
+        <v>514030</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C75" s="4">
+        <v>60004</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="2"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>515000</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C76" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="2"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>515001</v>
+        <v>515000</v>
       </c>
       <c r="B77" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C77" s="4">
-        <v>201</v>
+        <v>60005</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="2"/>
       <c r="F77"/>
     </row>
     <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>515002</v>
+        <v>515001</v>
       </c>
       <c r="B78" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C78" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>515003</v>
+        <v>515002</v>
       </c>
       <c r="B79" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C79" s="4">
-        <v>301</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D79" s="7"/>
       <c r="E79" s="8"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>515004</v>
+        <v>515003</v>
       </c>
       <c r="B80" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C80" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D80" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>515010</v>
+        <v>515004</v>
       </c>
       <c r="B81" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C81" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D81" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E81" s="2"/>
+        <v>60008</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>515020</v>
+        <v>515010</v>
       </c>
       <c r="B82" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C82" s="4">
         <v>60005</v>
       </c>
       <c r="D82" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>515030</v>
+        <v>515020</v>
       </c>
       <c r="B83" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C83" s="4">
         <v>60005</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5">
+        <v>61000</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="2">
+        <v>515030</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C84" s="4">
+        <v>60005</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="2"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>516000</v>
-      </c>
-      <c r="B85" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C85" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="2"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>516001</v>
+        <v>516000</v>
       </c>
       <c r="B86" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C86" s="4">
-        <v>200</v>
+        <v>60006</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="2"/>
       <c r="F86"/>
     </row>
     <row r="87" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>516002</v>
+        <v>516001</v>
       </c>
       <c r="B87" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C87" s="4">
-        <v>60001</v>
-      </c>
-      <c r="D87" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
       <c r="E87" s="8"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>516003</v>
+        <v>516002</v>
       </c>
       <c r="B88" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C88" s="4">
-        <v>300</v>
-      </c>
-      <c r="D88" s="5">
-        <v>0</v>
-      </c>
+        <v>60001</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="8"/>
       <c r="F88"/>
     </row>
     <row r="89" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>516004</v>
+        <v>516003</v>
       </c>
       <c r="B89" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C89" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D89" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
       <c r="E89" s="8"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>516010</v>
+        <v>516004</v>
       </c>
       <c r="B90" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C90" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D90" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>60007</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="8"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>516020</v>
+        <v>516010</v>
       </c>
       <c r="B91" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C91" s="4">
         <v>60006</v>
       </c>
       <c r="D91" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>516030</v>
+        <v>516020</v>
       </c>
       <c r="B92" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C92" s="4">
         <v>60006</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5">
+        <v>61000</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="2">
+        <v>516030</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C93" s="4">
+        <v>60006</v>
+      </c>
       <c r="D93" s="5"/>
       <c r="E93" s="2"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>517000</v>
-      </c>
-      <c r="B94" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C94" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="2"/>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>517001</v>
+        <v>517000</v>
       </c>
       <c r="B95" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C95" s="4">
-        <v>300</v>
+        <v>60007</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="2"/>
       <c r="F95"/>
     </row>
     <row r="96" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>517002</v>
+        <v>517001</v>
       </c>
       <c r="B96" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C96" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D96" s="5"/>
+        <v>300</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>517003</v>
+        <v>517002</v>
       </c>
       <c r="B97" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C97" s="4">
-        <v>400</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1</v>
-      </c>
+        <v>60006</v>
+      </c>
+      <c r="D97" s="5"/>
       <c r="E97" s="8"/>
       <c r="F97"/>
     </row>
     <row r="98" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>517004</v>
+        <v>517003</v>
       </c>
       <c r="B98" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C98" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D98" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
       <c r="E98" s="8"/>
       <c r="F98"/>
     </row>
     <row r="99" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>517005</v>
+        <v>517004</v>
       </c>
       <c r="B99" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C99" s="4">
-        <v>402</v>
-      </c>
-      <c r="D99" s="5">
-        <v>0</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="8"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>517006</v>
+        <v>517005</v>
       </c>
       <c r="B100" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C100" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D100" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>517007</v>
+        <v>517006</v>
       </c>
       <c r="B101" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C101" s="4">
-        <v>403</v>
-      </c>
-      <c r="D101" s="5">
-        <v>0</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D101" s="5"/>
       <c r="E101" s="8"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>517010</v>
+        <v>517007</v>
       </c>
       <c r="B102" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C102" s="4">
-        <v>60007</v>
+        <v>403</v>
       </c>
       <c r="D102" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="8"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>517020</v>
+        <v>517010</v>
       </c>
       <c r="B103" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C103" s="4">
         <v>60007</v>
       </c>
       <c r="D103" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>517030</v>
+        <v>517020</v>
       </c>
       <c r="B104" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C104" s="4">
         <v>60007</v>
       </c>
-      <c r="D104" s="5"/>
+      <c r="D104" s="5">
+        <v>61000</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104"/>
     </row>
     <row r="105" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="2">
+        <v>517030</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C105" s="4">
+        <v>60007</v>
+      </c>
       <c r="D105" s="5"/>
       <c r="E105" s="2"/>
       <c r="F105"/>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>518000</v>
-      </c>
-      <c r="B106" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C106" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D106" s="5">
-        <v>1</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="2"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>518001</v>
+        <v>518000</v>
       </c>
       <c r="B107" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C107" s="4">
-        <v>301</v>
+        <v>60008</v>
       </c>
       <c r="D107" s="5">
         <v>1</v>
@@ -2058,157 +2061,157 @@
     </row>
     <row r="108" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>518002</v>
+        <v>518001</v>
       </c>
       <c r="B108" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C108" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D108" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>518003</v>
+        <v>518002</v>
       </c>
       <c r="B109" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C109" s="4">
-        <v>400</v>
-      </c>
-      <c r="D109" s="5">
-        <v>0</v>
-      </c>
+        <v>60005</v>
+      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="2"/>
       <c r="F109"/>
     </row>
     <row r="110" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>518004</v>
+        <v>518003</v>
       </c>
       <c r="B110" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C110" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D110" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>518005</v>
+        <v>518004</v>
       </c>
       <c r="B111" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C111" s="4">
-        <v>401</v>
-      </c>
-      <c r="D111" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="2"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>518006</v>
+        <v>518005</v>
       </c>
       <c r="B112" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C112" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D112" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>518010</v>
+        <v>518006</v>
       </c>
       <c r="B113" s="3">
-        <v>5107</v>
+        <v>5300</v>
       </c>
       <c r="C113" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D113" s="5">
-        <v>-2</v>
-      </c>
+        <v>60009</v>
+      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="2"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>518020</v>
+        <v>518010</v>
       </c>
       <c r="B114" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C114" s="4">
         <v>60008</v>
       </c>
       <c r="D114" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>518030</v>
+        <v>518020</v>
       </c>
       <c r="B115" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C115" s="4">
         <v>60008</v>
       </c>
-      <c r="D115" s="5"/>
+      <c r="D115" s="5">
+        <v>61000</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
+      <c r="A116" s="2">
+        <v>518030</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C116" s="4">
+        <v>60008</v>
+      </c>
       <c r="D116" s="5"/>
       <c r="E116" s="2"/>
       <c r="F116"/>
     </row>
     <row r="117" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>519000</v>
-      </c>
-      <c r="B117" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C117" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D117" s="5">
-        <v>1</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="2"/>
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>519001</v>
+        <v>519000</v>
       </c>
       <c r="B118" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C118" s="4">
-        <v>401</v>
+        <v>60009</v>
       </c>
       <c r="D118" s="5">
         <v>1</v>
@@ -2218,143 +2221,143 @@
     </row>
     <row r="119" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>519002</v>
+        <v>519001</v>
       </c>
       <c r="B119" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C119" s="4">
-        <v>60008</v>
-      </c>
-      <c r="D119" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>519003</v>
+        <v>519002</v>
       </c>
       <c r="B120" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C120" s="4">
-        <v>402</v>
-      </c>
-      <c r="D120" s="5">
-        <v>1</v>
-      </c>
+        <v>60008</v>
+      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="2"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>519004</v>
+        <v>519003</v>
       </c>
       <c r="B121" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C121" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D121" s="5"/>
+        <v>402</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>519005</v>
+        <v>519004</v>
       </c>
       <c r="B122" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C122" s="4">
-        <v>404</v>
-      </c>
-      <c r="D122" s="5">
-        <v>0</v>
-      </c>
+        <v>60007</v>
+      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="2"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>519010</v>
+        <v>519005</v>
       </c>
       <c r="B123" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C123" s="4">
-        <v>60009</v>
+        <v>404</v>
       </c>
       <c r="D123" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>519020</v>
+        <v>519010</v>
       </c>
       <c r="B124" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C124" s="4">
         <v>60009</v>
       </c>
       <c r="D124" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124"/>
     </row>
     <row r="125" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>519030</v>
+        <v>519020</v>
       </c>
       <c r="B125" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C125" s="4">
         <v>60009</v>
       </c>
-      <c r="D125" s="5"/>
+      <c r="D125" s="5">
+        <v>61000</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125"/>
     </row>
     <row r="126" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="4"/>
+      <c r="A126" s="2">
+        <v>519030</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C126" s="4">
+        <v>60009</v>
+      </c>
       <c r="D126" s="5"/>
       <c r="E126" s="2"/>
       <c r="F126"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>520000</v>
-      </c>
-      <c r="B127" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C127" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D127" s="5">
-        <v>1</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="2"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>520001</v>
+        <v>520000</v>
       </c>
       <c r="B128" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C128" s="4">
-        <v>502</v>
+        <v>60010</v>
       </c>
       <c r="D128" s="5">
         <v>1</v>
@@ -2364,253 +2367,255 @@
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>520002</v>
+        <v>520001</v>
       </c>
       <c r="B129" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C129" s="4">
-        <v>60002</v>
-      </c>
-      <c r="D129" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>520003</v>
+        <v>520002</v>
       </c>
       <c r="B130" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C130" s="4">
-        <v>501</v>
-      </c>
-      <c r="D130" s="5">
-        <v>1</v>
-      </c>
+        <v>60002</v>
+      </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="2"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>520004</v>
+        <v>520003</v>
       </c>
       <c r="B131" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C131" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D131" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131"/>
     </row>
     <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>520005</v>
+        <v>520004</v>
       </c>
       <c r="B132" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C132" s="4">
-        <v>500</v>
-      </c>
-      <c r="D132" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D132" s="5"/>
       <c r="E132" s="2"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>520010</v>
+        <v>520005</v>
       </c>
       <c r="B133" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C133" s="4">
-        <v>60010</v>
+        <v>500</v>
       </c>
       <c r="D133" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>520020</v>
+        <v>520010</v>
       </c>
       <c r="B134" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C134" s="4">
         <v>60010</v>
       </c>
       <c r="D134" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>520030</v>
+        <v>520020</v>
       </c>
       <c r="B135" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C135" s="4">
         <v>60010</v>
       </c>
-      <c r="D135" s="5"/>
+      <c r="D135" s="5">
+        <v>61000</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="2">
+        <v>520030</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C136" s="4">
+        <v>60010</v>
+      </c>
       <c r="D136" s="5"/>
       <c r="E136" s="2"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>521000</v>
-      </c>
-      <c r="B137" s="3">
-        <v>5102</v>
-      </c>
-      <c r="C137" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D137" s="5">
-        <v>1</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="2"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>521001</v>
+        <v>521000</v>
       </c>
       <c r="B138" s="3">
-        <v>5301</v>
+        <v>5102</v>
       </c>
       <c r="C138" s="4">
-        <v>501</v>
+        <v>60011</v>
       </c>
       <c r="D138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>521002</v>
+        <v>521001</v>
       </c>
       <c r="B139" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C139" s="4">
-        <v>60010</v>
-      </c>
-      <c r="D139" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="D139" s="5">
+        <v>0</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>521003</v>
+        <v>521002</v>
       </c>
       <c r="B140" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C140" s="4">
-        <v>700</v>
-      </c>
-      <c r="D140" s="5">
-        <v>0</v>
-      </c>
+        <v>60010</v>
+      </c>
+      <c r="D140" s="5"/>
       <c r="E140" s="2"/>
       <c r="F140"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>521010</v>
+        <v>521003</v>
       </c>
       <c r="B141" s="3">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C141" s="4">
-        <v>60011</v>
+        <v>700</v>
       </c>
       <c r="D141" s="5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141"/>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>521020</v>
+        <v>521010</v>
       </c>
       <c r="B142" s="3">
-        <v>5123</v>
+        <v>5107</v>
       </c>
       <c r="C142" s="4">
         <v>60011</v>
       </c>
       <c r="D142" s="5">
-        <v>61000</v>
+        <v>-2</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142"/>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>521030</v>
+        <v>521020</v>
       </c>
       <c r="B143" s="3">
-        <v>5117</v>
+        <v>5123</v>
       </c>
       <c r="C143" s="4">
         <v>60011</v>
       </c>
-      <c r="D143" s="5"/>
+      <c r="D143" s="5">
+        <v>61000</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F145"/>
-    </row>
+    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>521030</v>
+      </c>
+      <c r="B144" s="3">
+        <v>5117</v>
+      </c>
+      <c r="C144" s="4">
+        <v>60011</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="2"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>501000</v>
-      </c>
-      <c r="B146" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C146" s="4">
-        <v>101000</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="2"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>501010</v>
+        <v>501000</v>
       </c>
       <c r="B147" s="3">
         <v>5013</v>
       </c>
       <c r="C147" s="4">
-        <v>101010</v>
+        <v>101000</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="2"/>
@@ -2618,13 +2623,13 @@
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>501020</v>
+        <v>501010</v>
       </c>
       <c r="B148" s="3">
         <v>5013</v>
       </c>
       <c r="C148" s="4">
-        <v>101020</v>
+        <v>101010</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="2"/>
@@ -2632,13 +2637,13 @@
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>501030</v>
+        <v>501020</v>
       </c>
       <c r="B149" s="3">
         <v>5013</v>
       </c>
       <c r="C149" s="4">
-        <v>101030</v>
+        <v>101020</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="2"/>
@@ -2646,13 +2651,13 @@
     </row>
     <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>501040</v>
+        <v>501030</v>
       </c>
       <c r="B150" s="3">
         <v>5013</v>
       </c>
       <c r="C150" s="4">
-        <v>101040</v>
+        <v>101030</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="2"/>
@@ -2660,13 +2665,13 @@
     </row>
     <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>501050</v>
+        <v>501040</v>
       </c>
       <c r="B151" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C151" s="4">
-        <v>20</v>
+        <v>101040</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="2"/>
@@ -2674,74 +2679,74 @@
     </row>
     <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>501051</v>
+        <v>501050</v>
       </c>
       <c r="B152" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C152" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="2"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>501051</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C153" s="4">
+        <v>10</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>502000</v>
-      </c>
-      <c r="B154" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C154" s="4">
-        <v>102000</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>502001</v>
+        <v>502000</v>
       </c>
       <c r="B155" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C155" s="4">
-        <v>702</v>
-      </c>
-      <c r="D155" s="5">
-        <v>0</v>
-      </c>
-      <c r="E155" s="8"/>
+        <v>102000</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="2"/>
       <c r="F155"/>
     </row>
     <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>502010</v>
+        <v>502001</v>
       </c>
       <c r="B156" s="3">
-        <v>5013</v>
+        <v>5301</v>
       </c>
       <c r="C156" s="4">
-        <v>102010</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="D156" s="5">
+        <v>0</v>
+      </c>
+      <c r="E156" s="8"/>
       <c r="F156"/>
     </row>
     <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>502020</v>
+        <v>502010</v>
       </c>
       <c r="B157" s="3">
         <v>5013</v>
       </c>
       <c r="C157" s="4">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="2"/>
@@ -2749,13 +2754,13 @@
     </row>
     <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>502030</v>
+        <v>502020</v>
       </c>
       <c r="B158" s="3">
         <v>5013</v>
       </c>
       <c r="C158" s="4">
-        <v>102030</v>
+        <v>102020</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="2"/>
@@ -2763,120 +2768,121 @@
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>502031</v>
+        <v>502030</v>
       </c>
       <c r="B159" s="3">
-        <v>5109</v>
+        <v>5013</v>
       </c>
       <c r="C159" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D159" s="5">
-        <v>0</v>
-      </c>
+        <v>102030</v>
+      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="2"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>502032</v>
+        <v>502031</v>
       </c>
       <c r="B160" s="3">
-        <v>5104</v>
+        <v>5109</v>
       </c>
       <c r="C160" s="4">
         <v>60000</v>
       </c>
       <c r="D160" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160"/>
     </row>
     <row r="161" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>502032</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5104</v>
+      </c>
+      <c r="C161" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D161" s="5">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2"/>
       <c r="F161"/>
     </row>
     <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>510100</v>
-      </c>
-      <c r="B162" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C162" s="4">
-        <v>30</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="2"/>
+      <c r="F162"/>
     </row>
     <row r="163" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>510101</v>
+        <v>510100</v>
       </c>
       <c r="B163" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C163" s="4">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="2"/>
     </row>
     <row r="164" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>510102</v>
+        <v>510101</v>
       </c>
       <c r="B164" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C164" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>510103</v>
+        <v>510102</v>
       </c>
       <c r="B165" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C165" s="4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
     </row>
     <row r="166" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>510104</v>
+        <v>510103</v>
       </c>
       <c r="B166" s="3">
         <v>5003</v>
       </c>
       <c r="C166" s="4">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>510110</v>
+        <v>510104</v>
       </c>
       <c r="B167" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C167" s="4">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>510120</v>
+        <v>510110</v>
       </c>
       <c r="B168" s="3">
         <v>5000</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="169" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>510130</v>
+        <v>510120</v>
       </c>
       <c r="B169" s="3">
         <v>5000</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="170" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>510140</v>
+        <v>510130</v>
       </c>
       <c r="B170" s="3">
         <v>5000</v>
@@ -2913,9 +2919,9 @@
       <c r="D170" s="5"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>510150</v>
+        <v>510140</v>
       </c>
       <c r="B171" s="3">
         <v>5000</v>
@@ -2925,758 +2931,758 @@
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="6"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
+      <c r="A172" s="2">
+        <v>510150</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C172" s="4">
+        <v>30</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>511060</v>
-      </c>
-      <c r="B173" s="3">
-        <v>5009</v>
-      </c>
-      <c r="C173" s="4">
-        <v>1</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="2"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
+        <v>511060</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
         <v>511061</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B175" s="3">
         <v>5119</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C175" s="4">
         <v>60001</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D175" s="5">
         <v>61002</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>512100</v>
-      </c>
-      <c r="B176" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C176" s="4">
-        <v>112100</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="2"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>512110</v>
+        <v>512100</v>
       </c>
       <c r="B177" s="3">
         <v>5013</v>
       </c>
       <c r="C177" s="4">
-        <v>112110</v>
+        <v>112100</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>512111</v>
+        <v>512110</v>
       </c>
       <c r="B178" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C178" s="4">
-        <v>-50</v>
+        <v>112110</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>512120</v>
+        <v>512111</v>
       </c>
       <c r="B179" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C179" s="4">
-        <v>112120</v>
+        <v>-50</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>512130</v>
+        <v>512120</v>
       </c>
       <c r="B180" s="3">
         <v>5013</v>
       </c>
       <c r="C180" s="4">
-        <v>112130</v>
+        <v>112120</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>512140</v>
+        <v>512130</v>
       </c>
       <c r="B181" s="3">
         <v>5013</v>
       </c>
       <c r="C181" s="4">
-        <v>112140</v>
+        <v>112130</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="A182" s="2">
+        <v>512140</v>
+      </c>
+      <c r="B182" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C182" s="4">
+        <v>112140</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>513100</v>
-      </c>
-      <c r="B183" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C183" s="4">
-        <v>113100</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="2"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>513110</v>
+        <v>513100</v>
       </c>
       <c r="B184" s="3">
         <v>5013</v>
       </c>
       <c r="C184" s="4">
-        <v>113110</v>
+        <v>113100</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>513120</v>
+        <v>513110</v>
       </c>
       <c r="B185" s="3">
         <v>5013</v>
       </c>
       <c r="C185" s="4">
-        <v>113120</v>
+        <v>113110</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>513121</v>
+        <v>513120</v>
       </c>
       <c r="B186" s="3">
         <v>5013</v>
       </c>
       <c r="C186" s="4">
-        <v>113121</v>
+        <v>113120</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>513130</v>
+        <v>513121</v>
       </c>
       <c r="B187" s="3">
         <v>5013</v>
       </c>
       <c r="C187" s="4">
-        <v>113130</v>
+        <v>113121</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>513140</v>
+        <v>513130</v>
       </c>
       <c r="B188" s="3">
         <v>5013</v>
       </c>
       <c r="C188" s="4">
-        <v>113140</v>
+        <v>113130</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>513141</v>
+        <v>513140</v>
       </c>
       <c r="B189" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C189" s="4">
-        <v>601</v>
-      </c>
-      <c r="D189" s="5">
-        <v>72001</v>
-      </c>
+        <v>113140</v>
+      </c>
+      <c r="D189" s="5"/>
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>513150</v>
+        <v>513141</v>
       </c>
       <c r="B190" s="3">
-        <v>5013</v>
+        <v>5303</v>
       </c>
       <c r="C190" s="4">
-        <v>113150</v>
-      </c>
-      <c r="D190" s="5"/>
+        <v>601</v>
+      </c>
+      <c r="D190" s="5">
+        <v>72001</v>
+      </c>
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>513160</v>
+        <v>513150</v>
       </c>
       <c r="B191" s="3">
         <v>5013</v>
       </c>
       <c r="C191" s="4">
-        <v>113160</v>
+        <v>113150</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>513161</v>
+        <v>513160</v>
       </c>
       <c r="B192" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C192" s="4">
-        <v>60003</v>
-      </c>
-      <c r="D192" s="5">
-        <v>-5</v>
-      </c>
+        <v>113160</v>
+      </c>
+      <c r="D192" s="5"/>
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>513200</v>
+        <v>513161</v>
       </c>
       <c r="B193" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C193" s="4">
-        <v>113200</v>
-      </c>
-      <c r="D193" s="5"/>
+        <v>60003</v>
+      </c>
+      <c r="D193" s="5">
+        <v>-5</v>
+      </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>513210</v>
+        <v>513200</v>
       </c>
       <c r="B194" s="3">
         <v>5013</v>
       </c>
       <c r="C194" s="4">
-        <v>113210</v>
+        <v>113200</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>513220</v>
+        <v>513210</v>
       </c>
       <c r="B195" s="3">
         <v>5013</v>
       </c>
       <c r="C195" s="4">
-        <v>113220</v>
+        <v>113210</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>513230</v>
+        <v>513220</v>
       </c>
       <c r="B196" s="3">
         <v>5013</v>
       </c>
       <c r="C196" s="4">
-        <v>113160</v>
+        <v>113220</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
+        <v>513230</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C197" s="4">
+        <v>113160</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
         <v>513231</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B198" s="3">
         <v>5107</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C198" s="4">
         <v>60003</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D198" s="5">
         <v>-5</v>
       </c>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>515100</v>
-      </c>
-      <c r="B199" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C199" s="4">
-        <v>115100</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="2"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>515101</v>
+        <v>515100</v>
       </c>
       <c r="B200" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C200" s="4">
-        <v>20</v>
+        <v>115100</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>515102</v>
+        <v>515101</v>
       </c>
       <c r="B201" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C201" s="4">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>515103</v>
+        <v>515102</v>
       </c>
       <c r="B202" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C202" s="4">
-        <v>115101</v>
+        <v>-2</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>515104</v>
+        <v>515103</v>
       </c>
       <c r="B203" s="3">
         <v>5013</v>
       </c>
       <c r="C203" s="4">
-        <v>115102</v>
+        <v>115101</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>515110</v>
+        <v>515104</v>
       </c>
       <c r="B204" s="3">
         <v>5013</v>
       </c>
       <c r="C204" s="4">
-        <v>115110</v>
+        <v>115102</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>515111</v>
+        <v>515110</v>
       </c>
       <c r="B205" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C205" s="4">
-        <v>40</v>
+        <v>115110</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>515112</v>
+        <v>515111</v>
       </c>
       <c r="B206" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C206" s="4">
-        <v>-2</v>
+        <v>40</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>515113</v>
+        <v>515112</v>
       </c>
       <c r="B207" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C207" s="4">
-        <v>115111</v>
+        <v>-2</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>515114</v>
+        <v>515113</v>
       </c>
       <c r="B208" s="3">
         <v>5013</v>
       </c>
       <c r="C208" s="4">
-        <v>115112</v>
+        <v>115111</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>515120</v>
+        <v>515114</v>
       </c>
       <c r="B209" s="3">
         <v>5013</v>
       </c>
       <c r="C209" s="4">
-        <v>115120</v>
+        <v>115112</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>515121</v>
+        <v>515120</v>
       </c>
       <c r="B210" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C210" s="4">
-        <v>10</v>
+        <v>115120</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>515122</v>
+        <v>515121</v>
       </c>
       <c r="B211" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C211" s="4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>515130</v>
+        <v>515122</v>
       </c>
       <c r="B212" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C212" s="4">
-        <v>115120</v>
+        <v>-1</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>515131</v>
+        <v>515130</v>
       </c>
       <c r="B213" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C213" s="4">
-        <v>15</v>
+        <v>115120</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>515132</v>
+        <v>515131</v>
       </c>
       <c r="B214" s="3">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="C214" s="4">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>515140</v>
+        <v>515132</v>
       </c>
       <c r="B215" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C215" s="4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>515150</v>
+        <v>515140</v>
       </c>
       <c r="B216" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C216" s="4">
-        <v>115150</v>
+        <v>100</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>515160</v>
+        <v>515150</v>
       </c>
       <c r="B217" s="3">
         <v>5013</v>
       </c>
       <c r="C217" s="4">
-        <v>115160</v>
+        <v>115150</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>515170</v>
+        <v>515160</v>
       </c>
       <c r="B218" s="3">
         <v>5013</v>
       </c>
       <c r="C218" s="4">
-        <v>115170</v>
+        <v>115160</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>515171</v>
+        <v>515170</v>
       </c>
       <c r="B219" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C219" s="4">
-        <v>60005</v>
-      </c>
-      <c r="D219" s="5">
-        <v>-4</v>
-      </c>
+        <v>115170</v>
+      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>515180</v>
+        <v>515171</v>
       </c>
       <c r="B220" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C220" s="4">
-        <v>115180</v>
-      </c>
-      <c r="D220" s="5"/>
+        <v>60005</v>
+      </c>
+      <c r="D220" s="5">
+        <v>-4</v>
+      </c>
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>515181</v>
+        <v>515180</v>
       </c>
       <c r="B221" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C221" s="4">
-        <v>20</v>
+        <v>115180</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
+      <c r="A222" s="2">
+        <v>515181</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C222" s="4">
+        <v>20</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>516100</v>
-      </c>
-      <c r="B223" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C223" s="4">
-        <v>116100</v>
-      </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="2"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>516101</v>
+        <v>516100</v>
       </c>
       <c r="B224" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C224" s="4">
-        <v>20</v>
+        <v>116100</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>516102</v>
+        <v>516101</v>
       </c>
       <c r="B225" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C225" s="4">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>516103</v>
+        <v>516102</v>
       </c>
       <c r="B226" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C226" s="4">
-        <v>116101</v>
+        <v>-2</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>516104</v>
+        <v>516103</v>
       </c>
       <c r="B227" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C227" s="4">
-        <v>-5</v>
+        <v>116101</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>516105</v>
+        <v>516104</v>
       </c>
       <c r="B228" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C228" s="4">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>516110</v>
+        <v>516105</v>
       </c>
       <c r="B229" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C229" s="4">
-        <v>116110</v>
+        <v>5</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>516120</v>
+        <v>516110</v>
       </c>
       <c r="B230" s="3">
         <v>5013</v>
       </c>
       <c r="C230" s="4">
-        <v>116120</v>
+        <v>116110</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>516121</v>
+        <v>516120</v>
       </c>
       <c r="B231" s="3">
         <v>5013</v>
@@ -3689,22 +3695,20 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>516122</v>
+        <v>516121</v>
       </c>
       <c r="B232" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C232" s="4">
-        <v>60006</v>
-      </c>
-      <c r="D232" s="5">
-        <v>-4</v>
-      </c>
+        <v>116120</v>
+      </c>
+      <c r="D232" s="5"/>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>516130</v>
+        <v>516122</v>
       </c>
       <c r="B233" s="3">
         <v>5107</v>
@@ -3719,223 +3723,223 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>516131</v>
+        <v>516130</v>
       </c>
       <c r="B234" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C234" s="4">
-        <v>20</v>
-      </c>
-      <c r="D234" s="5"/>
+        <v>60006</v>
+      </c>
+      <c r="D234" s="5">
+        <v>-4</v>
+      </c>
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
+        <v>516131</v>
+      </c>
+      <c r="B235" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C235" s="4">
+        <v>20</v>
+      </c>
+      <c r="D235" s="5"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
         <v>516132</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B236" s="3">
         <v>5107</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C236" s="4">
         <v>60006</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D236" s="5">
         <v>-4</v>
       </c>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>517100</v>
-      </c>
-      <c r="B237" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C237" s="4">
-        <v>117100</v>
-      </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="2"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>517110</v>
+        <v>517100</v>
       </c>
       <c r="B238" s="3">
         <v>5013</v>
       </c>
       <c r="C238" s="4">
-        <v>117110</v>
+        <v>117100</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>517120</v>
+        <v>517110</v>
       </c>
       <c r="B239" s="3">
         <v>5013</v>
       </c>
       <c r="C239" s="4">
-        <v>117120</v>
+        <v>117110</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>517121</v>
+        <v>517120</v>
       </c>
       <c r="B240" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C240" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D240" s="5">
-        <v>-4</v>
-      </c>
+        <v>117120</v>
+      </c>
+      <c r="D240" s="5"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>517122</v>
+        <v>517121</v>
       </c>
       <c r="B241" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C241" s="4">
-        <v>20</v>
-      </c>
-      <c r="D241" s="5"/>
+        <v>60007</v>
+      </c>
+      <c r="D241" s="5">
+        <v>-4</v>
+      </c>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>517130</v>
+        <v>517122</v>
       </c>
       <c r="B242" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C242" s="4">
-        <v>117130</v>
+        <v>20</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>517131</v>
+        <v>517130</v>
       </c>
       <c r="B243" s="3">
-        <v>5301</v>
+        <v>5013</v>
       </c>
       <c r="C243" s="4">
-        <v>700</v>
-      </c>
-      <c r="D243" s="5">
-        <v>1</v>
-      </c>
+        <v>117130</v>
+      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>517132</v>
+        <v>517131</v>
       </c>
       <c r="B244" s="3">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="C244" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>700</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>517140</v>
+        <v>517132</v>
       </c>
       <c r="B245" s="3">
-        <v>5013</v>
+        <v>5300</v>
       </c>
       <c r="C245" s="4">
-        <v>117140</v>
+        <v>60011</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>517141</v>
+        <v>517140</v>
       </c>
       <c r="B246" s="3">
         <v>5013</v>
       </c>
       <c r="C246" s="4">
-        <v>117141</v>
+        <v>117140</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>517150</v>
+        <v>517141</v>
       </c>
       <c r="B247" s="3">
         <v>5013</v>
       </c>
       <c r="C247" s="4">
-        <v>117150</v>
+        <v>117141</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>517151</v>
+        <v>517150</v>
       </c>
       <c r="B248" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C248" s="4">
-        <v>20</v>
+        <v>117150</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>517152</v>
+        <v>517151</v>
       </c>
       <c r="B249" s="3">
-        <v>5107</v>
+        <v>5003</v>
       </c>
       <c r="C249" s="4">
-        <v>60007</v>
-      </c>
-      <c r="D249" s="5">
-        <v>-4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D249" s="5"/>
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>517153</v>
+        <v>517152</v>
       </c>
       <c r="B250" s="3">
         <v>5107</v>
       </c>
       <c r="C250" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D250" s="5">
         <v>-4</v>
@@ -3944,13 +3948,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>517154</v>
+        <v>517153</v>
       </c>
       <c r="B251" s="3">
         <v>5107</v>
       </c>
       <c r="C251" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D251" s="5">
         <v>-4</v>
@@ -3958,50 +3962,54 @@
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
+      <c r="A252" s="2">
+        <v>517154</v>
+      </c>
+      <c r="B252" s="3">
+        <v>5107</v>
+      </c>
+      <c r="C252" s="4">
+        <v>60009</v>
+      </c>
+      <c r="D252" s="5">
+        <v>-4</v>
+      </c>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>518100</v>
-      </c>
-      <c r="B253" s="3">
-        <v>0</v>
-      </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="2"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>518110</v>
+        <v>518100</v>
       </c>
       <c r="B254" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C254" s="4">
-        <v>-20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C254" s="4"/>
       <c r="D254" s="5"/>
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>518111</v>
+        <v>518110</v>
       </c>
       <c r="B255" s="3">
-        <v>0</v>
-      </c>
-      <c r="C255" s="4"/>
+        <v>5000</v>
+      </c>
+      <c r="C255" s="4">
+        <v>-20</v>
+      </c>
       <c r="D255" s="5"/>
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>518112</v>
+        <v>518111</v>
       </c>
       <c r="B256" s="3">
         <v>0</v>
@@ -4012,207 +4020,205 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>518113</v>
+        <v>518112</v>
       </c>
       <c r="B257" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C257" s="4">
-        <v>118114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C257" s="4"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>518114</v>
+        <v>518113</v>
       </c>
       <c r="B258" s="3">
         <v>5013</v>
       </c>
       <c r="C258" s="4">
-        <v>118115</v>
+        <v>118114</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>518115</v>
+        <v>518114</v>
       </c>
       <c r="B259" s="3">
         <v>5013</v>
       </c>
       <c r="C259" s="4">
-        <v>118116</v>
+        <v>118115</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>518116</v>
+        <v>518115</v>
       </c>
       <c r="B260" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C260" s="4">
-        <v>10</v>
+        <v>118116</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
+        <v>518116</v>
+      </c>
+      <c r="B261" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C261" s="4">
+        <v>10</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
         <v>518117</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B262" s="3">
         <v>5209</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C262" s="4">
         <v>61004</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D262" s="5">
         <v>70201</v>
       </c>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="6"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>519100</v>
-      </c>
-      <c r="B263" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C263" s="4">
-        <v>119100</v>
-      </c>
-      <c r="D263" s="5"/>
-      <c r="E263" s="2"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>519101</v>
+        <v>519100</v>
       </c>
       <c r="B264" s="3">
-        <v>0</v>
-      </c>
-      <c r="C264" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C264" s="4">
+        <v>119100</v>
+      </c>
       <c r="D264" s="5"/>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>519102</v>
+        <v>519101</v>
       </c>
       <c r="B265" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C265" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C265" s="4"/>
       <c r="D265" s="5"/>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>519110</v>
+        <v>519102</v>
       </c>
       <c r="B266" s="3">
-        <v>5013</v>
+        <v>5006</v>
       </c>
       <c r="C266" s="4">
-        <v>191100</v>
+        <v>-2</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>519111</v>
+        <v>519110</v>
       </c>
       <c r="B267" s="3">
-        <v>0</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C267" s="4">
+        <v>191100</v>
+      </c>
       <c r="D267" s="5"/>
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>519112</v>
+        <v>519111</v>
       </c>
       <c r="B268" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C268" s="4">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C268" s="4"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>519120</v>
+        <v>519112</v>
       </c>
       <c r="B269" s="3">
-        <v>0</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>5006</v>
+      </c>
+      <c r="C269" s="4">
+        <v>-2</v>
+      </c>
       <c r="D269" s="5"/>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>519121</v>
+        <v>519120</v>
       </c>
       <c r="B270" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C270" s="4">
-        <v>119121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C270" s="4"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>519122</v>
+        <v>519121</v>
       </c>
       <c r="B271" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C271" s="4">
-        <v>60009</v>
-      </c>
-      <c r="D271" s="5">
-        <v>-4</v>
-      </c>
+        <v>119121</v>
+      </c>
+      <c r="D271" s="5"/>
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>519123</v>
+        <v>519122</v>
       </c>
       <c r="B272" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C272" s="4">
-        <v>20</v>
-      </c>
-      <c r="D272" s="5"/>
+        <v>60009</v>
+      </c>
+      <c r="D272" s="5">
+        <v>-4</v>
+      </c>
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>519130</v>
+        <v>519123</v>
       </c>
       <c r="B273" s="3">
         <v>5003</v>
@@ -4225,160 +4231,160 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>519131</v>
+        <v>519130</v>
       </c>
       <c r="B274" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C274" s="4">
-        <v>119130</v>
+        <v>20</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>519140</v>
+        <v>519131</v>
       </c>
       <c r="B275" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C275" s="4">
-        <v>20</v>
+        <v>119130</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>519141</v>
+        <v>519140</v>
       </c>
       <c r="B276" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C276" s="4">
-        <v>119140</v>
+        <v>20</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>519150</v>
+        <v>519141</v>
       </c>
       <c r="B277" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C277" s="4">
-        <v>20</v>
+        <v>119140</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>519151</v>
+        <v>519150</v>
       </c>
       <c r="B278" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C278" s="4">
-        <v>119150</v>
+        <v>20</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
+      <c r="A279" s="2">
+        <v>519151</v>
+      </c>
+      <c r="B279" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C279" s="4">
+        <v>119150</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>520100</v>
-      </c>
-      <c r="B280" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C280" s="4">
-        <v>120100</v>
-      </c>
-      <c r="D280" s="5"/>
-      <c r="E280" s="2"/>
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>520110</v>
+        <v>520100</v>
       </c>
       <c r="B281" s="3">
         <v>5013</v>
       </c>
       <c r="C281" s="4">
-        <v>120110</v>
+        <v>120100</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>520120</v>
+        <v>520110</v>
       </c>
       <c r="B282" s="3">
         <v>5013</v>
       </c>
       <c r="C282" s="4">
-        <v>120120</v>
+        <v>120110</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>520121</v>
+        <v>520120</v>
       </c>
       <c r="B283" s="3">
         <v>5013</v>
       </c>
       <c r="C283" s="4">
-        <v>120121</v>
+        <v>120120</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>520122</v>
+        <v>520121</v>
       </c>
       <c r="B284" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C284" s="4">
-        <v>-3</v>
+        <v>120121</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>520123</v>
+        <v>520122</v>
       </c>
       <c r="B285" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C285" s="4">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>520124</v>
+        <v>520123</v>
       </c>
       <c r="B286" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C286" s="4">
         <v>10</v>
@@ -4388,417 +4394,417 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>520130</v>
+        <v>520124</v>
       </c>
       <c r="B287" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C287" s="4">
-        <v>120130</v>
+        <v>10</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>520140</v>
+        <v>520130</v>
       </c>
       <c r="B288" s="3">
         <v>5013</v>
       </c>
       <c r="C288" s="4">
-        <v>120140</v>
+        <v>120130</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>520150</v>
+        <v>520140</v>
       </c>
       <c r="B289" s="3">
         <v>5013</v>
       </c>
       <c r="C289" s="4">
-        <v>120150</v>
+        <v>120140</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>520160</v>
+        <v>520150</v>
       </c>
       <c r="B290" s="3">
         <v>5013</v>
       </c>
       <c r="C290" s="4">
-        <v>120160</v>
+        <v>120150</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>520161</v>
+        <v>520160</v>
       </c>
       <c r="B291" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C291" s="4">
-        <v>-30</v>
+        <v>120160</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>520162</v>
+        <v>520161</v>
       </c>
       <c r="B292" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C292" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
+      <c r="A293" s="2">
+        <v>520162</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C293" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>521100</v>
-      </c>
-      <c r="B294" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C294" s="4">
-        <v>121100</v>
-      </c>
-      <c r="D294" s="5"/>
-      <c r="E294" s="2"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>521110</v>
+        <v>521100</v>
       </c>
       <c r="B295" s="3">
         <v>5013</v>
       </c>
       <c r="C295" s="4">
-        <v>121110</v>
+        <v>121100</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>521111</v>
+        <v>521110</v>
       </c>
       <c r="B296" s="3">
         <v>5013</v>
       </c>
       <c r="C296" s="4">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>521112</v>
+        <v>521111</v>
       </c>
       <c r="B297" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C297" s="4">
-        <v>40</v>
+        <v>121111</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>521113</v>
+        <v>521112</v>
       </c>
       <c r="B298" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C298" s="4">
-        <v>121112</v>
+        <v>40</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>521114</v>
+        <v>521113</v>
       </c>
       <c r="B299" s="3">
-        <v>5000</v>
+        <v>5013</v>
       </c>
       <c r="C299" s="4">
-        <v>10</v>
+        <v>121112</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>521120</v>
+        <v>521114</v>
       </c>
       <c r="B300" s="3">
-        <v>5013</v>
+        <v>5000</v>
       </c>
       <c r="C300" s="4">
-        <v>121120</v>
+        <v>10</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>521121</v>
+        <v>521120</v>
       </c>
       <c r="B301" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C301" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D301" s="5">
-        <v>-4</v>
-      </c>
+        <v>121120</v>
+      </c>
+      <c r="D301" s="5"/>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>521122</v>
+        <v>521121</v>
       </c>
       <c r="B302" s="3">
-        <v>5003</v>
+        <v>5107</v>
       </c>
       <c r="C302" s="4">
-        <v>30</v>
-      </c>
-      <c r="D302" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D302" s="5">
+        <v>-4</v>
+      </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>521123</v>
+        <v>521122</v>
       </c>
       <c r="B303" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C303" s="4">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>521124</v>
+        <v>521123</v>
       </c>
       <c r="B304" s="3">
-        <v>5107</v>
+        <v>5000</v>
       </c>
       <c r="C304" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D304" s="5">
-        <v>-10</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="D304" s="5"/>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>521130</v>
+        <v>521124</v>
       </c>
       <c r="B305" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C305" s="4">
-        <v>121130</v>
-      </c>
-      <c r="D305" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D305" s="5">
+        <v>-10</v>
+      </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>521140</v>
+        <v>521130</v>
       </c>
       <c r="B306" s="3">
         <v>5013</v>
       </c>
       <c r="C306" s="4">
-        <v>121140</v>
+        <v>121130</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>521141</v>
+        <v>521140</v>
       </c>
       <c r="B307" s="3">
-        <v>5107</v>
+        <v>5013</v>
       </c>
       <c r="C307" s="4">
-        <v>60011</v>
-      </c>
-      <c r="D307" s="5">
-        <v>-4</v>
-      </c>
+        <v>121140</v>
+      </c>
+      <c r="D307" s="5"/>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>521150</v>
+        <v>521141</v>
       </c>
       <c r="B308" s="3">
-        <v>5013</v>
+        <v>5107</v>
       </c>
       <c r="C308" s="4">
-        <v>121150</v>
-      </c>
-      <c r="D308" s="5"/>
+        <v>60011</v>
+      </c>
+      <c r="D308" s="5">
+        <v>-4</v>
+      </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>521151</v>
+        <v>521150</v>
       </c>
       <c r="B309" s="3">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="C309" s="4">
-        <v>2</v>
+        <v>121150</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>521152</v>
+        <v>521151</v>
       </c>
       <c r="B310" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C310" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>521160</v>
+        <v>521152</v>
       </c>
       <c r="B311" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C311" s="4">
-        <v>121160</v>
+        <v>10</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>521170</v>
+        <v>521160</v>
       </c>
       <c r="B312" s="3">
         <v>5013</v>
       </c>
       <c r="C312" s="4">
-        <v>121170</v>
+        <v>121160</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>521180</v>
+        <v>521170</v>
       </c>
       <c r="B313" s="3">
         <v>5013</v>
       </c>
       <c r="C313" s="4">
-        <v>121180</v>
+        <v>121170</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>521181</v>
+        <v>521180</v>
       </c>
       <c r="B314" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C314" s="4">
-        <v>3</v>
+        <v>121180</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
+      <c r="A315" s="2">
+        <v>521181</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C315" s="4">
+        <v>3</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>530000</v>
-      </c>
-      <c r="B316" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C316" s="4">
-        <v>5</v>
-      </c>
-      <c r="D316" s="5"/>
-      <c r="E316" s="2"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>530001</v>
+        <v>530000</v>
       </c>
       <c r="B317" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C317" s="4">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>530002</v>
+        <v>530001</v>
       </c>
       <c r="B318" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C318" s="4">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>530003</v>
+        <v>530002</v>
       </c>
       <c r="B319" s="3">
         <v>5003</v>
@@ -4811,353 +4817,351 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>530010</v>
+        <v>530003</v>
       </c>
       <c r="B320" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C320" s="4">
-        <v>130010</v>
+        <v>-10</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>530011</v>
+        <v>530010</v>
       </c>
       <c r="B321" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C321" s="4">
-        <v>2</v>
+        <v>130010</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>530012</v>
+        <v>530011</v>
       </c>
       <c r="B322" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C322" s="4">
-        <v>-40</v>
+        <v>2</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>530020</v>
+        <v>530012</v>
       </c>
       <c r="B323" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C323" s="4">
-        <v>130020</v>
+        <v>-40</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>530021</v>
+        <v>530020</v>
       </c>
       <c r="B324" s="3">
-        <v>5009</v>
+        <v>5013</v>
       </c>
       <c r="C324" s="4">
-        <v>3</v>
+        <v>130020</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>530022</v>
+        <v>530021</v>
       </c>
       <c r="B325" s="3">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="C325" s="4">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>530030</v>
+        <v>530022</v>
       </c>
       <c r="B326" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C326" s="4">
-        <v>130030</v>
+        <v>-40</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>530031</v>
+        <v>530030</v>
       </c>
       <c r="B327" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C327" s="4">
-        <v>-20</v>
+        <v>130030</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>530040</v>
+        <v>530031</v>
       </c>
       <c r="B328" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C328" s="4">
-        <v>130040</v>
+        <v>-20</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>530041</v>
+        <v>530040</v>
       </c>
       <c r="B329" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C329" s="4">
-        <v>-20</v>
+        <v>130040</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>530050</v>
+        <v>530041</v>
       </c>
       <c r="B330" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C330" s="4">
-        <v>130050</v>
+        <v>-20</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>530051</v>
+        <v>530050</v>
       </c>
       <c r="B331" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C331" s="4">
-        <v>-20</v>
+        <v>130050</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>530060</v>
+        <v>530051</v>
       </c>
       <c r="B332" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C332" s="4">
-        <v>130060</v>
+        <v>-20</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>530061</v>
+        <v>530060</v>
       </c>
       <c r="B333" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C333" s="4">
-        <v>-20</v>
+        <v>130060</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>530070</v>
+        <v>530061</v>
       </c>
       <c r="B334" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C334" s="4">
-        <v>130070</v>
+        <v>-20</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>530071</v>
+        <v>530070</v>
       </c>
       <c r="B335" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C335" s="4">
-        <v>-20</v>
+        <v>130070</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>530080</v>
+        <v>530071</v>
       </c>
       <c r="B336" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C336" s="4">
-        <v>130080</v>
+        <v>-20</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>530081</v>
+        <v>530080</v>
       </c>
       <c r="B337" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C337" s="4">
-        <v>-20</v>
+        <v>130080</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>530090</v>
+        <v>530081</v>
       </c>
       <c r="B338" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C338" s="4">
-        <v>130090</v>
+        <v>-20</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>530091</v>
+        <v>530090</v>
       </c>
       <c r="B339" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C339" s="4">
-        <v>-20</v>
+        <v>130090</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>530100</v>
+        <v>530091</v>
       </c>
       <c r="B340" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C340" s="4">
-        <v>130100</v>
+        <v>-20</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>530101</v>
+        <v>530100</v>
       </c>
       <c r="B341" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C341" s="4">
-        <v>-20</v>
+        <v>130100</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>530110</v>
+        <v>530101</v>
       </c>
       <c r="B342" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C342" s="4">
-        <v>130110</v>
+        <v>-20</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>530111</v>
+        <v>530110</v>
       </c>
       <c r="B343" s="3">
-        <v>5003</v>
+        <v>5013</v>
       </c>
       <c r="C343" s="4">
-        <v>-20</v>
+        <v>130110</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>530120</v>
+        <v>530111</v>
       </c>
       <c r="B344" s="3">
-        <v>5013</v>
+        <v>5003</v>
       </c>
       <c r="C344" s="4">
-        <v>130120</v>
+        <v>-20</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>530121</v>
+        <v>530120</v>
       </c>
       <c r="B345" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C345" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D345" s="5">
-        <v>1</v>
-      </c>
+        <v>130120</v>
+      </c>
+      <c r="D345" s="5"/>
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>530122</v>
+        <v>530121</v>
       </c>
       <c r="B346" s="3">
         <v>5203</v>
       </c>
       <c r="C346" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D346" s="5">
         <v>1</v>
@@ -5166,13 +5170,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>530123</v>
+        <v>530122</v>
       </c>
       <c r="B347" s="3">
         <v>5203</v>
       </c>
       <c r="C347" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D347" s="5">
         <v>1</v>
@@ -5181,13 +5185,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>530124</v>
+        <v>530123</v>
       </c>
       <c r="B348" s="3">
         <v>5203</v>
       </c>
       <c r="C348" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D348" s="5">
         <v>1</v>
@@ -5196,41 +5200,41 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>530130</v>
+        <v>530124</v>
       </c>
       <c r="B349" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C349" s="4">
-        <v>130130</v>
-      </c>
-      <c r="D349" s="5"/>
+        <v>61004</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1</v>
+      </c>
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>530131</v>
+        <v>530130</v>
       </c>
       <c r="B350" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C350" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D350" s="5">
-        <v>1</v>
-      </c>
+        <v>130130</v>
+      </c>
+      <c r="D350" s="5"/>
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>530132</v>
+        <v>530131</v>
       </c>
       <c r="B351" s="3">
         <v>5200</v>
       </c>
       <c r="C351" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D351" s="5">
         <v>1</v>
@@ -5239,13 +5243,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>530133</v>
+        <v>530132</v>
       </c>
       <c r="B352" s="3">
         <v>5200</v>
       </c>
       <c r="C352" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D352" s="5">
         <v>1</v>
@@ -5254,13 +5258,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>530134</v>
+        <v>530133</v>
       </c>
       <c r="B353" s="3">
         <v>5200</v>
       </c>
       <c r="C353" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D353" s="5">
         <v>1</v>
@@ -5269,41 +5273,41 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>530140</v>
+        <v>530134</v>
       </c>
       <c r="B354" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C354" s="4">
-        <v>130140</v>
-      </c>
-      <c r="D354" s="5"/>
+        <v>61004</v>
+      </c>
+      <c r="D354" s="5">
+        <v>1</v>
+      </c>
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>530141</v>
+        <v>530140</v>
       </c>
       <c r="B355" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C355" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D355" s="5">
-        <v>1</v>
-      </c>
+        <v>130140</v>
+      </c>
+      <c r="D355" s="5"/>
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>530142</v>
+        <v>530141</v>
       </c>
       <c r="B356" s="3">
         <v>5206</v>
       </c>
       <c r="C356" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D356" s="5">
         <v>1</v>
@@ -5312,13 +5316,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>530143</v>
+        <v>530142</v>
       </c>
       <c r="B357" s="3">
         <v>5206</v>
       </c>
       <c r="C357" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D357" s="5">
         <v>1</v>
@@ -5327,13 +5331,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>530144</v>
+        <v>530143</v>
       </c>
       <c r="B358" s="3">
         <v>5206</v>
       </c>
       <c r="C358" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D358" s="5">
         <v>1</v>
@@ -5342,41 +5346,41 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>530150</v>
+        <v>530144</v>
       </c>
       <c r="B359" s="3">
-        <v>5013</v>
+        <v>5206</v>
       </c>
       <c r="C359" s="4">
-        <v>130150</v>
-      </c>
-      <c r="D359" s="5"/>
+        <v>61004</v>
+      </c>
+      <c r="D359" s="5">
+        <v>1</v>
+      </c>
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>530151</v>
+        <v>530150</v>
       </c>
       <c r="B360" s="3">
-        <v>5203</v>
+        <v>5013</v>
       </c>
       <c r="C360" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D360" s="5">
-        <v>1</v>
-      </c>
+        <v>130150</v>
+      </c>
+      <c r="D360" s="5"/>
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>530152</v>
+        <v>530151</v>
       </c>
       <c r="B361" s="3">
         <v>5203</v>
       </c>
       <c r="C361" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D361" s="5">
         <v>1</v>
@@ -5385,13 +5389,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>530153</v>
+        <v>530152</v>
       </c>
       <c r="B362" s="3">
         <v>5203</v>
       </c>
       <c r="C362" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D362" s="5">
         <v>1</v>
@@ -5400,13 +5404,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>530154</v>
+        <v>530153</v>
       </c>
       <c r="B363" s="3">
         <v>5203</v>
       </c>
       <c r="C363" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D363" s="5">
         <v>1</v>
@@ -5415,41 +5419,41 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>530160</v>
+        <v>530154</v>
       </c>
       <c r="B364" s="3">
-        <v>5013</v>
+        <v>5203</v>
       </c>
       <c r="C364" s="4">
-        <v>130160</v>
-      </c>
-      <c r="D364" s="5"/>
+        <v>61004</v>
+      </c>
+      <c r="D364" s="5">
+        <v>1</v>
+      </c>
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>530161</v>
+        <v>530160</v>
       </c>
       <c r="B365" s="3">
-        <v>5200</v>
+        <v>5013</v>
       </c>
       <c r="C365" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D365" s="5">
-        <v>1</v>
-      </c>
+        <v>130160</v>
+      </c>
+      <c r="D365" s="5"/>
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>530162</v>
+        <v>530161</v>
       </c>
       <c r="B366" s="3">
         <v>5200</v>
       </c>
       <c r="C366" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D366" s="5">
         <v>1</v>
@@ -5458,13 +5462,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>530163</v>
+        <v>530162</v>
       </c>
       <c r="B367" s="3">
         <v>5200</v>
       </c>
       <c r="C367" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D367" s="5">
         <v>1</v>
@@ -5473,13 +5477,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>530164</v>
+        <v>530163</v>
       </c>
       <c r="B368" s="3">
         <v>5200</v>
       </c>
       <c r="C368" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D368" s="5">
         <v>1</v>
@@ -5488,41 +5492,41 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
-        <v>530170</v>
+        <v>530164</v>
       </c>
       <c r="B369" s="3">
-        <v>5013</v>
+        <v>5200</v>
       </c>
       <c r="C369" s="4">
-        <v>130170</v>
-      </c>
-      <c r="D369" s="5"/>
+        <v>61004</v>
+      </c>
+      <c r="D369" s="5">
+        <v>1</v>
+      </c>
       <c r="E369" s="2"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
-        <v>530171</v>
+        <v>530170</v>
       </c>
       <c r="B370" s="3">
-        <v>5206</v>
+        <v>5013</v>
       </c>
       <c r="C370" s="4">
-        <v>61001</v>
-      </c>
-      <c r="D370" s="5">
-        <v>1</v>
-      </c>
+        <v>130170</v>
+      </c>
+      <c r="D370" s="5"/>
       <c r="E370" s="2"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
-        <v>530172</v>
+        <v>530171</v>
       </c>
       <c r="B371" s="3">
         <v>5206</v>
       </c>
       <c r="C371" s="4">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="D371" s="5">
         <v>1</v>
@@ -5531,13 +5535,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>530173</v>
+        <v>530172</v>
       </c>
       <c r="B372" s="3">
         <v>5206</v>
       </c>
       <c r="C372" s="4">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="D372" s="5">
         <v>1</v>
@@ -5546,13 +5550,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
-        <v>530174</v>
+        <v>530173</v>
       </c>
       <c r="B373" s="3">
         <v>5206</v>
       </c>
       <c r="C373" s="4">
-        <v>61004</v>
+        <v>61003</v>
       </c>
       <c r="D373" s="5">
         <v>1</v>
@@ -5560,201 +5564,209 @@
       <c r="E373" s="2"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
+      <c r="A374" s="2">
+        <v>530174</v>
+      </c>
+      <c r="B374" s="3">
+        <v>5206</v>
+      </c>
+      <c r="C374" s="4">
+        <v>61004</v>
+      </c>
+      <c r="D374" s="5">
+        <v>1</v>
+      </c>
+      <c r="E374" s="2"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B375" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C375" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D375" s="5"/>
-      <c r="E375" s="2"/>
+      <c r="A375" s="6"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B376" s="3">
         <v>5006</v>
       </c>
       <c r="C376" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="2"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B377" s="3">
         <v>5006</v>
       </c>
       <c r="C377" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="2"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B378" s="3">
         <v>5006</v>
       </c>
       <c r="C378" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="2"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
-        <v>550010</v>
+        <v>550003</v>
       </c>
       <c r="B379" s="3">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C379" s="4">
-        <v>30</v>
+        <v>-8</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="2"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>550011</v>
+        <v>550010</v>
       </c>
       <c r="B380" s="3">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C380" s="4">
-        <v>-20</v>
+        <v>30</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="2"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
-        <v>550012</v>
+        <v>550011</v>
       </c>
       <c r="B381" s="3">
         <v>5000</v>
       </c>
       <c r="C381" s="4">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="2"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
+      <c r="A382" s="2">
+        <v>550012</v>
+      </c>
+      <c r="B382" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C382" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D382" s="5"/>
+      <c r="E382" s="2"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="2">
-        <v>550020</v>
-      </c>
-      <c r="B383" s="3">
-        <v>5022</v>
-      </c>
-      <c r="C383" s="4">
-        <v>73000</v>
-      </c>
-      <c r="D383" s="5"/>
-      <c r="E383" s="2"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
-        <v>550021</v>
+        <v>550020</v>
       </c>
       <c r="B384" s="3">
         <v>5022</v>
       </c>
       <c r="C384" s="4">
-        <v>73001</v>
+        <v>73000</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="2"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>550022</v>
+        <v>550021</v>
       </c>
       <c r="B385" s="3">
         <v>5022</v>
       </c>
       <c r="C385" s="4">
-        <v>73002</v>
+        <v>73001</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="2"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>550023</v>
+        <v>550022</v>
       </c>
       <c r="B386" s="3">
         <v>5022</v>
       </c>
       <c r="C386" s="4">
-        <v>73003</v>
+        <v>73002</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="2"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
-        <v>550024</v>
+        <v>550023</v>
       </c>
       <c r="B387" s="3">
         <v>5022</v>
       </c>
       <c r="C387" s="4">
-        <v>73004</v>
+        <v>73003</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="2"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
+      <c r="A388" s="2">
+        <v>550024</v>
+      </c>
+      <c r="B388" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C388" s="4">
+        <v>73004</v>
+      </c>
+      <c r="D388" s="5"/>
+      <c r="E388" s="2"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="2">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
         <v>559000</v>
       </c>
-      <c r="B389" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C389" s="4">
+      <c r="B390" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C390" s="4">
         <v>559000</v>
       </c>
-      <c r="D389" s="5"/>
-      <c r="E389" s="2"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="6"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="2"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
@@ -5764,96 +5776,90 @@
       <c r="E391" s="6"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="2">
-        <v>550000</v>
-      </c>
-      <c r="B392" s="3">
-        <v>5006</v>
-      </c>
-      <c r="C392" s="4">
-        <v>-2</v>
-      </c>
-      <c r="D392" s="5"/>
-      <c r="E392" s="2"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>550001</v>
+        <v>550000</v>
       </c>
       <c r="B393" s="3">
         <v>5006</v>
       </c>
       <c r="C393" s="4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="2"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>550002</v>
+        <v>550001</v>
       </c>
       <c r="B394" s="3">
         <v>5006</v>
       </c>
       <c r="C394" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="2"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>550003</v>
+        <v>550002</v>
       </c>
       <c r="B395" s="3">
         <v>5006</v>
       </c>
       <c r="C395" s="4">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="2"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="6"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
+      <c r="A396" s="2">
+        <v>550003</v>
+      </c>
+      <c r="B396" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C396" s="4">
+        <v>-8</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="2"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="2">
+      <c r="A397" s="6"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
         <v>559000</v>
       </c>
-      <c r="B397" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C397" s="4">
+      <c r="B398" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C398" s="4">
         <v>559000</v>
       </c>
-      <c r="D397" s="5"/>
-      <c r="E397" s="2"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>540000</v>
-      </c>
-      <c r="B400" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C400" s="4">
-        <v>50</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="2"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="2"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>540001</v>
+        <v>540000</v>
       </c>
       <c r="B401" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C401" s="4">
         <v>50</v>
@@ -5863,10 +5869,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>540002</v>
+        <v>540001</v>
       </c>
       <c r="B402" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C402" s="4">
         <v>50</v>
@@ -5876,23 +5882,23 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>540010</v>
+        <v>540002</v>
       </c>
       <c r="B403" s="3">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="C403" s="4">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="2"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>540011</v>
+        <v>540010</v>
       </c>
       <c r="B404" s="3">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="C404" s="4">
         <v>-50</v>
@@ -5902,10 +5908,10 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>540012</v>
+        <v>540011</v>
       </c>
       <c r="B405" s="3">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="C405" s="4">
         <v>-50</v>
@@ -5913,251 +5919,249 @@
       <c r="D405" s="5"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>540020</v>
-      </c>
-      <c r="B407" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C407" s="4">
-        <v>140020</v>
-      </c>
-      <c r="D407" s="5"/>
-      <c r="E407" s="2"/>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>540012</v>
+      </c>
+      <c r="B406" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C406" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D406" s="5"/>
+      <c r="E406" s="2"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
-        <v>540021</v>
+        <v>540020</v>
       </c>
       <c r="B408" s="3">
-        <v>5302</v>
-      </c>
-      <c r="C408" s="4"/>
+        <v>5013</v>
+      </c>
+      <c r="C408" s="4">
+        <v>140020</v>
+      </c>
       <c r="D408" s="5"/>
       <c r="E408" s="2"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
-        <v>540030</v>
+        <v>540021</v>
       </c>
       <c r="B409" s="3">
-        <v>5013</v>
-      </c>
-      <c r="C409" s="4">
-        <v>140030</v>
-      </c>
+        <v>5302</v>
+      </c>
+      <c r="C409" s="4"/>
       <c r="D409" s="5"/>
       <c r="E409" s="2"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
-        <v>540040</v>
+        <v>540030</v>
       </c>
       <c r="B410" s="3">
         <v>5013</v>
       </c>
       <c r="C410" s="4">
-        <v>140040</v>
+        <v>140030</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="2"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
-        <v>540041</v>
+        <v>540040</v>
       </c>
       <c r="B411" s="3">
-        <v>5303</v>
+        <v>5013</v>
       </c>
       <c r="C411" s="4">
-        <v>101</v>
-      </c>
-      <c r="D411" s="5">
-        <v>72000</v>
-      </c>
+        <v>140040</v>
+      </c>
+      <c r="D411" s="5"/>
       <c r="E411" s="2"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
-        <v>540100</v>
+        <v>540041</v>
       </c>
       <c r="B412" s="3">
-        <v>5300</v>
+        <v>5303</v>
       </c>
       <c r="C412" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D412" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="D412" s="5">
+        <v>72000</v>
+      </c>
       <c r="E412" s="2"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
-        <v>540101</v>
+        <v>540100</v>
       </c>
       <c r="B413" s="3">
         <v>5300</v>
       </c>
       <c r="C413" s="4">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="2"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
-        <v>540102</v>
+        <v>540101</v>
       </c>
       <c r="B414" s="3">
         <v>5300</v>
       </c>
       <c r="C414" s="4">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="2"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
-        <v>540103</v>
+        <v>540102</v>
       </c>
       <c r="B415" s="3">
         <v>5300</v>
       </c>
       <c r="C415" s="4">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="2"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
-        <v>540104</v>
+        <v>540103</v>
       </c>
       <c r="B416" s="3">
         <v>5300</v>
       </c>
       <c r="C416" s="4">
-        <v>60004</v>
+        <v>60003</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="2"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>540105</v>
+        <v>540104</v>
       </c>
       <c r="B417" s="3">
         <v>5300</v>
       </c>
       <c r="C417" s="4">
-        <v>60005</v>
+        <v>60004</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="2"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
-        <v>540106</v>
+        <v>540105</v>
       </c>
       <c r="B418" s="3">
         <v>5300</v>
       </c>
       <c r="C418" s="4">
-        <v>60006</v>
+        <v>60005</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="2"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
-        <v>540107</v>
+        <v>540106</v>
       </c>
       <c r="B419" s="3">
         <v>5300</v>
       </c>
       <c r="C419" s="4">
-        <v>60007</v>
+        <v>60006</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="2"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
-        <v>540108</v>
+        <v>540107</v>
       </c>
       <c r="B420" s="3">
         <v>5300</v>
       </c>
       <c r="C420" s="4">
-        <v>60008</v>
+        <v>60007</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="2"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
-        <v>540109</v>
+        <v>540108</v>
       </c>
       <c r="B421" s="3">
         <v>5300</v>
       </c>
       <c r="C421" s="4">
-        <v>60009</v>
+        <v>60008</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="2"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>540110</v>
+        <v>540109</v>
       </c>
       <c r="B422" s="3">
         <v>5300</v>
       </c>
       <c r="C422" s="4">
-        <v>60010</v>
+        <v>60009</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="2"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
-        <v>540111</v>
+        <v>540110</v>
       </c>
       <c r="B423" s="3">
         <v>5300</v>
       </c>
       <c r="C423" s="4">
-        <v>60011</v>
+        <v>60010</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="2"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>540120</v>
+        <v>540111</v>
       </c>
       <c r="B424" s="3">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="C424" s="4">
-        <v>100</v>
-      </c>
-      <c r="D424" s="5">
-        <v>0</v>
-      </c>
+        <v>60011</v>
+      </c>
+      <c r="D424" s="5"/>
       <c r="E424" s="2"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
-        <v>540121</v>
+        <v>540120</v>
       </c>
       <c r="B425" s="3">
         <v>5301</v>
       </c>
       <c r="C425" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D425" s="5">
         <v>0</v>
@@ -6166,13 +6170,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>540122</v>
+        <v>540121</v>
       </c>
       <c r="B426" s="3">
         <v>5301</v>
       </c>
       <c r="C426" s="4">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="D426" s="5">
         <v>0</v>
@@ -6181,13 +6185,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>540123</v>
+        <v>540122</v>
       </c>
       <c r="B427" s="3">
         <v>5301</v>
       </c>
       <c r="C427" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D427" s="5">
         <v>0</v>
@@ -6196,13 +6200,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>540124</v>
+        <v>540123</v>
       </c>
       <c r="B428" s="3">
         <v>5301</v>
       </c>
       <c r="C428" s="4">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D428" s="5">
         <v>0</v>
@@ -6211,13 +6215,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
-        <v>540125</v>
+        <v>540124</v>
       </c>
       <c r="B429" s="3">
         <v>5301</v>
       </c>
       <c r="C429" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D429" s="5">
         <v>0</v>
@@ -6226,13 +6230,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>540126</v>
+        <v>540125</v>
       </c>
       <c r="B430" s="3">
         <v>5301</v>
       </c>
       <c r="C430" s="4">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D430" s="5">
         <v>0</v>
@@ -6241,13 +6245,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
-        <v>540127</v>
+        <v>540126</v>
       </c>
       <c r="B431" s="3">
         <v>5301</v>
       </c>
       <c r="C431" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D431" s="5">
         <v>0</v>
@@ -6256,13 +6260,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>540128</v>
+        <v>540127</v>
       </c>
       <c r="B432" s="3">
         <v>5301</v>
       </c>
       <c r="C432" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D432" s="5">
         <v>0</v>
@@ -6271,13 +6275,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
-        <v>540129</v>
+        <v>540128</v>
       </c>
       <c r="B433" s="3">
         <v>5301</v>
       </c>
       <c r="C433" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D433" s="5">
         <v>0</v>
@@ -6286,13 +6290,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
-        <v>540130</v>
+        <v>540129</v>
       </c>
       <c r="B434" s="3">
         <v>5301</v>
       </c>
       <c r="C434" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D434" s="5">
         <v>0</v>
@@ -6301,13 +6305,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
-        <v>540131</v>
+        <v>540130</v>
       </c>
       <c r="B435" s="3">
         <v>5301</v>
       </c>
       <c r="C435" s="4">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="D435" s="5">
         <v>0</v>
@@ -6316,13 +6320,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>540132</v>
+        <v>540131</v>
       </c>
       <c r="B436" s="3">
         <v>5301</v>
       </c>
       <c r="C436" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D436" s="5">
         <v>0</v>
@@ -6331,13 +6335,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>540133</v>
+        <v>540132</v>
       </c>
       <c r="B437" s="3">
         <v>5301</v>
       </c>
       <c r="C437" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D437" s="5">
         <v>0</v>
@@ -6346,13 +6350,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
-        <v>540134</v>
+        <v>540133</v>
       </c>
       <c r="B438" s="3">
         <v>5301</v>
       </c>
       <c r="C438" s="4">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="D438" s="5">
         <v>0</v>
@@ -6361,13 +6365,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>540135</v>
+        <v>540134</v>
       </c>
       <c r="B439" s="3">
         <v>5301</v>
       </c>
       <c r="C439" s="4">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D439" s="5">
         <v>0</v>
@@ -6376,13 +6380,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
-        <v>540136</v>
+        <v>540135</v>
       </c>
       <c r="B440" s="3">
         <v>5301</v>
       </c>
       <c r="C440" s="4">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="D440" s="5">
         <v>0</v>
@@ -6391,13 +6395,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
-        <v>540137</v>
+        <v>540136</v>
       </c>
       <c r="B441" s="3">
         <v>5301</v>
       </c>
       <c r="C441" s="4">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D441" s="5">
         <v>0</v>
@@ -6406,18 +6410,33 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>540138</v>
+        <v>540137</v>
       </c>
       <c r="B442" s="3">
         <v>5301</v>
       </c>
       <c r="C442" s="4">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D442" s="5">
         <v>0</v>
       </c>
       <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>540138</v>
+      </c>
+      <c r="B443" s="3">
+        <v>5301</v>
+      </c>
+      <c r="C443" s="4">
+        <v>702</v>
+      </c>
+      <c r="D443" s="5">
+        <v>0</v>
+      </c>
+      <c r="E443" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
